--- a/data/final/data_prepped_FINAL_CAR_gpdg_pcp.xlsx
+++ b/data/final/data_prepped_FINAL_CAR_gpdg_pcp.xlsx
@@ -11711,9 +11711,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -11749,9 +11748,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12309,7 +12309,7 @@
       <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>38392</v>
       </c>
       <c r="C2" t="s">
@@ -12411,16 +12411,16 @@
       <c r="AI2" t="s">
         <v>111</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>38371</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="2" t="n">
         <v>38413</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="2" t="n">
         <v>38020</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="2" t="n">
         <v>38370</v>
       </c>
       <c r="AN2" t="s">
@@ -12567,7 +12567,7 @@
       <c r="A3" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>38405</v>
       </c>
       <c r="C3" t="s">
@@ -12669,16 +12669,16 @@
       <c r="AI3" t="s">
         <v>127</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AK3" s="2" t="n">
         <v>38426</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AL3" s="2" t="n">
         <v>38033</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="2" t="n">
         <v>38383</v>
       </c>
       <c r="AN3" t="s">
@@ -12825,7 +12825,7 @@
       <c r="A4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>38552</v>
       </c>
       <c r="C4" t="s">
@@ -12927,16 +12927,16 @@
       <c r="AI4" t="s">
         <v>142</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>38531</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AK4" s="2" t="n">
         <v>38573</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="AL4" s="2" t="n">
         <v>38180</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AM4" s="2" t="n">
         <v>38530</v>
       </c>
       <c r="AN4" t="s">
@@ -13083,7 +13083,7 @@
       <c r="A5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>38565</v>
       </c>
       <c r="C5" t="s">
@@ -13185,16 +13185,16 @@
       <c r="AI5" t="s">
         <v>161</v>
       </c>
-      <c r="AJ5" s="1" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>38544</v>
       </c>
-      <c r="AK5" s="1" t="n">
+      <c r="AK5" s="2" t="n">
         <v>38586</v>
       </c>
-      <c r="AL5" s="1" t="n">
+      <c r="AL5" s="2" t="n">
         <v>38191</v>
       </c>
-      <c r="AM5" s="1" t="n">
+      <c r="AM5" s="2" t="n">
         <v>38541</v>
       </c>
       <c r="AN5" t="s">
@@ -13339,7 +13339,7 @@
       <c r="A6" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>38629</v>
       </c>
       <c r="C6" t="s">
@@ -13441,16 +13441,16 @@
       <c r="AI6" t="s">
         <v>178</v>
       </c>
-      <c r="AJ6" s="1" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>38608</v>
       </c>
-      <c r="AK6" s="1" t="n">
+      <c r="AK6" s="2" t="n">
         <v>38650</v>
       </c>
-      <c r="AL6" s="1" t="n">
+      <c r="AL6" s="2" t="n">
         <v>38257</v>
       </c>
-      <c r="AM6" s="1" t="n">
+      <c r="AM6" s="2" t="n">
         <v>38607</v>
       </c>
       <c r="AN6" t="s">
@@ -13597,7 +13597,7 @@
       <c r="A7" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>38639</v>
       </c>
       <c r="C7" t="s">
@@ -13699,16 +13699,16 @@
       <c r="AI7" t="s">
         <v>193</v>
       </c>
-      <c r="AJ7" s="1" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>38618</v>
       </c>
-      <c r="AK7" s="1" t="n">
+      <c r="AK7" s="2" t="n">
         <v>38660</v>
       </c>
-      <c r="AL7" s="1" t="n">
+      <c r="AL7" s="2" t="n">
         <v>38267</v>
       </c>
-      <c r="AM7" s="1" t="n">
+      <c r="AM7" s="2" t="n">
         <v>38617</v>
       </c>
       <c r="AN7" t="s">
@@ -13855,7 +13855,7 @@
       <c r="A8" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>38674</v>
       </c>
       <c r="C8" t="s">
@@ -13957,16 +13957,16 @@
       <c r="AI8" t="s">
         <v>207</v>
       </c>
-      <c r="AJ8" s="1" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>38653</v>
       </c>
-      <c r="AK8" s="1" t="n">
+      <c r="AK8" s="2" t="n">
         <v>38695</v>
       </c>
-      <c r="AL8" s="1" t="n">
+      <c r="AL8" s="2" t="n">
         <v>38302</v>
       </c>
-      <c r="AM8" s="1" t="n">
+      <c r="AM8" s="2" t="n">
         <v>38652</v>
       </c>
       <c r="AN8" t="s">
@@ -14113,7 +14113,7 @@
       <c r="A9" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>38709</v>
       </c>
       <c r="C9" t="s">
@@ -14215,16 +14215,16 @@
       <c r="AI9" t="s">
         <v>222</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>38688</v>
       </c>
-      <c r="AK9" s="1" t="n">
+      <c r="AK9" s="2" t="n">
         <v>38730</v>
       </c>
-      <c r="AL9" s="1" t="n">
+      <c r="AL9" s="2" t="n">
         <v>38337</v>
       </c>
-      <c r="AM9" s="1" t="n">
+      <c r="AM9" s="2" t="n">
         <v>38687</v>
       </c>
       <c r="AN9" t="s">
@@ -14371,7 +14371,7 @@
       <c r="A10" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>38799</v>
       </c>
       <c r="C10" t="s">
@@ -14473,16 +14473,16 @@
       <c r="AI10" t="s">
         <v>237</v>
       </c>
-      <c r="AJ10" s="1" t="n">
+      <c r="AJ10" s="2" t="n">
         <v>38778</v>
       </c>
-      <c r="AK10" s="1" t="n">
+      <c r="AK10" s="2" t="n">
         <v>38820</v>
       </c>
-      <c r="AL10" s="1" t="n">
+      <c r="AL10" s="2" t="n">
         <v>38427</v>
       </c>
-      <c r="AM10" s="1" t="n">
+      <c r="AM10" s="2" t="n">
         <v>38777</v>
       </c>
       <c r="AN10" t="s">
@@ -14629,7 +14629,7 @@
       <c r="A11" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>38852</v>
       </c>
       <c r="C11" t="s">
@@ -14731,16 +14731,16 @@
       <c r="AI11" t="s">
         <v>250</v>
       </c>
-      <c r="AJ11" s="1" t="n">
+      <c r="AJ11" s="2" t="n">
         <v>38831</v>
       </c>
-      <c r="AK11" s="1" t="n">
+      <c r="AK11" s="2" t="n">
         <v>38873</v>
       </c>
-      <c r="AL11" s="1" t="n">
+      <c r="AL11" s="2" t="n">
         <v>38478</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AM11" s="2" t="n">
         <v>38828</v>
       </c>
       <c r="AN11" t="s">
@@ -14887,7 +14887,7 @@
       <c r="A12" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>38860</v>
       </c>
       <c r="C12" t="s">
@@ -14989,16 +14989,16 @@
       <c r="AI12" t="s">
         <v>267</v>
       </c>
-      <c r="AJ12" s="1" t="n">
+      <c r="AJ12" s="2" t="n">
         <v>38839</v>
       </c>
-      <c r="AK12" s="1" t="n">
+      <c r="AK12" s="2" t="n">
         <v>38881</v>
       </c>
-      <c r="AL12" s="1" t="n">
+      <c r="AL12" s="2" t="n">
         <v>38488</v>
       </c>
-      <c r="AM12" s="1" t="n">
+      <c r="AM12" s="2" t="n">
         <v>38838</v>
       </c>
       <c r="AN12" t="s">
@@ -15145,7 +15145,7 @@
       <c r="A13" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>38862</v>
       </c>
       <c r="C13" t="s">
@@ -15247,16 +15247,16 @@
       <c r="AI13" t="s">
         <v>283</v>
       </c>
-      <c r="AJ13" s="1" t="n">
+      <c r="AJ13" s="2" t="n">
         <v>38841</v>
       </c>
-      <c r="AK13" s="1" t="n">
+      <c r="AK13" s="2" t="n">
         <v>38883</v>
       </c>
-      <c r="AL13" s="1" t="n">
+      <c r="AL13" s="2" t="n">
         <v>38490</v>
       </c>
-      <c r="AM13" s="1" t="n">
+      <c r="AM13" s="2" t="n">
         <v>38840</v>
       </c>
       <c r="AN13" t="s">
@@ -15401,7 +15401,7 @@
       <c r="A14" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>38951</v>
       </c>
       <c r="C14" t="s">
@@ -15503,16 +15503,16 @@
       <c r="AI14" t="s">
         <v>296</v>
       </c>
-      <c r="AJ14" s="1" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="AK14" s="1" t="n">
+      <c r="AK14" s="2" t="n">
         <v>38972</v>
       </c>
-      <c r="AL14" s="1" t="n">
+      <c r="AL14" s="2" t="n">
         <v>38579</v>
       </c>
-      <c r="AM14" s="1" t="n">
+      <c r="AM14" s="2" t="n">
         <v>38929</v>
       </c>
       <c r="AN14" t="s">
@@ -15657,7 +15657,7 @@
       <c r="A15" t="s">
         <v>297</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>38981</v>
       </c>
       <c r="C15" t="s">
@@ -15759,16 +15759,16 @@
       <c r="AI15" t="s">
         <v>309</v>
       </c>
-      <c r="AJ15" s="1" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>38960</v>
       </c>
-      <c r="AK15" s="1" t="n">
+      <c r="AK15" s="2" t="n">
         <v>39002</v>
       </c>
-      <c r="AL15" s="1" t="n">
+      <c r="AL15" s="2" t="n">
         <v>38609</v>
       </c>
-      <c r="AM15" s="1" t="n">
+      <c r="AM15" s="2" t="n">
         <v>38959</v>
       </c>
       <c r="AN15" t="s">
@@ -15915,7 +15915,7 @@
       <c r="A16" t="s">
         <v>310</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>38985</v>
       </c>
       <c r="C16" t="s">
@@ -16017,16 +16017,16 @@
       <c r="AI16" t="s">
         <v>325</v>
       </c>
-      <c r="AJ16" s="1" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>38964</v>
       </c>
-      <c r="AK16" s="1" t="n">
+      <c r="AK16" s="2" t="n">
         <v>39006</v>
       </c>
-      <c r="AL16" s="1" t="n">
+      <c r="AL16" s="2" t="n">
         <v>38611</v>
       </c>
-      <c r="AM16" s="1" t="n">
+      <c r="AM16" s="2" t="n">
         <v>38961</v>
       </c>
       <c r="AN16" t="s">
@@ -16173,7 +16173,7 @@
       <c r="A17" t="s">
         <v>326</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>39034</v>
       </c>
       <c r="C17" t="s">
@@ -16275,16 +16275,16 @@
       <c r="AI17" t="s">
         <v>340</v>
       </c>
-      <c r="AJ17" s="1" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>39013</v>
       </c>
-      <c r="AK17" s="1" t="n">
+      <c r="AK17" s="2" t="n">
         <v>39055</v>
       </c>
-      <c r="AL17" s="1" t="n">
+      <c r="AL17" s="2" t="n">
         <v>38660</v>
       </c>
-      <c r="AM17" s="1" t="n">
+      <c r="AM17" s="2" t="n">
         <v>39010</v>
       </c>
       <c r="AN17" t="s">
@@ -16431,7 +16431,7 @@
       <c r="A18" t="s">
         <v>341</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>39059</v>
       </c>
       <c r="C18" t="s">
@@ -16533,16 +16533,16 @@
       <c r="AI18" t="s">
         <v>354</v>
       </c>
-      <c r="AJ18" s="1" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>39038</v>
       </c>
-      <c r="AK18" s="1" t="n">
+      <c r="AK18" s="2" t="n">
         <v>39080</v>
       </c>
-      <c r="AL18" s="1" t="n">
+      <c r="AL18" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="AM18" s="1" t="n">
+      <c r="AM18" s="2" t="n">
         <v>39037</v>
       </c>
       <c r="AN18" t="s">
@@ -16689,7 +16689,7 @@
       <c r="A19" t="s">
         <v>355</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>39059</v>
       </c>
       <c r="C19" t="s">
@@ -16791,16 +16791,16 @@
       <c r="AI19" t="s">
         <v>369</v>
       </c>
-      <c r="AJ19" s="1" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>39038</v>
       </c>
-      <c r="AK19" s="1" t="n">
+      <c r="AK19" s="2" t="n">
         <v>39080</v>
       </c>
-      <c r="AL19" s="1" t="n">
+      <c r="AL19" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="AM19" s="1" t="n">
+      <c r="AM19" s="2" t="n">
         <v>39037</v>
       </c>
       <c r="AN19" t="s">
@@ -16947,7 +16947,7 @@
       <c r="A20" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>39104</v>
       </c>
       <c r="C20" t="s">
@@ -17049,16 +17049,16 @@
       <c r="AI20" t="s">
         <v>384</v>
       </c>
-      <c r="AJ20" s="1" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="AK20" s="1" t="n">
+      <c r="AK20" s="2" t="n">
         <v>39125</v>
       </c>
-      <c r="AL20" s="1" t="n">
+      <c r="AL20" s="2" t="n">
         <v>38730</v>
       </c>
-      <c r="AM20" s="1" t="n">
+      <c r="AM20" s="2" t="n">
         <v>39080</v>
       </c>
       <c r="AN20" t="s">
@@ -17205,7 +17205,7 @@
       <c r="A21" t="s">
         <v>385</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>39113</v>
       </c>
       <c r="C21" t="s">
@@ -17307,16 +17307,16 @@
       <c r="AI21" t="s">
         <v>397</v>
       </c>
-      <c r="AJ21" s="1" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>39092</v>
       </c>
-      <c r="AK21" s="1" t="n">
+      <c r="AK21" s="2" t="n">
         <v>39134</v>
       </c>
-      <c r="AL21" s="1" t="n">
+      <c r="AL21" s="2" t="n">
         <v>38741</v>
       </c>
-      <c r="AM21" s="1" t="n">
+      <c r="AM21" s="2" t="n">
         <v>39091</v>
       </c>
       <c r="AN21" t="s">
@@ -17463,7 +17463,7 @@
       <c r="A22" t="s">
         <v>398</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>39153</v>
       </c>
       <c r="C22" t="s">
@@ -17565,16 +17565,16 @@
       <c r="AI22" t="s">
         <v>411</v>
       </c>
-      <c r="AJ22" s="1" t="n">
+      <c r="AJ22" s="2" t="n">
         <v>39132</v>
       </c>
-      <c r="AK22" s="1" t="n">
+      <c r="AK22" s="2" t="n">
         <v>39174</v>
       </c>
-      <c r="AL22" s="1" t="n">
+      <c r="AL22" s="2" t="n">
         <v>38779</v>
       </c>
-      <c r="AM22" s="1" t="n">
+      <c r="AM22" s="2" t="n">
         <v>39129</v>
       </c>
       <c r="AN22" t="s">
@@ -17719,7 +17719,7 @@
       <c r="A23" t="s">
         <v>412</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>39153</v>
       </c>
       <c r="C23" t="s">
@@ -17821,16 +17821,16 @@
       <c r="AI23" t="s">
         <v>425</v>
       </c>
-      <c r="AJ23" s="1" t="n">
+      <c r="AJ23" s="2" t="n">
         <v>39132</v>
       </c>
-      <c r="AK23" s="1" t="n">
+      <c r="AK23" s="2" t="n">
         <v>39174</v>
       </c>
-      <c r="AL23" s="1" t="n">
+      <c r="AL23" s="2" t="n">
         <v>38779</v>
       </c>
-      <c r="AM23" s="1" t="n">
+      <c r="AM23" s="2" t="n">
         <v>39129</v>
       </c>
       <c r="AN23" t="s">
@@ -17975,7 +17975,7 @@
       <c r="A24" t="s">
         <v>426</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>39164</v>
       </c>
       <c r="C24" t="s">
@@ -18077,16 +18077,16 @@
       <c r="AI24" t="s">
         <v>440</v>
       </c>
-      <c r="AJ24" s="1" t="n">
+      <c r="AJ24" s="2" t="n">
         <v>39143</v>
       </c>
-      <c r="AK24" s="1" t="n">
+      <c r="AK24" s="2" t="n">
         <v>39185</v>
       </c>
-      <c r="AL24" s="1" t="n">
+      <c r="AL24" s="2" t="n">
         <v>38792</v>
       </c>
-      <c r="AM24" s="1" t="n">
+      <c r="AM24" s="2" t="n">
         <v>39142</v>
       </c>
       <c r="AN24" t="s">
@@ -18231,7 +18231,7 @@
       <c r="A25" t="s">
         <v>441</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>39170</v>
       </c>
       <c r="C25" t="s">
@@ -18333,16 +18333,16 @@
       <c r="AI25" t="s">
         <v>455</v>
       </c>
-      <c r="AJ25" s="1" t="n">
+      <c r="AJ25" s="2" t="n">
         <v>39149</v>
       </c>
-      <c r="AK25" s="1" t="n">
+      <c r="AK25" s="2" t="n">
         <v>39191</v>
       </c>
-      <c r="AL25" s="1" t="n">
+      <c r="AL25" s="2" t="n">
         <v>38798</v>
       </c>
-      <c r="AM25" s="1" t="n">
+      <c r="AM25" s="2" t="n">
         <v>39148</v>
       </c>
       <c r="AN25" t="s">
@@ -18489,7 +18489,7 @@
       <c r="A26" t="s">
         <v>456</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>39192</v>
       </c>
       <c r="C26" t="s">
@@ -18591,16 +18591,16 @@
       <c r="AI26" t="s">
         <v>468</v>
       </c>
-      <c r="AJ26" s="1" t="n">
+      <c r="AJ26" s="2" t="n">
         <v>39171</v>
       </c>
-      <c r="AK26" s="1" t="n">
+      <c r="AK26" s="2" t="n">
         <v>39213</v>
       </c>
-      <c r="AL26" s="1" t="n">
+      <c r="AL26" s="2" t="n">
         <v>38820</v>
       </c>
-      <c r="AM26" s="1" t="n">
+      <c r="AM26" s="2" t="n">
         <v>39170</v>
       </c>
       <c r="AN26" t="s">
@@ -18747,7 +18747,7 @@
       <c r="A27" t="s">
         <v>469</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>39197</v>
       </c>
       <c r="C27" t="s">
@@ -18849,16 +18849,16 @@
       <c r="AI27" t="s">
         <v>480</v>
       </c>
-      <c r="AJ27" s="1" t="n">
+      <c r="AJ27" s="2" t="n">
         <v>39176</v>
       </c>
-      <c r="AK27" s="1" t="n">
+      <c r="AK27" s="2" t="n">
         <v>39218</v>
       </c>
-      <c r="AL27" s="1" t="n">
+      <c r="AL27" s="2" t="n">
         <v>38825</v>
       </c>
-      <c r="AM27" s="1" t="n">
+      <c r="AM27" s="2" t="n">
         <v>39175</v>
       </c>
       <c r="AN27" t="s">
@@ -19003,7 +19003,7 @@
       <c r="A28" t="s">
         <v>481</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>39373</v>
       </c>
       <c r="C28" t="s">
@@ -19105,16 +19105,16 @@
       <c r="AI28" t="s">
         <v>493</v>
       </c>
-      <c r="AJ28" s="1" t="n">
+      <c r="AJ28" s="2" t="n">
         <v>39352</v>
       </c>
-      <c r="AK28" s="1" t="n">
+      <c r="AK28" s="2" t="n">
         <v>39394</v>
       </c>
-      <c r="AL28" s="1" t="n">
+      <c r="AL28" s="2" t="n">
         <v>39001</v>
       </c>
-      <c r="AM28" s="1" t="n">
+      <c r="AM28" s="2" t="n">
         <v>39351</v>
       </c>
       <c r="AN28" t="s">
@@ -19261,7 +19261,7 @@
       <c r="A29" t="s">
         <v>494</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>39456</v>
       </c>
       <c r="C29" t="s">
@@ -19363,16 +19363,16 @@
       <c r="AI29" t="s">
         <v>507</v>
       </c>
-      <c r="AJ29" s="1" t="n">
+      <c r="AJ29" s="2" t="n">
         <v>39435</v>
       </c>
-      <c r="AK29" s="1" t="n">
+      <c r="AK29" s="2" t="n">
         <v>39477</v>
       </c>
-      <c r="AL29" s="1" t="n">
+      <c r="AL29" s="2" t="n">
         <v>39084</v>
       </c>
-      <c r="AM29" s="1" t="n">
+      <c r="AM29" s="2" t="n">
         <v>39434</v>
       </c>
       <c r="AN29" t="s">
@@ -19517,7 +19517,7 @@
       <c r="A30" t="s">
         <v>508</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>39489</v>
       </c>
       <c r="C30" t="s">
@@ -19619,16 +19619,16 @@
       <c r="AI30" t="s">
         <v>522</v>
       </c>
-      <c r="AJ30" s="1" t="n">
+      <c r="AJ30" s="2" t="n">
         <v>39468</v>
       </c>
-      <c r="AK30" s="1" t="n">
+      <c r="AK30" s="2" t="n">
         <v>39510</v>
       </c>
-      <c r="AL30" s="1" t="n">
+      <c r="AL30" s="2" t="n">
         <v>39115</v>
       </c>
-      <c r="AM30" s="1" t="n">
+      <c r="AM30" s="2" t="n">
         <v>39465</v>
       </c>
       <c r="AN30" t="s">
@@ -19773,7 +19773,7 @@
       <c r="A31" t="s">
         <v>523</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>39525</v>
       </c>
       <c r="C31" t="s">
@@ -19875,16 +19875,16 @@
       <c r="AI31" t="s">
         <v>537</v>
       </c>
-      <c r="AJ31" s="1" t="n">
+      <c r="AJ31" s="2" t="n">
         <v>39504</v>
       </c>
-      <c r="AK31" s="1" t="n">
+      <c r="AK31" s="2" t="n">
         <v>39546</v>
       </c>
-      <c r="AL31" s="1" t="n">
+      <c r="AL31" s="2" t="n">
         <v>39153</v>
       </c>
-      <c r="AM31" s="1" t="n">
+      <c r="AM31" s="2" t="n">
         <v>39503</v>
       </c>
       <c r="AN31" t="s">
@@ -20031,7 +20031,7 @@
       <c r="A32" t="s">
         <v>538</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>39597</v>
       </c>
       <c r="C32" t="s">
@@ -20133,16 +20133,16 @@
       <c r="AI32" t="s">
         <v>552</v>
       </c>
-      <c r="AJ32" s="1" t="n">
+      <c r="AJ32" s="2" t="n">
         <v>39576</v>
       </c>
-      <c r="AK32" s="1" t="n">
+      <c r="AK32" s="2" t="n">
         <v>39618</v>
       </c>
-      <c r="AL32" s="1" t="n">
+      <c r="AL32" s="2" t="n">
         <v>39225</v>
       </c>
-      <c r="AM32" s="1" t="n">
+      <c r="AM32" s="2" t="n">
         <v>39575</v>
       </c>
       <c r="AN32" t="s">
@@ -20289,7 +20289,7 @@
       <c r="A33" t="s">
         <v>553</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>39615</v>
       </c>
       <c r="C33" t="s">
@@ -20391,16 +20391,16 @@
       <c r="AI33" t="s">
         <v>567</v>
       </c>
-      <c r="AJ33" s="1" t="n">
+      <c r="AJ33" s="2" t="n">
         <v>39594</v>
       </c>
-      <c r="AK33" s="1" t="n">
+      <c r="AK33" s="2" t="n">
         <v>39636</v>
       </c>
-      <c r="AL33" s="1" t="n">
+      <c r="AL33" s="2" t="n">
         <v>39241</v>
       </c>
-      <c r="AM33" s="1" t="n">
+      <c r="AM33" s="2" t="n">
         <v>39591</v>
       </c>
       <c r="AN33" t="s">
@@ -20547,7 +20547,7 @@
       <c r="A34" t="s">
         <v>568</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>39616</v>
       </c>
       <c r="C34" t="s">
@@ -20649,16 +20649,16 @@
       <c r="AI34" t="s">
         <v>579</v>
       </c>
-      <c r="AJ34" s="1" t="n">
+      <c r="AJ34" s="2" t="n">
         <v>39595</v>
       </c>
-      <c r="AK34" s="1" t="n">
+      <c r="AK34" s="2" t="n">
         <v>39637</v>
       </c>
-      <c r="AL34" s="1" t="n">
+      <c r="AL34" s="2" t="n">
         <v>39244</v>
       </c>
-      <c r="AM34" s="1" t="n">
+      <c r="AM34" s="2" t="n">
         <v>39594</v>
       </c>
       <c r="AN34" t="s">
@@ -20803,7 +20803,7 @@
       <c r="A35" t="s">
         <v>580</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>39617</v>
       </c>
       <c r="C35" t="s">
@@ -20905,16 +20905,16 @@
       <c r="AI35" t="s">
         <v>594</v>
       </c>
-      <c r="AJ35" s="1" t="n">
+      <c r="AJ35" s="2" t="n">
         <v>39596</v>
       </c>
-      <c r="AK35" s="1" t="n">
+      <c r="AK35" s="2" t="n">
         <v>39638</v>
       </c>
-      <c r="AL35" s="1" t="n">
+      <c r="AL35" s="2" t="n">
         <v>39245</v>
       </c>
-      <c r="AM35" s="1" t="n">
+      <c r="AM35" s="2" t="n">
         <v>39595</v>
       </c>
       <c r="AN35" t="s">
@@ -21061,7 +21061,7 @@
       <c r="A36" t="s">
         <v>595</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>39639</v>
       </c>
       <c r="C36" t="s">
@@ -21163,16 +21163,16 @@
       <c r="AI36" t="s">
         <v>606</v>
       </c>
-      <c r="AJ36" s="1" t="n">
+      <c r="AJ36" s="2" t="n">
         <v>39618</v>
       </c>
-      <c r="AK36" s="1" t="n">
+      <c r="AK36" s="2" t="n">
         <v>39660</v>
       </c>
-      <c r="AL36" s="1" t="n">
+      <c r="AL36" s="2" t="n">
         <v>39267</v>
       </c>
-      <c r="AM36" s="1" t="n">
+      <c r="AM36" s="2" t="n">
         <v>39617</v>
       </c>
       <c r="AN36" t="s">
@@ -21317,7 +21317,7 @@
       <c r="A37" t="s">
         <v>607</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>39722</v>
       </c>
       <c r="C37" t="s">
@@ -21419,16 +21419,16 @@
       <c r="AI37" t="s">
         <v>619</v>
       </c>
-      <c r="AJ37" s="1" t="n">
+      <c r="AJ37" s="2" t="n">
         <v>39701</v>
       </c>
-      <c r="AK37" s="1" t="n">
+      <c r="AK37" s="2" t="n">
         <v>39743</v>
       </c>
-      <c r="AL37" s="1" t="n">
+      <c r="AL37" s="2" t="n">
         <v>39350</v>
       </c>
-      <c r="AM37" s="1" t="n">
+      <c r="AM37" s="2" t="n">
         <v>39700</v>
       </c>
       <c r="AN37" t="s">
@@ -21575,7 +21575,7 @@
       <c r="A38" t="s">
         <v>620</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>39727</v>
       </c>
       <c r="C38" t="s">
@@ -21677,16 +21677,16 @@
       <c r="AI38" t="s">
         <v>635</v>
       </c>
-      <c r="AJ38" s="1" t="n">
+      <c r="AJ38" s="2" t="n">
         <v>39706</v>
       </c>
-      <c r="AK38" s="1" t="n">
+      <c r="AK38" s="2" t="n">
         <v>39748</v>
       </c>
-      <c r="AL38" s="1" t="n">
+      <c r="AL38" s="2" t="n">
         <v>39353</v>
       </c>
-      <c r="AM38" s="1" t="n">
+      <c r="AM38" s="2" t="n">
         <v>39703</v>
       </c>
       <c r="AN38" t="s">
@@ -21831,7 +21831,7 @@
       <c r="A39" t="s">
         <v>636</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>39737</v>
       </c>
       <c r="C39" t="s">
@@ -21933,16 +21933,16 @@
       <c r="AI39" t="s">
         <v>648</v>
       </c>
-      <c r="AJ39" s="1" t="n">
+      <c r="AJ39" s="2" t="n">
         <v>39716</v>
       </c>
-      <c r="AK39" s="1" t="n">
+      <c r="AK39" s="2" t="n">
         <v>39758</v>
       </c>
-      <c r="AL39" s="1" t="n">
+      <c r="AL39" s="2" t="n">
         <v>39365</v>
       </c>
-      <c r="AM39" s="1" t="n">
+      <c r="AM39" s="2" t="n">
         <v>39715</v>
       </c>
       <c r="AN39" t="s">
@@ -22089,7 +22089,7 @@
       <c r="A40" t="s">
         <v>649</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>39742</v>
       </c>
       <c r="C40" t="s">
@@ -22191,16 +22191,16 @@
       <c r="AI40" t="s">
         <v>662</v>
       </c>
-      <c r="AJ40" s="1" t="n">
+      <c r="AJ40" s="2" t="n">
         <v>39721</v>
       </c>
-      <c r="AK40" s="1" t="n">
+      <c r="AK40" s="2" t="n">
         <v>39763</v>
       </c>
-      <c r="AL40" s="1" t="n">
+      <c r="AL40" s="2" t="n">
         <v>39370</v>
       </c>
-      <c r="AM40" s="1" t="n">
+      <c r="AM40" s="2" t="n">
         <v>39720</v>
       </c>
       <c r="AN40" t="s">
@@ -22345,7 +22345,7 @@
       <c r="A41" t="s">
         <v>663</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>39752</v>
       </c>
       <c r="C41" t="s">
@@ -22447,16 +22447,16 @@
       <c r="AI41" t="s">
         <v>676</v>
       </c>
-      <c r="AJ41" s="1" t="n">
+      <c r="AJ41" s="2" t="n">
         <v>39731</v>
       </c>
-      <c r="AK41" s="1" t="n">
+      <c r="AK41" s="2" t="n">
         <v>39773</v>
       </c>
-      <c r="AL41" s="1" t="n">
+      <c r="AL41" s="2" t="n">
         <v>39380</v>
       </c>
-      <c r="AM41" s="1" t="n">
+      <c r="AM41" s="2" t="n">
         <v>39730</v>
       </c>
       <c r="AN41" t="s">
@@ -22601,7 +22601,7 @@
       <c r="A42" t="s">
         <v>677</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>39784</v>
       </c>
       <c r="C42" t="s">
@@ -22703,16 +22703,16 @@
       <c r="AI42" t="s">
         <v>689</v>
       </c>
-      <c r="AJ42" s="1" t="n">
+      <c r="AJ42" s="2" t="n">
         <v>39763</v>
       </c>
-      <c r="AK42" s="1" t="n">
+      <c r="AK42" s="2" t="n">
         <v>39805</v>
       </c>
-      <c r="AL42" s="1" t="n">
+      <c r="AL42" s="2" t="n">
         <v>39412</v>
       </c>
-      <c r="AM42" s="1" t="n">
+      <c r="AM42" s="2" t="n">
         <v>39762</v>
       </c>
       <c r="AN42" t="s">
@@ -22859,7 +22859,7 @@
       <c r="A43" t="s">
         <v>690</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>39836</v>
       </c>
       <c r="C43" t="s">
@@ -22961,16 +22961,16 @@
       <c r="AI43" t="s">
         <v>702</v>
       </c>
-      <c r="AJ43" s="1" t="n">
+      <c r="AJ43" s="2" t="n">
         <v>39815</v>
       </c>
-      <c r="AK43" s="1" t="n">
+      <c r="AK43" s="2" t="n">
         <v>39857</v>
       </c>
-      <c r="AL43" s="1" t="n">
+      <c r="AL43" s="2" t="n">
         <v>39464</v>
       </c>
-      <c r="AM43" s="1" t="n">
+      <c r="AM43" s="2" t="n">
         <v>39814</v>
       </c>
       <c r="AN43" t="s">
@@ -23117,7 +23117,7 @@
       <c r="A44" t="s">
         <v>703</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>39888</v>
       </c>
       <c r="C44" t="s">
@@ -23219,16 +23219,16 @@
       <c r="AI44" t="s">
         <v>715</v>
       </c>
-      <c r="AJ44" s="1" t="n">
+      <c r="AJ44" s="2" t="n">
         <v>39867</v>
       </c>
-      <c r="AK44" s="1" t="n">
+      <c r="AK44" s="2" t="n">
         <v>39909</v>
       </c>
-      <c r="AL44" s="1" t="n">
+      <c r="AL44" s="2" t="n">
         <v>39514</v>
       </c>
-      <c r="AM44" s="1" t="n">
+      <c r="AM44" s="2" t="n">
         <v>39864</v>
       </c>
       <c r="AN44" t="s">
@@ -23375,7 +23375,7 @@
       <c r="A45" t="s">
         <v>716</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>40001</v>
       </c>
       <c r="C45" t="s">
@@ -23477,16 +23477,16 @@
       <c r="AI45" t="s">
         <v>728</v>
       </c>
-      <c r="AJ45" s="1" t="n">
+      <c r="AJ45" s="2" t="n">
         <v>39980</v>
       </c>
-      <c r="AK45" s="1" t="n">
+      <c r="AK45" s="2" t="n">
         <v>40022</v>
       </c>
-      <c r="AL45" s="1" t="n">
+      <c r="AL45" s="2" t="n">
         <v>39629</v>
       </c>
-      <c r="AM45" s="1" t="n">
+      <c r="AM45" s="2" t="n">
         <v>39979</v>
       </c>
       <c r="AN45" t="s">
@@ -23633,7 +23633,7 @@
       <c r="A46" t="s">
         <v>729</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>40031</v>
       </c>
       <c r="C46" t="s">
@@ -23735,16 +23735,16 @@
       <c r="AI46" t="s">
         <v>740</v>
       </c>
-      <c r="AJ46" s="1" t="n">
+      <c r="AJ46" s="2" t="n">
         <v>40010</v>
       </c>
-      <c r="AK46" s="1" t="n">
+      <c r="AK46" s="2" t="n">
         <v>40052</v>
       </c>
-      <c r="AL46" s="1" t="n">
+      <c r="AL46" s="2" t="n">
         <v>39659</v>
       </c>
-      <c r="AM46" s="1" t="n">
+      <c r="AM46" s="2" t="n">
         <v>40009</v>
       </c>
       <c r="AN46" t="s">
@@ -23889,7 +23889,7 @@
       <c r="A47" t="s">
         <v>741</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>40078</v>
       </c>
       <c r="C47" t="s">
@@ -23991,16 +23991,16 @@
       <c r="AI47" t="s">
         <v>745</v>
       </c>
-      <c r="AJ47" s="1" t="n">
+      <c r="AJ47" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="AK47" s="1" t="n">
+      <c r="AK47" s="2" t="n">
         <v>40099</v>
       </c>
-      <c r="AL47" s="1" t="n">
+      <c r="AL47" s="2" t="n">
         <v>39706</v>
       </c>
-      <c r="AM47" s="1" t="n">
+      <c r="AM47" s="2" t="n">
         <v>40056</v>
       </c>
       <c r="AN47" t="s">
@@ -24145,7 +24145,7 @@
       <c r="A48" t="s">
         <v>746</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>40087</v>
       </c>
       <c r="C48" t="s">
@@ -24247,16 +24247,16 @@
       <c r="AI48" t="s">
         <v>757</v>
       </c>
-      <c r="AJ48" s="1" t="n">
+      <c r="AJ48" s="2" t="n">
         <v>40066</v>
       </c>
-      <c r="AK48" s="1" t="n">
+      <c r="AK48" s="2" t="n">
         <v>40108</v>
       </c>
-      <c r="AL48" s="1" t="n">
+      <c r="AL48" s="2" t="n">
         <v>39715</v>
       </c>
-      <c r="AM48" s="1" t="n">
+      <c r="AM48" s="2" t="n">
         <v>40065</v>
       </c>
       <c r="AN48" t="s">
@@ -24401,7 +24401,7 @@
       <c r="A49" t="s">
         <v>758</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>40170</v>
       </c>
       <c r="C49" t="s">
@@ -24503,16 +24503,16 @@
       <c r="AI49" t="s">
         <v>770</v>
       </c>
-      <c r="AJ49" s="1" t="n">
+      <c r="AJ49" s="2" t="n">
         <v>40149</v>
       </c>
-      <c r="AK49" s="1" t="n">
+      <c r="AK49" s="2" t="n">
         <v>40191</v>
       </c>
-      <c r="AL49" s="1" t="n">
+      <c r="AL49" s="2" t="n">
         <v>39798</v>
       </c>
-      <c r="AM49" s="1" t="n">
+      <c r="AM49" s="2" t="n">
         <v>40148</v>
       </c>
       <c r="AN49" t="s">
@@ -24659,7 +24659,7 @@
       <c r="A50" t="s">
         <v>771</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>40176</v>
       </c>
       <c r="C50" t="s">
@@ -24761,16 +24761,16 @@
       <c r="AI50" t="s">
         <v>785</v>
       </c>
-      <c r="AJ50" s="1" t="n">
+      <c r="AJ50" s="2" t="n">
         <v>40155</v>
       </c>
-      <c r="AK50" s="1" t="n">
+      <c r="AK50" s="2" t="n">
         <v>40197</v>
       </c>
-      <c r="AL50" s="1" t="n">
+      <c r="AL50" s="2" t="n">
         <v>39804</v>
       </c>
-      <c r="AM50" s="1" t="n">
+      <c r="AM50" s="2" t="n">
         <v>40154</v>
       </c>
       <c r="AN50" t="s">
@@ -24915,7 +24915,7 @@
       <c r="A51" t="s">
         <v>786</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>40182</v>
       </c>
       <c r="C51" t="s">
@@ -25017,16 +25017,16 @@
       <c r="AI51" t="s">
         <v>798</v>
       </c>
-      <c r="AJ51" s="1" t="n">
+      <c r="AJ51" s="2" t="n">
         <v>40161</v>
       </c>
-      <c r="AK51" s="1" t="n">
+      <c r="AK51" s="2" t="n">
         <v>40203</v>
       </c>
-      <c r="AL51" s="1" t="n">
+      <c r="AL51" s="2" t="n">
         <v>39808</v>
       </c>
-      <c r="AM51" s="1" t="n">
+      <c r="AM51" s="2" t="n">
         <v>40158</v>
       </c>
       <c r="AN51" t="s">
@@ -25173,7 +25173,7 @@
       <c r="A52" t="s">
         <v>799</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>40190</v>
       </c>
       <c r="C52" t="s">
@@ -25275,16 +25275,16 @@
       <c r="AI52" t="s">
         <v>810</v>
       </c>
-      <c r="AJ52" s="1" t="n">
+      <c r="AJ52" s="2" t="n">
         <v>40169</v>
       </c>
-      <c r="AK52" s="1" t="n">
+      <c r="AK52" s="2" t="n">
         <v>40211</v>
       </c>
-      <c r="AL52" s="1" t="n">
+      <c r="AL52" s="2" t="n">
         <v>39818</v>
       </c>
-      <c r="AM52" s="1" t="n">
+      <c r="AM52" s="2" t="n">
         <v>40168</v>
       </c>
       <c r="AN52" t="s">
@@ -25429,7 +25429,7 @@
       <c r="A53" t="s">
         <v>811</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>40203</v>
       </c>
       <c r="C53" t="s">
@@ -25531,16 +25531,16 @@
       <c r="AI53" t="s">
         <v>824</v>
       </c>
-      <c r="AJ53" s="1" t="n">
+      <c r="AJ53" s="2" t="n">
         <v>40182</v>
       </c>
-      <c r="AK53" s="1" t="n">
+      <c r="AK53" s="2" t="n">
         <v>40224</v>
       </c>
-      <c r="AL53" s="1" t="n">
+      <c r="AL53" s="2" t="n">
         <v>39829</v>
       </c>
-      <c r="AM53" s="1" t="n">
+      <c r="AM53" s="2" t="n">
         <v>40179</v>
       </c>
       <c r="AN53" t="s">
@@ -25685,7 +25685,7 @@
       <c r="A54" t="s">
         <v>825</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>40294</v>
       </c>
       <c r="C54" t="s">
@@ -25787,16 +25787,16 @@
       <c r="AI54" t="s">
         <v>840</v>
       </c>
-      <c r="AJ54" s="1" t="n">
+      <c r="AJ54" s="2" t="n">
         <v>40273</v>
       </c>
-      <c r="AK54" s="1" t="n">
+      <c r="AK54" s="2" t="n">
         <v>40315</v>
       </c>
-      <c r="AL54" s="1" t="n">
+      <c r="AL54" s="2" t="n">
         <v>39920</v>
       </c>
-      <c r="AM54" s="1" t="n">
+      <c r="AM54" s="2" t="n">
         <v>40270</v>
       </c>
       <c r="AN54" t="s">
@@ -25941,7 +25941,7 @@
       <c r="A55" t="s">
         <v>841</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>40310</v>
       </c>
       <c r="C55" t="s">
@@ -26043,16 +26043,16 @@
       <c r="AI55" t="s">
         <v>855</v>
       </c>
-      <c r="AJ55" s="1" t="n">
+      <c r="AJ55" s="2" t="n">
         <v>40289</v>
       </c>
-      <c r="AK55" s="1" t="n">
+      <c r="AK55" s="2" t="n">
         <v>40331</v>
       </c>
-      <c r="AL55" s="1" t="n">
+      <c r="AL55" s="2" t="n">
         <v>39938</v>
       </c>
-      <c r="AM55" s="1" t="n">
+      <c r="AM55" s="2" t="n">
         <v>40288</v>
       </c>
       <c r="AN55" t="s">
@@ -26197,7 +26197,7 @@
       <c r="A56" t="s">
         <v>856</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>40317</v>
       </c>
       <c r="C56" t="s">
@@ -26299,16 +26299,16 @@
       <c r="AI56" t="s">
         <v>867</v>
       </c>
-      <c r="AJ56" s="1" t="n">
+      <c r="AJ56" s="2" t="n">
         <v>40296</v>
       </c>
-      <c r="AK56" s="1" t="n">
+      <c r="AK56" s="2" t="n">
         <v>40338</v>
       </c>
-      <c r="AL56" s="1" t="n">
+      <c r="AL56" s="2" t="n">
         <v>39945</v>
       </c>
-      <c r="AM56" s="1" t="n">
+      <c r="AM56" s="2" t="n">
         <v>40295</v>
       </c>
       <c r="AN56" t="s">
@@ -26453,7 +26453,7 @@
       <c r="A57" t="s">
         <v>868</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>40322</v>
       </c>
       <c r="C57" t="s">
@@ -26555,16 +26555,16 @@
       <c r="AI57" t="s">
         <v>880</v>
       </c>
-      <c r="AJ57" s="1" t="n">
+      <c r="AJ57" s="2" t="n">
         <v>40301</v>
       </c>
-      <c r="AK57" s="1" t="n">
+      <c r="AK57" s="2" t="n">
         <v>40343</v>
       </c>
-      <c r="AL57" s="1" t="n">
+      <c r="AL57" s="2" t="n">
         <v>39948</v>
       </c>
-      <c r="AM57" s="1" t="n">
+      <c r="AM57" s="2" t="n">
         <v>40298</v>
       </c>
       <c r="AN57" t="s">
@@ -26709,7 +26709,7 @@
       <c r="A58" t="s">
         <v>881</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>40323</v>
       </c>
       <c r="C58" t="s">
@@ -26811,16 +26811,16 @@
       <c r="AI58" t="s">
         <v>892</v>
       </c>
-      <c r="AJ58" s="1" t="n">
+      <c r="AJ58" s="2" t="n">
         <v>40302</v>
       </c>
-      <c r="AK58" s="1" t="n">
+      <c r="AK58" s="2" t="n">
         <v>40344</v>
       </c>
-      <c r="AL58" s="1" t="n">
+      <c r="AL58" s="2" t="n">
         <v>39951</v>
       </c>
-      <c r="AM58" s="1" t="n">
+      <c r="AM58" s="2" t="n">
         <v>40301</v>
       </c>
       <c r="AN58" t="s">
@@ -26965,7 +26965,7 @@
       <c r="A59" t="s">
         <v>893</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>40373</v>
       </c>
       <c r="C59" t="s">
@@ -27067,16 +27067,16 @@
       <c r="AI59" t="s">
         <v>905</v>
       </c>
-      <c r="AJ59" s="1" t="n">
+      <c r="AJ59" s="2" t="n">
         <v>40352</v>
       </c>
-      <c r="AK59" s="1" t="n">
+      <c r="AK59" s="2" t="n">
         <v>40394</v>
       </c>
-      <c r="AL59" s="1" t="n">
+      <c r="AL59" s="2" t="n">
         <v>40001</v>
       </c>
-      <c r="AM59" s="1" t="n">
+      <c r="AM59" s="2" t="n">
         <v>40351</v>
       </c>
       <c r="AN59" t="s">
@@ -27223,7 +27223,7 @@
       <c r="A60" t="s">
         <v>906</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>40416</v>
       </c>
       <c r="C60" t="s">
@@ -27325,16 +27325,16 @@
       <c r="AI60" t="s">
         <v>920</v>
       </c>
-      <c r="AJ60" s="1" t="n">
+      <c r="AJ60" s="2" t="n">
         <v>40395</v>
       </c>
-      <c r="AK60" s="1" t="n">
+      <c r="AK60" s="2" t="n">
         <v>40437</v>
       </c>
-      <c r="AL60" s="1" t="n">
+      <c r="AL60" s="2" t="n">
         <v>40044</v>
       </c>
-      <c r="AM60" s="1" t="n">
+      <c r="AM60" s="2" t="n">
         <v>40394</v>
       </c>
       <c r="AN60" t="s">
@@ -27481,7 +27481,7 @@
       <c r="A61" t="s">
         <v>921</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>40480</v>
       </c>
       <c r="C61" t="s">
@@ -27583,16 +27583,16 @@
       <c r="AI61" t="s">
         <v>934</v>
       </c>
-      <c r="AJ61" s="1" t="n">
+      <c r="AJ61" s="2" t="n">
         <v>40459</v>
       </c>
-      <c r="AK61" s="1" t="n">
+      <c r="AK61" s="2" t="n">
         <v>40501</v>
       </c>
-      <c r="AL61" s="1" t="n">
+      <c r="AL61" s="2" t="n">
         <v>40108</v>
       </c>
-      <c r="AM61" s="1" t="n">
+      <c r="AM61" s="2" t="n">
         <v>40458</v>
       </c>
       <c r="AN61" t="s">
@@ -27737,7 +27737,7 @@
       <c r="A62" t="s">
         <v>935</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>40485</v>
       </c>
       <c r="C62" t="s">
@@ -27839,16 +27839,16 @@
       <c r="AI62" t="s">
         <v>948</v>
       </c>
-      <c r="AJ62" s="1" t="n">
+      <c r="AJ62" s="2" t="n">
         <v>40464</v>
       </c>
-      <c r="AK62" s="1" t="n">
+      <c r="AK62" s="2" t="n">
         <v>40506</v>
       </c>
-      <c r="AL62" s="1" t="n">
+      <c r="AL62" s="2" t="n">
         <v>40113</v>
       </c>
-      <c r="AM62" s="1" t="n">
+      <c r="AM62" s="2" t="n">
         <v>40463</v>
       </c>
       <c r="AN62" t="s">
@@ -27993,7 +27993,7 @@
       <c r="A63" t="s">
         <v>949</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>40498</v>
       </c>
       <c r="C63" t="s">
@@ -28095,16 +28095,16 @@
       <c r="AI63" t="s">
         <v>960</v>
       </c>
-      <c r="AJ63" s="1" t="n">
+      <c r="AJ63" s="2" t="n">
         <v>40477</v>
       </c>
-      <c r="AK63" s="1" t="n">
+      <c r="AK63" s="2" t="n">
         <v>40519</v>
       </c>
-      <c r="AL63" s="1" t="n">
+      <c r="AL63" s="2" t="n">
         <v>40126</v>
       </c>
-      <c r="AM63" s="1" t="n">
+      <c r="AM63" s="2" t="n">
         <v>40476</v>
       </c>
       <c r="AN63" t="s">
@@ -28249,7 +28249,7 @@
       <c r="A64" t="s">
         <v>961</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>40547</v>
       </c>
       <c r="C64" t="s">
@@ -28351,16 +28351,16 @@
       <c r="AI64" t="s">
         <v>973</v>
       </c>
-      <c r="AJ64" s="1" t="n">
+      <c r="AJ64" s="2" t="n">
         <v>40526</v>
       </c>
-      <c r="AK64" s="1" t="n">
+      <c r="AK64" s="2" t="n">
         <v>40568</v>
       </c>
-      <c r="AL64" s="1" t="n">
+      <c r="AL64" s="2" t="n">
         <v>40175</v>
       </c>
-      <c r="AM64" s="1" t="n">
+      <c r="AM64" s="2" t="n">
         <v>40525</v>
       </c>
       <c r="AN64" t="s">
@@ -28507,7 +28507,7 @@
       <c r="A65" t="s">
         <v>974</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>40557</v>
       </c>
       <c r="C65" t="s">
@@ -28609,16 +28609,16 @@
       <c r="AI65" t="s">
         <v>985</v>
       </c>
-      <c r="AJ65" s="1" t="n">
+      <c r="AJ65" s="2" t="n">
         <v>40536</v>
       </c>
-      <c r="AK65" s="1" t="n">
+      <c r="AK65" s="2" t="n">
         <v>40578</v>
       </c>
-      <c r="AL65" s="1" t="n">
+      <c r="AL65" s="2" t="n">
         <v>40185</v>
       </c>
-      <c r="AM65" s="1" t="n">
+      <c r="AM65" s="2" t="n">
         <v>40535</v>
       </c>
       <c r="AN65" t="s">
@@ -28763,7 +28763,7 @@
       <c r="A66" t="s">
         <v>986</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>40583</v>
       </c>
       <c r="C66" t="s">
@@ -28865,16 +28865,16 @@
       <c r="AI66" t="s">
         <v>999</v>
       </c>
-      <c r="AJ66" s="1" t="n">
+      <c r="AJ66" s="2" t="n">
         <v>40562</v>
       </c>
-      <c r="AK66" s="1" t="n">
+      <c r="AK66" s="2" t="n">
         <v>40604</v>
       </c>
-      <c r="AL66" s="1" t="n">
+      <c r="AL66" s="2" t="n">
         <v>40211</v>
       </c>
-      <c r="AM66" s="1" t="n">
+      <c r="AM66" s="2" t="n">
         <v>40561</v>
       </c>
       <c r="AN66" t="s">
@@ -29021,7 +29021,7 @@
       <c r="A67" t="s">
         <v>1000</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>40624</v>
       </c>
       <c r="C67" t="s">
@@ -29123,16 +29123,16 @@
       <c r="AI67" t="s">
         <v>1012</v>
       </c>
-      <c r="AJ67" s="1" t="n">
+      <c r="AJ67" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="AK67" s="1" t="n">
+      <c r="AK67" s="2" t="n">
         <v>40645</v>
       </c>
-      <c r="AL67" s="1" t="n">
+      <c r="AL67" s="2" t="n">
         <v>40252</v>
       </c>
-      <c r="AM67" s="1" t="n">
+      <c r="AM67" s="2" t="n">
         <v>40602</v>
       </c>
       <c r="AN67" t="s">
@@ -29279,7 +29279,7 @@
       <c r="A68" t="s">
         <v>1013</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>40672</v>
       </c>
       <c r="C68" t="s">
@@ -29381,16 +29381,16 @@
       <c r="AI68" t="s">
         <v>1025</v>
       </c>
-      <c r="AJ68" s="1" t="n">
+      <c r="AJ68" s="2" t="n">
         <v>40651</v>
       </c>
-      <c r="AK68" s="1" t="n">
+      <c r="AK68" s="2" t="n">
         <v>40693</v>
       </c>
-      <c r="AL68" s="1" t="n">
+      <c r="AL68" s="2" t="n">
         <v>40298</v>
       </c>
-      <c r="AM68" s="1" t="n">
+      <c r="AM68" s="2" t="n">
         <v>40648</v>
       </c>
       <c r="AN68" t="s">
@@ -29535,7 +29535,7 @@
       <c r="A69" t="s">
         <v>1026</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>40709</v>
       </c>
       <c r="C69" t="s">
@@ -29637,16 +29637,16 @@
       <c r="AI69" t="s">
         <v>1037</v>
       </c>
-      <c r="AJ69" s="1" t="n">
+      <c r="AJ69" s="2" t="n">
         <v>40688</v>
       </c>
-      <c r="AK69" s="1" t="n">
+      <c r="AK69" s="2" t="n">
         <v>40730</v>
       </c>
-      <c r="AL69" s="1" t="n">
+      <c r="AL69" s="2" t="n">
         <v>40337</v>
       </c>
-      <c r="AM69" s="1" t="n">
+      <c r="AM69" s="2" t="n">
         <v>40687</v>
       </c>
       <c r="AN69" t="s">
@@ -29791,7 +29791,7 @@
       <c r="A70" t="s">
         <v>1038</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>40716</v>
       </c>
       <c r="C70" t="s">
@@ -29893,16 +29893,16 @@
       <c r="AI70" t="s">
         <v>1051</v>
       </c>
-      <c r="AJ70" s="1" t="n">
+      <c r="AJ70" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="AK70" s="1" t="n">
+      <c r="AK70" s="2" t="n">
         <v>40737</v>
       </c>
-      <c r="AL70" s="1" t="n">
+      <c r="AL70" s="2" t="n">
         <v>40344</v>
       </c>
-      <c r="AM70" s="1" t="n">
+      <c r="AM70" s="2" t="n">
         <v>40694</v>
       </c>
       <c r="AN70" t="s">
@@ -30049,7 +30049,7 @@
       <c r="A71" t="s">
         <v>1052</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>40738</v>
       </c>
       <c r="C71" t="s">
@@ -30151,16 +30151,16 @@
       <c r="AI71" t="s">
         <v>1062</v>
       </c>
-      <c r="AJ71" s="1" t="n">
+      <c r="AJ71" s="2" t="n">
         <v>40717</v>
       </c>
-      <c r="AK71" s="1" t="n">
+      <c r="AK71" s="2" t="n">
         <v>40759</v>
       </c>
-      <c r="AL71" s="1" t="n">
+      <c r="AL71" s="2" t="n">
         <v>40366</v>
       </c>
-      <c r="AM71" s="1" t="n">
+      <c r="AM71" s="2" t="n">
         <v>40716</v>
       </c>
       <c r="AN71" t="s">
@@ -30305,7 +30305,7 @@
       <c r="A72" t="s">
         <v>1063</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>40879</v>
       </c>
       <c r="C72" t="s">
@@ -30407,16 +30407,16 @@
       <c r="AI72" t="s">
         <v>1075</v>
       </c>
-      <c r="AJ72" s="1" t="n">
+      <c r="AJ72" s="2" t="n">
         <v>40858</v>
       </c>
-      <c r="AK72" s="1" t="n">
+      <c r="AK72" s="2" t="n">
         <v>40900</v>
       </c>
-      <c r="AL72" s="1" t="n">
+      <c r="AL72" s="2" t="n">
         <v>40507</v>
       </c>
-      <c r="AM72" s="1" t="n">
+      <c r="AM72" s="2" t="n">
         <v>40857</v>
       </c>
       <c r="AN72" t="s">
@@ -30563,7 +30563,7 @@
       <c r="A73" t="s">
         <v>1076</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>40920</v>
       </c>
       <c r="C73" t="s">
@@ -30665,16 +30665,16 @@
       <c r="AI73" t="s">
         <v>1088</v>
       </c>
-      <c r="AJ73" s="1" t="n">
+      <c r="AJ73" s="2" t="n">
         <v>40899</v>
       </c>
-      <c r="AK73" s="1" t="n">
+      <c r="AK73" s="2" t="n">
         <v>40941</v>
       </c>
-      <c r="AL73" s="1" t="n">
+      <c r="AL73" s="2" t="n">
         <v>40548</v>
       </c>
-      <c r="AM73" s="1" t="n">
+      <c r="AM73" s="2" t="n">
         <v>40898</v>
       </c>
       <c r="AN73" t="s">
@@ -30821,7 +30821,7 @@
       <c r="A74" t="s">
         <v>1089</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>40967</v>
       </c>
       <c r="C74" t="s">
@@ -30923,16 +30923,16 @@
       <c r="AI74" t="s">
         <v>1099</v>
       </c>
-      <c r="AJ74" s="1" t="n">
+      <c r="AJ74" s="2" t="n">
         <v>40946</v>
       </c>
-      <c r="AK74" s="1" t="n">
+      <c r="AK74" s="2" t="n">
         <v>40988</v>
       </c>
-      <c r="AL74" s="1" t="n">
+      <c r="AL74" s="2" t="n">
         <v>40595</v>
       </c>
-      <c r="AM74" s="1" t="n">
+      <c r="AM74" s="2" t="n">
         <v>40945</v>
       </c>
       <c r="AN74" t="s">
@@ -31077,7 +31077,7 @@
       <c r="A75" t="s">
         <v>1100</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>40969</v>
       </c>
       <c r="C75" t="s">
@@ -31179,16 +31179,16 @@
       <c r="AI75" t="s">
         <v>1109</v>
       </c>
-      <c r="AJ75" s="1" t="n">
+      <c r="AJ75" s="2" t="n">
         <v>40948</v>
       </c>
-      <c r="AK75" s="1" t="n">
+      <c r="AK75" s="2" t="n">
         <v>40990</v>
       </c>
-      <c r="AL75" s="1" t="n">
+      <c r="AL75" s="2" t="n">
         <v>40597</v>
       </c>
-      <c r="AM75" s="1" t="n">
+      <c r="AM75" s="2" t="n">
         <v>40947</v>
       </c>
       <c r="AN75" t="s">
@@ -31333,7 +31333,7 @@
       <c r="A76" t="s">
         <v>1110</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>40969</v>
       </c>
       <c r="C76" t="s">
@@ -31435,16 +31435,16 @@
       <c r="AI76" t="s">
         <v>1123</v>
       </c>
-      <c r="AJ76" s="1" t="n">
+      <c r="AJ76" s="2" t="n">
         <v>40948</v>
       </c>
-      <c r="AK76" s="1" t="n">
+      <c r="AK76" s="2" t="n">
         <v>40990</v>
       </c>
-      <c r="AL76" s="1" t="n">
+      <c r="AL76" s="2" t="n">
         <v>40597</v>
       </c>
-      <c r="AM76" s="1" t="n">
+      <c r="AM76" s="2" t="n">
         <v>40947</v>
       </c>
       <c r="AN76" t="s">
@@ -31589,7 +31589,7 @@
       <c r="A77" t="s">
         <v>1124</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>41044</v>
       </c>
       <c r="C77" t="s">
@@ -31691,16 +31691,16 @@
       <c r="AI77" t="s">
         <v>1136</v>
       </c>
-      <c r="AJ77" s="1" t="n">
+      <c r="AJ77" s="2" t="n">
         <v>41023</v>
       </c>
-      <c r="AK77" s="1" t="n">
+      <c r="AK77" s="2" t="n">
         <v>41065</v>
       </c>
-      <c r="AL77" s="1" t="n">
+      <c r="AL77" s="2" t="n">
         <v>40672</v>
       </c>
-      <c r="AM77" s="1" t="n">
+      <c r="AM77" s="2" t="n">
         <v>41022</v>
       </c>
       <c r="AN77" t="s">
@@ -31847,7 +31847,7 @@
       <c r="A78" t="s">
         <v>1137</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>41089</v>
       </c>
       <c r="C78" t="s">
@@ -31949,16 +31949,16 @@
       <c r="AI78" t="s">
         <v>1148</v>
       </c>
-      <c r="AJ78" s="1" t="n">
+      <c r="AJ78" s="2" t="n">
         <v>41068</v>
       </c>
-      <c r="AK78" s="1" t="n">
+      <c r="AK78" s="2" t="n">
         <v>41110</v>
       </c>
-      <c r="AL78" s="1" t="n">
+      <c r="AL78" s="2" t="n">
         <v>40717</v>
       </c>
-      <c r="AM78" s="1" t="n">
+      <c r="AM78" s="2" t="n">
         <v>41067</v>
       </c>
       <c r="AN78" t="s">
@@ -32103,7 +32103,7 @@
       <c r="A79" t="s">
         <v>1149</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>41260</v>
       </c>
       <c r="C79" t="s">
@@ -32205,16 +32205,16 @@
       <c r="AI79" t="s">
         <v>1161</v>
       </c>
-      <c r="AJ79" s="1" t="n">
+      <c r="AJ79" s="2" t="n">
         <v>41239</v>
       </c>
-      <c r="AK79" s="1" t="n">
+      <c r="AK79" s="2" t="n">
         <v>41281</v>
       </c>
-      <c r="AL79" s="1" t="n">
+      <c r="AL79" s="2" t="n">
         <v>40886</v>
       </c>
-      <c r="AM79" s="1" t="n">
+      <c r="AM79" s="2" t="n">
         <v>41236</v>
       </c>
       <c r="AN79" t="s">
@@ -32361,7 +32361,7 @@
       <c r="A80" t="s">
         <v>1162</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>41316</v>
       </c>
       <c r="C80" t="s">
@@ -32463,16 +32463,16 @@
       <c r="AI80" t="s">
         <v>1174</v>
       </c>
-      <c r="AJ80" s="1" t="n">
+      <c r="AJ80" s="2" t="n">
         <v>41295</v>
       </c>
-      <c r="AK80" s="1" t="n">
+      <c r="AK80" s="2" t="n">
         <v>41337</v>
       </c>
-      <c r="AL80" s="1" t="n">
+      <c r="AL80" s="2" t="n">
         <v>40942</v>
       </c>
-      <c r="AM80" s="1" t="n">
+      <c r="AM80" s="2" t="n">
         <v>41292</v>
       </c>
       <c r="AN80" t="s">
@@ -32619,7 +32619,7 @@
       <c r="A81" t="s">
         <v>1175</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>41337</v>
       </c>
       <c r="C81" t="s">
@@ -32721,16 +32721,16 @@
       <c r="AI81" t="s">
         <v>1189</v>
       </c>
-      <c r="AJ81" s="1" t="n">
+      <c r="AJ81" s="2" t="n">
         <v>41316</v>
       </c>
-      <c r="AK81" s="1" t="n">
+      <c r="AK81" s="2" t="n">
         <v>41358</v>
       </c>
-      <c r="AL81" s="1" t="n">
+      <c r="AL81" s="2" t="n">
         <v>40963</v>
       </c>
-      <c r="AM81" s="1" t="n">
+      <c r="AM81" s="2" t="n">
         <v>41313</v>
       </c>
       <c r="AN81" t="s">
@@ -32877,7 +32877,7 @@
       <c r="A82" t="s">
         <v>1190</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>41366</v>
       </c>
       <c r="C82" t="s">
@@ -32979,16 +32979,16 @@
       <c r="AI82" t="s">
         <v>1203</v>
       </c>
-      <c r="AJ82" s="1" t="n">
+      <c r="AJ82" s="2" t="n">
         <v>41345</v>
       </c>
-      <c r="AK82" s="1" t="n">
+      <c r="AK82" s="2" t="n">
         <v>41387</v>
       </c>
-      <c r="AL82" s="1" t="n">
+      <c r="AL82" s="2" t="n">
         <v>40994</v>
       </c>
-      <c r="AM82" s="1" t="n">
+      <c r="AM82" s="2" t="n">
         <v>41344</v>
       </c>
       <c r="AN82" t="s">
@@ -33135,7 +33135,7 @@
       <c r="A83" t="s">
         <v>1204</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>41379</v>
       </c>
       <c r="C83" t="s">
@@ -33237,16 +33237,16 @@
       <c r="AI83" t="s">
         <v>1218</v>
       </c>
-      <c r="AJ83" s="1" t="n">
+      <c r="AJ83" s="2" t="n">
         <v>41358</v>
       </c>
-      <c r="AK83" s="1" t="n">
+      <c r="AK83" s="2" t="n">
         <v>41400</v>
       </c>
-      <c r="AL83" s="1" t="n">
+      <c r="AL83" s="2" t="n">
         <v>41005</v>
       </c>
-      <c r="AM83" s="1" t="n">
+      <c r="AM83" s="2" t="n">
         <v>41355</v>
       </c>
       <c r="AN83" t="s">
@@ -33391,7 +33391,7 @@
       <c r="A84" t="s">
         <v>1219</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>41402</v>
       </c>
       <c r="C84" t="s">
@@ -33493,16 +33493,16 @@
       <c r="AI84" t="s">
         <v>1230</v>
       </c>
-      <c r="AJ84" s="1" t="n">
+      <c r="AJ84" s="2" t="n">
         <v>41381</v>
       </c>
-      <c r="AK84" s="1" t="n">
+      <c r="AK84" s="2" t="n">
         <v>41423</v>
       </c>
-      <c r="AL84" s="1" t="n">
+      <c r="AL84" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="AM84" s="1" t="n">
+      <c r="AM84" s="2" t="n">
         <v>41380</v>
       </c>
       <c r="AN84" t="s">
@@ -33647,7 +33647,7 @@
       <c r="A85" t="s">
         <v>1231</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>41410</v>
       </c>
       <c r="C85" t="s">
@@ -33749,16 +33749,16 @@
       <c r="AI85" t="s">
         <v>1243</v>
       </c>
-      <c r="AJ85" s="1" t="n">
+      <c r="AJ85" s="2" t="n">
         <v>41389</v>
       </c>
-      <c r="AK85" s="1" t="n">
+      <c r="AK85" s="2" t="n">
         <v>41431</v>
       </c>
-      <c r="AL85" s="1" t="n">
+      <c r="AL85" s="2" t="n">
         <v>41038</v>
       </c>
-      <c r="AM85" s="1" t="n">
+      <c r="AM85" s="2" t="n">
         <v>41388</v>
       </c>
       <c r="AN85" t="s">
@@ -33905,7 +33905,7 @@
       <c r="A86" t="s">
         <v>1244</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>41423</v>
       </c>
       <c r="C86" t="s">
@@ -34007,16 +34007,16 @@
       <c r="AI86" t="s">
         <v>1256</v>
       </c>
-      <c r="AJ86" s="1" t="n">
+      <c r="AJ86" s="2" t="n">
         <v>41402</v>
       </c>
-      <c r="AK86" s="1" t="n">
+      <c r="AK86" s="2" t="n">
         <v>41444</v>
       </c>
-      <c r="AL86" s="1" t="n">
+      <c r="AL86" s="2" t="n">
         <v>41051</v>
       </c>
-      <c r="AM86" s="1" t="n">
+      <c r="AM86" s="2" t="n">
         <v>41401</v>
       </c>
       <c r="AN86" t="s">
@@ -34163,7 +34163,7 @@
       <c r="A87" t="s">
         <v>1257</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>41443</v>
       </c>
       <c r="C87" t="s">
@@ -34265,16 +34265,16 @@
       <c r="AI87" t="s">
         <v>1270</v>
       </c>
-      <c r="AJ87" s="1" t="n">
+      <c r="AJ87" s="2" t="n">
         <v>41422</v>
       </c>
-      <c r="AK87" s="1" t="n">
+      <c r="AK87" s="2" t="n">
         <v>41464</v>
       </c>
-      <c r="AL87" s="1" t="n">
+      <c r="AL87" s="2" t="n">
         <v>41071</v>
       </c>
-      <c r="AM87" s="1" t="n">
+      <c r="AM87" s="2" t="n">
         <v>41421</v>
       </c>
       <c r="AN87" t="s">
@@ -34421,7 +34421,7 @@
       <c r="A88" t="s">
         <v>1271</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>41470</v>
       </c>
       <c r="C88" t="s">
@@ -34523,16 +34523,16 @@
       <c r="AI88" t="s">
         <v>1285</v>
       </c>
-      <c r="AJ88" s="1" t="n">
+      <c r="AJ88" s="2" t="n">
         <v>41449</v>
       </c>
-      <c r="AK88" s="1" t="n">
+      <c r="AK88" s="2" t="n">
         <v>41491</v>
       </c>
-      <c r="AL88" s="1" t="n">
+      <c r="AL88" s="2" t="n">
         <v>41096</v>
       </c>
-      <c r="AM88" s="1" t="n">
+      <c r="AM88" s="2" t="n">
         <v>41446</v>
       </c>
       <c r="AN88" t="s">
@@ -34679,7 +34679,7 @@
       <c r="A89" t="s">
         <v>1286</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>41526</v>
       </c>
       <c r="C89" t="s">
@@ -34781,16 +34781,16 @@
       <c r="AI89" t="s">
         <v>1300</v>
       </c>
-      <c r="AJ89" s="1" t="n">
+      <c r="AJ89" s="2" t="n">
         <v>41505</v>
       </c>
-      <c r="AK89" s="1" t="n">
+      <c r="AK89" s="2" t="n">
         <v>41547</v>
       </c>
-      <c r="AL89" s="1" t="n">
+      <c r="AL89" s="2" t="n">
         <v>41152</v>
       </c>
-      <c r="AM89" s="1" t="n">
+      <c r="AM89" s="2" t="n">
         <v>41502</v>
       </c>
       <c r="AN89" t="s">
@@ -34937,7 +34937,7 @@
       <c r="A90" t="s">
         <v>1301</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>41564</v>
       </c>
       <c r="C90" t="s">
@@ -35039,16 +35039,16 @@
       <c r="AI90" t="s">
         <v>1311</v>
       </c>
-      <c r="AJ90" s="1" t="n">
+      <c r="AJ90" s="2" t="n">
         <v>41543</v>
       </c>
-      <c r="AK90" s="1" t="n">
+      <c r="AK90" s="2" t="n">
         <v>41585</v>
       </c>
-      <c r="AL90" s="1" t="n">
+      <c r="AL90" s="2" t="n">
         <v>41192</v>
       </c>
-      <c r="AM90" s="1" t="n">
+      <c r="AM90" s="2" t="n">
         <v>41542</v>
       </c>
       <c r="AN90" t="s">
@@ -35193,7 +35193,7 @@
       <c r="A91" t="s">
         <v>1312</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>41666</v>
       </c>
       <c r="C91" t="s">
@@ -35295,16 +35295,16 @@
       <c r="AI91" t="s">
         <v>1324</v>
       </c>
-      <c r="AJ91" s="1" t="n">
+      <c r="AJ91" s="2" t="n">
         <v>41645</v>
       </c>
-      <c r="AK91" s="1" t="n">
+      <c r="AK91" s="2" t="n">
         <v>41687</v>
       </c>
-      <c r="AL91" s="1" t="n">
+      <c r="AL91" s="2" t="n">
         <v>41292</v>
       </c>
-      <c r="AM91" s="1" t="n">
+      <c r="AM91" s="2" t="n">
         <v>41642</v>
       </c>
       <c r="AN91" t="s">
@@ -35449,7 +35449,7 @@
       <c r="A92" t="s">
         <v>1325</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>41722</v>
       </c>
       <c r="C92" t="s">
@@ -35551,16 +35551,16 @@
       <c r="AI92" t="s">
         <v>1336</v>
       </c>
-      <c r="AJ92" s="1" t="n">
+      <c r="AJ92" s="2" t="n">
         <v>41701</v>
       </c>
-      <c r="AK92" s="1" t="n">
+      <c r="AK92" s="2" t="n">
         <v>41743</v>
       </c>
-      <c r="AL92" s="1" t="n">
+      <c r="AL92" s="2" t="n">
         <v>41348</v>
       </c>
-      <c r="AM92" s="1" t="n">
+      <c r="AM92" s="2" t="n">
         <v>41698</v>
       </c>
       <c r="AN92" t="s">
@@ -35705,7 +35705,7 @@
       <c r="A93" t="s">
         <v>1337</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>41751</v>
       </c>
       <c r="C93" t="s">
@@ -35807,16 +35807,16 @@
       <c r="AI93" t="s">
         <v>1349</v>
       </c>
-      <c r="AJ93" s="1" t="n">
+      <c r="AJ93" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="AK93" s="1" t="n">
+      <c r="AK93" s="2" t="n">
         <v>41772</v>
       </c>
-      <c r="AL93" s="1" t="n">
+      <c r="AL93" s="2" t="n">
         <v>41379</v>
       </c>
-      <c r="AM93" s="1" t="n">
+      <c r="AM93" s="2" t="n">
         <v>41729</v>
       </c>
       <c r="AN93" t="s">
@@ -35963,7 +35963,7 @@
       <c r="A94" t="s">
         <v>1350</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>41751</v>
       </c>
       <c r="C94" t="s">
@@ -36065,16 +36065,16 @@
       <c r="AI94" t="s">
         <v>1362</v>
       </c>
-      <c r="AJ94" s="1" t="n">
+      <c r="AJ94" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="AK94" s="1" t="n">
+      <c r="AK94" s="2" t="n">
         <v>41772</v>
       </c>
-      <c r="AL94" s="1" t="n">
+      <c r="AL94" s="2" t="n">
         <v>41379</v>
       </c>
-      <c r="AM94" s="1" t="n">
+      <c r="AM94" s="2" t="n">
         <v>41729</v>
       </c>
       <c r="AN94" t="s">
@@ -36221,7 +36221,7 @@
       <c r="A95" t="s">
         <v>1363</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>41758</v>
       </c>
       <c r="C95" t="s">
@@ -36323,16 +36323,16 @@
       <c r="AI95" t="s">
         <v>1378</v>
       </c>
-      <c r="AJ95" s="1" t="n">
+      <c r="AJ95" s="2" t="n">
         <v>41737</v>
       </c>
-      <c r="AK95" s="1" t="n">
+      <c r="AK95" s="2" t="n">
         <v>41779</v>
       </c>
-      <c r="AL95" s="1" t="n">
+      <c r="AL95" s="2" t="n">
         <v>41386</v>
       </c>
-      <c r="AM95" s="1" t="n">
+      <c r="AM95" s="2" t="n">
         <v>41736</v>
       </c>
       <c r="AN95" t="s">
@@ -36479,7 +36479,7 @@
       <c r="A96" t="s">
         <v>1379</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>41786</v>
       </c>
       <c r="C96" t="s">
@@ -36581,16 +36581,16 @@
       <c r="AI96" t="s">
         <v>1389</v>
       </c>
-      <c r="AJ96" s="1" t="n">
+      <c r="AJ96" s="2" t="n">
         <v>41765</v>
       </c>
-      <c r="AK96" s="1" t="n">
+      <c r="AK96" s="2" t="n">
         <v>41807</v>
       </c>
-      <c r="AL96" s="1" t="n">
+      <c r="AL96" s="2" t="n">
         <v>41414</v>
       </c>
-      <c r="AM96" s="1" t="n">
+      <c r="AM96" s="2" t="n">
         <v>41764</v>
       </c>
       <c r="AN96" t="s">
@@ -36735,7 +36735,7 @@
       <c r="A97" t="s">
         <v>1390</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>41850</v>
       </c>
       <c r="C97" t="s">
@@ -36837,16 +36837,16 @@
       <c r="AI97" t="s">
         <v>1402</v>
       </c>
-      <c r="AJ97" s="1" t="n">
+      <c r="AJ97" s="2" t="n">
         <v>41829</v>
       </c>
-      <c r="AK97" s="1" t="n">
+      <c r="AK97" s="2" t="n">
         <v>41871</v>
       </c>
-      <c r="AL97" s="1" t="n">
+      <c r="AL97" s="2" t="n">
         <v>41478</v>
       </c>
-      <c r="AM97" s="1" t="n">
+      <c r="AM97" s="2" t="n">
         <v>41828</v>
       </c>
       <c r="AN97" t="s">
@@ -36993,7 +36993,7 @@
       <c r="A98" t="s">
         <v>1403</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>41949</v>
       </c>
       <c r="C98" t="s">
@@ -37095,16 +37095,16 @@
       <c r="AI98" t="s">
         <v>1414</v>
       </c>
-      <c r="AJ98" s="1" t="n">
+      <c r="AJ98" s="2" t="n">
         <v>41928</v>
       </c>
-      <c r="AK98" s="1" t="n">
+      <c r="AK98" s="2" t="n">
         <v>41970</v>
       </c>
-      <c r="AL98" s="1" t="n">
+      <c r="AL98" s="2" t="n">
         <v>41577</v>
       </c>
-      <c r="AM98" s="1" t="n">
+      <c r="AM98" s="2" t="n">
         <v>41927</v>
       </c>
       <c r="AN98" t="s">
@@ -37249,7 +37249,7 @@
       <c r="A99" t="s">
         <v>1415</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>41971</v>
       </c>
       <c r="C99" t="s">
@@ -37351,16 +37351,16 @@
       <c r="AI99" t="s">
         <v>1428</v>
       </c>
-      <c r="AJ99" s="1" t="n">
+      <c r="AJ99" s="2" t="n">
         <v>41950</v>
       </c>
-      <c r="AK99" s="1" t="n">
+      <c r="AK99" s="2" t="n">
         <v>41992</v>
       </c>
-      <c r="AL99" s="1" t="n">
+      <c r="AL99" s="2" t="n">
         <v>41599</v>
       </c>
-      <c r="AM99" s="1" t="n">
+      <c r="AM99" s="2" t="n">
         <v>41949</v>
       </c>
       <c r="AN99" t="s">
@@ -37505,7 +37505,7 @@
       <c r="A100" t="s">
         <v>1429</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>41981</v>
       </c>
       <c r="C100" t="s">
@@ -37607,16 +37607,16 @@
       <c r="AI100" t="s">
         <v>1439</v>
       </c>
-      <c r="AJ100" s="1" t="n">
+      <c r="AJ100" s="2" t="n">
         <v>41960</v>
       </c>
-      <c r="AK100" s="1" t="n">
+      <c r="AK100" s="2" t="n">
         <v>42002</v>
       </c>
-      <c r="AL100" s="1" t="n">
+      <c r="AL100" s="2" t="n">
         <v>41607</v>
       </c>
-      <c r="AM100" s="1" t="n">
+      <c r="AM100" s="2" t="n">
         <v>41957</v>
       </c>
       <c r="AN100" t="s">
@@ -37761,7 +37761,7 @@
       <c r="A101" t="s">
         <v>1440</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>42046</v>
       </c>
       <c r="C101" t="s">
@@ -37863,16 +37863,16 @@
       <c r="AI101" t="s">
         <v>1452</v>
       </c>
-      <c r="AJ101" s="1" t="n">
+      <c r="AJ101" s="2" t="n">
         <v>42025</v>
       </c>
-      <c r="AK101" s="1" t="n">
+      <c r="AK101" s="2" t="n">
         <v>42067</v>
       </c>
-      <c r="AL101" s="1" t="n">
+      <c r="AL101" s="2" t="n">
         <v>41674</v>
       </c>
-      <c r="AM101" s="1" t="n">
+      <c r="AM101" s="2" t="n">
         <v>42024</v>
       </c>
       <c r="AN101" t="s">
@@ -38019,7 +38019,7 @@
       <c r="A102" t="s">
         <v>1453</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>42052</v>
       </c>
       <c r="C102" t="s">
@@ -38121,16 +38121,16 @@
       <c r="AI102" t="s">
         <v>1465</v>
       </c>
-      <c r="AJ102" s="1" t="n">
+      <c r="AJ102" s="2" t="n">
         <v>42031</v>
       </c>
-      <c r="AK102" s="1" t="n">
+      <c r="AK102" s="2" t="n">
         <v>42073</v>
       </c>
-      <c r="AL102" s="1" t="n">
+      <c r="AL102" s="2" t="n">
         <v>41680</v>
       </c>
-      <c r="AM102" s="1" t="n">
+      <c r="AM102" s="2" t="n">
         <v>42030</v>
       </c>
       <c r="AN102" t="s">
@@ -38277,7 +38277,7 @@
       <c r="A103" t="s">
         <v>1466</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>42093</v>
       </c>
       <c r="C103" t="s">
@@ -38379,16 +38379,16 @@
       <c r="AI103" t="s">
         <v>1478</v>
       </c>
-      <c r="AJ103" s="1" t="n">
+      <c r="AJ103" s="2" t="n">
         <v>42072</v>
       </c>
-      <c r="AK103" s="1" t="n">
+      <c r="AK103" s="2" t="n">
         <v>42114</v>
       </c>
-      <c r="AL103" s="1" t="n">
+      <c r="AL103" s="2" t="n">
         <v>41719</v>
       </c>
-      <c r="AM103" s="1" t="n">
+      <c r="AM103" s="2" t="n">
         <v>42069</v>
       </c>
       <c r="AN103" t="s">
@@ -38533,7 +38533,7 @@
       <c r="A104" t="s">
         <v>1479</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>42095</v>
       </c>
       <c r="C104" t="s">
@@ -38635,16 +38635,16 @@
       <c r="AI104" t="s">
         <v>1493</v>
       </c>
-      <c r="AJ104" s="1" t="n">
+      <c r="AJ104" s="2" t="n">
         <v>42074</v>
       </c>
-      <c r="AK104" s="1" t="n">
+      <c r="AK104" s="2" t="n">
         <v>42116</v>
       </c>
-      <c r="AL104" s="1" t="n">
+      <c r="AL104" s="2" t="n">
         <v>41723</v>
       </c>
-      <c r="AM104" s="1" t="n">
+      <c r="AM104" s="2" t="n">
         <v>42073</v>
       </c>
       <c r="AN104" t="s">
@@ -38791,7 +38791,7 @@
       <c r="A105" t="s">
         <v>1494</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>42096</v>
       </c>
       <c r="C105" t="s">
@@ -38893,16 +38893,16 @@
       <c r="AI105" t="s">
         <v>1505</v>
       </c>
-      <c r="AJ105" s="1" t="n">
+      <c r="AJ105" s="2" t="n">
         <v>42075</v>
       </c>
-      <c r="AK105" s="1" t="n">
+      <c r="AK105" s="2" t="n">
         <v>42117</v>
       </c>
-      <c r="AL105" s="1" t="n">
+      <c r="AL105" s="2" t="n">
         <v>41724</v>
       </c>
-      <c r="AM105" s="1" t="n">
+      <c r="AM105" s="2" t="n">
         <v>42074</v>
       </c>
       <c r="AN105" t="s">
@@ -39047,7 +39047,7 @@
       <c r="A106" t="s">
         <v>1506</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>42111</v>
       </c>
       <c r="C106" t="s">
@@ -39149,16 +39149,16 @@
       <c r="AI106" t="s">
         <v>1518</v>
       </c>
-      <c r="AJ106" s="1" t="n">
+      <c r="AJ106" s="2" t="n">
         <v>42090</v>
       </c>
-      <c r="AK106" s="1" t="n">
+      <c r="AK106" s="2" t="n">
         <v>42132</v>
       </c>
-      <c r="AL106" s="1" t="n">
+      <c r="AL106" s="2" t="n">
         <v>41739</v>
       </c>
-      <c r="AM106" s="1" t="n">
+      <c r="AM106" s="2" t="n">
         <v>42089</v>
       </c>
       <c r="AN106" t="s">
@@ -39305,7 +39305,7 @@
       <c r="A107" t="s">
         <v>1519</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>42131</v>
       </c>
       <c r="C107" t="s">
@@ -39407,16 +39407,16 @@
       <c r="AI107" t="s">
         <v>1530</v>
       </c>
-      <c r="AJ107" s="1" t="n">
+      <c r="AJ107" s="2" t="n">
         <v>42110</v>
       </c>
-      <c r="AK107" s="1" t="n">
+      <c r="AK107" s="2" t="n">
         <v>42152</v>
       </c>
-      <c r="AL107" s="1" t="n">
+      <c r="AL107" s="2" t="n">
         <v>41759</v>
       </c>
-      <c r="AM107" s="1" t="n">
+      <c r="AM107" s="2" t="n">
         <v>42109</v>
       </c>
       <c r="AN107" t="s">
@@ -39561,7 +39561,7 @@
       <c r="A108" t="s">
         <v>1531</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>42143</v>
       </c>
       <c r="C108" t="s">
@@ -39663,16 +39663,16 @@
       <c r="AI108" t="s">
         <v>1543</v>
       </c>
-      <c r="AJ108" s="1" t="n">
+      <c r="AJ108" s="2" t="n">
         <v>42122</v>
       </c>
-      <c r="AK108" s="1" t="n">
+      <c r="AK108" s="2" t="n">
         <v>42164</v>
       </c>
-      <c r="AL108" s="1" t="n">
+      <c r="AL108" s="2" t="n">
         <v>41771</v>
       </c>
-      <c r="AM108" s="1" t="n">
+      <c r="AM108" s="2" t="n">
         <v>42121</v>
       </c>
       <c r="AN108" t="s">
@@ -39819,7 +39819,7 @@
       <c r="A109" t="s">
         <v>1544</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>42157</v>
       </c>
       <c r="C109" t="s">
@@ -39921,16 +39921,16 @@
       <c r="AI109" t="s">
         <v>1555</v>
       </c>
-      <c r="AJ109" s="1" t="n">
+      <c r="AJ109" s="2" t="n">
         <v>42136</v>
       </c>
-      <c r="AK109" s="1" t="n">
+      <c r="AK109" s="2" t="n">
         <v>42178</v>
       </c>
-      <c r="AL109" s="1" t="n">
+      <c r="AL109" s="2" t="n">
         <v>41785</v>
       </c>
-      <c r="AM109" s="1" t="n">
+      <c r="AM109" s="2" t="n">
         <v>42135</v>
       </c>
       <c r="AN109" t="s">
@@ -40075,7 +40075,7 @@
       <c r="A110" t="s">
         <v>1556</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>42158</v>
       </c>
       <c r="C110" t="s">
@@ -40177,16 +40177,16 @@
       <c r="AI110" t="s">
         <v>1568</v>
       </c>
-      <c r="AJ110" s="1" t="n">
+      <c r="AJ110" s="2" t="n">
         <v>42137</v>
       </c>
-      <c r="AK110" s="1" t="n">
+      <c r="AK110" s="2" t="n">
         <v>42179</v>
       </c>
-      <c r="AL110" s="1" t="n">
+      <c r="AL110" s="2" t="n">
         <v>41786</v>
       </c>
-      <c r="AM110" s="1" t="n">
+      <c r="AM110" s="2" t="n">
         <v>42136</v>
       </c>
       <c r="AN110" t="s">
@@ -40331,7 +40331,7 @@
       <c r="A111" t="s">
         <v>1569</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>42187</v>
       </c>
       <c r="C111" t="s">
@@ -40433,16 +40433,16 @@
       <c r="AI111" t="s">
         <v>1581</v>
       </c>
-      <c r="AJ111" s="1" t="n">
+      <c r="AJ111" s="2" t="n">
         <v>42166</v>
       </c>
-      <c r="AK111" s="1" t="n">
+      <c r="AK111" s="2" t="n">
         <v>42208</v>
       </c>
-      <c r="AL111" s="1" t="n">
+      <c r="AL111" s="2" t="n">
         <v>41815</v>
       </c>
-      <c r="AM111" s="1" t="n">
+      <c r="AM111" s="2" t="n">
         <v>42165</v>
       </c>
       <c r="AN111" t="s">
@@ -40589,7 +40589,7 @@
       <c r="A112" t="s">
         <v>1582</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>42212</v>
       </c>
       <c r="C112" t="s">
@@ -40691,16 +40691,16 @@
       <c r="AI112" t="s">
         <v>1595</v>
       </c>
-      <c r="AJ112" s="1" t="n">
+      <c r="AJ112" s="2" t="n">
         <v>42191</v>
       </c>
-      <c r="AK112" s="1" t="n">
+      <c r="AK112" s="2" t="n">
         <v>42233</v>
       </c>
-      <c r="AL112" s="1" t="n">
+      <c r="AL112" s="2" t="n">
         <v>41838</v>
       </c>
-      <c r="AM112" s="1" t="n">
+      <c r="AM112" s="2" t="n">
         <v>42188</v>
       </c>
       <c r="AN112" t="s">
@@ -40845,7 +40845,7 @@
       <c r="A113" t="s">
         <v>1596</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>42222</v>
       </c>
       <c r="C113" t="s">
@@ -40947,16 +40947,16 @@
       <c r="AI113" t="s">
         <v>1608</v>
       </c>
-      <c r="AJ113" s="1" t="n">
+      <c r="AJ113" s="2" t="n">
         <v>42201</v>
       </c>
-      <c r="AK113" s="1" t="n">
+      <c r="AK113" s="2" t="n">
         <v>42243</v>
       </c>
-      <c r="AL113" s="1" t="n">
+      <c r="AL113" s="2" t="n">
         <v>41850</v>
       </c>
-      <c r="AM113" s="1" t="n">
+      <c r="AM113" s="2" t="n">
         <v>42200</v>
       </c>
       <c r="AN113" t="s">
@@ -41103,7 +41103,7 @@
       <c r="A114" t="s">
         <v>1609</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="2" t="n">
         <v>42255</v>
       </c>
       <c r="C114" t="s">
@@ -41205,16 +41205,16 @@
       <c r="AI114" t="s">
         <v>1621</v>
       </c>
-      <c r="AJ114" s="1" t="n">
+      <c r="AJ114" s="2" t="n">
         <v>42234</v>
       </c>
-      <c r="AK114" s="1" t="n">
+      <c r="AK114" s="2" t="n">
         <v>42276</v>
       </c>
-      <c r="AL114" s="1" t="n">
+      <c r="AL114" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="AM114" s="1" t="n">
+      <c r="AM114" s="2" t="n">
         <v>42233</v>
       </c>
       <c r="AN114" t="s">
@@ -41361,7 +41361,7 @@
       <c r="A115" t="s">
         <v>1622</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="2" t="n">
         <v>42326</v>
       </c>
       <c r="C115" t="s">
@@ -41463,16 +41463,16 @@
       <c r="AI115" t="s">
         <v>1633</v>
       </c>
-      <c r="AJ115" s="1" t="n">
+      <c r="AJ115" s="2" t="n">
         <v>42305</v>
       </c>
-      <c r="AK115" s="1" t="n">
+      <c r="AK115" s="2" t="n">
         <v>42347</v>
       </c>
-      <c r="AL115" s="1" t="n">
+      <c r="AL115" s="2" t="n">
         <v>41954</v>
       </c>
-      <c r="AM115" s="1" t="n">
+      <c r="AM115" s="2" t="n">
         <v>42304</v>
       </c>
       <c r="AN115" t="s">
@@ -41617,7 +41617,7 @@
       <c r="A116" t="s">
         <v>1634</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="2" t="n">
         <v>42355</v>
       </c>
       <c r="C116" t="s">
@@ -41719,16 +41719,16 @@
       <c r="AI116" t="s">
         <v>1646</v>
       </c>
-      <c r="AJ116" s="1" t="n">
+      <c r="AJ116" s="2" t="n">
         <v>42334</v>
       </c>
-      <c r="AK116" s="1" t="n">
+      <c r="AK116" s="2" t="n">
         <v>42376</v>
       </c>
-      <c r="AL116" s="1" t="n">
+      <c r="AL116" s="2" t="n">
         <v>41983</v>
       </c>
-      <c r="AM116" s="1" t="n">
+      <c r="AM116" s="2" t="n">
         <v>42333</v>
       </c>
       <c r="AN116" t="s">
@@ -41875,7 +41875,7 @@
       <c r="A117" t="s">
         <v>1647</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="2" t="n">
         <v>42424</v>
       </c>
       <c r="C117" t="s">
@@ -41977,16 +41977,16 @@
       <c r="AI117" t="s">
         <v>1660</v>
       </c>
-      <c r="AJ117" s="1" t="n">
+      <c r="AJ117" s="2" t="n">
         <v>42403</v>
       </c>
-      <c r="AK117" s="1" t="n">
+      <c r="AK117" s="2" t="n">
         <v>42445</v>
       </c>
-      <c r="AL117" s="1" t="n">
+      <c r="AL117" s="2" t="n">
         <v>42052</v>
       </c>
-      <c r="AM117" s="1" t="n">
+      <c r="AM117" s="2" t="n">
         <v>42402</v>
       </c>
       <c r="AN117" t="s">
@@ -42131,7 +42131,7 @@
       <c r="A118" t="s">
         <v>1661</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="2" t="n">
         <v>42446</v>
       </c>
       <c r="C118" t="s">
@@ -42233,16 +42233,16 @@
       <c r="AI118" t="s">
         <v>1673</v>
       </c>
-      <c r="AJ118" s="1" t="n">
+      <c r="AJ118" s="2" t="n">
         <v>42425</v>
       </c>
-      <c r="AK118" s="1" t="n">
+      <c r="AK118" s="2" t="n">
         <v>42467</v>
       </c>
-      <c r="AL118" s="1" t="n">
+      <c r="AL118" s="2" t="n">
         <v>42074</v>
       </c>
-      <c r="AM118" s="1" t="n">
+      <c r="AM118" s="2" t="n">
         <v>42424</v>
       </c>
       <c r="AN118" t="s">
@@ -42389,7 +42389,7 @@
       <c r="A119" t="s">
         <v>1674</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="2" t="n">
         <v>42458</v>
       </c>
       <c r="C119" t="s">
@@ -42491,16 +42491,16 @@
       <c r="AI119" t="s">
         <v>1686</v>
       </c>
-      <c r="AJ119" s="1" t="n">
+      <c r="AJ119" s="2" t="n">
         <v>42437</v>
       </c>
-      <c r="AK119" s="1" t="n">
+      <c r="AK119" s="2" t="n">
         <v>42479</v>
       </c>
-      <c r="AL119" s="1" t="n">
+      <c r="AL119" s="2" t="n">
         <v>42086</v>
       </c>
-      <c r="AM119" s="1" t="n">
+      <c r="AM119" s="2" t="n">
         <v>42436</v>
       </c>
       <c r="AN119" t="s">
@@ -42647,7 +42647,7 @@
       <c r="A120" t="s">
         <v>1687</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="2" t="n">
         <v>42475</v>
       </c>
       <c r="C120" t="s">
@@ -42749,16 +42749,16 @@
       <c r="AI120" t="s">
         <v>1699</v>
       </c>
-      <c r="AJ120" s="1" t="n">
+      <c r="AJ120" s="2" t="n">
         <v>42454</v>
       </c>
-      <c r="AK120" s="1" t="n">
+      <c r="AK120" s="2" t="n">
         <v>42496</v>
       </c>
-      <c r="AL120" s="1" t="n">
+      <c r="AL120" s="2" t="n">
         <v>42103</v>
       </c>
-      <c r="AM120" s="1" t="n">
+      <c r="AM120" s="2" t="n">
         <v>42453</v>
       </c>
       <c r="AN120" t="s">
@@ -42905,7 +42905,7 @@
       <c r="A121" t="s">
         <v>1700</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="2" t="n">
         <v>42494</v>
       </c>
       <c r="C121" t="s">
@@ -43007,16 +43007,16 @@
       <c r="AI121" t="s">
         <v>1714</v>
       </c>
-      <c r="AJ121" s="1" t="n">
+      <c r="AJ121" s="2" t="n">
         <v>42473</v>
       </c>
-      <c r="AK121" s="1" t="n">
+      <c r="AK121" s="2" t="n">
         <v>42515</v>
       </c>
-      <c r="AL121" s="1" t="n">
+      <c r="AL121" s="2" t="n">
         <v>42122</v>
       </c>
-      <c r="AM121" s="1" t="n">
+      <c r="AM121" s="2" t="n">
         <v>42472</v>
       </c>
       <c r="AN121" t="s">
@@ -43163,7 +43163,7 @@
       <c r="A122" t="s">
         <v>1715</v>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="2" t="n">
         <v>42500</v>
       </c>
       <c r="C122" t="s">
@@ -43265,16 +43265,16 @@
       <c r="AI122" t="s">
         <v>1728</v>
       </c>
-      <c r="AJ122" s="1" t="n">
+      <c r="AJ122" s="2" t="n">
         <v>42479</v>
       </c>
-      <c r="AK122" s="1" t="n">
+      <c r="AK122" s="2" t="n">
         <v>42521</v>
       </c>
-      <c r="AL122" s="1" t="n">
+      <c r="AL122" s="2" t="n">
         <v>42128</v>
       </c>
-      <c r="AM122" s="1" t="n">
+      <c r="AM122" s="2" t="n">
         <v>42478</v>
       </c>
       <c r="AN122" t="s">
@@ -43419,7 +43419,7 @@
       <c r="A123" t="s">
         <v>1729</v>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="2" t="n">
         <v>42508</v>
       </c>
       <c r="C123" t="s">
@@ -43521,16 +43521,16 @@
       <c r="AI123" t="s">
         <v>1740</v>
       </c>
-      <c r="AJ123" s="1" t="n">
+      <c r="AJ123" s="2" t="n">
         <v>42487</v>
       </c>
-      <c r="AK123" s="1" t="n">
+      <c r="AK123" s="2" t="n">
         <v>42529</v>
       </c>
-      <c r="AL123" s="1" t="n">
+      <c r="AL123" s="2" t="n">
         <v>42136</v>
       </c>
-      <c r="AM123" s="1" t="n">
+      <c r="AM123" s="2" t="n">
         <v>42486</v>
       </c>
       <c r="AN123" t="s">
@@ -43675,7 +43675,7 @@
       <c r="A124" t="s">
         <v>1741</v>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="2" t="n">
         <v>42551</v>
       </c>
       <c r="C124" t="s">
@@ -43777,16 +43777,16 @@
       <c r="AI124" t="s">
         <v>1753</v>
       </c>
-      <c r="AJ124" s="1" t="n">
+      <c r="AJ124" s="2" t="n">
         <v>42530</v>
       </c>
-      <c r="AK124" s="1" t="n">
+      <c r="AK124" s="2" t="n">
         <v>42572</v>
       </c>
-      <c r="AL124" s="1" t="n">
+      <c r="AL124" s="2" t="n">
         <v>42179</v>
       </c>
-      <c r="AM124" s="1" t="n">
+      <c r="AM124" s="2" t="n">
         <v>42529</v>
       </c>
       <c r="AN124" t="s">
@@ -43931,7 +43931,7 @@
       <c r="A125" t="s">
         <v>1754</v>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="2" t="n">
         <v>42552</v>
       </c>
       <c r="C125" t="s">
@@ -44033,16 +44033,16 @@
       <c r="AI125" t="s">
         <v>1765</v>
       </c>
-      <c r="AJ125" s="1" t="n">
+      <c r="AJ125" s="2" t="n">
         <v>42531</v>
       </c>
-      <c r="AK125" s="1" t="n">
+      <c r="AK125" s="2" t="n">
         <v>42573</v>
       </c>
-      <c r="AL125" s="1" t="n">
+      <c r="AL125" s="2" t="n">
         <v>42180</v>
       </c>
-      <c r="AM125" s="1" t="n">
+      <c r="AM125" s="2" t="n">
         <v>42530</v>
       </c>
       <c r="AN125" t="s">
@@ -44187,7 +44187,7 @@
       <c r="A126" t="s">
         <v>1766</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="2" t="n">
         <v>42565</v>
       </c>
       <c r="C126" t="s">
@@ -44289,16 +44289,16 @@
       <c r="AI126" t="s">
         <v>1778</v>
       </c>
-      <c r="AJ126" s="1" t="n">
+      <c r="AJ126" s="2" t="n">
         <v>42544</v>
       </c>
-      <c r="AK126" s="1" t="n">
+      <c r="AK126" s="2" t="n">
         <v>42586</v>
       </c>
-      <c r="AL126" s="1" t="n">
+      <c r="AL126" s="2" t="n">
         <v>42193</v>
       </c>
-      <c r="AM126" s="1" t="n">
+      <c r="AM126" s="2" t="n">
         <v>42543</v>
       </c>
       <c r="AN126" t="s">
@@ -44445,7 +44445,7 @@
       <c r="A127" t="s">
         <v>1779</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="2" t="n">
         <v>42607</v>
       </c>
       <c r="C127" t="s">
@@ -44547,16 +44547,16 @@
       <c r="AI127" t="s">
         <v>1792</v>
       </c>
-      <c r="AJ127" s="1" t="n">
+      <c r="AJ127" s="2" t="n">
         <v>42586</v>
       </c>
-      <c r="AK127" s="1" t="n">
+      <c r="AK127" s="2" t="n">
         <v>42628</v>
       </c>
-      <c r="AL127" s="1" t="n">
+      <c r="AL127" s="2" t="n">
         <v>42235</v>
       </c>
-      <c r="AM127" s="1" t="n">
+      <c r="AM127" s="2" t="n">
         <v>42585</v>
       </c>
       <c r="AN127" t="s">
@@ -44701,7 +44701,7 @@
       <c r="A128" t="s">
         <v>1793</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="2" t="n">
         <v>42667</v>
       </c>
       <c r="C128" t="s">
@@ -44803,16 +44803,16 @@
       <c r="AI128" t="s">
         <v>1806</v>
       </c>
-      <c r="AJ128" s="1" t="n">
+      <c r="AJ128" s="2" t="n">
         <v>42646</v>
       </c>
-      <c r="AK128" s="1" t="n">
+      <c r="AK128" s="2" t="n">
         <v>42688</v>
       </c>
-      <c r="AL128" s="1" t="n">
+      <c r="AL128" s="2" t="n">
         <v>42293</v>
       </c>
-      <c r="AM128" s="1" t="n">
+      <c r="AM128" s="2" t="n">
         <v>42643</v>
       </c>
       <c r="AN128" t="s">
@@ -44957,7 +44957,7 @@
       <c r="A129" t="s">
         <v>1807</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="2" t="n">
         <v>42669</v>
       </c>
       <c r="C129" t="s">
@@ -45059,16 +45059,16 @@
       <c r="AI129" t="s">
         <v>1819</v>
       </c>
-      <c r="AJ129" s="1" t="n">
+      <c r="AJ129" s="2" t="n">
         <v>42648</v>
       </c>
-      <c r="AK129" s="1" t="n">
+      <c r="AK129" s="2" t="n">
         <v>42690</v>
       </c>
-      <c r="AL129" s="1" t="n">
+      <c r="AL129" s="2" t="n">
         <v>42297</v>
       </c>
-      <c r="AM129" s="1" t="n">
+      <c r="AM129" s="2" t="n">
         <v>42647</v>
       </c>
       <c r="AN129" t="s">
@@ -45215,7 +45215,7 @@
       <c r="A130" t="s">
         <v>1820</v>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="2" t="n">
         <v>42720</v>
       </c>
       <c r="C130" t="s">
@@ -45317,16 +45317,16 @@
       <c r="AI130" t="s">
         <v>1832</v>
       </c>
-      <c r="AJ130" s="1" t="n">
+      <c r="AJ130" s="2" t="n">
         <v>42699</v>
       </c>
-      <c r="AK130" s="1" t="n">
+      <c r="AK130" s="2" t="n">
         <v>42741</v>
       </c>
-      <c r="AL130" s="1" t="n">
+      <c r="AL130" s="2" t="n">
         <v>42348</v>
       </c>
-      <c r="AM130" s="1" t="n">
+      <c r="AM130" s="2" t="n">
         <v>42698</v>
       </c>
       <c r="AN130" t="s">
@@ -45473,7 +45473,7 @@
       <c r="A131" t="s">
         <v>1833</v>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="2" t="n">
         <v>42751</v>
       </c>
       <c r="C131" t="s">
@@ -45575,16 +45575,16 @@
       <c r="AI131" t="s">
         <v>1846</v>
       </c>
-      <c r="AJ131" s="1" t="n">
+      <c r="AJ131" s="2" t="n">
         <v>42730</v>
       </c>
-      <c r="AK131" s="1" t="n">
+      <c r="AK131" s="2" t="n">
         <v>42772</v>
       </c>
-      <c r="AL131" s="1" t="n">
+      <c r="AL131" s="2" t="n">
         <v>42377</v>
       </c>
-      <c r="AM131" s="1" t="n">
+      <c r="AM131" s="2" t="n">
         <v>42727</v>
       </c>
       <c r="AN131" t="s">
@@ -45731,7 +45731,7 @@
       <c r="A132" t="s">
         <v>1847</v>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="2" t="n">
         <v>42779</v>
       </c>
       <c r="C132" t="s">
@@ -45833,16 +45833,16 @@
       <c r="AI132" t="s">
         <v>1859</v>
       </c>
-      <c r="AJ132" s="1" t="n">
+      <c r="AJ132" s="2" t="n">
         <v>42758</v>
       </c>
-      <c r="AK132" s="1" t="n">
+      <c r="AK132" s="2" t="n">
         <v>42800</v>
       </c>
-      <c r="AL132" s="1" t="n">
+      <c r="AL132" s="2" t="n">
         <v>42405</v>
       </c>
-      <c r="AM132" s="1" t="n">
+      <c r="AM132" s="2" t="n">
         <v>42755</v>
       </c>
       <c r="AN132" t="s">
@@ -45989,7 +45989,7 @@
       <c r="A133" t="s">
         <v>1860</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="2" t="n">
         <v>42824</v>
       </c>
       <c r="C133" t="s">
@@ -46091,16 +46091,16 @@
       <c r="AI133" t="s">
         <v>1870</v>
       </c>
-      <c r="AJ133" s="1" t="n">
+      <c r="AJ133" s="2" t="n">
         <v>42803</v>
       </c>
-      <c r="AK133" s="1" t="n">
+      <c r="AK133" s="2" t="n">
         <v>42845</v>
       </c>
-      <c r="AL133" s="1" t="n">
+      <c r="AL133" s="2" t="n">
         <v>42452</v>
       </c>
-      <c r="AM133" s="1" t="n">
+      <c r="AM133" s="2" t="n">
         <v>42802</v>
       </c>
       <c r="AN133" t="s">
@@ -46245,7 +46245,7 @@
       <c r="A134" t="s">
         <v>1871</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="2" t="n">
         <v>42828</v>
       </c>
       <c r="C134" t="s">
@@ -46347,16 +46347,16 @@
       <c r="AI134" t="s">
         <v>1883</v>
       </c>
-      <c r="AJ134" s="1" t="n">
+      <c r="AJ134" s="2" t="n">
         <v>42807</v>
       </c>
-      <c r="AK134" s="1" t="n">
+      <c r="AK134" s="2" t="n">
         <v>42849</v>
       </c>
-      <c r="AL134" s="1" t="n">
+      <c r="AL134" s="2" t="n">
         <v>42454</v>
       </c>
-      <c r="AM134" s="1" t="n">
+      <c r="AM134" s="2" t="n">
         <v>42804</v>
       </c>
       <c r="AN134" t="s">
@@ -46503,7 +46503,7 @@
       <c r="A135" t="s">
         <v>1884</v>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="2" t="n">
         <v>42845</v>
       </c>
       <c r="C135" t="s">
@@ -46605,16 +46605,16 @@
       <c r="AI135" t="s">
         <v>1895</v>
       </c>
-      <c r="AJ135" s="1" t="n">
+      <c r="AJ135" s="2" t="n">
         <v>42824</v>
       </c>
-      <c r="AK135" s="1" t="n">
+      <c r="AK135" s="2" t="n">
         <v>42866</v>
       </c>
-      <c r="AL135" s="1" t="n">
+      <c r="AL135" s="2" t="n">
         <v>42473</v>
       </c>
-      <c r="AM135" s="1" t="n">
+      <c r="AM135" s="2" t="n">
         <v>42823</v>
       </c>
       <c r="AN135" t="s">
@@ -46761,7 +46761,7 @@
       <c r="A136" t="s">
         <v>1896</v>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="2" t="n">
         <v>42872</v>
       </c>
       <c r="C136" t="s">
@@ -46863,16 +46863,16 @@
       <c r="AI136" t="s">
         <v>1908</v>
       </c>
-      <c r="AJ136" s="1" t="n">
+      <c r="AJ136" s="2" t="n">
         <v>42851</v>
       </c>
-      <c r="AK136" s="1" t="n">
+      <c r="AK136" s="2" t="n">
         <v>42893</v>
       </c>
-      <c r="AL136" s="1" t="n">
+      <c r="AL136" s="2" t="n">
         <v>42500</v>
       </c>
-      <c r="AM136" s="1" t="n">
+      <c r="AM136" s="2" t="n">
         <v>42850</v>
       </c>
       <c r="AN136" t="s">
@@ -47017,7 +47017,7 @@
       <c r="A137" t="s">
         <v>1909</v>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="2" t="n">
         <v>42888</v>
       </c>
       <c r="C137" t="s">
@@ -47119,16 +47119,16 @@
       <c r="AI137" t="s">
         <v>1919</v>
       </c>
-      <c r="AJ137" s="1" t="n">
+      <c r="AJ137" s="2" t="n">
         <v>42867</v>
       </c>
-      <c r="AK137" s="1" t="n">
+      <c r="AK137" s="2" t="n">
         <v>42909</v>
       </c>
-      <c r="AL137" s="1" t="n">
+      <c r="AL137" s="2" t="n">
         <v>42516</v>
       </c>
-      <c r="AM137" s="1" t="n">
+      <c r="AM137" s="2" t="n">
         <v>42866</v>
       </c>
       <c r="AN137" t="s">
@@ -47273,7 +47273,7 @@
       <c r="A138" t="s">
         <v>1920</v>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="2" t="n">
         <v>42916</v>
       </c>
       <c r="C138" t="s">
@@ -47375,16 +47375,16 @@
       <c r="AI138" t="s">
         <v>1933</v>
       </c>
-      <c r="AJ138" s="1" t="n">
+      <c r="AJ138" s="2" t="n">
         <v>42895</v>
       </c>
-      <c r="AK138" s="1" t="n">
+      <c r="AK138" s="2" t="n">
         <v>42937</v>
       </c>
-      <c r="AL138" s="1" t="n">
+      <c r="AL138" s="2" t="n">
         <v>42544</v>
       </c>
-      <c r="AM138" s="1" t="n">
+      <c r="AM138" s="2" t="n">
         <v>42894</v>
       </c>
       <c r="AN138" t="s">
@@ -47531,7 +47531,7 @@
       <c r="A139" t="s">
         <v>1934</v>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="2" t="n">
         <v>42958</v>
       </c>
       <c r="C139" t="s">
@@ -47633,16 +47633,16 @@
       <c r="AI139" t="s">
         <v>1946</v>
       </c>
-      <c r="AJ139" s="1" t="n">
+      <c r="AJ139" s="2" t="n">
         <v>42937</v>
       </c>
-      <c r="AK139" s="1" t="n">
+      <c r="AK139" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="AL139" s="1" t="n">
+      <c r="AL139" s="2" t="n">
         <v>42586</v>
       </c>
-      <c r="AM139" s="1" t="n">
+      <c r="AM139" s="2" t="n">
         <v>42936</v>
       </c>
       <c r="AN139" t="s">
@@ -47789,7 +47789,7 @@
       <c r="A140" t="s">
         <v>1947</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="2" t="n">
         <v>42965</v>
       </c>
       <c r="C140" t="s">
@@ -47891,16 +47891,16 @@
       <c r="AI140" t="s">
         <v>1958</v>
       </c>
-      <c r="AJ140" s="1" t="n">
+      <c r="AJ140" s="2" t="n">
         <v>42944</v>
       </c>
-      <c r="AK140" s="1" t="n">
+      <c r="AK140" s="2" t="n">
         <v>42986</v>
       </c>
-      <c r="AL140" s="1" t="n">
+      <c r="AL140" s="2" t="n">
         <v>42593</v>
       </c>
-      <c r="AM140" s="1" t="n">
+      <c r="AM140" s="2" t="n">
         <v>42943</v>
       </c>
       <c r="AN140" t="s">
@@ -48047,7 +48047,7 @@
       <c r="A141" t="s">
         <v>1959</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="2" t="n">
         <v>43033</v>
       </c>
       <c r="C141" t="s">
@@ -48149,16 +48149,16 @@
       <c r="AI141" t="s">
         <v>1970</v>
       </c>
-      <c r="AJ141" s="1" t="n">
+      <c r="AJ141" s="2" t="n">
         <v>43012</v>
       </c>
-      <c r="AK141" s="1" t="n">
+      <c r="AK141" s="2" t="n">
         <v>43054</v>
       </c>
-      <c r="AL141" s="1" t="n">
+      <c r="AL141" s="2" t="n">
         <v>42661</v>
       </c>
-      <c r="AM141" s="1" t="n">
+      <c r="AM141" s="2" t="n">
         <v>43011</v>
       </c>
       <c r="AN141" t="s">
@@ -48303,7 +48303,7 @@
       <c r="A142" t="s">
         <v>1971</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="2" t="n">
         <v>43053</v>
       </c>
       <c r="C142" t="s">
@@ -48405,16 +48405,16 @@
       <c r="AI142" t="s">
         <v>1983</v>
       </c>
-      <c r="AJ142" s="1" t="n">
+      <c r="AJ142" s="2" t="n">
         <v>43032</v>
       </c>
-      <c r="AK142" s="1" t="n">
+      <c r="AK142" s="2" t="n">
         <v>43074</v>
       </c>
-      <c r="AL142" s="1" t="n">
+      <c r="AL142" s="2" t="n">
         <v>42681</v>
       </c>
-      <c r="AM142" s="1" t="n">
+      <c r="AM142" s="2" t="n">
         <v>43031</v>
       </c>
       <c r="AN142" t="s">
@@ -48561,7 +48561,7 @@
       <c r="A143" t="s">
         <v>1984</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="2" t="n">
         <v>43066</v>
       </c>
       <c r="C143" t="s">
@@ -48663,16 +48663,16 @@
       <c r="AI143" t="s">
         <v>1995</v>
       </c>
-      <c r="AJ143" s="1" t="n">
+      <c r="AJ143" s="2" t="n">
         <v>43045</v>
       </c>
-      <c r="AK143" s="1" t="n">
+      <c r="AK143" s="2" t="n">
         <v>43087</v>
       </c>
-      <c r="AL143" s="1" t="n">
+      <c r="AL143" s="2" t="n">
         <v>42692</v>
       </c>
-      <c r="AM143" s="1" t="n">
+      <c r="AM143" s="2" t="n">
         <v>43042</v>
       </c>
       <c r="AN143" t="s">
@@ -48817,7 +48817,7 @@
       <c r="A144" t="s">
         <v>1996</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="2" t="n">
         <v>43073</v>
       </c>
       <c r="C144" t="s">
@@ -48919,16 +48919,16 @@
       <c r="AI144" t="s">
         <v>2008</v>
       </c>
-      <c r="AJ144" s="1" t="n">
+      <c r="AJ144" s="2" t="n">
         <v>43052</v>
       </c>
-      <c r="AK144" s="1" t="n">
+      <c r="AK144" s="2" t="n">
         <v>43094</v>
       </c>
-      <c r="AL144" s="1" t="n">
+      <c r="AL144" s="2" t="n">
         <v>42699</v>
       </c>
-      <c r="AM144" s="1" t="n">
+      <c r="AM144" s="2" t="n">
         <v>43049</v>
       </c>
       <c r="AN144" t="s">
@@ -49075,7 +49075,7 @@
       <c r="A145" t="s">
         <v>2009</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="2" t="n">
         <v>43083</v>
       </c>
       <c r="C145" t="s">
@@ -49177,16 +49177,16 @@
       <c r="AI145" t="s">
         <v>2023</v>
       </c>
-      <c r="AJ145" s="1" t="n">
+      <c r="AJ145" s="2" t="n">
         <v>43062</v>
       </c>
-      <c r="AK145" s="1" t="n">
+      <c r="AK145" s="2" t="n">
         <v>43104</v>
       </c>
-      <c r="AL145" s="1" t="n">
+      <c r="AL145" s="2" t="n">
         <v>42711</v>
       </c>
-      <c r="AM145" s="1" t="n">
+      <c r="AM145" s="2" t="n">
         <v>43061</v>
       </c>
       <c r="AN145" t="s">
@@ -49333,7 +49333,7 @@
       <c r="A146" t="s">
         <v>2024</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="2" t="n">
         <v>43087</v>
       </c>
       <c r="C146" t="s">
@@ -49435,16 +49435,16 @@
       <c r="AI146" t="s">
         <v>2035</v>
       </c>
-      <c r="AJ146" s="1" t="n">
+      <c r="AJ146" s="2" t="n">
         <v>43066</v>
       </c>
-      <c r="AK146" s="1" t="n">
+      <c r="AK146" s="2" t="n">
         <v>43108</v>
       </c>
-      <c r="AL146" s="1" t="n">
+      <c r="AL146" s="2" t="n">
         <v>42713</v>
       </c>
-      <c r="AM146" s="1" t="n">
+      <c r="AM146" s="2" t="n">
         <v>43063</v>
       </c>
       <c r="AN146" t="s">
@@ -49589,7 +49589,7 @@
       <c r="A147" t="s">
         <v>2036</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="2" t="n">
         <v>43088</v>
       </c>
       <c r="C147" t="s">
@@ -49691,16 +49691,16 @@
       <c r="AI147" t="s">
         <v>2050</v>
       </c>
-      <c r="AJ147" s="1" t="n">
+      <c r="AJ147" s="2" t="n">
         <v>43067</v>
       </c>
-      <c r="AK147" s="1" t="n">
+      <c r="AK147" s="2" t="n">
         <v>43109</v>
       </c>
-      <c r="AL147" s="1" t="n">
+      <c r="AL147" s="2" t="n">
         <v>42716</v>
       </c>
-      <c r="AM147" s="1" t="n">
+      <c r="AM147" s="2" t="n">
         <v>43066</v>
       </c>
       <c r="AN147" t="s">
@@ -49847,7 +49847,7 @@
       <c r="A148" t="s">
         <v>2051</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="2" t="n">
         <v>43129</v>
       </c>
       <c r="C148" t="s">
@@ -49949,16 +49949,16 @@
       <c r="AI148" t="s">
         <v>2064</v>
       </c>
-      <c r="AJ148" s="1" t="n">
+      <c r="AJ148" s="2" t="n">
         <v>43108</v>
       </c>
-      <c r="AK148" s="1" t="n">
+      <c r="AK148" s="2" t="n">
         <v>43150</v>
       </c>
-      <c r="AL148" s="1" t="n">
+      <c r="AL148" s="2" t="n">
         <v>42755</v>
       </c>
-      <c r="AM148" s="1" t="n">
+      <c r="AM148" s="2" t="n">
         <v>43105</v>
       </c>
       <c r="AN148" t="s">
@@ -50105,7 +50105,7 @@
       <c r="A149" t="s">
         <v>2065</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="2" t="n">
         <v>43131</v>
       </c>
       <c r="C149" t="s">
@@ -50207,16 +50207,16 @@
       <c r="AI149" t="s">
         <v>2076</v>
       </c>
-      <c r="AJ149" s="1" t="n">
+      <c r="AJ149" s="2" t="n">
         <v>43110</v>
       </c>
-      <c r="AK149" s="1" t="n">
+      <c r="AK149" s="2" t="n">
         <v>43152</v>
       </c>
-      <c r="AL149" s="1" t="n">
+      <c r="AL149" s="2" t="n">
         <v>42759</v>
       </c>
-      <c r="AM149" s="1" t="n">
+      <c r="AM149" s="2" t="n">
         <v>43109</v>
       </c>
       <c r="AN149" t="s">
@@ -50361,7 +50361,7 @@
       <c r="A150" t="s">
         <v>2077</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="2" t="n">
         <v>43171</v>
       </c>
       <c r="C150" t="s">
@@ -50463,16 +50463,16 @@
       <c r="AI150" t="s">
         <v>2088</v>
       </c>
-      <c r="AJ150" s="1" t="n">
+      <c r="AJ150" s="2" t="n">
         <v>43150</v>
       </c>
-      <c r="AK150" s="1" t="n">
+      <c r="AK150" s="2" t="n">
         <v>43192</v>
       </c>
-      <c r="AL150" s="1" t="n">
+      <c r="AL150" s="2" t="n">
         <v>42797</v>
       </c>
-      <c r="AM150" s="1" t="n">
+      <c r="AM150" s="2" t="n">
         <v>43147</v>
       </c>
       <c r="AN150" t="s">
@@ -50617,7 +50617,7 @@
       <c r="A151" t="s">
         <v>2089</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="2" t="n">
         <v>43171</v>
       </c>
       <c r="C151" t="s">
@@ -50719,16 +50719,16 @@
       <c r="AI151" t="s">
         <v>2103</v>
       </c>
-      <c r="AJ151" s="1" t="n">
+      <c r="AJ151" s="2" t="n">
         <v>43150</v>
       </c>
-      <c r="AK151" s="1" t="n">
+      <c r="AK151" s="2" t="n">
         <v>43192</v>
       </c>
-      <c r="AL151" s="1" t="n">
+      <c r="AL151" s="2" t="n">
         <v>42797</v>
       </c>
-      <c r="AM151" s="1" t="n">
+      <c r="AM151" s="2" t="n">
         <v>43147</v>
       </c>
       <c r="AN151" t="s">
@@ -50875,7 +50875,7 @@
       <c r="A152" t="s">
         <v>2104</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="2" t="n">
         <v>43179</v>
       </c>
       <c r="C152" t="s">
@@ -50977,16 +50977,16 @@
       <c r="AI152" t="s">
         <v>2116</v>
       </c>
-      <c r="AJ152" s="1" t="n">
+      <c r="AJ152" s="2" t="n">
         <v>43158</v>
       </c>
-      <c r="AK152" s="1" t="n">
+      <c r="AK152" s="2" t="n">
         <v>43200</v>
       </c>
-      <c r="AL152" s="1" t="n">
+      <c r="AL152" s="2" t="n">
         <v>42807</v>
       </c>
-      <c r="AM152" s="1" t="n">
+      <c r="AM152" s="2" t="n">
         <v>43157</v>
       </c>
       <c r="AN152" t="s">
@@ -51133,7 +51133,7 @@
       <c r="A153" t="s">
         <v>2117</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="2" t="n">
         <v>43277</v>
       </c>
       <c r="C153" t="s">
@@ -51235,16 +51235,16 @@
       <c r="AI153" t="s">
         <v>2131</v>
       </c>
-      <c r="AJ153" s="1" t="n">
+      <c r="AJ153" s="2" t="n">
         <v>43256</v>
       </c>
-      <c r="AK153" s="1" t="n">
+      <c r="AK153" s="2" t="n">
         <v>43298</v>
       </c>
-      <c r="AL153" s="1" t="n">
+      <c r="AL153" s="2" t="n">
         <v>42905</v>
       </c>
-      <c r="AM153" s="1" t="n">
+      <c r="AM153" s="2" t="n">
         <v>43255</v>
       </c>
       <c r="AN153" t="s">
@@ -51389,7 +51389,7 @@
       <c r="A154" t="s">
         <v>2132</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="2" t="n">
         <v>43285</v>
       </c>
       <c r="C154" t="s">
@@ -51491,16 +51491,16 @@
       <c r="AI154" t="s">
         <v>2144</v>
       </c>
-      <c r="AJ154" s="1" t="n">
+      <c r="AJ154" s="2" t="n">
         <v>43264</v>
       </c>
-      <c r="AK154" s="1" t="n">
+      <c r="AK154" s="2" t="n">
         <v>43306</v>
       </c>
-      <c r="AL154" s="1" t="n">
+      <c r="AL154" s="2" t="n">
         <v>42913</v>
       </c>
-      <c r="AM154" s="1" t="n">
+      <c r="AM154" s="2" t="n">
         <v>43263</v>
       </c>
       <c r="AN154" t="s">
@@ -51647,7 +51647,7 @@
       <c r="A155" t="s">
         <v>2145</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="2" t="n">
         <v>43292</v>
       </c>
       <c r="C155" t="s">
@@ -51749,16 +51749,16 @@
       <c r="AI155" t="s">
         <v>2159</v>
       </c>
-      <c r="AJ155" s="1" t="n">
+      <c r="AJ155" s="2" t="n">
         <v>43271</v>
       </c>
-      <c r="AK155" s="1" t="n">
+      <c r="AK155" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="AL155" s="1" t="n">
+      <c r="AL155" s="2" t="n">
         <v>42920</v>
       </c>
-      <c r="AM155" s="1" t="n">
+      <c r="AM155" s="2" t="n">
         <v>43270</v>
       </c>
       <c r="AN155" t="s">
@@ -51905,7 +51905,7 @@
       <c r="A156" t="s">
         <v>2160</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="2" t="n">
         <v>43305</v>
       </c>
       <c r="C156" t="s">
@@ -52007,16 +52007,16 @@
       <c r="AI156" t="s">
         <v>2171</v>
       </c>
-      <c r="AJ156" s="1" t="n">
+      <c r="AJ156" s="2" t="n">
         <v>43284</v>
       </c>
-      <c r="AK156" s="1" t="n">
+      <c r="AK156" s="2" t="n">
         <v>43326</v>
       </c>
-      <c r="AL156" s="1" t="n">
+      <c r="AL156" s="2" t="n">
         <v>42933</v>
       </c>
-      <c r="AM156" s="1" t="n">
+      <c r="AM156" s="2" t="n">
         <v>43283</v>
       </c>
       <c r="AN156" t="s">
@@ -52163,7 +52163,7 @@
       <c r="A157" t="s">
         <v>2172</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="2" t="n">
         <v>43329</v>
       </c>
       <c r="C157" t="s">
@@ -52265,16 +52265,16 @@
       <c r="AI157" t="s">
         <v>2183</v>
       </c>
-      <c r="AJ157" s="1" t="n">
+      <c r="AJ157" s="2" t="n">
         <v>43308</v>
       </c>
-      <c r="AK157" s="1" t="n">
+      <c r="AK157" s="2" t="n">
         <v>43350</v>
       </c>
-      <c r="AL157" s="1" t="n">
+      <c r="AL157" s="2" t="n">
         <v>42957</v>
       </c>
-      <c r="AM157" s="1" t="n">
+      <c r="AM157" s="2" t="n">
         <v>43307</v>
       </c>
       <c r="AN157" t="s">
@@ -52419,7 +52419,7 @@
       <c r="A158" t="s">
         <v>2184</v>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="B158" s="2" t="n">
         <v>43371</v>
       </c>
       <c r="C158" t="s">
@@ -52521,16 +52521,16 @@
       <c r="AI158" t="s">
         <v>2196</v>
       </c>
-      <c r="AJ158" s="1" t="n">
+      <c r="AJ158" s="2" t="n">
         <v>43350</v>
       </c>
-      <c r="AK158" s="1" t="n">
+      <c r="AK158" s="2" t="n">
         <v>43392</v>
       </c>
-      <c r="AL158" s="1" t="n">
+      <c r="AL158" s="2" t="n">
         <v>42999</v>
       </c>
-      <c r="AM158" s="1" t="n">
+      <c r="AM158" s="2" t="n">
         <v>43349</v>
       </c>
       <c r="AN158" t="s">
@@ -52677,7 +52677,7 @@
       <c r="A159" t="s">
         <v>2197</v>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="2" t="n">
         <v>43493</v>
       </c>
       <c r="C159" t="s">
@@ -52779,16 +52779,16 @@
       <c r="AI159" t="s">
         <v>2211</v>
       </c>
-      <c r="AJ159" s="1" t="n">
+      <c r="AJ159" s="2" t="n">
         <v>43472</v>
       </c>
-      <c r="AK159" s="1" t="n">
+      <c r="AK159" s="2" t="n">
         <v>43514</v>
       </c>
-      <c r="AL159" s="1" t="n">
+      <c r="AL159" s="2" t="n">
         <v>43119</v>
       </c>
-      <c r="AM159" s="1" t="n">
+      <c r="AM159" s="2" t="n">
         <v>43469</v>
       </c>
       <c r="AN159" t="s">
@@ -52935,7 +52935,7 @@
       <c r="A160" t="s">
         <v>2212</v>
       </c>
-      <c r="B160" s="1" t="n">
+      <c r="B160" s="2" t="n">
         <v>43521</v>
       </c>
       <c r="C160" t="s">
@@ -53037,16 +53037,16 @@
       <c r="AI160" t="s">
         <v>2224</v>
       </c>
-      <c r="AJ160" s="1" t="n">
+      <c r="AJ160" s="2" t="n">
         <v>43500</v>
       </c>
-      <c r="AK160" s="1" t="n">
+      <c r="AK160" s="2" t="n">
         <v>43542</v>
       </c>
-      <c r="AL160" s="1" t="n">
+      <c r="AL160" s="2" t="n">
         <v>43147</v>
       </c>
-      <c r="AM160" s="1" t="n">
+      <c r="AM160" s="2" t="n">
         <v>43497</v>
       </c>
       <c r="AN160" t="s">
@@ -53193,7 +53193,7 @@
       <c r="A161" t="s">
         <v>2225</v>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="2" t="n">
         <v>43521</v>
       </c>
       <c r="C161" t="s">
@@ -53295,16 +53295,16 @@
       <c r="AI161" t="s">
         <v>2237</v>
       </c>
-      <c r="AJ161" s="1" t="n">
+      <c r="AJ161" s="2" t="n">
         <v>43500</v>
       </c>
-      <c r="AK161" s="1" t="n">
+      <c r="AK161" s="2" t="n">
         <v>43542</v>
       </c>
-      <c r="AL161" s="1" t="n">
+      <c r="AL161" s="2" t="n">
         <v>43147</v>
       </c>
-      <c r="AM161" s="1" t="n">
+      <c r="AM161" s="2" t="n">
         <v>43497</v>
       </c>
       <c r="AN161" t="s">
@@ -53451,7 +53451,7 @@
       <c r="A162" t="s">
         <v>2238</v>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="B162" s="2" t="n">
         <v>43536</v>
       </c>
       <c r="C162" t="s">
@@ -53553,16 +53553,16 @@
       <c r="AI162" t="s">
         <v>2249</v>
       </c>
-      <c r="AJ162" s="1" t="n">
+      <c r="AJ162" s="2" t="n">
         <v>43515</v>
       </c>
-      <c r="AK162" s="1" t="n">
+      <c r="AK162" s="2" t="n">
         <v>43557</v>
       </c>
-      <c r="AL162" s="1" t="n">
+      <c r="AL162" s="2" t="n">
         <v>43164</v>
       </c>
-      <c r="AM162" s="1" t="n">
+      <c r="AM162" s="2" t="n">
         <v>43514</v>
       </c>
       <c r="AN162" t="s">
@@ -53707,7 +53707,7 @@
       <c r="A163" t="s">
         <v>2250</v>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B163" s="2" t="n">
         <v>43579</v>
       </c>
       <c r="C163" t="s">
@@ -53809,16 +53809,16 @@
       <c r="AI163" t="s">
         <v>2261</v>
       </c>
-      <c r="AJ163" s="1" t="n">
+      <c r="AJ163" s="2" t="n">
         <v>43558</v>
       </c>
-      <c r="AK163" s="1" t="n">
+      <c r="AK163" s="2" t="n">
         <v>43600</v>
       </c>
-      <c r="AL163" s="1" t="n">
+      <c r="AL163" s="2" t="n">
         <v>43207</v>
       </c>
-      <c r="AM163" s="1" t="n">
+      <c r="AM163" s="2" t="n">
         <v>43557</v>
       </c>
       <c r="AN163" t="s">
@@ -53963,7 +53963,7 @@
       <c r="A164" t="s">
         <v>2262</v>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="B164" s="2" t="n">
         <v>43601</v>
       </c>
       <c r="C164" t="s">
@@ -54065,16 +54065,16 @@
       <c r="AI164" t="s">
         <v>2276</v>
       </c>
-      <c r="AJ164" s="1" t="n">
+      <c r="AJ164" s="2" t="n">
         <v>43580</v>
       </c>
-      <c r="AK164" s="1" t="n">
+      <c r="AK164" s="2" t="n">
         <v>43622</v>
       </c>
-      <c r="AL164" s="1" t="n">
+      <c r="AL164" s="2" t="n">
         <v>43229</v>
       </c>
-      <c r="AM164" s="1" t="n">
+      <c r="AM164" s="2" t="n">
         <v>43579</v>
       </c>
       <c r="AN164" t="s">
@@ -54221,7 +54221,7 @@
       <c r="A165" t="s">
         <v>2277</v>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="B165" s="2" t="n">
         <v>43608</v>
       </c>
       <c r="C165" t="s">
@@ -54323,16 +54323,16 @@
       <c r="AI165" t="s">
         <v>2288</v>
       </c>
-      <c r="AJ165" s="1" t="n">
+      <c r="AJ165" s="2" t="n">
         <v>43587</v>
       </c>
-      <c r="AK165" s="1" t="n">
+      <c r="AK165" s="2" t="n">
         <v>43629</v>
       </c>
-      <c r="AL165" s="1" t="n">
+      <c r="AL165" s="2" t="n">
         <v>43236</v>
       </c>
-      <c r="AM165" s="1" t="n">
+      <c r="AM165" s="2" t="n">
         <v>43586</v>
       </c>
       <c r="AN165" t="s">
@@ -54477,7 +54477,7 @@
       <c r="A166" t="s">
         <v>2289</v>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B166" s="2" t="n">
         <v>43627</v>
       </c>
       <c r="C166" t="s">
@@ -54579,16 +54579,16 @@
       <c r="AI166" t="s">
         <v>2300</v>
       </c>
-      <c r="AJ166" s="1" t="n">
+      <c r="AJ166" s="2" t="n">
         <v>43606</v>
       </c>
-      <c r="AK166" s="1" t="n">
+      <c r="AK166" s="2" t="n">
         <v>43648</v>
       </c>
-      <c r="AL166" s="1" t="n">
+      <c r="AL166" s="2" t="n">
         <v>43255</v>
       </c>
-      <c r="AM166" s="1" t="n">
+      <c r="AM166" s="2" t="n">
         <v>43605</v>
       </c>
       <c r="AN166" t="s">
@@ -54733,7 +54733,7 @@
       <c r="A167" t="s">
         <v>2301</v>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="B167" s="2" t="n">
         <v>43628</v>
       </c>
       <c r="C167" t="s">
@@ -54835,16 +54835,16 @@
       <c r="AI167" t="s">
         <v>2314</v>
       </c>
-      <c r="AJ167" s="1" t="n">
+      <c r="AJ167" s="2" t="n">
         <v>43607</v>
       </c>
-      <c r="AK167" s="1" t="n">
+      <c r="AK167" s="2" t="n">
         <v>43649</v>
       </c>
-      <c r="AL167" s="1" t="n">
+      <c r="AL167" s="2" t="n">
         <v>43256</v>
       </c>
-      <c r="AM167" s="1" t="n">
+      <c r="AM167" s="2" t="n">
         <v>43606</v>
       </c>
       <c r="AN167" t="s">
@@ -54989,7 +54989,7 @@
       <c r="A168" t="s">
         <v>2315</v>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="B168" s="2" t="n">
         <v>43656</v>
       </c>
       <c r="C168" t="s">
@@ -55091,16 +55091,16 @@
       <c r="AI168" t="s">
         <v>2326</v>
       </c>
-      <c r="AJ168" s="1" t="n">
+      <c r="AJ168" s="2" t="n">
         <v>43635</v>
       </c>
-      <c r="AK168" s="1" t="n">
+      <c r="AK168" s="2" t="n">
         <v>43677</v>
       </c>
-      <c r="AL168" s="1" t="n">
+      <c r="AL168" s="2" t="n">
         <v>43284</v>
       </c>
-      <c r="AM168" s="1" t="n">
+      <c r="AM168" s="2" t="n">
         <v>43634</v>
       </c>
       <c r="AN168" t="s">
@@ -55245,7 +55245,7 @@
       <c r="A169" t="s">
         <v>2327</v>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="B169" s="2" t="n">
         <v>43658</v>
       </c>
       <c r="C169" t="s">
@@ -55347,16 +55347,16 @@
       <c r="AI169" t="s">
         <v>2339</v>
       </c>
-      <c r="AJ169" s="1" t="n">
+      <c r="AJ169" s="2" t="n">
         <v>43637</v>
       </c>
-      <c r="AK169" s="1" t="n">
+      <c r="AK169" s="2" t="n">
         <v>43679</v>
       </c>
-      <c r="AL169" s="1" t="n">
+      <c r="AL169" s="2" t="n">
         <v>43286</v>
       </c>
-      <c r="AM169" s="1" t="n">
+      <c r="AM169" s="2" t="n">
         <v>43636</v>
       </c>
       <c r="AN169" t="s">
@@ -55503,7 +55503,7 @@
       <c r="A170" t="s">
         <v>2340</v>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="B170" s="2" t="n">
         <v>43724</v>
       </c>
       <c r="C170" t="s">
@@ -55605,16 +55605,16 @@
       <c r="AI170" t="s">
         <v>2353</v>
       </c>
-      <c r="AJ170" s="1" t="n">
+      <c r="AJ170" s="2" t="n">
         <v>43703</v>
       </c>
-      <c r="AK170" s="1" t="n">
+      <c r="AK170" s="2" t="n">
         <v>43745</v>
       </c>
-      <c r="AL170" s="1" t="n">
+      <c r="AL170" s="2" t="n">
         <v>43350</v>
       </c>
-      <c r="AM170" s="1" t="n">
+      <c r="AM170" s="2" t="n">
         <v>43700</v>
       </c>
       <c r="AN170" t="s">
@@ -55759,7 +55759,7 @@
       <c r="A171" t="s">
         <v>2354</v>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="B171" s="2" t="n">
         <v>43809</v>
       </c>
       <c r="C171" t="s">
@@ -55861,16 +55861,16 @@
       <c r="AI171" t="s">
         <v>2365</v>
       </c>
-      <c r="AJ171" s="1" t="n">
+      <c r="AJ171" s="2" t="n">
         <v>43788</v>
       </c>
-      <c r="AK171" s="1" t="n">
+      <c r="AK171" s="2" t="n">
         <v>43830</v>
       </c>
-      <c r="AL171" s="1" t="n">
+      <c r="AL171" s="2" t="n">
         <v>43437</v>
       </c>
-      <c r="AM171" s="1" t="n">
+      <c r="AM171" s="2" t="n">
         <v>43787</v>
       </c>
       <c r="AN171" t="s">
@@ -56015,7 +56015,7 @@
       <c r="A172" t="s">
         <v>2366</v>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="B172" s="2" t="n">
         <v>43847</v>
       </c>
       <c r="C172" t="s">
@@ -56117,16 +56117,16 @@
       <c r="AI172" t="s">
         <v>2377</v>
       </c>
-      <c r="AJ172" s="1" t="n">
+      <c r="AJ172" s="2" t="n">
         <v>43826</v>
       </c>
-      <c r="AK172" s="1" t="n">
+      <c r="AK172" s="2" t="n">
         <v>43868</v>
       </c>
-      <c r="AL172" s="1" t="n">
+      <c r="AL172" s="2" t="n">
         <v>43475</v>
       </c>
-      <c r="AM172" s="1" t="n">
+      <c r="AM172" s="2" t="n">
         <v>43825</v>
       </c>
       <c r="AN172" t="s">
@@ -56271,7 +56271,7 @@
       <c r="A173" t="s">
         <v>2378</v>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="B173" s="2" t="n">
         <v>43874</v>
       </c>
       <c r="C173" t="s">
@@ -56373,16 +56373,16 @@
       <c r="AI173" t="s">
         <v>2392</v>
       </c>
-      <c r="AJ173" s="1" t="n">
+      <c r="AJ173" s="2" t="n">
         <v>43853</v>
       </c>
-      <c r="AK173" s="1" t="n">
+      <c r="AK173" s="2" t="n">
         <v>43895</v>
       </c>
-      <c r="AL173" s="1" t="n">
+      <c r="AL173" s="2" t="n">
         <v>43502</v>
       </c>
-      <c r="AM173" s="1" t="n">
+      <c r="AM173" s="2" t="n">
         <v>43852</v>
       </c>
       <c r="AN173" t="s">
@@ -56529,7 +56529,7 @@
       <c r="A174" t="s">
         <v>2393</v>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="B174" s="2" t="n">
         <v>43880</v>
       </c>
       <c r="C174" t="s">
@@ -56631,16 +56631,16 @@
       <c r="AI174" t="s">
         <v>2404</v>
       </c>
-      <c r="AJ174" s="1" t="n">
+      <c r="AJ174" s="2" t="n">
         <v>43859</v>
       </c>
-      <c r="AK174" s="1" t="n">
+      <c r="AK174" s="2" t="n">
         <v>43901</v>
       </c>
-      <c r="AL174" s="1" t="n">
+      <c r="AL174" s="2" t="n">
         <v>43508</v>
       </c>
-      <c r="AM174" s="1" t="n">
+      <c r="AM174" s="2" t="n">
         <v>43858</v>
       </c>
       <c r="AN174" t="s">
@@ -56787,7 +56787,7 @@
       <c r="A175" t="s">
         <v>2405</v>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="B175" s="2" t="n">
         <v>43893</v>
       </c>
       <c r="C175" t="s">
@@ -56889,16 +56889,16 @@
       <c r="AI175" t="s">
         <v>107</v>
       </c>
-      <c r="AJ175" s="1" t="n">
+      <c r="AJ175" s="2" t="n">
         <v>43872</v>
       </c>
-      <c r="AK175" s="1" t="n">
+      <c r="AK175" s="2" t="n">
         <v>43914</v>
       </c>
-      <c r="AL175" s="1" t="n">
+      <c r="AL175" s="2" t="n">
         <v>43521</v>
       </c>
-      <c r="AM175" s="1" t="n">
+      <c r="AM175" s="2" t="n">
         <v>43871</v>
       </c>
       <c r="AN175" t="s">
@@ -57043,7 +57043,7 @@
       <c r="A176" t="s">
         <v>2418</v>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="B176" s="2" t="n">
         <v>43901</v>
       </c>
       <c r="C176" t="s">
@@ -57145,16 +57145,16 @@
       <c r="AI176" t="s">
         <v>2430</v>
       </c>
-      <c r="AJ176" s="1" t="n">
+      <c r="AJ176" s="2" t="n">
         <v>43880</v>
       </c>
-      <c r="AK176" s="1" t="n">
+      <c r="AK176" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="AL176" s="1" t="n">
+      <c r="AL176" s="2" t="n">
         <v>43529</v>
       </c>
-      <c r="AM176" s="1" t="n">
+      <c r="AM176" s="2" t="n">
         <v>43879</v>
       </c>
       <c r="AN176" t="s">
@@ -57299,7 +57299,7 @@
       <c r="A177" t="s">
         <v>2431</v>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="2" t="n">
         <v>43909</v>
       </c>
       <c r="C177" t="s">
@@ -57401,16 +57401,16 @@
       <c r="AI177" t="s">
         <v>2441</v>
       </c>
-      <c r="AJ177" s="1" t="n">
+      <c r="AJ177" s="2" t="n">
         <v>43888</v>
       </c>
-      <c r="AK177" s="1" t="n">
+      <c r="AK177" s="2" t="n">
         <v>43930</v>
       </c>
-      <c r="AL177" s="1" t="n">
+      <c r="AL177" s="2" t="n">
         <v>43537</v>
       </c>
-      <c r="AM177" s="1" t="n">
+      <c r="AM177" s="2" t="n">
         <v>43887</v>
       </c>
       <c r="AN177" t="s">
@@ -57555,7 +57555,7 @@
       <c r="A178" t="s">
         <v>2442</v>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B178" s="2" t="n">
         <v>43948</v>
       </c>
       <c r="C178" t="s">
@@ -57657,16 +57657,16 @@
       <c r="AI178" t="s">
         <v>2455</v>
       </c>
-      <c r="AJ178" s="1" t="n">
+      <c r="AJ178" s="2" t="n">
         <v>43927</v>
       </c>
-      <c r="AK178" s="1" t="n">
+      <c r="AK178" s="2" t="n">
         <v>43969</v>
       </c>
-      <c r="AL178" s="1" t="n">
+      <c r="AL178" s="2" t="n">
         <v>43574</v>
       </c>
-      <c r="AM178" s="1" t="n">
+      <c r="AM178" s="2" t="n">
         <v>43924</v>
       </c>
       <c r="AN178" t="s">
@@ -57811,7 +57811,7 @@
       <c r="A179" t="s">
         <v>2456</v>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="B179" s="2" t="n">
         <v>43970</v>
       </c>
       <c r="C179" t="s">
@@ -57913,16 +57913,16 @@
       <c r="AI179" t="s">
         <v>2468</v>
       </c>
-      <c r="AJ179" s="1" t="n">
+      <c r="AJ179" s="2" t="n">
         <v>43949</v>
       </c>
-      <c r="AK179" s="1" t="n">
+      <c r="AK179" s="2" t="n">
         <v>43991</v>
       </c>
-      <c r="AL179" s="1" t="n">
+      <c r="AL179" s="2" t="n">
         <v>43598</v>
       </c>
-      <c r="AM179" s="1" t="n">
+      <c r="AM179" s="2" t="n">
         <v>43948</v>
       </c>
       <c r="AN179" t="s">
@@ -58069,7 +58069,7 @@
       <c r="A180" t="s">
         <v>2469</v>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="B180" s="2" t="n">
         <v>43993</v>
       </c>
       <c r="C180" t="s">
@@ -58171,16 +58171,16 @@
       <c r="AI180" t="s">
         <v>107</v>
       </c>
-      <c r="AJ180" s="1" t="n">
+      <c r="AJ180" s="2" t="n">
         <v>43972</v>
       </c>
-      <c r="AK180" s="1" t="n">
+      <c r="AK180" s="2" t="n">
         <v>44014</v>
       </c>
-      <c r="AL180" s="1" t="n">
+      <c r="AL180" s="2" t="n">
         <v>43621</v>
       </c>
-      <c r="AM180" s="1" t="n">
+      <c r="AM180" s="2" t="n">
         <v>43971</v>
       </c>
       <c r="AN180" t="s">
@@ -58325,7 +58325,7 @@
       <c r="A181" t="s">
         <v>2480</v>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="B181" s="2" t="n">
         <v>44013</v>
       </c>
       <c r="C181" t="s">
@@ -58427,16 +58427,16 @@
       <c r="AI181" t="s">
         <v>2492</v>
       </c>
-      <c r="AJ181" s="1" t="n">
+      <c r="AJ181" s="2" t="n">
         <v>43992</v>
       </c>
-      <c r="AK181" s="1" t="n">
+      <c r="AK181" s="2" t="n">
         <v>44034</v>
       </c>
-      <c r="AL181" s="1" t="n">
+      <c r="AL181" s="2" t="n">
         <v>43641</v>
       </c>
-      <c r="AM181" s="1" t="n">
+      <c r="AM181" s="2" t="n">
         <v>43991</v>
       </c>
       <c r="AN181" t="s">
@@ -58583,7 +58583,7 @@
       <c r="A182" t="s">
         <v>2493</v>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B182" s="2" t="n">
         <v>44054</v>
       </c>
       <c r="C182" t="s">
@@ -58685,16 +58685,16 @@
       <c r="AI182" t="s">
         <v>2505</v>
       </c>
-      <c r="AJ182" s="1" t="n">
+      <c r="AJ182" s="2" t="n">
         <v>44033</v>
       </c>
-      <c r="AK182" s="1" t="n">
+      <c r="AK182" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="AL182" s="1" t="n">
+      <c r="AL182" s="2" t="n">
         <v>43682</v>
       </c>
-      <c r="AM182" s="1" t="n">
+      <c r="AM182" s="2" t="n">
         <v>44032</v>
       </c>
       <c r="AN182" t="s">
@@ -58841,7 +58841,7 @@
       <c r="A183" t="s">
         <v>2506</v>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="B183" s="2" t="n">
         <v>44091</v>
       </c>
       <c r="C183" t="s">
@@ -58943,16 +58943,16 @@
       <c r="AI183" t="s">
         <v>2519</v>
       </c>
-      <c r="AJ183" s="1" t="n">
+      <c r="AJ183" s="2" t="n">
         <v>44070</v>
       </c>
-      <c r="AK183" s="1" t="n">
+      <c r="AK183" s="2" t="n">
         <v>44112</v>
       </c>
-      <c r="AL183" s="1" t="n">
+      <c r="AL183" s="2" t="n">
         <v>43719</v>
       </c>
-      <c r="AM183" s="1" t="n">
+      <c r="AM183" s="2" t="n">
         <v>44069</v>
       </c>
       <c r="AN183" t="s">
@@ -59097,7 +59097,7 @@
       <c r="A184" t="s">
         <v>2520</v>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="B184" s="2" t="n">
         <v>44105</v>
       </c>
       <c r="C184" t="s">
@@ -59199,16 +59199,16 @@
       <c r="AI184" t="s">
         <v>2534</v>
       </c>
-      <c r="AJ184" s="1" t="n">
+      <c r="AJ184" s="2" t="n">
         <v>44084</v>
       </c>
-      <c r="AK184" s="1" t="n">
+      <c r="AK184" s="2" t="n">
         <v>44126</v>
       </c>
-      <c r="AL184" s="1" t="n">
+      <c r="AL184" s="2" t="n">
         <v>43733</v>
       </c>
-      <c r="AM184" s="1" t="n">
+      <c r="AM184" s="2" t="n">
         <v>44083</v>
       </c>
       <c r="AN184" t="s">
@@ -59355,7 +59355,7 @@
       <c r="A185" t="s">
         <v>2535</v>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="B185" s="2" t="n">
         <v>44109</v>
       </c>
       <c r="C185" t="s">
@@ -59457,16 +59457,16 @@
       <c r="AI185" t="s">
         <v>107</v>
       </c>
-      <c r="AJ185" s="1" t="n">
+      <c r="AJ185" s="2" t="n">
         <v>44088</v>
       </c>
-      <c r="AK185" s="1" t="n">
+      <c r="AK185" s="2" t="n">
         <v>44130</v>
       </c>
-      <c r="AL185" s="1" t="n">
+      <c r="AL185" s="2" t="n">
         <v>43735</v>
       </c>
-      <c r="AM185" s="1" t="n">
+      <c r="AM185" s="2" t="n">
         <v>44085</v>
       </c>
       <c r="AN185" t="s">
@@ -59611,7 +59611,7 @@
       <c r="A186" t="s">
         <v>2548</v>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="B186" s="2" t="n">
         <v>44119</v>
       </c>
       <c r="C186" t="s">
@@ -59713,16 +59713,16 @@
       <c r="AI186" t="s">
         <v>2561</v>
       </c>
-      <c r="AJ186" s="1" t="n">
+      <c r="AJ186" s="2" t="n">
         <v>44098</v>
       </c>
-      <c r="AK186" s="1" t="n">
+      <c r="AK186" s="2" t="n">
         <v>44140</v>
       </c>
-      <c r="AL186" s="1" t="n">
+      <c r="AL186" s="2" t="n">
         <v>43747</v>
       </c>
-      <c r="AM186" s="1" t="n">
+      <c r="AM186" s="2" t="n">
         <v>44097</v>
       </c>
       <c r="AN186" t="s">
@@ -59867,7 +59867,7 @@
       <c r="A187" t="s">
         <v>2562</v>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="B187" s="2" t="n">
         <v>44120</v>
       </c>
       <c r="C187" t="s">
@@ -59969,16 +59969,16 @@
       <c r="AI187" t="s">
         <v>2575</v>
       </c>
-      <c r="AJ187" s="1" t="n">
+      <c r="AJ187" s="2" t="n">
         <v>44099</v>
       </c>
-      <c r="AK187" s="1" t="n">
+      <c r="AK187" s="2" t="n">
         <v>44141</v>
       </c>
-      <c r="AL187" s="1" t="n">
+      <c r="AL187" s="2" t="n">
         <v>43748</v>
       </c>
-      <c r="AM187" s="1" t="n">
+      <c r="AM187" s="2" t="n">
         <v>44098</v>
       </c>
       <c r="AN187" t="s">
@@ -60123,7 +60123,7 @@
       <c r="A188" t="s">
         <v>2576</v>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="B188" s="2" t="n">
         <v>44137</v>
       </c>
       <c r="C188" t="s">
@@ -60225,16 +60225,16 @@
       <c r="AI188" t="s">
         <v>2587</v>
       </c>
-      <c r="AJ188" s="1" t="n">
+      <c r="AJ188" s="2" t="n">
         <v>44116</v>
       </c>
-      <c r="AK188" s="1" t="n">
+      <c r="AK188" s="2" t="n">
         <v>44158</v>
       </c>
-      <c r="AL188" s="1" t="n">
+      <c r="AL188" s="2" t="n">
         <v>43763</v>
       </c>
-      <c r="AM188" s="1" t="n">
+      <c r="AM188" s="2" t="n">
         <v>44113</v>
       </c>
       <c r="AN188" t="s">
@@ -60379,7 +60379,7 @@
       <c r="A189" t="s">
         <v>2588</v>
       </c>
-      <c r="B189" s="1" t="n">
+      <c r="B189" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="C189" t="s">
@@ -60481,16 +60481,16 @@
       <c r="AI189" t="s">
         <v>2600</v>
       </c>
-      <c r="AJ189" s="1" t="n">
+      <c r="AJ189" s="2" t="n">
         <v>44120</v>
       </c>
-      <c r="AK189" s="1" t="n">
+      <c r="AK189" s="2" t="n">
         <v>44162</v>
       </c>
-      <c r="AL189" s="1" t="n">
+      <c r="AL189" s="2" t="n">
         <v>43769</v>
       </c>
-      <c r="AM189" s="1" t="n">
+      <c r="AM189" s="2" t="n">
         <v>44119</v>
       </c>
       <c r="AN189" t="s">
@@ -60637,7 +60637,7 @@
       <c r="A190" t="s">
         <v>2601</v>
       </c>
-      <c r="B190" s="1" t="n">
+      <c r="B190" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="C190" t="s">
@@ -60739,16 +60739,16 @@
       <c r="AI190" t="s">
         <v>2614</v>
       </c>
-      <c r="AJ190" s="1" t="n">
+      <c r="AJ190" s="2" t="n">
         <v>44132</v>
       </c>
-      <c r="AK190" s="1" t="n">
+      <c r="AK190" s="2" t="n">
         <v>44174</v>
       </c>
-      <c r="AL190" s="1" t="n">
+      <c r="AL190" s="2" t="n">
         <v>43781</v>
       </c>
-      <c r="AM190" s="1" t="n">
+      <c r="AM190" s="2" t="n">
         <v>44131</v>
       </c>
       <c r="AN190" t="s">
@@ -60893,7 +60893,7 @@
       <c r="A191" t="s">
         <v>2615</v>
       </c>
-      <c r="B191" s="1" t="n">
+      <c r="B191" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="C191" t="s">
@@ -60995,16 +60995,16 @@
       <c r="AI191" t="s">
         <v>2627</v>
       </c>
-      <c r="AJ191" s="1" t="n">
+      <c r="AJ191" s="2" t="n">
         <v>44137</v>
       </c>
-      <c r="AK191" s="1" t="n">
+      <c r="AK191" s="2" t="n">
         <v>44179</v>
       </c>
-      <c r="AL191" s="1" t="n">
+      <c r="AL191" s="2" t="n">
         <v>43784</v>
       </c>
-      <c r="AM191" s="1" t="n">
+      <c r="AM191" s="2" t="n">
         <v>44134</v>
       </c>
       <c r="AN191" t="s">
@@ -61149,7 +61149,7 @@
       <c r="A192" t="s">
         <v>2628</v>
       </c>
-      <c r="B192" s="1" t="n">
+      <c r="B192" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="C192" t="s">
@@ -61251,16 +61251,16 @@
       <c r="AI192" t="s">
         <v>2639</v>
       </c>
-      <c r="AJ192" s="1" t="n">
+      <c r="AJ192" s="2" t="n">
         <v>44140</v>
       </c>
-      <c r="AK192" s="1" t="n">
+      <c r="AK192" s="2" t="n">
         <v>44182</v>
       </c>
-      <c r="AL192" s="1" t="n">
+      <c r="AL192" s="2" t="n">
         <v>43789</v>
       </c>
-      <c r="AM192" s="1" t="n">
+      <c r="AM192" s="2" t="n">
         <v>44139</v>
       </c>
       <c r="AN192" t="s">
@@ -61405,7 +61405,7 @@
       <c r="A193" t="s">
         <v>2640</v>
       </c>
-      <c r="B193" s="1" t="n">
+      <c r="B193" s="2" t="n">
         <v>44230</v>
       </c>
       <c r="C193" t="s">
@@ -61507,16 +61507,16 @@
       <c r="AI193" t="s">
         <v>2651</v>
       </c>
-      <c r="AJ193" s="1" t="n">
+      <c r="AJ193" s="2" t="n">
         <v>44209</v>
       </c>
-      <c r="AK193" s="1" t="n">
+      <c r="AK193" s="2" t="n">
         <v>44251</v>
       </c>
-      <c r="AL193" s="1" t="n">
+      <c r="AL193" s="2" t="n">
         <v>43858</v>
       </c>
-      <c r="AM193" s="1" t="n">
+      <c r="AM193" s="2" t="n">
         <v>44208</v>
       </c>
       <c r="AN193" t="s">
@@ -61661,7 +61661,7 @@
       <c r="A194" t="s">
         <v>2652</v>
       </c>
-      <c r="B194" s="1" t="n">
+      <c r="B194" s="2" t="n">
         <v>44242</v>
       </c>
       <c r="C194" t="s">
@@ -61763,16 +61763,16 @@
       <c r="AI194" t="s">
         <v>2665</v>
       </c>
-      <c r="AJ194" s="1" t="n">
+      <c r="AJ194" s="2" t="n">
         <v>44221</v>
       </c>
-      <c r="AK194" s="1" t="n">
+      <c r="AK194" s="2" t="n">
         <v>44263</v>
       </c>
-      <c r="AL194" s="1" t="n">
+      <c r="AL194" s="2" t="n">
         <v>43868</v>
       </c>
-      <c r="AM194" s="1" t="n">
+      <c r="AM194" s="2" t="n">
         <v>44218</v>
       </c>
       <c r="AN194" t="s">
@@ -61919,7 +61919,7 @@
       <c r="A195" t="s">
         <v>2666</v>
       </c>
-      <c r="B195" s="1" t="n">
+      <c r="B195" s="2" t="n">
         <v>44270</v>
       </c>
       <c r="C195" t="s">
@@ -62021,16 +62021,16 @@
       <c r="AI195" t="s">
         <v>2678</v>
       </c>
-      <c r="AJ195" s="1" t="n">
+      <c r="AJ195" s="2" t="n">
         <v>44249</v>
       </c>
-      <c r="AK195" s="1" t="n">
+      <c r="AK195" s="2" t="n">
         <v>44291</v>
       </c>
-      <c r="AL195" s="1" t="n">
+      <c r="AL195" s="2" t="n">
         <v>43896</v>
       </c>
-      <c r="AM195" s="1" t="n">
+      <c r="AM195" s="2" t="n">
         <v>44246</v>
       </c>
       <c r="AN195" t="s">
@@ -62177,7 +62177,7 @@
       <c r="A196" t="s">
         <v>2679</v>
       </c>
-      <c r="B196" s="1" t="n">
+      <c r="B196" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="C196" t="s">
@@ -62279,16 +62279,16 @@
       <c r="AI196" t="s">
         <v>2692</v>
       </c>
-      <c r="AJ196" s="1" t="n">
+      <c r="AJ196" s="2" t="n">
         <v>44251</v>
       </c>
-      <c r="AK196" s="1" t="n">
+      <c r="AK196" s="2" t="n">
         <v>44293</v>
       </c>
-      <c r="AL196" s="1" t="n">
+      <c r="AL196" s="2" t="n">
         <v>43900</v>
       </c>
-      <c r="AM196" s="1" t="n">
+      <c r="AM196" s="2" t="n">
         <v>44250</v>
       </c>
       <c r="AN196" t="s">
@@ -62433,7 +62433,7 @@
       <c r="A197" t="s">
         <v>2693</v>
       </c>
-      <c r="B197" s="1" t="n">
+      <c r="B197" s="2" t="n">
         <v>44326</v>
       </c>
       <c r="C197" t="s">
@@ -62535,16 +62535,16 @@
       <c r="AI197" t="s">
         <v>2705</v>
       </c>
-      <c r="AJ197" s="1" t="n">
+      <c r="AJ197" s="2" t="n">
         <v>44305</v>
       </c>
-      <c r="AK197" s="1" t="n">
+      <c r="AK197" s="2" t="n">
         <v>44347</v>
       </c>
-      <c r="AL197" s="1" t="n">
+      <c r="AL197" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="AM197" s="1" t="n">
+      <c r="AM197" s="2" t="n">
         <v>44302</v>
       </c>
       <c r="AN197" t="s">
@@ -62689,7 +62689,7 @@
       <c r="A198" t="s">
         <v>2706</v>
       </c>
-      <c r="B198" s="1" t="n">
+      <c r="B198" s="2" t="n">
         <v>44335</v>
       </c>
       <c r="C198" t="s">
@@ -62791,16 +62791,16 @@
       <c r="AI198" t="s">
         <v>2718</v>
       </c>
-      <c r="AJ198" s="1" t="n">
+      <c r="AJ198" s="2" t="n">
         <v>44314</v>
       </c>
-      <c r="AK198" s="1" t="n">
+      <c r="AK198" s="2" t="n">
         <v>44356</v>
       </c>
-      <c r="AL198" s="1" t="n">
+      <c r="AL198" s="2" t="n">
         <v>43963</v>
       </c>
-      <c r="AM198" s="1" t="n">
+      <c r="AM198" s="2" t="n">
         <v>44313</v>
       </c>
       <c r="AN198" t="s">
@@ -62947,7 +62947,7 @@
       <c r="A199" t="s">
         <v>2719</v>
       </c>
-      <c r="B199" s="1" t="n">
+      <c r="B199" s="2" t="n">
         <v>44369</v>
       </c>
       <c r="C199" t="s">
@@ -63049,16 +63049,16 @@
       <c r="AI199" t="s">
         <v>2732</v>
       </c>
-      <c r="AJ199" s="1" t="n">
+      <c r="AJ199" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="AK199" s="1" t="n">
+      <c r="AK199" s="2" t="n">
         <v>44390</v>
       </c>
-      <c r="AL199" s="1" t="n">
+      <c r="AL199" s="2" t="n">
         <v>43997</v>
       </c>
-      <c r="AM199" s="1" t="n">
+      <c r="AM199" s="2" t="n">
         <v>44347</v>
       </c>
       <c r="AN199" t="s">
@@ -63203,7 +63203,7 @@
       <c r="A200" t="s">
         <v>2733</v>
       </c>
-      <c r="B200" s="1" t="n">
+      <c r="B200" s="2" t="n">
         <v>44378</v>
       </c>
       <c r="C200" t="s">
@@ -63305,16 +63305,16 @@
       <c r="AI200" t="s">
         <v>2744</v>
       </c>
-      <c r="AJ200" s="1" t="n">
+      <c r="AJ200" s="2" t="n">
         <v>44357</v>
       </c>
-      <c r="AK200" s="1" t="n">
+      <c r="AK200" s="2" t="n">
         <v>44399</v>
       </c>
-      <c r="AL200" s="1" t="n">
+      <c r="AL200" s="2" t="n">
         <v>44006</v>
       </c>
-      <c r="AM200" s="1" t="n">
+      <c r="AM200" s="2" t="n">
         <v>44356</v>
       </c>
       <c r="AN200" t="s">
@@ -63459,7 +63459,7 @@
       <c r="A201" t="s">
         <v>2745</v>
       </c>
-      <c r="B201" s="1" t="n">
+      <c r="B201" s="2" t="n">
         <v>44382</v>
       </c>
       <c r="C201" t="s">
@@ -63561,16 +63561,16 @@
       <c r="AI201" t="s">
         <v>2756</v>
       </c>
-      <c r="AJ201" s="1" t="n">
+      <c r="AJ201" s="2" t="n">
         <v>44361</v>
       </c>
-      <c r="AK201" s="1" t="n">
+      <c r="AK201" s="2" t="n">
         <v>44403</v>
       </c>
-      <c r="AL201" s="1" t="n">
+      <c r="AL201" s="2" t="n">
         <v>44008</v>
       </c>
-      <c r="AM201" s="1" t="n">
+      <c r="AM201" s="2" t="n">
         <v>44358</v>
       </c>
       <c r="AN201" t="s">
@@ -63715,7 +63715,7 @@
       <c r="A202" t="s">
         <v>2757</v>
       </c>
-      <c r="B202" s="1" t="n">
+      <c r="B202" s="2" t="n">
         <v>44385</v>
       </c>
       <c r="C202" t="s">
@@ -63817,16 +63817,16 @@
       <c r="AI202" t="s">
         <v>2769</v>
       </c>
-      <c r="AJ202" s="1" t="n">
+      <c r="AJ202" s="2" t="n">
         <v>44364</v>
       </c>
-      <c r="AK202" s="1" t="n">
+      <c r="AK202" s="2" t="n">
         <v>44406</v>
       </c>
-      <c r="AL202" s="1" t="n">
+      <c r="AL202" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="AM202" s="1" t="n">
+      <c r="AM202" s="2" t="n">
         <v>44363</v>
       </c>
       <c r="AN202" t="s">
@@ -63971,7 +63971,7 @@
       <c r="A203" t="s">
         <v>2770</v>
       </c>
-      <c r="B203" s="1" t="n">
+      <c r="B203" s="2" t="n">
         <v>44397</v>
       </c>
       <c r="C203" t="s">
@@ -64073,16 +64073,16 @@
       <c r="AI203" t="s">
         <v>2784</v>
       </c>
-      <c r="AJ203" s="1" t="n">
+      <c r="AJ203" s="2" t="n">
         <v>44376</v>
       </c>
-      <c r="AK203" s="1" t="n">
+      <c r="AK203" s="2" t="n">
         <v>44418</v>
       </c>
-      <c r="AL203" s="1" t="n">
+      <c r="AL203" s="2" t="n">
         <v>44025</v>
       </c>
-      <c r="AM203" s="1" t="n">
+      <c r="AM203" s="2" t="n">
         <v>44375</v>
       </c>
       <c r="AN203" t="s">
@@ -64229,7 +64229,7 @@
       <c r="A204" t="s">
         <v>2785</v>
       </c>
-      <c r="B204" s="1" t="n">
+      <c r="B204" s="2" t="n">
         <v>44404</v>
       </c>
       <c r="C204" t="s">
@@ -64331,16 +64331,16 @@
       <c r="AI204" t="s">
         <v>2798</v>
       </c>
-      <c r="AJ204" s="1" t="n">
+      <c r="AJ204" s="2" t="n">
         <v>44383</v>
       </c>
-      <c r="AK204" s="1" t="n">
+      <c r="AK204" s="2" t="n">
         <v>44425</v>
       </c>
-      <c r="AL204" s="1" t="n">
+      <c r="AL204" s="2" t="n">
         <v>44032</v>
       </c>
-      <c r="AM204" s="1" t="n">
+      <c r="AM204" s="2" t="n">
         <v>44382</v>
       </c>
       <c r="AN204" t="s">
@@ -64485,7 +64485,7 @@
       <c r="A205" t="s">
         <v>2799</v>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="B205" s="2" t="n">
         <v>44406</v>
       </c>
       <c r="C205" t="s">
@@ -64587,16 +64587,16 @@
       <c r="AI205" t="s">
         <v>2811</v>
       </c>
-      <c r="AJ205" s="1" t="n">
+      <c r="AJ205" s="2" t="n">
         <v>44385</v>
       </c>
-      <c r="AK205" s="1" t="n">
+      <c r="AK205" s="2" t="n">
         <v>44427</v>
       </c>
-      <c r="AL205" s="1" t="n">
+      <c r="AL205" s="2" t="n">
         <v>44034</v>
       </c>
-      <c r="AM205" s="1" t="n">
+      <c r="AM205" s="2" t="n">
         <v>44384</v>
       </c>
       <c r="AN205" t="s">
@@ -64743,7 +64743,7 @@
       <c r="A206" t="s">
         <v>2812</v>
       </c>
-      <c r="B206" s="1" t="n">
+      <c r="B206" s="2" t="n">
         <v>44428</v>
       </c>
       <c r="C206" t="s">
@@ -64845,16 +64845,16 @@
       <c r="AI206" t="s">
         <v>2823</v>
       </c>
-      <c r="AJ206" s="1" t="n">
+      <c r="AJ206" s="2" t="n">
         <v>44407</v>
       </c>
-      <c r="AK206" s="1" t="n">
+      <c r="AK206" s="2" t="n">
         <v>44449</v>
       </c>
-      <c r="AL206" s="1" t="n">
+      <c r="AL206" s="2" t="n">
         <v>44056</v>
       </c>
-      <c r="AM206" s="1" t="n">
+      <c r="AM206" s="2" t="n">
         <v>44406</v>
       </c>
       <c r="AN206" t="s">
@@ -64999,7 +64999,7 @@
       <c r="A207" t="s">
         <v>2824</v>
       </c>
-      <c r="B207" s="1" t="n">
+      <c r="B207" s="2" t="n">
         <v>44448</v>
       </c>
       <c r="C207" t="s">
@@ -65101,16 +65101,16 @@
       <c r="AI207" t="s">
         <v>2836</v>
       </c>
-      <c r="AJ207" s="1" t="n">
+      <c r="AJ207" s="2" t="n">
         <v>44427</v>
       </c>
-      <c r="AK207" s="1" t="n">
+      <c r="AK207" s="2" t="n">
         <v>44469</v>
       </c>
-      <c r="AL207" s="1" t="n">
+      <c r="AL207" s="2" t="n">
         <v>44076</v>
       </c>
-      <c r="AM207" s="1" t="n">
+      <c r="AM207" s="2" t="n">
         <v>44426</v>
       </c>
       <c r="AN207" t="s">
@@ -65257,7 +65257,7 @@
       <c r="A208" t="s">
         <v>2837</v>
       </c>
-      <c r="B208" s="1" t="n">
+      <c r="B208" s="2" t="n">
         <v>44456</v>
       </c>
       <c r="C208" t="s">
@@ -65359,16 +65359,16 @@
       <c r="AI208" t="s">
         <v>2849</v>
       </c>
-      <c r="AJ208" s="1" t="n">
+      <c r="AJ208" s="2" t="n">
         <v>44435</v>
       </c>
-      <c r="AK208" s="1" t="n">
+      <c r="AK208" s="2" t="n">
         <v>44477</v>
       </c>
-      <c r="AL208" s="1" t="n">
+      <c r="AL208" s="2" t="n">
         <v>44084</v>
       </c>
-      <c r="AM208" s="1" t="n">
+      <c r="AM208" s="2" t="n">
         <v>44434</v>
       </c>
       <c r="AN208" t="s">
@@ -65515,7 +65515,7 @@
       <c r="A209" t="s">
         <v>2850</v>
       </c>
-      <c r="B209" s="1" t="n">
+      <c r="B209" s="2" t="n">
         <v>44462</v>
       </c>
       <c r="C209" t="s">
@@ -65617,16 +65617,16 @@
       <c r="AI209" t="s">
         <v>2863</v>
       </c>
-      <c r="AJ209" s="1" t="n">
+      <c r="AJ209" s="2" t="n">
         <v>44441</v>
       </c>
-      <c r="AK209" s="1" t="n">
+      <c r="AK209" s="2" t="n">
         <v>44483</v>
       </c>
-      <c r="AL209" s="1" t="n">
+      <c r="AL209" s="2" t="n">
         <v>44090</v>
       </c>
-      <c r="AM209" s="1" t="n">
+      <c r="AM209" s="2" t="n">
         <v>44440</v>
       </c>
       <c r="AN209" t="s">
@@ -65771,7 +65771,7 @@
       <c r="A210" t="s">
         <v>2864</v>
       </c>
-      <c r="B210" s="1" t="n">
+      <c r="B210" s="2" t="n">
         <v>44470</v>
       </c>
       <c r="C210" t="s">
@@ -65873,16 +65873,16 @@
       <c r="AI210" t="s">
         <v>2875</v>
       </c>
-      <c r="AJ210" s="1" t="n">
+      <c r="AJ210" s="2" t="n">
         <v>44449</v>
       </c>
-      <c r="AK210" s="1" t="n">
+      <c r="AK210" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="AL210" s="1" t="n">
+      <c r="AL210" s="2" t="n">
         <v>44098</v>
       </c>
-      <c r="AM210" s="1" t="n">
+      <c r="AM210" s="2" t="n">
         <v>44448</v>
       </c>
       <c r="AN210" t="s">
@@ -66029,7 +66029,7 @@
       <c r="A211" t="s">
         <v>2876</v>
       </c>
-      <c r="B211" s="1" t="n">
+      <c r="B211" s="2" t="n">
         <v>44489</v>
       </c>
       <c r="C211" t="s">
@@ -66131,16 +66131,16 @@
       <c r="AI211" t="s">
         <v>2887</v>
       </c>
-      <c r="AJ211" s="1" t="n">
+      <c r="AJ211" s="2" t="n">
         <v>44468</v>
       </c>
-      <c r="AK211" s="1" t="n">
+      <c r="AK211" s="2" t="n">
         <v>44510</v>
       </c>
-      <c r="AL211" s="1" t="n">
+      <c r="AL211" s="2" t="n">
         <v>44117</v>
       </c>
-      <c r="AM211" s="1" t="n">
+      <c r="AM211" s="2" t="n">
         <v>44467</v>
       </c>
       <c r="AN211" t="s">
@@ -66285,7 +66285,7 @@
       <c r="A212" t="s">
         <v>2888</v>
       </c>
-      <c r="B212" s="1" t="n">
+      <c r="B212" s="2" t="n">
         <v>44497</v>
       </c>
       <c r="C212" t="s">
@@ -66387,16 +66387,16 @@
       <c r="AI212" t="s">
         <v>2900</v>
       </c>
-      <c r="AJ212" s="1" t="n">
+      <c r="AJ212" s="2" t="n">
         <v>44476</v>
       </c>
-      <c r="AK212" s="1" t="n">
+      <c r="AK212" s="2" t="n">
         <v>44518</v>
       </c>
-      <c r="AL212" s="1" t="n">
+      <c r="AL212" s="2" t="n">
         <v>44125</v>
       </c>
-      <c r="AM212" s="1" t="n">
+      <c r="AM212" s="2" t="n">
         <v>44475</v>
       </c>
       <c r="AN212" t="s">
@@ -66541,7 +66541,7 @@
       <c r="A213" t="s">
         <v>2901</v>
       </c>
-      <c r="B213" s="1" t="n">
+      <c r="B213" s="2" t="n">
         <v>44508</v>
       </c>
       <c r="C213" t="s">
@@ -66643,16 +66643,16 @@
       <c r="AI213" t="s">
         <v>2912</v>
       </c>
-      <c r="AJ213" s="1" t="n">
+      <c r="AJ213" s="2" t="n">
         <v>44487</v>
       </c>
-      <c r="AK213" s="1" t="n">
+      <c r="AK213" s="2" t="n">
         <v>44529</v>
       </c>
-      <c r="AL213" s="1" t="n">
+      <c r="AL213" s="2" t="n">
         <v>44134</v>
       </c>
-      <c r="AM213" s="1" t="n">
+      <c r="AM213" s="2" t="n">
         <v>44484</v>
       </c>
       <c r="AN213" t="s">
@@ -66797,7 +66797,7 @@
       <c r="A214" t="s">
         <v>2913</v>
       </c>
-      <c r="B214" s="1" t="n">
+      <c r="B214" s="2" t="n">
         <v>44509</v>
       </c>
       <c r="C214" t="s">
@@ -66899,16 +66899,16 @@
       <c r="AI214" t="s">
         <v>2924</v>
       </c>
-      <c r="AJ214" s="1" t="n">
+      <c r="AJ214" s="2" t="n">
         <v>44488</v>
       </c>
-      <c r="AK214" s="1" t="n">
+      <c r="AK214" s="2" t="n">
         <v>44530</v>
       </c>
-      <c r="AL214" s="1" t="n">
+      <c r="AL214" s="2" t="n">
         <v>44137</v>
       </c>
-      <c r="AM214" s="1" t="n">
+      <c r="AM214" s="2" t="n">
         <v>44487</v>
       </c>
       <c r="AN214" t="s">
@@ -67053,7 +67053,7 @@
       <c r="A215" t="s">
         <v>2925</v>
       </c>
-      <c r="B215" s="1" t="n">
+      <c r="B215" s="2" t="n">
         <v>44512</v>
       </c>
       <c r="C215" t="s">
@@ -67155,16 +67155,16 @@
       <c r="AI215" t="s">
         <v>2938</v>
       </c>
-      <c r="AJ215" s="1" t="n">
+      <c r="AJ215" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="AK215" s="1" t="n">
+      <c r="AK215" s="2" t="n">
         <v>44533</v>
       </c>
-      <c r="AL215" s="1" t="n">
+      <c r="AL215" s="2" t="n">
         <v>44140</v>
       </c>
-      <c r="AM215" s="1" t="n">
+      <c r="AM215" s="2" t="n">
         <v>44490</v>
       </c>
       <c r="AN215" t="s">
@@ -67309,7 +67309,7 @@
       <c r="A216" t="s">
         <v>2939</v>
       </c>
-      <c r="B216" s="1" t="n">
+      <c r="B216" s="2" t="n">
         <v>44517</v>
       </c>
       <c r="C216" t="s">
@@ -67411,16 +67411,16 @@
       <c r="AI216" t="s">
         <v>2951</v>
       </c>
-      <c r="AJ216" s="1" t="n">
+      <c r="AJ216" s="2" t="n">
         <v>44496</v>
       </c>
-      <c r="AK216" s="1" t="n">
+      <c r="AK216" s="2" t="n">
         <v>44538</v>
       </c>
-      <c r="AL216" s="1" t="n">
+      <c r="AL216" s="2" t="n">
         <v>44145</v>
       </c>
-      <c r="AM216" s="1" t="n">
+      <c r="AM216" s="2" t="n">
         <v>44495</v>
       </c>
       <c r="AN216" t="s">
@@ -67565,7 +67565,7 @@
       <c r="A217" t="s">
         <v>2952</v>
       </c>
-      <c r="B217" s="1" t="n">
+      <c r="B217" s="2" t="n">
         <v>44525</v>
       </c>
       <c r="C217" t="s">
@@ -67667,16 +67667,16 @@
       <c r="AI217" t="s">
         <v>2963</v>
       </c>
-      <c r="AJ217" s="1" t="n">
+      <c r="AJ217" s="2" t="n">
         <v>44504</v>
       </c>
-      <c r="AK217" s="1" t="n">
+      <c r="AK217" s="2" t="n">
         <v>44546</v>
       </c>
-      <c r="AL217" s="1" t="n">
+      <c r="AL217" s="2" t="n">
         <v>44153</v>
       </c>
-      <c r="AM217" s="1" t="n">
+      <c r="AM217" s="2" t="n">
         <v>44503</v>
       </c>
       <c r="AN217" t="s">
@@ -67821,7 +67821,7 @@
       <c r="A218" t="s">
         <v>2964</v>
       </c>
-      <c r="B218" s="1" t="n">
+      <c r="B218" s="2" t="n">
         <v>44531</v>
       </c>
       <c r="C218" t="s">
@@ -67923,16 +67923,16 @@
       <c r="AI218" t="s">
         <v>107</v>
       </c>
-      <c r="AJ218" s="1" t="n">
+      <c r="AJ218" s="2" t="n">
         <v>44510</v>
       </c>
-      <c r="AK218" s="1" t="n">
+      <c r="AK218" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="AL218" s="1" t="n">
+      <c r="AL218" s="2" t="n">
         <v>44159</v>
       </c>
-      <c r="AM218" s="1" t="n">
+      <c r="AM218" s="2" t="n">
         <v>44509</v>
       </c>
       <c r="AN218" t="s">
@@ -68077,7 +68077,7 @@
       <c r="A219" t="s">
         <v>2975</v>
       </c>
-      <c r="B219" s="1" t="n">
+      <c r="B219" s="2" t="n">
         <v>44545</v>
       </c>
       <c r="C219" t="s">
@@ -68179,16 +68179,16 @@
       <c r="AI219" t="s">
         <v>2989</v>
       </c>
-      <c r="AJ219" s="1" t="n">
+      <c r="AJ219" s="2" t="n">
         <v>44524</v>
       </c>
-      <c r="AK219" s="1" t="n">
+      <c r="AK219" s="2" t="n">
         <v>44566</v>
       </c>
-      <c r="AL219" s="1" t="n">
+      <c r="AL219" s="2" t="n">
         <v>44173</v>
       </c>
-      <c r="AM219" s="1" t="n">
+      <c r="AM219" s="2" t="n">
         <v>44523</v>
       </c>
       <c r="AN219" t="s">
@@ -68335,7 +68335,7 @@
       <c r="A220" t="s">
         <v>2990</v>
       </c>
-      <c r="B220" s="1" t="n">
+      <c r="B220" s="2" t="n">
         <v>44552</v>
       </c>
       <c r="C220" t="s">
@@ -68437,16 +68437,16 @@
       <c r="AI220" t="s">
         <v>3002</v>
       </c>
-      <c r="AJ220" s="1" t="n">
+      <c r="AJ220" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="AK220" s="1" t="n">
+      <c r="AK220" s="2" t="n">
         <v>44573</v>
       </c>
-      <c r="AL220" s="1" t="n">
+      <c r="AL220" s="2" t="n">
         <v>44180</v>
       </c>
-      <c r="AM220" s="1" t="n">
+      <c r="AM220" s="2" t="n">
         <v>44530</v>
       </c>
       <c r="AN220" t="s">
@@ -68593,7 +68593,7 @@
       <c r="A221" t="s">
         <v>3003</v>
       </c>
-      <c r="B221" s="1" t="n">
+      <c r="B221" s="2" t="n">
         <v>44553</v>
       </c>
       <c r="C221" t="s">
@@ -68695,16 +68695,16 @@
       <c r="AI221" t="s">
         <v>107</v>
       </c>
-      <c r="AJ221" s="1" t="n">
+      <c r="AJ221" s="2" t="n">
         <v>44532</v>
       </c>
-      <c r="AK221" s="1" t="n">
+      <c r="AK221" s="2" t="n">
         <v>44574</v>
       </c>
-      <c r="AL221" s="1" t="n">
+      <c r="AL221" s="2" t="n">
         <v>44181</v>
       </c>
-      <c r="AM221" s="1" t="n">
+      <c r="AM221" s="2" t="n">
         <v>44531</v>
       </c>
       <c r="AN221" t="s">
@@ -68851,7 +68851,7 @@
       <c r="A222" t="s">
         <v>3015</v>
       </c>
-      <c r="B222" s="1" t="n">
+      <c r="B222" s="2" t="n">
         <v>44575</v>
       </c>
       <c r="C222" t="s">
@@ -68953,16 +68953,16 @@
       <c r="AI222" t="s">
         <v>3026</v>
       </c>
-      <c r="AJ222" s="1" t="n">
+      <c r="AJ222" s="2" t="n">
         <v>44554</v>
       </c>
-      <c r="AK222" s="1" t="n">
+      <c r="AK222" s="2" t="n">
         <v>44596</v>
       </c>
-      <c r="AL222" s="1" t="n">
+      <c r="AL222" s="2" t="n">
         <v>44203</v>
       </c>
-      <c r="AM222" s="1" t="n">
+      <c r="AM222" s="2" t="n">
         <v>44553</v>
       </c>
       <c r="AN222" t="s">
@@ -69107,7 +69107,7 @@
       <c r="A223" t="s">
         <v>3027</v>
       </c>
-      <c r="B223" s="1" t="n">
+      <c r="B223" s="2" t="n">
         <v>44581</v>
       </c>
       <c r="C223" t="s">
@@ -69209,16 +69209,16 @@
       <c r="AI223" t="s">
         <v>3039</v>
       </c>
-      <c r="AJ223" s="1" t="n">
+      <c r="AJ223" s="2" t="n">
         <v>44560</v>
       </c>
-      <c r="AK223" s="1" t="n">
+      <c r="AK223" s="2" t="n">
         <v>44602</v>
       </c>
-      <c r="AL223" s="1" t="n">
+      <c r="AL223" s="2" t="n">
         <v>44209</v>
       </c>
-      <c r="AM223" s="1" t="n">
+      <c r="AM223" s="2" t="n">
         <v>44559</v>
       </c>
       <c r="AN223" t="s">
@@ -69365,7 +69365,7 @@
       <c r="A224" t="s">
         <v>3040</v>
       </c>
-      <c r="B224" s="1" t="n">
+      <c r="B224" s="2" t="n">
         <v>44596</v>
       </c>
       <c r="C224" t="s">
@@ -69467,16 +69467,16 @@
       <c r="AI224" t="s">
         <v>3052</v>
       </c>
-      <c r="AJ224" s="1" t="n">
+      <c r="AJ224" s="2" t="n">
         <v>44575</v>
       </c>
-      <c r="AK224" s="1" t="n">
+      <c r="AK224" s="2" t="n">
         <v>44617</v>
       </c>
-      <c r="AL224" s="1" t="n">
+      <c r="AL224" s="2" t="n">
         <v>44224</v>
       </c>
-      <c r="AM224" s="1" t="n">
+      <c r="AM224" s="2" t="n">
         <v>44574</v>
       </c>
       <c r="AN224" t="s">
@@ -69621,7 +69621,7 @@
       <c r="A225" t="s">
         <v>3053</v>
       </c>
-      <c r="B225" s="1" t="n">
+      <c r="B225" s="2" t="n">
         <v>44617</v>
       </c>
       <c r="C225" t="s">
@@ -69723,16 +69723,16 @@
       <c r="AI225" t="s">
         <v>107</v>
       </c>
-      <c r="AJ225" s="1" t="n">
+      <c r="AJ225" s="2" t="n">
         <v>44596</v>
       </c>
-      <c r="AK225" s="1" t="n">
+      <c r="AK225" s="2" t="n">
         <v>44638</v>
       </c>
-      <c r="AL225" s="1" t="n">
+      <c r="AL225" s="2" t="n">
         <v>44245</v>
       </c>
-      <c r="AM225" s="1" t="n">
+      <c r="AM225" s="2" t="n">
         <v>44595</v>
       </c>
       <c r="AN225" t="s">
@@ -69877,7 +69877,7 @@
       <c r="A226" t="s">
         <v>3064</v>
       </c>
-      <c r="B226" s="1" t="n">
+      <c r="B226" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="C226" t="s">
@@ -69979,16 +69979,16 @@
       <c r="AI226" t="s">
         <v>3076</v>
       </c>
-      <c r="AJ226" s="1" t="n">
+      <c r="AJ226" s="2" t="n">
         <v>44599</v>
       </c>
-      <c r="AK226" s="1" t="n">
+      <c r="AK226" s="2" t="n">
         <v>44641</v>
       </c>
-      <c r="AL226" s="1" t="n">
+      <c r="AL226" s="2" t="n">
         <v>44246</v>
       </c>
-      <c r="AM226" s="1" t="n">
+      <c r="AM226" s="2" t="n">
         <v>44596</v>
       </c>
       <c r="AN226" t="s">
@@ -70135,7 +70135,7 @@
       <c r="A227" t="s">
         <v>3077</v>
       </c>
-      <c r="B227" s="1" t="n">
+      <c r="B227" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="C227" t="s">
@@ -70237,16 +70237,16 @@
       <c r="AI227" t="s">
         <v>3089</v>
       </c>
-      <c r="AJ227" s="1" t="n">
+      <c r="AJ227" s="2" t="n">
         <v>44606</v>
       </c>
-      <c r="AK227" s="1" t="n">
+      <c r="AK227" s="2" t="n">
         <v>44648</v>
       </c>
-      <c r="AL227" s="1" t="n">
+      <c r="AL227" s="2" t="n">
         <v>44253</v>
       </c>
-      <c r="AM227" s="1" t="n">
+      <c r="AM227" s="2" t="n">
         <v>44603</v>
       </c>
       <c r="AN227" t="s">
@@ -70391,7 +70391,7 @@
       <c r="A228" t="s">
         <v>3090</v>
       </c>
-      <c r="B228" s="1" t="n">
+      <c r="B228" s="2" t="n">
         <v>44686</v>
       </c>
       <c r="C228" t="s">
@@ -70493,16 +70493,16 @@
       <c r="AI228" t="s">
         <v>3101</v>
       </c>
-      <c r="AJ228" s="1" t="n">
+      <c r="AJ228" s="2" t="n">
         <v>44665</v>
       </c>
-      <c r="AK228" s="1" t="n">
+      <c r="AK228" s="2" t="n">
         <v>44707</v>
       </c>
-      <c r="AL228" s="1" t="n">
+      <c r="AL228" s="2" t="n">
         <v>44314</v>
       </c>
-      <c r="AM228" s="1" t="n">
+      <c r="AM228" s="2" t="n">
         <v>44664</v>
       </c>
       <c r="AN228" t="s">
@@ -70647,7 +70647,7 @@
       <c r="A229" t="s">
         <v>3102</v>
       </c>
-      <c r="B229" s="1" t="n">
+      <c r="B229" s="2" t="n">
         <v>44687</v>
       </c>
       <c r="C229" t="s">
@@ -70749,16 +70749,16 @@
       <c r="AI229" t="s">
         <v>3113</v>
       </c>
-      <c r="AJ229" s="1" t="n">
+      <c r="AJ229" s="2" t="n">
         <v>44666</v>
       </c>
-      <c r="AK229" s="1" t="n">
+      <c r="AK229" s="2" t="n">
         <v>44708</v>
       </c>
-      <c r="AL229" s="1" t="n">
+      <c r="AL229" s="2" t="n">
         <v>44315</v>
       </c>
-      <c r="AM229" s="1" t="n">
+      <c r="AM229" s="2" t="n">
         <v>44665</v>
       </c>
       <c r="AN229" t="s">
@@ -70903,7 +70903,7 @@
       <c r="A230" t="s">
         <v>3114</v>
       </c>
-      <c r="B230" s="1" t="n">
+      <c r="B230" s="2" t="n">
         <v>44687</v>
       </c>
       <c r="C230" t="s">
@@ -71005,16 +71005,16 @@
       <c r="AI230" t="s">
         <v>3126</v>
       </c>
-      <c r="AJ230" s="1" t="n">
+      <c r="AJ230" s="2" t="n">
         <v>44666</v>
       </c>
-      <c r="AK230" s="1" t="n">
+      <c r="AK230" s="2" t="n">
         <v>44708</v>
       </c>
-      <c r="AL230" s="1" t="n">
+      <c r="AL230" s="2" t="n">
         <v>44315</v>
       </c>
-      <c r="AM230" s="1" t="n">
+      <c r="AM230" s="2" t="n">
         <v>44665</v>
       </c>
       <c r="AN230" t="s">
@@ -71159,7 +71159,7 @@
       <c r="A231" t="s">
         <v>3127</v>
       </c>
-      <c r="B231" s="1" t="n">
+      <c r="B231" s="2" t="n">
         <v>44692</v>
       </c>
       <c r="C231" t="s">
@@ -71261,16 +71261,16 @@
       <c r="AI231" t="s">
         <v>3138</v>
       </c>
-      <c r="AJ231" s="1" t="n">
+      <c r="AJ231" s="2" t="n">
         <v>44671</v>
       </c>
-      <c r="AK231" s="1" t="n">
+      <c r="AK231" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="AL231" s="1" t="n">
+      <c r="AL231" s="2" t="n">
         <v>44320</v>
       </c>
-      <c r="AM231" s="1" t="n">
+      <c r="AM231" s="2" t="n">
         <v>44670</v>
       </c>
       <c r="AN231" t="s">
@@ -71415,7 +71415,7 @@
       <c r="A232" t="s">
         <v>3139</v>
       </c>
-      <c r="B232" s="1" t="n">
+      <c r="B232" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="C232" t="s">
@@ -71517,16 +71517,16 @@
       <c r="AI232" t="s">
         <v>3150</v>
       </c>
-      <c r="AJ232" s="1" t="n">
+      <c r="AJ232" s="2" t="n">
         <v>44690</v>
       </c>
-      <c r="AK232" s="1" t="n">
+      <c r="AK232" s="2" t="n">
         <v>44732</v>
       </c>
-      <c r="AL232" s="1" t="n">
+      <c r="AL232" s="2" t="n">
         <v>44337</v>
       </c>
-      <c r="AM232" s="1" t="n">
+      <c r="AM232" s="2" t="n">
         <v>44687</v>
       </c>
       <c r="AN232" t="s">
@@ -71671,7 +71671,7 @@
       <c r="A233" t="s">
         <v>3151</v>
       </c>
-      <c r="B233" s="1" t="n">
+      <c r="B233" s="2" t="n">
         <v>44720</v>
       </c>
       <c r="C233" t="s">
@@ -71773,16 +71773,16 @@
       <c r="AI233" t="s">
         <v>3164</v>
       </c>
-      <c r="AJ233" s="1" t="n">
+      <c r="AJ233" s="2" t="n">
         <v>44699</v>
       </c>
-      <c r="AK233" s="1" t="n">
+      <c r="AK233" s="2" t="n">
         <v>44741</v>
       </c>
-      <c r="AL233" s="1" t="n">
+      <c r="AL233" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="AM233" s="1" t="n">
+      <c r="AM233" s="2" t="n">
         <v>44698</v>
       </c>
       <c r="AN233" t="s">
@@ -71927,7 +71927,7 @@
       <c r="A234" t="s">
         <v>3165</v>
       </c>
-      <c r="B234" s="1" t="n">
+      <c r="B234" s="2" t="n">
         <v>44721</v>
       </c>
       <c r="C234" t="s">
@@ -72029,16 +72029,16 @@
       <c r="AI234" t="s">
         <v>3177</v>
       </c>
-      <c r="AJ234" s="1" t="n">
+      <c r="AJ234" s="2" t="n">
         <v>44700</v>
       </c>
-      <c r="AK234" s="1" t="n">
+      <c r="AK234" s="2" t="n">
         <v>44742</v>
       </c>
-      <c r="AL234" s="1" t="n">
+      <c r="AL234" s="2" t="n">
         <v>44349</v>
       </c>
-      <c r="AM234" s="1" t="n">
+      <c r="AM234" s="2" t="n">
         <v>44699</v>
       </c>
       <c r="AN234" t="s">
@@ -72183,7 +72183,7 @@
       <c r="A235" t="s">
         <v>3178</v>
       </c>
-      <c r="B235" s="1" t="n">
+      <c r="B235" s="2" t="n">
         <v>44725</v>
       </c>
       <c r="C235" t="s">
@@ -72285,16 +72285,16 @@
       <c r="AI235" t="s">
         <v>3192</v>
       </c>
-      <c r="AJ235" s="1" t="n">
+      <c r="AJ235" s="2" t="n">
         <v>44704</v>
       </c>
-      <c r="AK235" s="1" t="n">
+      <c r="AK235" s="2" t="n">
         <v>44746</v>
       </c>
-      <c r="AL235" s="1" t="n">
+      <c r="AL235" s="2" t="n">
         <v>44351</v>
       </c>
-      <c r="AM235" s="1" t="n">
+      <c r="AM235" s="2" t="n">
         <v>44701</v>
       </c>
       <c r="AN235" t="s">
@@ -72441,7 +72441,7 @@
       <c r="A236" t="s">
         <v>3193</v>
       </c>
-      <c r="B236" s="1" t="n">
+      <c r="B236" s="2" t="n">
         <v>44733</v>
       </c>
       <c r="C236" t="s">
@@ -72543,16 +72543,16 @@
       <c r="AI236" t="s">
         <v>3206</v>
       </c>
-      <c r="AJ236" s="1" t="n">
+      <c r="AJ236" s="2" t="n">
         <v>44712</v>
       </c>
-      <c r="AK236" s="1" t="n">
+      <c r="AK236" s="2" t="n">
         <v>44754</v>
       </c>
-      <c r="AL236" s="1" t="n">
+      <c r="AL236" s="2" t="n">
         <v>44361</v>
       </c>
-      <c r="AM236" s="1" t="n">
+      <c r="AM236" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="AN236" t="s">
@@ -72697,7 +72697,7 @@
       <c r="A237" t="s">
         <v>3207</v>
       </c>
-      <c r="B237" s="1" t="n">
+      <c r="B237" s="2" t="n">
         <v>44743</v>
       </c>
       <c r="C237" t="s">
@@ -72799,16 +72799,16 @@
       <c r="AI237" t="s">
         <v>3218</v>
       </c>
-      <c r="AJ237" s="1" t="n">
+      <c r="AJ237" s="2" t="n">
         <v>44722</v>
       </c>
-      <c r="AK237" s="1" t="n">
+      <c r="AK237" s="2" t="n">
         <v>44764</v>
       </c>
-      <c r="AL237" s="1" t="n">
+      <c r="AL237" s="2" t="n">
         <v>44371</v>
       </c>
-      <c r="AM237" s="1" t="n">
+      <c r="AM237" s="2" t="n">
         <v>44721</v>
       </c>
       <c r="AN237" t="s">
@@ -72953,7 +72953,7 @@
       <c r="A238" t="s">
         <v>3219</v>
       </c>
-      <c r="B238" s="1" t="n">
+      <c r="B238" s="2" t="n">
         <v>44754</v>
       </c>
       <c r="C238" t="s">
@@ -73055,16 +73055,16 @@
       <c r="AI238" t="s">
         <v>3232</v>
       </c>
-      <c r="AJ238" s="1" t="n">
+      <c r="AJ238" s="2" t="n">
         <v>44733</v>
       </c>
-      <c r="AK238" s="1" t="n">
+      <c r="AK238" s="2" t="n">
         <v>44775</v>
       </c>
-      <c r="AL238" s="1" t="n">
+      <c r="AL238" s="2" t="n">
         <v>44382</v>
       </c>
-      <c r="AM238" s="1" t="n">
+      <c r="AM238" s="2" t="n">
         <v>44732</v>
       </c>
       <c r="AN238" t="s">
@@ -73211,7 +73211,7 @@
       <c r="A239" t="s">
         <v>3233</v>
       </c>
-      <c r="B239" s="1" t="n">
+      <c r="B239" s="2" t="n">
         <v>44762</v>
       </c>
       <c r="C239" t="s">
@@ -73313,16 +73313,16 @@
       <c r="AI239" t="s">
         <v>3244</v>
       </c>
-      <c r="AJ239" s="1" t="n">
+      <c r="AJ239" s="2" t="n">
         <v>44741</v>
       </c>
-      <c r="AK239" s="1" t="n">
+      <c r="AK239" s="2" t="n">
         <v>44783</v>
       </c>
-      <c r="AL239" s="1" t="n">
+      <c r="AL239" s="2" t="n">
         <v>44390</v>
       </c>
-      <c r="AM239" s="1" t="n">
+      <c r="AM239" s="2" t="n">
         <v>44740</v>
       </c>
       <c r="AN239" t="s">
@@ -73469,7 +73469,7 @@
       <c r="A240" t="s">
         <v>3245</v>
       </c>
-      <c r="B240" s="1" t="n">
+      <c r="B240" s="2" t="n">
         <v>44774</v>
       </c>
       <c r="C240" t="s">
@@ -73571,16 +73571,16 @@
       <c r="AI240" t="s">
         <v>3258</v>
       </c>
-      <c r="AJ240" s="1" t="n">
+      <c r="AJ240" s="2" t="n">
         <v>44753</v>
       </c>
-      <c r="AK240" s="1" t="n">
+      <c r="AK240" s="2" t="n">
         <v>44795</v>
       </c>
-      <c r="AL240" s="1" t="n">
+      <c r="AL240" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="AM240" s="1" t="n">
+      <c r="AM240" s="2" t="n">
         <v>44750</v>
       </c>
       <c r="AN240" t="s">
@@ -73725,7 +73725,7 @@
       <c r="A241" t="s">
         <v>3259</v>
       </c>
-      <c r="B241" s="1" t="n">
+      <c r="B241" s="2" t="n">
         <v>44781</v>
       </c>
       <c r="C241" t="s">
@@ -73827,16 +73827,16 @@
       <c r="AI241" t="s">
         <v>3271</v>
       </c>
-      <c r="AJ241" s="1" t="n">
+      <c r="AJ241" s="2" t="n">
         <v>44760</v>
       </c>
-      <c r="AK241" s="1" t="n">
+      <c r="AK241" s="2" t="n">
         <v>44802</v>
       </c>
-      <c r="AL241" s="1" t="n">
+      <c r="AL241" s="2" t="n">
         <v>44407</v>
       </c>
-      <c r="AM241" s="1" t="n">
+      <c r="AM241" s="2" t="n">
         <v>44757</v>
       </c>
       <c r="AN241" t="s">
@@ -73983,7 +73983,7 @@
       <c r="A242" t="s">
         <v>3272</v>
       </c>
-      <c r="B242" s="1" t="n">
+      <c r="B242" s="2" t="n">
         <v>44791</v>
       </c>
       <c r="C242" t="s">
@@ -74085,16 +74085,16 @@
       <c r="AI242" t="s">
         <v>3284</v>
       </c>
-      <c r="AJ242" s="1" t="n">
+      <c r="AJ242" s="2" t="n">
         <v>44770</v>
       </c>
-      <c r="AK242" s="1" t="n">
+      <c r="AK242" s="2" t="n">
         <v>44812</v>
       </c>
-      <c r="AL242" s="1" t="n">
+      <c r="AL242" s="2" t="n">
         <v>44419</v>
       </c>
-      <c r="AM242" s="1" t="n">
+      <c r="AM242" s="2" t="n">
         <v>44769</v>
       </c>
       <c r="AN242" t="s">
@@ -74239,7 +74239,7 @@
       <c r="A243" t="s">
         <v>3285</v>
       </c>
-      <c r="B243" s="1" t="n">
+      <c r="B243" s="2" t="n">
         <v>44798</v>
       </c>
       <c r="C243" t="s">
@@ -74341,16 +74341,16 @@
       <c r="AI243" t="s">
         <v>3295</v>
       </c>
-      <c r="AJ243" s="1" t="n">
+      <c r="AJ243" s="2" t="n">
         <v>44777</v>
       </c>
-      <c r="AK243" s="1" t="n">
+      <c r="AK243" s="2" t="n">
         <v>44819</v>
       </c>
-      <c r="AL243" s="1" t="n">
+      <c r="AL243" s="2" t="n">
         <v>44426</v>
       </c>
-      <c r="AM243" s="1" t="n">
+      <c r="AM243" s="2" t="n">
         <v>44776</v>
       </c>
       <c r="AN243" t="s">
@@ -74495,7 +74495,7 @@
       <c r="A244" t="s">
         <v>3296</v>
       </c>
-      <c r="B244" s="1" t="n">
+      <c r="B244" s="2" t="n">
         <v>44823</v>
       </c>
       <c r="C244" t="s">
@@ -74597,16 +74597,16 @@
       <c r="AI244" t="s">
         <v>3309</v>
       </c>
-      <c r="AJ244" s="1" t="n">
+      <c r="AJ244" s="2" t="n">
         <v>44802</v>
       </c>
-      <c r="AK244" s="1" t="n">
+      <c r="AK244" s="2" t="n">
         <v>44844</v>
       </c>
-      <c r="AL244" s="1" t="n">
+      <c r="AL244" s="2" t="n">
         <v>44449</v>
       </c>
-      <c r="AM244" s="1" t="n">
+      <c r="AM244" s="2" t="n">
         <v>44799</v>
       </c>
       <c r="AN244" t="s">
@@ -74751,7 +74751,7 @@
       <c r="A245" t="s">
         <v>3310</v>
       </c>
-      <c r="B245" s="1" t="n">
+      <c r="B245" s="2" t="n">
         <v>44840</v>
       </c>
       <c r="C245" t="s">
@@ -74853,16 +74853,16 @@
       <c r="AI245" t="s">
         <v>3324</v>
       </c>
-      <c r="AJ245" s="1" t="n">
+      <c r="AJ245" s="2" t="n">
         <v>44819</v>
       </c>
-      <c r="AK245" s="1" t="n">
+      <c r="AK245" s="2" t="n">
         <v>44861</v>
       </c>
-      <c r="AL245" s="1" t="n">
+      <c r="AL245" s="2" t="n">
         <v>44468</v>
       </c>
-      <c r="AM245" s="1" t="n">
+      <c r="AM245" s="2" t="n">
         <v>44818</v>
       </c>
       <c r="AN245" t="s">
@@ -75009,7 +75009,7 @@
       <c r="A246" t="s">
         <v>3325</v>
       </c>
-      <c r="B246" s="1" t="n">
+      <c r="B246" s="2" t="n">
         <v>44846</v>
       </c>
       <c r="C246" t="s">
@@ -75111,16 +75111,16 @@
       <c r="AI246" t="s">
         <v>3337</v>
       </c>
-      <c r="AJ246" s="1" t="n">
+      <c r="AJ246" s="2" t="n">
         <v>44825</v>
       </c>
-      <c r="AK246" s="1" t="n">
+      <c r="AK246" s="2" t="n">
         <v>44867</v>
       </c>
-      <c r="AL246" s="1" t="n">
+      <c r="AL246" s="2" t="n">
         <v>44474</v>
       </c>
-      <c r="AM246" s="1" t="n">
+      <c r="AM246" s="2" t="n">
         <v>44824</v>
       </c>
       <c r="AN246" t="s">
@@ -75265,7 +75265,7 @@
       <c r="A247" t="s">
         <v>3338</v>
       </c>
-      <c r="B247" s="1" t="n">
+      <c r="B247" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="C247" t="s">
@@ -75367,16 +75367,16 @@
       <c r="AI247" t="s">
         <v>3350</v>
       </c>
-      <c r="AJ247" s="1" t="n">
+      <c r="AJ247" s="2" t="n">
         <v>44831</v>
       </c>
-      <c r="AK247" s="1" t="n">
+      <c r="AK247" s="2" t="n">
         <v>44873</v>
       </c>
-      <c r="AL247" s="1" t="n">
+      <c r="AL247" s="2" t="n">
         <v>44480</v>
       </c>
-      <c r="AM247" s="1" t="n">
+      <c r="AM247" s="2" t="n">
         <v>44830</v>
       </c>
       <c r="AN247" t="s">
@@ -75521,7 +75521,7 @@
       <c r="A248" t="s">
         <v>3351</v>
       </c>
-      <c r="B248" s="1" t="n">
+      <c r="B248" s="2" t="n">
         <v>44866</v>
       </c>
       <c r="C248" t="s">
@@ -75623,16 +75623,16 @@
       <c r="AI248" t="s">
         <v>3365</v>
       </c>
-      <c r="AJ248" s="1" t="n">
+      <c r="AJ248" s="2" t="n">
         <v>44845</v>
       </c>
-      <c r="AK248" s="1" t="n">
+      <c r="AK248" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="AL248" s="1" t="n">
+      <c r="AL248" s="2" t="n">
         <v>44494</v>
       </c>
-      <c r="AM248" s="1" t="n">
+      <c r="AM248" s="2" t="n">
         <v>44844</v>
       </c>
       <c r="AN248" t="s">
@@ -75777,7 +75777,7 @@
       <c r="A249" t="s">
         <v>3366</v>
       </c>
-      <c r="B249" s="1" t="n">
+      <c r="B249" s="2" t="n">
         <v>44876</v>
       </c>
       <c r="C249" t="s">
@@ -75879,16 +75879,16 @@
       <c r="AI249" t="s">
         <v>3374</v>
       </c>
-      <c r="AJ249" s="1" t="n">
+      <c r="AJ249" s="2" t="n">
         <v>44855</v>
       </c>
-      <c r="AK249" s="1" t="n">
+      <c r="AK249" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="AL249" s="1" t="n">
+      <c r="AL249" s="2" t="n">
         <v>44504</v>
       </c>
-      <c r="AM249" s="1" t="n">
+      <c r="AM249" s="2" t="n">
         <v>44854</v>
       </c>
       <c r="AN249" t="s">
@@ -76033,7 +76033,7 @@
       <c r="A250" t="s">
         <v>3375</v>
       </c>
-      <c r="B250" s="1" t="n">
+      <c r="B250" s="2" t="n">
         <v>44881</v>
       </c>
       <c r="C250" t="s">
@@ -76135,16 +76135,16 @@
       <c r="AI250" t="s">
         <v>3387</v>
       </c>
-      <c r="AJ250" s="1" t="n">
+      <c r="AJ250" s="2" t="n">
         <v>44860</v>
       </c>
-      <c r="AK250" s="1" t="n">
+      <c r="AK250" s="2" t="n">
         <v>44902</v>
       </c>
-      <c r="AL250" s="1" t="n">
+      <c r="AL250" s="2" t="n">
         <v>44509</v>
       </c>
-      <c r="AM250" s="1" t="n">
+      <c r="AM250" s="2" t="n">
         <v>44859</v>
       </c>
       <c r="AN250" t="s">
@@ -76291,7 +76291,7 @@
       <c r="A251" t="s">
         <v>3388</v>
       </c>
-      <c r="B251" s="1" t="n">
+      <c r="B251" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="C251" t="s">
@@ -76393,16 +76393,16 @@
       <c r="AI251" t="s">
         <v>3395</v>
       </c>
-      <c r="AJ251" s="1" t="n">
+      <c r="AJ251" s="2" t="n">
         <v>44865</v>
       </c>
-      <c r="AK251" s="1" t="n">
+      <c r="AK251" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="AL251" s="1" t="n">
+      <c r="AL251" s="2" t="n">
         <v>44512</v>
       </c>
-      <c r="AM251" s="1" t="n">
+      <c r="AM251" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="AN251" t="s">
@@ -76549,7 +76549,7 @@
       <c r="A252" t="s">
         <v>3396</v>
       </c>
-      <c r="B252" s="1" t="n">
+      <c r="B252" s="2" t="n">
         <v>44904</v>
       </c>
       <c r="C252" t="s">
@@ -76651,16 +76651,16 @@
       <c r="AI252" t="s">
         <v>3410</v>
       </c>
-      <c r="AJ252" s="1" t="n">
+      <c r="AJ252" s="2" t="n">
         <v>44883</v>
       </c>
-      <c r="AK252" s="1" t="n">
+      <c r="AK252" s="2" t="n">
         <v>44925</v>
       </c>
-      <c r="AL252" s="1" t="n">
+      <c r="AL252" s="2" t="n">
         <v>44532</v>
       </c>
-      <c r="AM252" s="1" t="n">
+      <c r="AM252" s="2" t="n">
         <v>44882</v>
       </c>
       <c r="AN252" t="s">
@@ -76807,7 +76807,7 @@
       <c r="A253" t="s">
         <v>3411</v>
       </c>
-      <c r="B253" s="1" t="n">
+      <c r="B253" s="2" t="n">
         <v>44923</v>
       </c>
       <c r="C253" t="s">
@@ -76909,16 +76909,16 @@
       <c r="AI253" t="s">
         <v>3422</v>
       </c>
-      <c r="AJ253" s="1" t="n">
+      <c r="AJ253" s="2" t="n">
         <v>44902</v>
       </c>
-      <c r="AK253" s="1" t="n">
+      <c r="AK253" s="2" t="n">
         <v>44944</v>
       </c>
-      <c r="AL253" s="1" t="n">
+      <c r="AL253" s="2" t="n">
         <v>44551</v>
       </c>
-      <c r="AM253" s="1" t="n">
+      <c r="AM253" s="2" t="n">
         <v>44901</v>
       </c>
       <c r="AN253" t="s">
@@ -77065,7 +77065,7 @@
       <c r="A254" t="s">
         <v>3423</v>
       </c>
-      <c r="B254" s="1" t="n">
+      <c r="B254" s="2" t="n">
         <v>44936</v>
       </c>
       <c r="C254" t="s">
@@ -77167,16 +77167,16 @@
       <c r="AI254" t="s">
         <v>3434</v>
       </c>
-      <c r="AJ254" s="1" t="n">
+      <c r="AJ254" s="2" t="n">
         <v>44915</v>
       </c>
-      <c r="AK254" s="1" t="n">
+      <c r="AK254" s="2" t="n">
         <v>44957</v>
       </c>
-      <c r="AL254" s="1" t="n">
+      <c r="AL254" s="2" t="n">
         <v>44564</v>
       </c>
-      <c r="AM254" s="1" t="n">
+      <c r="AM254" s="2" t="n">
         <v>44914</v>
       </c>
       <c r="AN254" t="s">
@@ -77321,7 +77321,7 @@
       <c r="A255" t="s">
         <v>3435</v>
       </c>
-      <c r="B255" s="1" t="n">
+      <c r="B255" s="2" t="n">
         <v>44936</v>
       </c>
       <c r="C255" t="s">
@@ -77423,16 +77423,16 @@
       <c r="AI255" t="s">
         <v>3446</v>
       </c>
-      <c r="AJ255" s="1" t="n">
+      <c r="AJ255" s="2" t="n">
         <v>44915</v>
       </c>
-      <c r="AK255" s="1" t="n">
+      <c r="AK255" s="2" t="n">
         <v>44957</v>
       </c>
-      <c r="AL255" s="1" t="n">
+      <c r="AL255" s="2" t="n">
         <v>44564</v>
       </c>
-      <c r="AM255" s="1" t="n">
+      <c r="AM255" s="2" t="n">
         <v>44914</v>
       </c>
       <c r="AN255" t="s">
@@ -77577,7 +77577,7 @@
       <c r="A256" t="s">
         <v>3447</v>
       </c>
-      <c r="B256" s="1" t="n">
+      <c r="B256" s="2" t="n">
         <v>44944</v>
       </c>
       <c r="C256" t="s">
@@ -77679,16 +77679,16 @@
       <c r="AI256" t="s">
         <v>3459</v>
       </c>
-      <c r="AJ256" s="1" t="n">
+      <c r="AJ256" s="2" t="n">
         <v>44923</v>
       </c>
-      <c r="AK256" s="1" t="n">
+      <c r="AK256" s="2" t="n">
         <v>44965</v>
       </c>
-      <c r="AL256" s="1" t="n">
+      <c r="AL256" s="2" t="n">
         <v>44572</v>
       </c>
-      <c r="AM256" s="1" t="n">
+      <c r="AM256" s="2" t="n">
         <v>44922</v>
       </c>
       <c r="AN256" t="s">
@@ -77835,7 +77835,7 @@
       <c r="A257" t="s">
         <v>3460</v>
       </c>
-      <c r="B257" s="1" t="n">
+      <c r="B257" s="2" t="n">
         <v>44970</v>
       </c>
       <c r="C257" t="s">
@@ -77937,16 +77937,16 @@
       <c r="AI257" t="s">
         <v>3472</v>
       </c>
-      <c r="AJ257" s="1" t="n">
+      <c r="AJ257" s="2" t="n">
         <v>44949</v>
       </c>
-      <c r="AK257" s="1" t="n">
+      <c r="AK257" s="2" t="n">
         <v>44991</v>
       </c>
-      <c r="AL257" s="1" t="n">
+      <c r="AL257" s="2" t="n">
         <v>44596</v>
       </c>
-      <c r="AM257" s="1" t="n">
+      <c r="AM257" s="2" t="n">
         <v>44946</v>
       </c>
       <c r="AN257" t="s">
@@ -78091,7 +78091,7 @@
       <c r="A258" t="s">
         <v>3473</v>
       </c>
-      <c r="B258" s="1" t="n">
+      <c r="B258" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="C258" t="s">
@@ -78193,16 +78193,16 @@
       <c r="AI258" t="s">
         <v>3483</v>
       </c>
-      <c r="AJ258" s="1" t="n">
+      <c r="AJ258" s="2" t="n">
         <v>44951</v>
       </c>
-      <c r="AK258" s="1" t="n">
+      <c r="AK258" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="AL258" s="1" t="n">
+      <c r="AL258" s="2" t="n">
         <v>44600</v>
       </c>
-      <c r="AM258" s="1" t="n">
+      <c r="AM258" s="2" t="n">
         <v>44950</v>
       </c>
       <c r="AN258" t="s">
@@ -78347,7 +78347,7 @@
       <c r="A259" t="s">
         <v>3484</v>
       </c>
-      <c r="B259" s="1" t="n">
+      <c r="B259" s="2" t="n">
         <v>44973</v>
       </c>
       <c r="C259" t="s">
@@ -78449,16 +78449,16 @@
       <c r="AI259" t="s">
         <v>3497</v>
       </c>
-      <c r="AJ259" s="1" t="n">
+      <c r="AJ259" s="2" t="n">
         <v>44952</v>
       </c>
-      <c r="AK259" s="1" t="n">
+      <c r="AK259" s="2" t="n">
         <v>44994</v>
       </c>
-      <c r="AL259" s="1" t="n">
+      <c r="AL259" s="2" t="n">
         <v>44601</v>
       </c>
-      <c r="AM259" s="1" t="n">
+      <c r="AM259" s="2" t="n">
         <v>44951</v>
       </c>
       <c r="AN259" t="s">
@@ -78603,7 +78603,7 @@
       <c r="A260" t="s">
         <v>3498</v>
       </c>
-      <c r="B260" s="1" t="n">
+      <c r="B260" s="2" t="n">
         <v>45014</v>
       </c>
       <c r="C260" t="s">
@@ -78705,16 +78705,16 @@
       <c r="AI260" t="s">
         <v>3510</v>
       </c>
-      <c r="AJ260" s="1" t="n">
+      <c r="AJ260" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="AK260" s="1" t="n">
+      <c r="AK260" s="2" t="n">
         <v>45035</v>
       </c>
-      <c r="AL260" s="1" t="n">
+      <c r="AL260" s="2" t="n">
         <v>44642</v>
       </c>
-      <c r="AM260" s="1" t="n">
+      <c r="AM260" s="2" t="n">
         <v>44992</v>
       </c>
       <c r="AN260" t="s">
@@ -78859,7 +78859,7 @@
       <c r="A261" t="s">
         <v>3511</v>
       </c>
-      <c r="B261" s="1" t="n">
+      <c r="B261" s="2" t="n">
         <v>45016</v>
       </c>
       <c r="C261" t="s">
@@ -78961,16 +78961,16 @@
       <c r="AI261" t="s">
         <v>3521</v>
       </c>
-      <c r="AJ261" s="1" t="n">
+      <c r="AJ261" s="2" t="n">
         <v>44995</v>
       </c>
-      <c r="AK261" s="1" t="n">
+      <c r="AK261" s="2" t="n">
         <v>45037</v>
       </c>
-      <c r="AL261" s="1" t="n">
+      <c r="AL261" s="2" t="n">
         <v>44644</v>
       </c>
-      <c r="AM261" s="1" t="n">
+      <c r="AM261" s="2" t="n">
         <v>44994</v>
       </c>
       <c r="AN261" t="s">
@@ -79115,7 +79115,7 @@
       <c r="A262" t="s">
         <v>3522</v>
       </c>
-      <c r="B262" s="1" t="n">
+      <c r="B262" s="2" t="n">
         <v>45016</v>
       </c>
       <c r="C262" t="s">
@@ -79217,16 +79217,16 @@
       <c r="AI262" t="s">
         <v>3534</v>
       </c>
-      <c r="AJ262" s="1" t="n">
+      <c r="AJ262" s="2" t="n">
         <v>44995</v>
       </c>
-      <c r="AK262" s="1" t="n">
+      <c r="AK262" s="2" t="n">
         <v>45037</v>
       </c>
-      <c r="AL262" s="1" t="n">
+      <c r="AL262" s="2" t="n">
         <v>44644</v>
       </c>
-      <c r="AM262" s="1" t="n">
+      <c r="AM262" s="2" t="n">
         <v>44994</v>
       </c>
       <c r="AN262" t="s">
@@ -79373,7 +79373,7 @@
       <c r="A263" t="s">
         <v>3535</v>
       </c>
-      <c r="B263" s="1" t="n">
+      <c r="B263" s="2" t="n">
         <v>45044</v>
       </c>
       <c r="C263" t="s">
@@ -79475,16 +79475,16 @@
       <c r="AI263" t="s">
         <v>3546</v>
       </c>
-      <c r="AJ263" s="1" t="n">
+      <c r="AJ263" s="2" t="n">
         <v>45023</v>
       </c>
-      <c r="AK263" s="1" t="n">
+      <c r="AK263" s="2" t="n">
         <v>45065</v>
       </c>
-      <c r="AL263" s="1" t="n">
+      <c r="AL263" s="2" t="n">
         <v>44672</v>
       </c>
-      <c r="AM263" s="1" t="n">
+      <c r="AM263" s="2" t="n">
         <v>45022</v>
       </c>
       <c r="AN263" t="s">
@@ -79629,7 +79629,7 @@
       <c r="A264" t="s">
         <v>3547</v>
       </c>
-      <c r="B264" s="1" t="n">
+      <c r="B264" s="2" t="n">
         <v>45050</v>
       </c>
       <c r="C264" t="s">
@@ -79731,16 +79731,16 @@
       <c r="AI264" t="s">
         <v>3559</v>
       </c>
-      <c r="AJ264" s="1" t="n">
+      <c r="AJ264" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="AK264" s="1" t="n">
+      <c r="AK264" s="2" t="n">
         <v>45071</v>
       </c>
-      <c r="AL264" s="1" t="n">
+      <c r="AL264" s="2" t="n">
         <v>44678</v>
       </c>
-      <c r="AM264" s="1" t="n">
+      <c r="AM264" s="2" t="n">
         <v>45028</v>
       </c>
       <c r="AN264" t="s">
@@ -79887,7 +79887,7 @@
       <c r="A265" t="s">
         <v>3560</v>
       </c>
-      <c r="B265" s="1" t="n">
+      <c r="B265" s="2" t="n">
         <v>45071</v>
       </c>
       <c r="C265" t="s">
@@ -79989,16 +79989,16 @@
       <c r="AI265" t="s">
         <v>3571</v>
       </c>
-      <c r="AJ265" s="1" t="n">
+      <c r="AJ265" s="2" t="n">
         <v>45050</v>
       </c>
-      <c r="AK265" s="1" t="n">
+      <c r="AK265" s="2" t="n">
         <v>45092</v>
       </c>
-      <c r="AL265" s="1" t="n">
+      <c r="AL265" s="2" t="n">
         <v>44699</v>
       </c>
-      <c r="AM265" s="1" t="n">
+      <c r="AM265" s="2" t="n">
         <v>45049</v>
       </c>
       <c r="AN265" t="s">
@@ -80145,7 +80145,7 @@
       <c r="A266" t="s">
         <v>3572</v>
       </c>
-      <c r="B266" s="1" t="n">
+      <c r="B266" s="2" t="n">
         <v>45077</v>
       </c>
       <c r="C266" t="s">
@@ -80247,16 +80247,16 @@
       <c r="AI266" t="s">
         <v>3582</v>
       </c>
-      <c r="AJ266" s="1" t="n">
+      <c r="AJ266" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="AK266" s="1" t="n">
+      <c r="AK266" s="2" t="n">
         <v>45098</v>
       </c>
-      <c r="AL266" s="1" t="n">
+      <c r="AL266" s="2" t="n">
         <v>44705</v>
       </c>
-      <c r="AM266" s="1" t="n">
+      <c r="AM266" s="2" t="n">
         <v>45055</v>
       </c>
       <c r="AN266" t="s">
@@ -80401,7 +80401,7 @@
       <c r="A267" t="s">
         <v>3583</v>
       </c>
-      <c r="B267" s="1" t="n">
+      <c r="B267" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="C267" t="s">
@@ -80503,16 +80503,16 @@
       <c r="AI267" t="s">
         <v>3597</v>
       </c>
-      <c r="AJ267" s="1" t="n">
+      <c r="AJ267" s="2" t="n">
         <v>45057</v>
       </c>
-      <c r="AK267" s="1" t="n">
+      <c r="AK267" s="2" t="n">
         <v>45099</v>
       </c>
-      <c r="AL267" s="1" t="n">
+      <c r="AL267" s="2" t="n">
         <v>44706</v>
       </c>
-      <c r="AM267" s="1" t="n">
+      <c r="AM267" s="2" t="n">
         <v>45056</v>
       </c>
       <c r="AN267" t="s">
@@ -80659,7 +80659,7 @@
       <c r="A268" t="s">
         <v>3598</v>
       </c>
-      <c r="B268" s="1" t="n">
+      <c r="B268" s="2" t="n">
         <v>45092</v>
       </c>
       <c r="C268" t="s">
@@ -80761,16 +80761,16 @@
       <c r="AI268" t="s">
         <v>3610</v>
       </c>
-      <c r="AJ268" s="1" t="n">
+      <c r="AJ268" s="2" t="n">
         <v>45071</v>
       </c>
-      <c r="AK268" s="1" t="n">
+      <c r="AK268" s="2" t="n">
         <v>45113</v>
       </c>
-      <c r="AL268" s="1" t="n">
+      <c r="AL268" s="2" t="n">
         <v>44720</v>
       </c>
-      <c r="AM268" s="1" t="n">
+      <c r="AM268" s="2" t="n">
         <v>45070</v>
       </c>
       <c r="AN268" t="s">
@@ -80915,7 +80915,7 @@
       <c r="A269" t="s">
         <v>3611</v>
       </c>
-      <c r="B269" s="1" t="n">
+      <c r="B269" s="2" t="n">
         <v>45133</v>
       </c>
       <c r="C269" t="s">
@@ -81017,16 +81017,16 @@
       <c r="AI269" t="s">
         <v>3624</v>
       </c>
-      <c r="AJ269" s="1" t="n">
+      <c r="AJ269" s="2" t="n">
         <v>45112</v>
       </c>
-      <c r="AK269" s="1" t="n">
+      <c r="AK269" s="2" t="n">
         <v>45154</v>
       </c>
-      <c r="AL269" s="1" t="n">
+      <c r="AL269" s="2" t="n">
         <v>44761</v>
       </c>
-      <c r="AM269" s="1" t="n">
+      <c r="AM269" s="2" t="n">
         <v>45111</v>
       </c>
       <c r="AN269" t="s">
@@ -81173,7 +81173,7 @@
       <c r="A270" t="s">
         <v>3625</v>
       </c>
-      <c r="B270" s="1" t="n">
+      <c r="B270" s="2" t="n">
         <v>45167</v>
       </c>
       <c r="C270" t="s">
@@ -81275,16 +81275,16 @@
       <c r="AI270" t="s">
         <v>3638</v>
       </c>
-      <c r="AJ270" s="1" t="n">
+      <c r="AJ270" s="2" t="n">
         <v>45146</v>
       </c>
-      <c r="AK270" s="1" t="n">
+      <c r="AK270" s="2" t="n">
         <v>45188</v>
       </c>
-      <c r="AL270" s="1" t="n">
+      <c r="AL270" s="2" t="n">
         <v>44795</v>
       </c>
-      <c r="AM270" s="1" t="n">
+      <c r="AM270" s="2" t="n">
         <v>45145</v>
       </c>
       <c r="AN270" t="s">
@@ -81429,7 +81429,7 @@
       <c r="A271" t="s">
         <v>3639</v>
       </c>
-      <c r="B271" s="1" t="n">
+      <c r="B271" s="2" t="n">
         <v>45168</v>
       </c>
       <c r="C271" t="s">
@@ -81531,16 +81531,16 @@
       <c r="AI271" t="s">
         <v>3650</v>
       </c>
-      <c r="AJ271" s="1" t="n">
+      <c r="AJ271" s="2" t="n">
         <v>45147</v>
       </c>
-      <c r="AK271" s="1" t="n">
+      <c r="AK271" s="2" t="n">
         <v>45189</v>
       </c>
-      <c r="AL271" s="1" t="n">
+      <c r="AL271" s="2" t="n">
         <v>44796</v>
       </c>
-      <c r="AM271" s="1" t="n">
+      <c r="AM271" s="2" t="n">
         <v>45146</v>
       </c>
       <c r="AN271" t="s">
@@ -81685,7 +81685,7 @@
       <c r="A272" t="s">
         <v>3651</v>
       </c>
-      <c r="B272" s="1" t="n">
+      <c r="B272" s="2" t="n">
         <v>45187</v>
       </c>
       <c r="C272" t="s">
@@ -81787,16 +81787,16 @@
       <c r="AI272" t="s">
         <v>3662</v>
       </c>
-      <c r="AJ272" s="1" t="n">
+      <c r="AJ272" s="2" t="n">
         <v>45166</v>
       </c>
-      <c r="AK272" s="1" t="n">
+      <c r="AK272" s="2" t="n">
         <v>45208</v>
       </c>
-      <c r="AL272" s="1" t="n">
+      <c r="AL272" s="2" t="n">
         <v>44813</v>
       </c>
-      <c r="AM272" s="1" t="n">
+      <c r="AM272" s="2" t="n">
         <v>45163</v>
       </c>
       <c r="AN272" t="s">
@@ -81941,7 +81941,7 @@
       <c r="A273" t="s">
         <v>3663</v>
       </c>
-      <c r="B273" s="1" t="n">
+      <c r="B273" s="2" t="n">
         <v>45202</v>
       </c>
       <c r="C273" t="s">
@@ -82043,16 +82043,16 @@
       <c r="AI273" t="s">
         <v>3675</v>
       </c>
-      <c r="AJ273" s="1" t="n">
+      <c r="AJ273" s="2" t="n">
         <v>45181</v>
       </c>
-      <c r="AK273" s="1" t="n">
+      <c r="AK273" s="2" t="n">
         <v>45223</v>
       </c>
-      <c r="AL273" s="1" t="n">
+      <c r="AL273" s="2" t="n">
         <v>44830</v>
       </c>
-      <c r="AM273" s="1" t="n">
+      <c r="AM273" s="2" t="n">
         <v>45180</v>
       </c>
       <c r="AN273" t="s">
@@ -82197,7 +82197,7 @@
       <c r="A274" t="s">
         <v>3676</v>
       </c>
-      <c r="B274" s="1" t="n">
+      <c r="B274" s="2" t="n">
         <v>45218</v>
       </c>
       <c r="C274" t="s">
@@ -82299,16 +82299,16 @@
       <c r="AI274" t="s">
         <v>3688</v>
       </c>
-      <c r="AJ274" s="1" t="n">
+      <c r="AJ274" s="2" t="n">
         <v>45197</v>
       </c>
-      <c r="AK274" s="1" t="n">
+      <c r="AK274" s="2" t="n">
         <v>45239</v>
       </c>
-      <c r="AL274" s="1" t="n">
+      <c r="AL274" s="2" t="n">
         <v>44846</v>
       </c>
-      <c r="AM274" s="1" t="n">
+      <c r="AM274" s="2" t="n">
         <v>45196</v>
       </c>
       <c r="AN274" t="s">
@@ -82455,7 +82455,7 @@
       <c r="A275" t="s">
         <v>3689</v>
       </c>
-      <c r="B275" s="1" t="n">
+      <c r="B275" s="2" t="n">
         <v>45259</v>
       </c>
       <c r="C275" t="s">
@@ -82557,16 +82557,16 @@
       <c r="AI275" t="s">
         <v>3700</v>
       </c>
-      <c r="AJ275" s="1" t="n">
+      <c r="AJ275" s="2" t="n">
         <v>45238</v>
       </c>
-      <c r="AK275" s="1" t="n">
+      <c r="AK275" s="2" t="n">
         <v>45280</v>
       </c>
-      <c r="AL275" s="1" t="n">
+      <c r="AL275" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="AM275" s="1" t="n">
+      <c r="AM275" s="2" t="n">
         <v>45237</v>
       </c>
       <c r="AN275" t="s">
@@ -82711,7 +82711,7 @@
       <c r="A276" t="s">
         <v>3701</v>
       </c>
-      <c r="B276" s="1" t="n">
+      <c r="B276" s="2" t="n">
         <v>45271</v>
       </c>
       <c r="C276" t="s">
@@ -82813,16 +82813,16 @@
       <c r="AI276" t="s">
         <v>3710</v>
       </c>
-      <c r="AJ276" s="1" t="n">
+      <c r="AJ276" s="2" t="n">
         <v>45250</v>
       </c>
-      <c r="AK276" s="1" t="n">
+      <c r="AK276" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="AL276" s="1" t="n">
+      <c r="AL276" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="AM276" s="1" t="n">
+      <c r="AM276" s="2" t="n">
         <v>45247</v>
       </c>
       <c r="AN276" t="s">
@@ -82967,7 +82967,7 @@
       <c r="A277" t="s">
         <v>3711</v>
       </c>
-      <c r="B277" s="1" t="n">
+      <c r="B277" s="2" t="n">
         <v>45282</v>
       </c>
       <c r="C277" t="s">
@@ -83069,16 +83069,16 @@
       <c r="AI277" t="s">
         <v>3724</v>
       </c>
-      <c r="AJ277" s="1" t="n">
+      <c r="AJ277" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="AK277" s="1" t="n">
+      <c r="AK277" s="2" t="n">
         <v>45303</v>
       </c>
-      <c r="AL277" s="1" t="n">
+      <c r="AL277" s="2" t="n">
         <v>44910</v>
       </c>
-      <c r="AM277" s="1" t="n">
+      <c r="AM277" s="2" t="n">
         <v>45260</v>
       </c>
       <c r="AN277" t="s">
@@ -83223,7 +83223,7 @@
       <c r="A278" t="s">
         <v>3725</v>
       </c>
-      <c r="B278" s="1" t="n">
+      <c r="B278" s="2" t="n">
         <v>45306</v>
       </c>
       <c r="C278" t="s">
@@ -83325,16 +83325,16 @@
       <c r="AI278" t="s">
         <v>3738</v>
       </c>
-      <c r="AJ278" s="1" t="n">
+      <c r="AJ278" s="2" t="n">
         <v>45285</v>
       </c>
-      <c r="AK278" s="1" t="n">
+      <c r="AK278" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="AL278" s="1" t="n">
+      <c r="AL278" s="2" t="n">
         <v>44932</v>
       </c>
-      <c r="AM278" s="1" t="n">
+      <c r="AM278" s="2" t="n">
         <v>45282</v>
       </c>
       <c r="AN278" t="s">
@@ -83479,7 +83479,7 @@
       <c r="A279" t="s">
         <v>3739</v>
       </c>
-      <c r="B279" s="1" t="n">
+      <c r="B279" s="2" t="n">
         <v>45316</v>
       </c>
       <c r="C279" t="s">
@@ -83581,16 +83581,16 @@
       <c r="AI279" t="s">
         <v>3748</v>
       </c>
-      <c r="AJ279" s="1" t="n">
+      <c r="AJ279" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="AK279" s="1" t="n">
+      <c r="AK279" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="AL279" s="1" t="n">
+      <c r="AL279" s="2" t="n">
         <v>44944</v>
       </c>
-      <c r="AM279" s="1" t="n">
+      <c r="AM279" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="AN279" t="s">
@@ -83735,7 +83735,7 @@
       <c r="A280" t="s">
         <v>3749</v>
       </c>
-      <c r="B280" s="1" t="n">
+      <c r="B280" s="2" t="n">
         <v>45320</v>
       </c>
       <c r="C280" t="s">
@@ -83837,16 +83837,16 @@
       <c r="AI280" t="s">
         <v>3762</v>
       </c>
-      <c r="AJ280" s="1" t="n">
+      <c r="AJ280" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="AK280" s="1" t="n">
+      <c r="AK280" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="AL280" s="1" t="n">
+      <c r="AL280" s="2" t="n">
         <v>44946</v>
       </c>
-      <c r="AM280" s="1" t="n">
+      <c r="AM280" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="AN280" t="s">
@@ -83991,7 +83991,7 @@
       <c r="A281" t="s">
         <v>3763</v>
       </c>
-      <c r="B281" s="1" t="n">
+      <c r="B281" s="2" t="n">
         <v>45322</v>
       </c>
       <c r="C281" t="s">
@@ -84093,16 +84093,16 @@
       <c r="AI281" t="s">
         <v>3774</v>
       </c>
-      <c r="AJ281" s="1" t="n">
+      <c r="AJ281" s="2" t="n">
         <v>45301</v>
       </c>
-      <c r="AK281" s="1" t="n">
+      <c r="AK281" s="2" t="n">
         <v>45343</v>
       </c>
-      <c r="AL281" s="1" t="n">
+      <c r="AL281" s="2" t="n">
         <v>44950</v>
       </c>
-      <c r="AM281" s="1" t="n">
+      <c r="AM281" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="AN281" t="s">
@@ -84247,7 +84247,7 @@
       <c r="A282" t="s">
         <v>3775</v>
       </c>
-      <c r="B282" s="1" t="n">
+      <c r="B282" s="2" t="n">
         <v>45331</v>
       </c>
       <c r="C282" t="s">
@@ -84349,16 +84349,16 @@
       <c r="AI282" t="s">
         <v>3787</v>
       </c>
-      <c r="AJ282" s="1" t="n">
+      <c r="AJ282" s="2" t="n">
         <v>45310</v>
       </c>
-      <c r="AK282" s="1" t="n">
+      <c r="AK282" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="AL282" s="1" t="n">
+      <c r="AL282" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="AM282" s="1" t="n">
+      <c r="AM282" s="2" t="n">
         <v>45309</v>
       </c>
       <c r="AN282" t="s">
@@ -84503,7 +84503,7 @@
       <c r="A283" t="s">
         <v>3788</v>
       </c>
-      <c r="B283" s="1" t="n">
+      <c r="B283" s="2" t="n">
         <v>45365</v>
       </c>
       <c r="C283" t="s">
@@ -84605,16 +84605,16 @@
       <c r="AI283" t="s">
         <v>3800</v>
       </c>
-      <c r="AJ283" s="1" t="n">
+      <c r="AJ283" s="2" t="n">
         <v>45344</v>
       </c>
-      <c r="AK283" s="1" t="n">
+      <c r="AK283" s="2" t="n">
         <v>45386</v>
       </c>
-      <c r="AL283" s="1" t="n">
+      <c r="AL283" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="AM283" s="1" t="n">
+      <c r="AM283" s="2" t="n">
         <v>45343</v>
       </c>
       <c r="AN283" t="s">
@@ -84761,7 +84761,7 @@
       <c r="A284" t="s">
         <v>3801</v>
       </c>
-      <c r="B284" s="1" t="n">
+      <c r="B284" s="2" t="n">
         <v>45369</v>
       </c>
       <c r="C284" t="s">
@@ -84863,16 +84863,16 @@
       <c r="AI284" t="s">
         <v>3812</v>
       </c>
-      <c r="AJ284" s="1" t="n">
+      <c r="AJ284" s="2" t="n">
         <v>45348</v>
       </c>
-      <c r="AK284" s="1" t="n">
+      <c r="AK284" s="2" t="n">
         <v>45390</v>
       </c>
-      <c r="AL284" s="1" t="n">
+      <c r="AL284" s="2" t="n">
         <v>44995</v>
       </c>
-      <c r="AM284" s="1" t="n">
+      <c r="AM284" s="2" t="n">
         <v>45345</v>
       </c>
       <c r="AN284" t="s">
@@ -85017,7 +85017,7 @@
       <c r="A285" t="s">
         <v>3813</v>
       </c>
-      <c r="B285" s="1" t="n">
+      <c r="B285" s="2" t="n">
         <v>45414</v>
       </c>
       <c r="C285" t="s">
@@ -85119,16 +85119,16 @@
       <c r="AI285" t="s">
         <v>3827</v>
       </c>
-      <c r="AJ285" s="1" t="n">
+      <c r="AJ285" s="2" t="n">
         <v>45393</v>
       </c>
-      <c r="AK285" s="1" t="n">
+      <c r="AK285" s="2" t="n">
         <v>45435</v>
       </c>
-      <c r="AL285" s="1" t="n">
+      <c r="AL285" s="2" t="n">
         <v>45042</v>
       </c>
-      <c r="AM285" s="1" t="n">
+      <c r="AM285" s="2" t="n">
         <v>45392</v>
       </c>
       <c r="AN285" t="s">
@@ -85275,7 +85275,7 @@
       <c r="A286" t="s">
         <v>3828</v>
       </c>
-      <c r="B286" s="1" t="n">
+      <c r="B286" s="2" t="n">
         <v>45442</v>
       </c>
       <c r="C286" t="s">
@@ -85377,16 +85377,16 @@
       <c r="AI286" t="s">
         <v>3839</v>
       </c>
-      <c r="AJ286" s="1" t="n">
+      <c r="AJ286" s="2" t="n">
         <v>45421</v>
       </c>
-      <c r="AK286" s="1" t="n">
+      <c r="AK286" s="2" t="n">
         <v>45463</v>
       </c>
-      <c r="AL286" s="1" t="n">
+      <c r="AL286" s="2" t="n">
         <v>45070</v>
       </c>
-      <c r="AM286" s="1" t="n">
+      <c r="AM286" s="2" t="n">
         <v>45420</v>
       </c>
       <c r="AN286" t="s">
@@ -85531,7 +85531,7 @@
       <c r="A287" t="s">
         <v>3840</v>
       </c>
-      <c r="B287" s="1" t="n">
+      <c r="B287" s="2" t="n">
         <v>45491</v>
       </c>
       <c r="C287" t="s">
@@ -85633,16 +85633,16 @@
       <c r="AI287" t="s">
         <v>3852</v>
       </c>
-      <c r="AJ287" s="1" t="n">
+      <c r="AJ287" s="2" t="n">
         <v>45470</v>
       </c>
-      <c r="AK287" s="1" t="n">
+      <c r="AK287" s="2" t="n">
         <v>45512</v>
       </c>
-      <c r="AL287" s="1" t="n">
+      <c r="AL287" s="2" t="n">
         <v>45119</v>
       </c>
-      <c r="AM287" s="1" t="n">
+      <c r="AM287" s="2" t="n">
         <v>45469</v>
       </c>
       <c r="AN287" t="s">
@@ -85789,7 +85789,7 @@
       <c r="A288" t="s">
         <v>3853</v>
       </c>
-      <c r="B288" s="1" t="n">
+      <c r="B288" s="2" t="n">
         <v>45555</v>
       </c>
       <c r="C288" t="s">
@@ -85891,16 +85891,16 @@
       <c r="AI288" t="s">
         <v>3866</v>
       </c>
-      <c r="AJ288" s="1" t="n">
+      <c r="AJ288" s="2" t="n">
         <v>45534</v>
       </c>
-      <c r="AK288" s="1" t="n">
+      <c r="AK288" s="2" t="n">
         <v>45576</v>
       </c>
-      <c r="AL288" s="1" t="n">
+      <c r="AL288" s="2" t="n">
         <v>45183</v>
       </c>
-      <c r="AM288" s="1" t="n">
+      <c r="AM288" s="2" t="n">
         <v>45533</v>
       </c>
       <c r="AN288" t="s">
@@ -86045,7 +86045,7 @@
       <c r="A289" t="s">
         <v>3867</v>
       </c>
-      <c r="B289" s="1" t="n">
+      <c r="B289" s="2" t="n">
         <v>45569</v>
       </c>
       <c r="C289" t="s">
@@ -86147,16 +86147,16 @@
       <c r="AI289" t="s">
         <v>3878</v>
       </c>
-      <c r="AJ289" s="1" t="n">
+      <c r="AJ289" s="2" t="n">
         <v>45548</v>
       </c>
-      <c r="AK289" s="1" t="n">
+      <c r="AK289" s="2" t="n">
         <v>45590</v>
       </c>
-      <c r="AL289" s="1" t="n">
+      <c r="AL289" s="2" t="n">
         <v>45197</v>
       </c>
-      <c r="AM289" s="1" t="n">
+      <c r="AM289" s="2" t="n">
         <v>45547</v>
       </c>
       <c r="AN289" t="s">
@@ -86301,7 +86301,7 @@
       <c r="A290" t="s">
         <v>3879</v>
       </c>
-      <c r="B290" s="1" t="n">
+      <c r="B290" s="2" t="n">
         <v>45569</v>
       </c>
       <c r="C290" t="s">
@@ -86403,16 +86403,16 @@
       <c r="AI290" t="s">
         <v>3892</v>
       </c>
-      <c r="AJ290" s="1" t="n">
+      <c r="AJ290" s="2" t="n">
         <v>45548</v>
       </c>
-      <c r="AK290" s="1" t="n">
+      <c r="AK290" s="2" t="n">
         <v>45590</v>
       </c>
-      <c r="AL290" s="1" t="n">
+      <c r="AL290" s="2" t="n">
         <v>45197</v>
       </c>
-      <c r="AM290" s="1" t="n">
+      <c r="AM290" s="2" t="n">
         <v>45547</v>
       </c>
       <c r="AN290" t="s">

--- a/data/final/data_prepped_FINAL_CAR_gpdg_pcp.xlsx
+++ b/data/final/data_prepped_FINAL_CAR_gpdg_pcp.xlsx
@@ -377,10 +377,10 @@
     <t xml:space="preserve">4259.51</t>
   </si>
   <si>
-    <t xml:space="preserve">5063.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40230.8</t>
+    <t xml:space="preserve">5063.1000000000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40230.800000000003</t>
   </si>
   <si>
     <t xml:space="preserve">24952.12</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">6442.86</t>
   </si>
   <si>
-    <t xml:space="preserve">4273.14</t>
+    <t xml:space="preserve">4273.1400000000003</t>
   </si>
   <si>
     <t xml:space="preserve">5041.01</t>
   </si>
   <si>
-    <t xml:space="preserve">40387.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20570.81</t>
+    <t xml:space="preserve">40387.269999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20570.810000000001</t>
   </si>
   <si>
     <t xml:space="preserve">4423.75</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">174.49</t>
   </si>
   <si>
-    <t xml:space="preserve">605.2</t>
+    <t xml:space="preserve">605.20000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">340.93</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">6.5</t>
   </si>
   <si>
-    <t xml:space="preserve">2294.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.15000000000001</t>
+    <t xml:space="preserve">2294.4299999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.15</t>
   </si>
   <si>
     <t xml:space="preserve">Getinge UK Limited offer washing and decontamination equipment and services for healthcare, laboratory, and industry applications. The company offers endoscope decontamination solutions, including automated endoscope reprocessors and drying/storage cabinets with baskets, trolleys, and consumables to acute hospitals; instrument decontamination solutions, such as compact under-bench and bench-top washer disinfectors with racks and accessories for surgical, dental, and ophthalmic instruments, as well as detergents, disinfectants, and other consumables; compact sterilizers for use in hospitals, clinics, and dental practices; dental decontamination and dosing systems; and cleaning chemicals for use in high pressure washing systems. It also provides glassware washer dryers, laboratory washers, and accessories for washer dryers for use in research and development, QA/QC, academic, government, and private laboratory sectors; washers for production equipment and accessories for use in pharmaceuticals, cosmetics, and petro-chemicals applications. In addition, the company’s services include spares, repairs and call-outs, preventative maintenance contracts, validation, calibration, and periodic testing services. It also serves universities, government testing and research organizations, and food and chemical companies. The company was incorporated in 1983 and is based in Cambridge, United Kingdom. Getinge UK Limited operates as a subsidiary of Getinge AB.</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">KuDOS Pharmaceuticals Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">19453.17</t>
+    <t xml:space="preserve">19453.169999999998</t>
   </si>
   <si>
     <t xml:space="preserve">6321.06</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">3775.72</t>
   </si>
   <si>
-    <t xml:space="preserve">1031.4</t>
+    <t xml:space="preserve">1031.4000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">20335.34</t>
@@ -839,13 +839,13 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">84.34999999999999</t>
+    <t xml:space="preserve">84.35</t>
   </si>
   <si>
     <t xml:space="preserve">9.58</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56</t>
+    <t xml:space="preserve">4.5599999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">19.87</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">6153</t>
   </si>
   <si>
-    <t xml:space="preserve">1271.4</t>
+    <t xml:space="preserve">1271.4000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">1000.3</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">140</t>
   </si>
   <si>
-    <t xml:space="preserve">32122.24</t>
+    <t xml:space="preserve">32122.240000000002</t>
   </si>
   <si>
     <t xml:space="preserve">7445</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">1555.89</t>
   </si>
   <si>
-    <t xml:space="preserve">594.8200000000001</t>
+    <t xml:space="preserve">594.82000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">2.14</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">Domantis Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">34176.02</t>
+    <t xml:space="preserve">34176.019999999997</t>
   </si>
   <si>
     <t xml:space="preserve">12811.77</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">3.59</t>
   </si>
   <si>
-    <t xml:space="preserve">902.5599999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.34999999999999</t>
+    <t xml:space="preserve">902.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.349999999999994</t>
   </si>
   <si>
     <t xml:space="preserve">Hikma Pharma GmbH operates as a pharmaceutical company that manufactures and sells oncological products. Hikma Pharma GmbH was formerly known as Ribosepharm GmbH and changed its name to Hikma Pharma GmbH in January 2007. The company was founded in 1983 and is based in Planegg, Germany. As of January 25, 2007, Hikma Pharma GmbH operates as a subsidiary of Hikma Pharmaceuticals PLC.</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">Arrow Therapeutics, Ltd.</t>
   </si>
   <si>
-    <t xml:space="preserve">20064.08</t>
+    <t xml:space="preserve">20064.080000000002</t>
   </si>
   <si>
     <t xml:space="preserve">7278.39</t>
   </si>
   <si>
-    <t xml:space="preserve">4579.69</t>
+    <t xml:space="preserve">4579.6899999999996</t>
   </si>
   <si>
     <t xml:space="preserve">926.85</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">Oxxon Therapeutics Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13</t>
+    <t xml:space="preserve">1.1299999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">-30.53</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">Plus Orthopedics Holding AG</t>
   </si>
   <si>
-    <t xml:space="preserve">2106.07</t>
+    <t xml:space="preserve">2106.0700000000002</t>
   </si>
   <si>
     <t xml:space="preserve">551.71</t>
   </si>
   <si>
-    <t xml:space="preserve">298.59</t>
+    <t xml:space="preserve">298.58999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">101.55</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">8452.82</t>
   </si>
   <si>
-    <t xml:space="preserve">262.22</t>
+    <t xml:space="preserve">262.22000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">Plus Orthopedics Holding AG, through its subsidiaries, designs, develops, manufactures, and markets orthopedic products to the orthopedic industry. The company offers joint implant systems for hip, knee, shoulder, joints, and trauma; and PiGalileo, a computer-assisted orthopedic surgery and navigation system for positioning implants. It distributes products through its subsidiaries and distribution partners in Europe, the United States, Asia, and internationally. The company was founded in 1991 and is based in Rotkreuz, Switzerland. It has operations in Switzerland, Europe, and internationally. As of May 31, 2007, Plus Orthopedics Holding AG operates as a subsidiary of Smith &amp; Nephew plc.</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">203.34</t>
   </si>
   <si>
-    <t xml:space="preserve">1302.61</t>
+    <t xml:space="preserve">1302.6099999999999</t>
   </si>
   <si>
     <t xml:space="preserve">43.49</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">Neuro3d S.A.</t>
   </si>
   <si>
-    <t xml:space="preserve">67.34999999999999</t>
+    <t xml:space="preserve">67.349999999999994</t>
   </si>
   <si>
     <t xml:space="preserve">-21.11</t>
   </si>
   <si>
-    <t xml:space="preserve">-36.3</t>
+    <t xml:space="preserve">-36.299999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">11.91</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">137.18</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.006</t>
+    <t xml:space="preserve">-6.0000000000000001E-3</t>
   </si>
   <si>
     <t xml:space="preserve">247.58</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">42.78</t>
   </si>
   <si>
-    <t xml:space="preserve">93.79000000000001</t>
+    <t xml:space="preserve">93.79</t>
   </si>
   <si>
     <t xml:space="preserve">453.32</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">101799.53</t>
   </si>
   <si>
-    <t xml:space="preserve">5194.44</t>
+    <t xml:space="preserve">5194.4399999999996</t>
   </si>
   <si>
     <t xml:space="preserve">As of April 25, 2007, Worldwide Rights to Vaccine NicQb of Cytos Biotechnology were acquired by Novartis AG. Worldwide Rights to Vaccine NicQb of Cytos Biotechnology comprise of worldwide rights to develop, manufacture and commercialize NicQb, a compound that combines elements of medicinal and vaccine technology and has been shown in clinical trials to help smokers overcome their addiction to nicotine. Cytos Biotechnology AG is based in Schlieren, Switzerland.</t>
@@ -1529,10 +1529,10 @@
     <t xml:space="preserve">555.27</t>
   </si>
   <si>
-    <t xml:space="preserve">2102.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.23999999999999</t>
+    <t xml:space="preserve">2102.4499999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.239999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">Galpharm International Limited manufactures and distributes healthcare remedies in the United Kingdom. It offers stop smoking, hayfever and allergy, cold cough and flu, energy boost, stomach and bowel, women's health, pain relief, eye care, children's, and weight management products. It sells its products online. Galpharm International Limited was formerly known as Gal Pharm International Limited and changed its name to Galpharm International Limited in December 1995. The company was incorporated in 1981 and is based in Barnsley, United Kingdom. As of January 9, 2008, Galpharm International Limited operates as a subsidiary of Galpharm Healthcare Limited.</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">Cash; Common Equity</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02</t>
+    <t xml:space="preserve">4.0199999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">-13.47</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">-11.09</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833</t>
+    <t xml:space="preserve">0.83299999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">70.37</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">93</t>
   </si>
   <si>
-    <t xml:space="preserve">269.91</t>
+    <t xml:space="preserve">269.91000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">104.17</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">508.74</t>
   </si>
   <si>
-    <t xml:space="preserve">151.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698</t>
+    <t xml:space="preserve">151.22999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69799999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">411.46</t>
   </si>
   <si>
-    <t xml:space="preserve">86.59999999999999</t>
+    <t xml:space="preserve">86.6</t>
   </si>
   <si>
     <t xml:space="preserve">CIS Bio International S.A. engages in developing, producing, marketing, and distributing radiopharmaceuticals for diagnosis and therapy. The company conducts research in the areas of radiochemistry, physical chemistry, and biology. It also has a strong portfolio and reputation in the in-vitro diagnostic field, radioimmunology and drug screening. The company was incorporated in 1987 and is based in Gif-sur-Yvette, France. As of May 31, 2008, CIS Bio International S.A. operates as a subsidiary of Ion Beam Applications SA.</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">195.09</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03</t>
+    <t xml:space="preserve">2.0299999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">487.58</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">1076.68</t>
   </si>
   <si>
-    <t xml:space="preserve">161.2</t>
+    <t xml:space="preserve">161.19999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">80.64</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">Speedel Holding AG</t>
   </si>
   <si>
-    <t xml:space="preserve">26177.36</t>
+    <t xml:space="preserve">26177.360000000001</t>
   </si>
   <si>
     <t xml:space="preserve">7194.56</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">52995.89</t>
   </si>
   <si>
-    <t xml:space="preserve">32792.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84891.07000000001</t>
+    <t xml:space="preserve">32792.400000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84891.07</t>
   </si>
   <si>
     <t xml:space="preserve">10293.02</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">1035.81</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267</t>
+    <t xml:space="preserve">0.26700000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">2755.02</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">Consumer Discretionary</t>
   </si>
   <si>
-    <t xml:space="preserve">84.04000000000001</t>
+    <t xml:space="preserve">84.04</t>
   </si>
   <si>
     <t xml:space="preserve">12.97</t>
@@ -1976,19 +1976,19 @@
     <t xml:space="preserve">MeVis BreastCare GmbH &amp; Co. KG, Siemens Stake in Business With Hologic</t>
   </si>
   <si>
-    <t xml:space="preserve">9.630000000000001</t>
+    <t xml:space="preserve">9.6300000000000008</t>
   </si>
   <si>
     <t xml:space="preserve">1.28</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482</t>
+    <t xml:space="preserve">0.48199999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">2.69</t>
   </si>
   <si>
-    <t xml:space="preserve">38.12</t>
+    <t xml:space="preserve">38.119999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">30.76</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">696.59</t>
   </si>
   <si>
-    <t xml:space="preserve">2119.03</t>
+    <t xml:space="preserve">2119.0300000000002</t>
   </si>
   <si>
     <t xml:space="preserve">1094.72</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">21918.76</t>
   </si>
   <si>
-    <t xml:space="preserve">9619.030000000001</t>
+    <t xml:space="preserve">9619.0300000000007</t>
   </si>
   <si>
     <t xml:space="preserve">4934.66</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">7706.99</t>
   </si>
   <si>
-    <t xml:space="preserve">35491.13</t>
+    <t xml:space="preserve">35491.129999999997</t>
   </si>
   <si>
     <t xml:space="preserve">13262.59</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">6796.86</t>
   </si>
   <si>
-    <t xml:space="preserve">2377.74</t>
+    <t xml:space="preserve">2377.7399999999998</t>
   </si>
   <si>
     <t xml:space="preserve">1447.38</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">5861.1</t>
   </si>
   <si>
-    <t xml:space="preserve">9760.129999999999</t>
+    <t xml:space="preserve">9760.1299999999992</t>
   </si>
   <si>
     <t xml:space="preserve">66638.61</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">52.33</t>
   </si>
   <si>
-    <t xml:space="preserve">87039.21000000001</t>
+    <t xml:space="preserve">87039.21</t>
   </si>
   <si>
     <t xml:space="preserve">12122.71</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">3665.68</t>
   </si>
   <si>
-    <t xml:space="preserve">603.9400000000001</t>
+    <t xml:space="preserve">603.94000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">QIAGEN Lake Constance GmbH engages in developing and manufacturing optical measurement devices for point-of-need applications in Germany and internationally. Its products include ESE-Quant Lateral Flow System, an OEM business-to-business solution that enables rapid tests at the point of need; ESEQuant Tube Scanner, an OEM business-to-business solution for the measurement of fluorescence in tubes in point-of-need applications; and ESElog, an OEM business-to-business solution that enables fluorescence measurements at the point of need. The company’s products also include Fluo Sens Integrated, an OEM business-to-business solution for the development of small mobile fluorescence detection systems; and fluorescence detectors and accessories. QIAGEN Lake Constance GmbH was formerly known as ESE GmbH. As a result of its acquisition by Qiagen NV, ESE GmbH’s name was changed in January 2010. The company was founded in 1997 and is based in Stockach, Germany. QIAGEN Lake Constance GmbH operates as a subsidiary of Qiagen N.V.</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">Materials</t>
   </si>
   <si>
-    <t xml:space="preserve">40.52</t>
+    <t xml:space="preserve">40.520000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">2.48</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">1.55</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802</t>
+    <t xml:space="preserve">0.80200000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">120.56</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">15.19</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945</t>
+    <t xml:space="preserve">1.0900000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94499999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">2.44</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">29.88</t>
   </si>
   <si>
-    <t xml:space="preserve">19.01</t>
+    <t xml:space="preserve">19.010000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">12.78</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">Ark Alliance Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">93.34999999999999</t>
+    <t xml:space="preserve">93.35</t>
   </si>
   <si>
     <t xml:space="preserve">14.02</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">432.62</t>
   </si>
   <si>
-    <t xml:space="preserve">1198.41</t>
+    <t xml:space="preserve">1198.4100000000001</t>
   </si>
   <si>
     <t xml:space="preserve">147.72</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">ifp Institut für Produktqualität GmbH, Comprehensive Portfolio of Molecular Food Safety Tests</t>
   </si>
   <si>
-    <t xml:space="preserve">778.9400000000001</t>
+    <t xml:space="preserve">778.94</t>
   </si>
   <si>
     <t xml:space="preserve">260.51</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">12.76</t>
   </si>
   <si>
-    <t xml:space="preserve">151.39</t>
+    <t xml:space="preserve">151.38999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">118.47</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8070000000000001</t>
+    <t xml:space="preserve">0.80700000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">227.39</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">16.16</t>
   </si>
   <si>
-    <t xml:space="preserve">64.48999999999999</t>
+    <t xml:space="preserve">64.489999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">1.05</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">Euromedic International B.V., International Dialysis Centers</t>
   </si>
   <si>
-    <t xml:space="preserve">8988.889999999999</t>
+    <t xml:space="preserve">8988.89</t>
   </si>
   <si>
     <t xml:space="preserve">1809.96</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">729.73</t>
   </si>
   <si>
-    <t xml:space="preserve">4477.77</t>
+    <t xml:space="preserve">4477.7700000000004</t>
   </si>
   <si>
     <t xml:space="preserve">12748.34</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">5501.59</t>
   </si>
   <si>
-    <t xml:space="preserve">317.96</t>
+    <t xml:space="preserve">317.95999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">12908.18</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">93.94</t>
   </si>
   <si>
-    <t xml:space="preserve">64.93000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118</t>
+    <t xml:space="preserve">64.930000000000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11799999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">708.12</t>
@@ -3002,13 +3002,13 @@
     <t xml:space="preserve">132.16</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476</t>
+    <t xml:space="preserve">0.47599999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">393.64</t>
   </si>
   <si>
-    <t xml:space="preserve">68.54000000000001</t>
+    <t xml:space="preserve">68.540000000000006</t>
   </si>
   <si>
     <t xml:space="preserve">Evotec (München) GmbH, a biotechnology company, engages in the development of chemical proteomics methods to support the development of small molecule drugs. It offers KINAXO Cellular Target Profiling that determines a small molecule’s quantitative cellular target profile in lead optimization, target deconvolution, drug re-profiling, and clinical candidate selection applications; KinAffinity that profiles kinase inhibitors against any cell line or tissue in kinase inhibitor selectivity analysis, lead compound optimization, and clinical candidate selection applications; and PhosphoScout, a quantitative phosphoproteomics technology that investigates drug effects at the signal transduction level in target validation and identification, mode of action analysis, and biomarker identification applications. The company also provides customized solutions for drug discovery that include preparation, implementation, and evaluation services. Evotec (München) GmbH was formerly known as KINAXO Biotechnologies GmbH and changed its name to Evotec (München) GmbH in April 2011, after the acquisition by Evotec SE. The company was founded in 2005 and is headquartered in Munich, Germany. As of April 19, 2011, Evotec (München) GmbH operates as a subsidiary of Evotec SE.</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">22388</t>
   </si>
   <si>
-    <t xml:space="preserve">10329.8</t>
+    <t xml:space="preserve">10329.799999999999</t>
   </si>
   <si>
     <t xml:space="preserve">42</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">Elan Drug Technologies Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">131.61</t>
+    <t xml:space="preserve">131.61000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">-26.08</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">-32.11</t>
   </si>
   <si>
-    <t xml:space="preserve">319.04</t>
+    <t xml:space="preserve">319.04000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">276.43</t>
@@ -3107,10 +3107,10 @@
     <t xml:space="preserve">246.74</t>
   </si>
   <si>
-    <t xml:space="preserve">92.31999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620.0599999999999</t>
+    <t xml:space="preserve">92.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620.05999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">2753.86</t>
@@ -3152,19 +3152,19 @@
     <t xml:space="preserve">261.67</t>
   </si>
   <si>
-    <t xml:space="preserve">640.8200000000001</t>
+    <t xml:space="preserve">640.82000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">179.34</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">527.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.73999999999999</t>
+    <t xml:space="preserve">0.33400000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">527.91999999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.74</t>
   </si>
   <si>
     <t xml:space="preserve">LAUER-FISCHER GmbH solutions for the pharmacy market in Germany. Its solutions include LAUER-TAXE for medicines, medical products, and pharmacy-usual goods. The company was founded in 1948 and is based in Furth, Germany. As of June 22, 2011, LAUER-FISCHER GmbH operates as a subsidiary of CompuGroup Medical Societas Europaea.</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">Firecrest Clinical Ltd.</t>
   </si>
   <si>
-    <t xml:space="preserve">633.3200000000001</t>
+    <t xml:space="preserve">633.32000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">70.17</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">499.59</t>
   </si>
   <si>
-    <t xml:space="preserve">1043.66</t>
+    <t xml:space="preserve">1043.6600000000001</t>
   </si>
   <si>
     <t xml:space="preserve">148.47</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">Verum Diagnostica GmbH</t>
   </si>
   <si>
-    <t xml:space="preserve">37414.02</t>
+    <t xml:space="preserve">37414.019999999997</t>
   </si>
   <si>
     <t xml:space="preserve">14330.85</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">168.13</t>
   </si>
   <si>
-    <t xml:space="preserve">0.07099999999999999</t>
+    <t xml:space="preserve">7.0999999999999994E-2</t>
   </si>
   <si>
     <t xml:space="preserve">418.76</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">524.62</t>
   </si>
   <si>
-    <t xml:space="preserve">968.4400000000001</t>
+    <t xml:space="preserve">968.44</t>
   </si>
   <si>
     <t xml:space="preserve">134.07</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">13.98</t>
   </si>
   <si>
-    <t xml:space="preserve">0.083</t>
+    <t xml:space="preserve">8.3000000000000004E-2</t>
   </si>
   <si>
     <t xml:space="preserve">132.01</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">Unomedical Limited, Electrode Business</t>
   </si>
   <si>
-    <t xml:space="preserve">132.42</t>
+    <t xml:space="preserve">132.41999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">24.64</t>
   </si>
   <si>
-    <t xml:space="preserve">9.449999999999999</t>
+    <t xml:space="preserve">9.4499999999999993</t>
   </si>
   <si>
     <t xml:space="preserve">21.67</t>
@@ -3374,13 +3374,13 @@
     <t xml:space="preserve">126.72</t>
   </si>
   <si>
-    <t xml:space="preserve">79.59999999999999</t>
+    <t xml:space="preserve">79.599999999999994</t>
   </si>
   <si>
     <t xml:space="preserve">238.72</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44</t>
+    <t xml:space="preserve">4.4400000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">As of May 31, 2012, Electrode Business of Unomedical Limited was acquired by Ambu A/S. Unomedical Limited, Electrode Business comprises business unit which produces and supplies electrodes for diagnostic purposes that includes ECG electrodes and grounding plates. The business division is located in Gloucestershire, United Kingdom.</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">Cellzome GmbH</t>
   </si>
   <si>
-    <t xml:space="preserve">32918.55</t>
+    <t xml:space="preserve">32918.550000000003</t>
   </si>
   <si>
     <t xml:space="preserve">11822.94</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">6071.01</t>
   </si>
   <si>
-    <t xml:space="preserve">17651.65</t>
+    <t xml:space="preserve">17651.650000000001</t>
   </si>
   <si>
     <t xml:space="preserve">48944.78</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">959.65</t>
   </si>
   <si>
-    <t xml:space="preserve">84524.78999999999</t>
+    <t xml:space="preserve">84524.79</t>
   </si>
   <si>
     <t xml:space="preserve">7004.28</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">Rosemont Pharmaceuticals Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">2468.28</t>
+    <t xml:space="preserve">2468.2800000000002</t>
   </si>
   <si>
     <t xml:space="preserve">591.66</t>
@@ -3518,7 +3518,7 @@
     <t xml:space="preserve">328.58</t>
   </si>
   <si>
-    <t xml:space="preserve">1048.85</t>
+    <t xml:space="preserve">1048.8499999999999</t>
   </si>
   <si>
     <t xml:space="preserve">3248.88</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">263.36</t>
   </si>
   <si>
-    <t xml:space="preserve">156.8</t>
+    <t xml:space="preserve">156.80000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">429.22</t>
@@ -3614,10 +3614,10 @@
     <t xml:space="preserve">1321.32</t>
   </si>
   <si>
-    <t xml:space="preserve">623.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.268</t>
+    <t xml:space="preserve">623.29999999999995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26800000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">3711.35</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">First Water Heathcote Ltd.</t>
   </si>
   <si>
-    <t xml:space="preserve">154.23</t>
+    <t xml:space="preserve">154.22999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">25.89</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">10603.12</t>
   </si>
   <si>
-    <t xml:space="preserve">4998.77</t>
+    <t xml:space="preserve">4998.7700000000004</t>
   </si>
   <si>
     <t xml:space="preserve">22897.39</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">7933.08</t>
   </si>
   <si>
-    <t xml:space="preserve">1093.85</t>
+    <t xml:space="preserve">1093.8499999999999</t>
   </si>
   <si>
     <t xml:space="preserve">102217.24</t>
@@ -3803,19 +3803,19 @@
     <t xml:space="preserve">34.56</t>
   </si>
   <si>
-    <t xml:space="preserve">8.529999999999999</t>
+    <t xml:space="preserve">8.5299999999999994</t>
   </si>
   <si>
     <t xml:space="preserve">7.28</t>
   </si>
   <si>
-    <t xml:space="preserve">64.26000000000001</t>
+    <t xml:space="preserve">64.260000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">56.11</t>
   </si>
   <si>
-    <t xml:space="preserve">0.533</t>
+    <t xml:space="preserve">0.53300000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">488.38</t>
@@ -3842,16 +3842,16 @@
     <t xml:space="preserve">Syntaxin Ltd</t>
   </si>
   <si>
-    <t xml:space="preserve">1283.11</t>
+    <t xml:space="preserve">1283.1099999999999</t>
   </si>
   <si>
     <t xml:space="preserve">244.13</t>
   </si>
   <si>
-    <t xml:space="preserve">85.73999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.09999999999999</t>
+    <t xml:space="preserve">85.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.099999999999994</t>
   </si>
   <si>
     <t xml:space="preserve">1571.4</t>
@@ -3860,10 +3860,10 @@
     <t xml:space="preserve">937.4</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2514.47</t>
+    <t xml:space="preserve">2.2999999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2514.4699999999998</t>
   </si>
   <si>
     <t xml:space="preserve">122.8</t>
@@ -3905,7 +3905,7 @@
     <t xml:space="preserve">703.33</t>
   </si>
   <si>
-    <t xml:space="preserve">0.061</t>
+    <t xml:space="preserve">6.0999999999999999E-2</t>
   </si>
   <si>
     <t xml:space="preserve">1755.08</t>
@@ -3938,13 +3938,13 @@
     <t xml:space="preserve">164.67</t>
   </si>
   <si>
-    <t xml:space="preserve">129.39</t>
+    <t xml:space="preserve">129.38999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">357.28</t>
   </si>
   <si>
-    <t xml:space="preserve">19.81</t>
+    <t xml:space="preserve">19.809999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">As of July 2013, Blood Bank Screening Business of Lab21 Ltd. was acquired by Trinity Biotech plc. Blood Bank Screening Business of Lab21 Ltd. comprises TPHA and ELISA products for blood bank screening.</t>
@@ -3980,7 +3980,7 @@
     <t xml:space="preserve">36.28</t>
   </si>
   <si>
-    <t xml:space="preserve">35.23</t>
+    <t xml:space="preserve">35.229999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">10.17</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">-25.43</t>
   </si>
   <si>
-    <t xml:space="preserve">17.24</t>
+    <t xml:space="preserve">17.239999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">227.38</t>
@@ -4037,13 +4037,13 @@
     <t xml:space="preserve">31024.77</t>
   </si>
   <si>
-    <t xml:space="preserve">9977.469999999999</t>
+    <t xml:space="preserve">9977.4699999999993</t>
   </si>
   <si>
     <t xml:space="preserve">6221.41</t>
   </si>
   <si>
-    <t xml:space="preserve">20853.74</t>
+    <t xml:space="preserve">20853.740000000002</t>
   </si>
   <si>
     <t xml:space="preserve">48032.93</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">91.44</t>
   </si>
   <si>
-    <t xml:space="preserve">148121.08</t>
+    <t xml:space="preserve">148121.07999999999</t>
   </si>
   <si>
     <t xml:space="preserve">5603.52</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">402.3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703</t>
+    <t xml:space="preserve">0.70299999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">1007.12</t>
@@ -4160,13 +4160,13 @@
     <t xml:space="preserve">Euprotec Ltd</t>
   </si>
   <si>
-    <t xml:space="preserve">86.48999999999999</t>
+    <t xml:space="preserve">86.49</t>
   </si>
   <si>
     <t xml:space="preserve">-26.59</t>
   </si>
   <si>
-    <t xml:space="preserve">18.17</t>
+    <t xml:space="preserve">18.170000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">219.63</t>
@@ -4193,7 +4193,7 @@
     <t xml:space="preserve">Almirall, S.A. Respiratory Franchise</t>
   </si>
   <si>
-    <t xml:space="preserve">18965.4</t>
+    <t xml:space="preserve">18965.400000000001</t>
   </si>
   <si>
     <t xml:space="preserve">6327.89</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">67400.13</t>
   </si>
   <si>
-    <t xml:space="preserve">4219.81</t>
+    <t xml:space="preserve">4219.8100000000004</t>
   </si>
   <si>
     <t xml:space="preserve">As of November 3, 2014, Respiratory Franchise of Almirall, S.A was acquired by AstraZeneca PLC. Respiratory Franchise of Almirall, S.A comprises respiratory drug portfolio which includes treatments for bronchitis and emphysema.</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">149.79</t>
   </si>
   <si>
-    <t xml:space="preserve">2519.53</t>
+    <t xml:space="preserve">2519.5300000000002</t>
   </si>
   <si>
     <t xml:space="preserve">10853.23</t>
@@ -4289,7 +4289,7 @@
     <t xml:space="preserve">521.64</t>
   </si>
   <si>
-    <t xml:space="preserve">317.15</t>
+    <t xml:space="preserve">317.14999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">500.32</t>
@@ -4397,10 +4397,10 @@
     <t xml:space="preserve">1506.46</t>
   </si>
   <si>
-    <t xml:space="preserve">750.0700000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.269</t>
+    <t xml:space="preserve">750.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26900000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">3508.21</t>
@@ -4430,7 +4430,7 @@
     <t xml:space="preserve">25.88</t>
   </si>
   <si>
-    <t xml:space="preserve">8.109999999999999</t>
+    <t xml:space="preserve">8.11</t>
   </si>
   <si>
     <t xml:space="preserve">40.82</t>
@@ -4508,7 +4508,7 @@
     <t xml:space="preserve">15434.84</t>
   </si>
   <si>
-    <t xml:space="preserve">4987.73</t>
+    <t xml:space="preserve">4987.7299999999996</t>
   </si>
   <si>
     <t xml:space="preserve">2769.58</t>
@@ -4547,7 +4547,7 @@
     <t xml:space="preserve">168.61</t>
   </si>
   <si>
-    <t xml:space="preserve">75.56999999999999</t>
+    <t xml:space="preserve">75.569999999999993</t>
   </si>
   <si>
     <t xml:space="preserve">114</t>
@@ -4580,13 +4580,13 @@
     <t xml:space="preserve">BASF SE, Pharmaceutical Supply Business and Production Units in Germany, France and Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">319.47</t>
+    <t xml:space="preserve">319.47000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">51.39</t>
   </si>
   <si>
-    <t xml:space="preserve">37.59</t>
+    <t xml:space="preserve">37.590000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">168.04</t>
@@ -4619,10 +4619,10 @@
     <t xml:space="preserve">1373.95</t>
   </si>
   <si>
-    <t xml:space="preserve">298.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.8</t>
+    <t xml:space="preserve">298.39999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.80000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">22.6</t>
@@ -4640,7 +4640,7 @@
     <t xml:space="preserve">4212.45</t>
   </si>
   <si>
-    <t xml:space="preserve">92.90000000000001</t>
+    <t xml:space="preserve">92.9</t>
   </si>
   <si>
     <t xml:space="preserve">OctreoPharm Sciences GmbH, a clinical development biopharmaceutical company, focuses on the development of radiopharmaceuticals for the diagnosis and therapeutic control of tumors. The company is involved in the clinical development of theranostic antagonistic peptides for the diagnosis and treatment of neuroendocrine tumors. Its development products include OPS201, which is targeted for tumor cell-selective internal peptide receptor radionuclide therapy with 90Y or 177Lu on neuroendocrine tumors; and OPS202, a new 68 gallium-labeled somatostatin receptor antagonist for positron emission tomography. The company was founded in 2010 and is based in Berlin, Germany. As of June 30, 2015, OctreoPharm Sciences GmbH operates as a subsidiary of Ipsen S.A.</t>
@@ -4664,7 +4664,7 @@
     <t xml:space="preserve">186.55</t>
   </si>
   <si>
-    <t xml:space="preserve">4339.77</t>
+    <t xml:space="preserve">4339.7700000000004</t>
   </si>
   <si>
     <t xml:space="preserve">14842.06</t>
@@ -4700,7 +4700,7 @@
     <t xml:space="preserve">241.19</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2</t>
+    <t xml:space="preserve">34.200000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">35.94</t>
@@ -4739,13 +4739,13 @@
     <t xml:space="preserve">88.97</t>
   </si>
   <si>
-    <t xml:space="preserve">140.7</t>
+    <t xml:space="preserve">140.69999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">1016.3</t>
   </si>
   <si>
-    <t xml:space="preserve">582.2</t>
+    <t xml:space="preserve">582.20000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">7.7</t>
@@ -4784,13 +4784,13 @@
     <t xml:space="preserve">34.57</t>
   </si>
   <si>
-    <t xml:space="preserve">67.68000000000001</t>
+    <t xml:space="preserve">67.680000000000007</t>
   </si>
   <si>
     <t xml:space="preserve">494.06</t>
   </si>
   <si>
-    <t xml:space="preserve">274.28</t>
+    <t xml:space="preserve">274.27999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">533.14</t>
@@ -4817,7 +4817,7 @@
     <t xml:space="preserve">5680.96</t>
   </si>
   <si>
-    <t xml:space="preserve">1059.35</t>
+    <t xml:space="preserve">1059.3499999999999</t>
   </si>
   <si>
     <t xml:space="preserve">9887.82</t>
@@ -4862,13 +4862,13 @@
     <t xml:space="preserve">1.95</t>
   </si>
   <si>
-    <t xml:space="preserve">38.27</t>
+    <t xml:space="preserve">38.270000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">22.43</t>
   </si>
   <si>
-    <t xml:space="preserve">0.059</t>
+    <t xml:space="preserve">5.8999999999999997E-2</t>
   </si>
   <si>
     <t xml:space="preserve">16.29</t>
@@ -4895,7 +4895,7 @@
     <t xml:space="preserve">7000.88</t>
   </si>
   <si>
-    <t xml:space="preserve">2100.26</t>
+    <t xml:space="preserve">2100.2600000000002</t>
   </si>
   <si>
     <t xml:space="preserve">32577.68</t>
@@ -4925,7 +4925,7 @@
     <t xml:space="preserve">Acerta Pharma B.V.</t>
   </si>
   <si>
-    <t xml:space="preserve">22018.64</t>
+    <t xml:space="preserve">22018.639999999999</t>
   </si>
   <si>
     <t xml:space="preserve">5587.77</t>
@@ -4934,7 +4934,7 @@
     <t xml:space="preserve">1519.7</t>
   </si>
   <si>
-    <t xml:space="preserve">9831.459999999999</t>
+    <t xml:space="preserve">9831.4599999999991</t>
   </si>
   <si>
     <t xml:space="preserve">48492.43</t>
@@ -4970,7 +4970,7 @@
     <t xml:space="preserve">Effimune SA</t>
   </si>
   <si>
-    <t xml:space="preserve">0.004</t>
+    <t xml:space="preserve">4.0000000000000001E-3</t>
   </si>
   <si>
     <t xml:space="preserve">-5.42</t>
@@ -4988,7 +4988,7 @@
     <t xml:space="preserve">14.48</t>
   </si>
   <si>
-    <t xml:space="preserve">79.65000000000001</t>
+    <t xml:space="preserve">79.650000000000006</t>
   </si>
   <si>
     <t xml:space="preserve">15.13</t>
@@ -5021,13 +5021,13 @@
     <t xml:space="preserve">55359.17</t>
   </si>
   <si>
-    <t xml:space="preserve">17024.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67584.50999999999</t>
+    <t xml:space="preserve">17024.669999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.489999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67584.509999999995</t>
   </si>
   <si>
     <t xml:space="preserve">5879.91</t>
@@ -5060,13 +5060,13 @@
     <t xml:space="preserve">3857.65</t>
   </si>
   <si>
-    <t xml:space="preserve">2357.05</t>
+    <t xml:space="preserve">2357.0500000000002</t>
   </si>
   <si>
     <t xml:space="preserve">1.87</t>
   </si>
   <si>
-    <t xml:space="preserve">4654.44</t>
+    <t xml:space="preserve">4654.4399999999996</t>
   </si>
   <si>
     <t xml:space="preserve">387.48</t>
@@ -5087,7 +5087,7 @@
     <t xml:space="preserve">556.11</t>
   </si>
   <si>
-    <t xml:space="preserve">94.04000000000001</t>
+    <t xml:space="preserve">94.04</t>
   </si>
   <si>
     <t xml:space="preserve">27.39</t>
@@ -5138,10 +5138,10 @@
     <t xml:space="preserve">308.75</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2520.74</t>
+    <t xml:space="preserve">0.13400000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2520.7399999999998</t>
   </si>
   <si>
     <t xml:space="preserve">1724.4</t>
@@ -5153,7 +5153,7 @@
     <t xml:space="preserve">7802.09</t>
   </si>
   <si>
-    <t xml:space="preserve">292.4</t>
+    <t xml:space="preserve">292.39999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">AudioNova International B.V. engages in the retail of hearing aids in Europe. It also offers medical devices that are developed for the maintenance and hygiene of hearing systems. The company was founded in 1926 and is based in Rotterdam, the Netherlands. It operates stores in Belgium, Denmark, France, Germany, Italy, the Netherlands, Poland, and Portugal. As of September 14, 2016, AudioNova International B.V. operates as a subsidiary of Sonova Holding AG.</t>
@@ -5177,13 +5177,13 @@
     <t xml:space="preserve">1186.69</t>
   </si>
   <si>
-    <t xml:space="preserve">596.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1039.63</t>
+    <t xml:space="preserve">596.20000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292.35000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1039.6300000000001</t>
   </si>
   <si>
     <t xml:space="preserve">3103.89</t>
@@ -5222,7 +5222,7 @@
     <t xml:space="preserve">27322.61</t>
   </si>
   <si>
-    <t xml:space="preserve">87124.64999999999</t>
+    <t xml:space="preserve">87124.65</t>
   </si>
   <si>
     <t xml:space="preserve">45458.81</t>
@@ -5267,7 +5267,7 @@
     <t xml:space="preserve">91.69</t>
   </si>
   <si>
-    <t xml:space="preserve">142.58</t>
+    <t xml:space="preserve">142.58000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">26.06</t>
@@ -5330,7 +5330,7 @@
     <t xml:space="preserve">218.26</t>
   </si>
   <si>
-    <t xml:space="preserve">321.6</t>
+    <t xml:space="preserve">321.60000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">1566.88</t>
@@ -5339,7 +5339,7 @@
     <t xml:space="preserve">929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.099</t>
+    <t xml:space="preserve">9.9000000000000005E-2</t>
   </si>
   <si>
     <t xml:space="preserve">5719.93</t>
@@ -5366,7 +5366,7 @@
     <t xml:space="preserve">Biological Manufacturing Services SA</t>
   </si>
   <si>
-    <t xml:space="preserve">0.043</t>
+    <t xml:space="preserve">4.2999999999999997E-2</t>
   </si>
   <si>
     <t xml:space="preserve">-29.98</t>
@@ -5444,7 +5444,7 @@
     <t xml:space="preserve">Cyprotex plc</t>
   </si>
   <si>
-    <t xml:space="preserve">160.11</t>
+    <t xml:space="preserve">160.11000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">35.21</t>
@@ -5462,7 +5462,7 @@
     <t xml:space="preserve">192.98</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848</t>
+    <t xml:space="preserve">0.84799999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">644.89</t>
@@ -5525,7 +5525,7 @@
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
-    <t xml:space="preserve">1133.1</t>
+    <t xml:space="preserve">1133.0999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">184.11</t>
@@ -5543,7 +5543,7 @@
     <t xml:space="preserve">557.37</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289</t>
+    <t xml:space="preserve">0.28899999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">1975.41</t>
@@ -5607,7 +5607,7 @@
     <t xml:space="preserve">64.64</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77</t>
+    <t xml:space="preserve">4.7699999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">3.65</t>
@@ -5637,13 +5637,13 @@
     <t xml:space="preserve">MKS Data Analytics Solutions</t>
   </si>
   <si>
-    <t xml:space="preserve">1074.61</t>
+    <t xml:space="preserve">1074.6099999999999</t>
   </si>
   <si>
     <t xml:space="preserve">289.3</t>
   </si>
   <si>
-    <t xml:space="preserve">157.08</t>
+    <t xml:space="preserve">157.08000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">174.4</t>
@@ -5661,7 +5661,7 @@
     <t xml:space="preserve">5800.09</t>
   </si>
   <si>
-    <t xml:space="preserve">99.59999999999999</t>
+    <t xml:space="preserve">99.6</t>
   </si>
   <si>
     <t xml:space="preserve">MKS Data Analytics Solutions develops software for the design of experiments and multivariate data analysis, and for the individual user, as well as for on-line continuous and batch processes. The company’s software covers design of experiments (DOE), multivariate data analysis, quality prediction, optimization, interactive decision-making, advanced process control, and early fault detection. It offers MODDE Go, a DOE solution to help the client maximize the performance of even highly complex products and processes; MODDE Pro, a solution for DOE and quality by design analysis; SIMCA, a solution to analyze process variations, identify critical parameters, and predict final product quality; and SIMCA-Q - embedded multivariate data analysis. The company also provides SIMCA-online, a real-time prediction system that provides the client and production team with a set of interactive and visual monitoring tools to ensure that batch and continuous operations run smoothly. In addition, it offers online and in-house training, education, consulting, and OEM services to high-tech industries in Sweden and internationally. MKS Data Analytics Solutions was formerly known as MKS Umetrics AB and changed its name to MKS Data Analytics Solutions in January 2016. The company was founded in 1987 and is headquartered in Umeå, Sweden with additional offices in Sweden, United Kingdom, and the United States. As of January 3, 2006, MKS Data Analytics Solutions operates as a subsidiary of MKS Instruments, Inc. As of April 3, 2017, MKS Data Analytics Solutions operates as a subsidiary of Sartorius Stedim Biotech S.A.</t>
@@ -5676,13 +5676,13 @@
     <t xml:space="preserve">Seracell Pharma AG</t>
   </si>
   <si>
-    <t xml:space="preserve">16.56</t>
+    <t xml:space="preserve">16.559999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">2.36</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675</t>
+    <t xml:space="preserve">0.67500000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">43.42</t>
@@ -5691,7 +5691,7 @@
     <t xml:space="preserve">23.85</t>
   </si>
   <si>
-    <t xml:space="preserve">0.091</t>
+    <t xml:space="preserve">9.0999999999999998E-2</t>
   </si>
   <si>
     <t xml:space="preserve">19.79</t>
@@ -5764,13 +5764,13 @@
     <t xml:space="preserve">27.45</t>
   </si>
   <si>
-    <t xml:space="preserve">19.69</t>
+    <t xml:space="preserve">19.690000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">46.21</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47</t>
+    <t xml:space="preserve">2.4700000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">Source Executive Recruitment Sweden AB provides executive search services. The company was founded in 1999 and is based in Stockholm, Sweden. As of June 2, 2017, Source Executive Recruitment Sweden AB operates as a subsidiary of NGS Group AB (publ).</t>
@@ -5794,13 +5794,13 @@
     <t xml:space="preserve">19616.84</t>
   </si>
   <si>
-    <t xml:space="preserve">8851.459999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19317.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65732.24000000001</t>
+    <t xml:space="preserve">8851.4599999999991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19317.669999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65732.240000000005</t>
   </si>
   <si>
     <t xml:space="preserve">20873.88</t>
@@ -5902,13 +5902,13 @@
     <t xml:space="preserve">invendo medical GmbH</t>
   </si>
   <si>
-    <t xml:space="preserve">316.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.51000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.45</t>
+    <t xml:space="preserve">316.47000000000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.510000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.450000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">106.43</t>
@@ -5923,7 +5923,7 @@
     <t xml:space="preserve">3249.12</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55</t>
+    <t xml:space="preserve">2.5499999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">invendo medical GmbH develops, manufactures, and distributes sterile, single-use, and light-weight robotically-assisted HD endoscopy products for the field of gastroenterology and GI surgery. The company offers invendoscopy E200 System, a single-use robotically-assisted endoscopy technology, which consists of three components, such as sterile colonoscope, handheld control body, and supply and processing unit. It serves healthcare providers and facilities in the United States and Europe. invendo medical GmbH was formerly known as STM Medizintechnik GmbH and changed its name to invendo medical GmbH in February 2006. invendo medical GmbH. The company was founded in 2002 and is based in Kissing, Germany. As of October 25, 2017, invendo medical GmbH operates as a subsidiary of Ambu A/S.</t>
@@ -5944,7 +5944,7 @@
     <t xml:space="preserve">412.05</t>
   </si>
   <si>
-    <t xml:space="preserve">-286.4</t>
+    <t xml:space="preserve">-286.39999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">657.42</t>
@@ -6013,7 +6013,7 @@
     <t xml:space="preserve">ATX NV/SA</t>
   </si>
   <si>
-    <t xml:space="preserve">586.17</t>
+    <t xml:space="preserve">586.16999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">108.84</t>
@@ -6058,10 +6058,10 @@
     <t xml:space="preserve">Trademarks And Patents Relating to Alkantis of Alkantis SA</t>
   </si>
   <si>
-    <t xml:space="preserve">616.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.33</t>
+    <t xml:space="preserve">616.20000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.33000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">77.19</t>
@@ -6076,7 +6076,7 @@
     <t xml:space="preserve">517.46</t>
   </si>
   <si>
-    <t xml:space="preserve">0.029</t>
+    <t xml:space="preserve">2.9000000000000001E-2</t>
   </si>
   <si>
     <t xml:space="preserve">1366.61</t>
@@ -6142,7 +6142,7 @@
     <t xml:space="preserve">921.98</t>
   </si>
   <si>
-    <t xml:space="preserve">261.6</t>
+    <t xml:space="preserve">261.60000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">221.62</t>
@@ -6157,7 +6157,7 @@
     <t xml:space="preserve">934.36</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.131</t>
+    <t xml:space="preserve">-0.13100000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">9410.48</t>
@@ -6277,7 +6277,7 @@
     <t xml:space="preserve">294.26</t>
   </si>
   <si>
-    <t xml:space="preserve">16.69</t>
+    <t xml:space="preserve">16.690000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">As of December 31, 2018, Substantial Operating Units of BerlinApotheke Schneider &amp; Oleski oHG were acquired by Medios AG. Substantial Operating Units of BerlinApotheke Schneider &amp; Oleski oHG comprises pharmaceutical production units. The asset is located in Germany.</t>
@@ -6307,7 +6307,7 @@
     <t xml:space="preserve">9.52</t>
   </si>
   <si>
-    <t xml:space="preserve">71.23999999999999</t>
+    <t xml:space="preserve">71.239999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">253.58</t>
@@ -6355,7 +6355,7 @@
     <t xml:space="preserve">3629.08</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89</t>
+    <t xml:space="preserve">4.8899999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">14233.47</t>
@@ -6436,13 +6436,13 @@
     <t xml:space="preserve">1478.56</t>
   </si>
   <si>
-    <t xml:space="preserve">940.4299999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10189.03</t>
+    <t xml:space="preserve">940.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27300000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10189.030000000001</t>
   </si>
   <si>
     <t xml:space="preserve">213.08</t>
@@ -6472,13 +6472,13 @@
     <t xml:space="preserve">285.74</t>
   </si>
   <si>
-    <t xml:space="preserve">130.86</t>
+    <t xml:space="preserve">130.86000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">890.54</t>
   </si>
   <si>
-    <t xml:space="preserve">2244.57</t>
+    <t xml:space="preserve">2244.5700000000002</t>
   </si>
   <si>
     <t xml:space="preserve">804.45</t>
@@ -6514,13 +6514,13 @@
     <t xml:space="preserve">109.56</t>
   </si>
   <si>
-    <t xml:space="preserve">545.0700000000001</t>
+    <t xml:space="preserve">545.07000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">1661.34</t>
   </si>
   <si>
-    <t xml:space="preserve">549.9400000000001</t>
+    <t xml:space="preserve">549.94000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">3821.05</t>
@@ -6562,7 +6562,7 @@
     <t xml:space="preserve">99370.37</t>
   </si>
   <si>
-    <t xml:space="preserve">2468.43</t>
+    <t xml:space="preserve">2468.4299999999998</t>
   </si>
   <si>
     <t xml:space="preserve">Ziylo Ltd develops glucose binding molecules. The company was founded in 2014 and is based in Bristol, United Kingdom. As of August 17, 2018, Ziylo operates as a subsidiary of Novo Nordisk A/S.</t>
@@ -6583,10 +6583,10 @@
     <t xml:space="preserve">19112.71</t>
   </si>
   <si>
-    <t xml:space="preserve">9027.959999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17873.9</t>
+    <t xml:space="preserve">9027.9599999999991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17873.900000000001</t>
   </si>
   <si>
     <t xml:space="preserve">67440.13</t>
@@ -6595,7 +6595,7 @@
     <t xml:space="preserve">23593.48</t>
   </si>
   <si>
-    <t xml:space="preserve">2420.68</t>
+    <t xml:space="preserve">2420.6799999999998</t>
   </si>
   <si>
     <t xml:space="preserve">178527.76</t>
@@ -6634,7 +6634,7 @@
     <t xml:space="preserve">185.95</t>
   </si>
   <si>
-    <t xml:space="preserve">512.8200000000001</t>
+    <t xml:space="preserve">512.82000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">209.34</t>
@@ -6673,7 +6673,7 @@
     <t xml:space="preserve">330.63</t>
   </si>
   <si>
-    <t xml:space="preserve">848.3099999999999</t>
+    <t xml:space="preserve">848.31</t>
   </si>
   <si>
     <t xml:space="preserve">270.89</t>
@@ -6682,7 +6682,7 @@
     <t xml:space="preserve">2.11</t>
   </si>
   <si>
-    <t xml:space="preserve">2517.95</t>
+    <t xml:space="preserve">2517.9499999999998</t>
   </si>
   <si>
     <t xml:space="preserve">25.4</t>
@@ -6703,7 +6703,7 @@
     <t xml:space="preserve">4486.72</t>
   </si>
   <si>
-    <t xml:space="preserve">1188.12</t>
+    <t xml:space="preserve">1188.1199999999999</t>
   </si>
   <si>
     <t xml:space="preserve">596.64</t>
@@ -6724,7 +6724,7 @@
     <t xml:space="preserve">14110.21</t>
   </si>
   <si>
-    <t xml:space="preserve">1034.61</t>
+    <t xml:space="preserve">1034.6099999999999</t>
   </si>
   <si>
     <t xml:space="preserve">Medcom Advance, S.A. is a company that specializes in the development of biomedical devices to improve the well-being of people by providing reliable results in the shortest time. The company is committed to the synergy of science, technology, and industry to assist healthcare professionals. Their technologies include Raman Spectroscopy, Flow cytometry, and Biological and biochemical characterization, and they offer a range of colloidal nanoparticles, including bare, functionalized, SERS encoded, encapsulated, microparticles, conjugated, and customized particles.</t>
@@ -6739,16 +6739,16 @@
     <t xml:space="preserve">Orthopaedic Joint Reconstruction Business of Brainlab</t>
   </si>
   <si>
-    <t xml:space="preserve">4283.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1172.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">579.0599999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1282.15</t>
+    <t xml:space="preserve">4283.1499999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1172.0999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579.05999999999995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1282.1500000000001</t>
   </si>
   <si>
     <t xml:space="preserve">7038.73</t>
@@ -6760,7 +6760,7 @@
     <t xml:space="preserve">14601.6</t>
   </si>
   <si>
-    <t xml:space="preserve">318.79</t>
+    <t xml:space="preserve">318.79000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">As of May 31, 2019, Orthopaedic Joint Reconstruction Business of Brainlab was acquired by Smith &amp; Nephew plc. Orthopaedic Joint Reconstruction Business of Brainlab comprises a business division that provides surgeons with digital workflow tools. The asset is located in Germany.</t>
@@ -6790,7 +6790,7 @@
     <t xml:space="preserve">344.68</t>
   </si>
   <si>
-    <t xml:space="preserve">143.08</t>
+    <t xml:space="preserve">143.08000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">570.15</t>
@@ -6820,7 +6820,7 @@
     <t xml:space="preserve">815</t>
   </si>
   <si>
-    <t xml:space="preserve">154.3</t>
+    <t xml:space="preserve">154.30000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">58.7</t>
@@ -6832,7 +6832,7 @@
     <t xml:space="preserve">1390.1</t>
   </si>
   <si>
-    <t xml:space="preserve">529.2</t>
+    <t xml:space="preserve">529.20000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">0.1</t>
@@ -6868,7 +6868,7 @@
     <t xml:space="preserve">411.17</t>
   </si>
   <si>
-    <t xml:space="preserve">2323.07</t>
+    <t xml:space="preserve">2323.0700000000002</t>
   </si>
   <si>
     <t xml:space="preserve">1267.17</t>
@@ -6898,7 +6898,7 @@
     <t xml:space="preserve">1256.76</t>
   </si>
   <si>
-    <t xml:space="preserve">606.33</t>
+    <t xml:space="preserve">606.33000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">1941.49</t>
@@ -6907,7 +6907,7 @@
     <t xml:space="preserve">7970.89</t>
   </si>
   <si>
-    <t xml:space="preserve">4412.23</t>
+    <t xml:space="preserve">4412.2299999999996</t>
   </si>
   <si>
     <t xml:space="preserve">16712.88</t>
@@ -6940,7 +6940,7 @@
     <t xml:space="preserve">417.73</t>
   </si>
   <si>
-    <t xml:space="preserve">269.53</t>
+    <t xml:space="preserve">269.52999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">615.85</t>
@@ -6982,7 +6982,7 @@
     <t xml:space="preserve">1553.44</t>
   </si>
   <si>
-    <t xml:space="preserve">4823.44</t>
+    <t xml:space="preserve">4823.4399999999996</t>
   </si>
   <si>
     <t xml:space="preserve">2621.84</t>
@@ -7009,16 +7009,16 @@
     <t xml:space="preserve">1399.43</t>
   </si>
   <si>
-    <t xml:space="preserve">524.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322.46</t>
+    <t xml:space="preserve">524.41999999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322.45999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">734.3</t>
   </si>
   <si>
-    <t xml:space="preserve">2169.22</t>
+    <t xml:space="preserve">2169.2199999999998</t>
   </si>
   <si>
     <t xml:space="preserve">1071.19</t>
@@ -7063,7 +7063,7 @@
     <t xml:space="preserve">2.7</t>
   </si>
   <si>
-    <t xml:space="preserve">39.55</t>
+    <t xml:space="preserve">39.549999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">29.34</t>
@@ -7105,10 +7105,10 @@
     <t xml:space="preserve">2262.89</t>
   </si>
   <si>
-    <t xml:space="preserve">8624.129999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">732.9299999999999</t>
+    <t xml:space="preserve">8624.1299999999992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732.93</t>
   </si>
   <si>
     <t xml:space="preserve">Qiagen Healthcare Biotechnologies Limited manufactures healthcare equipment and health diagnosis equipment. Qiagen Healthcare Biotechnologies Limited was formerly known as GE Healthcare Biotechnologies Limited and changed its name to Qiagen Healthcare Biotechnologies Limited, in June 2019. Qiagen Healthcare Biotechnologies Limited was incorporated in 2018 and is based in Amersham, United Kingdom. Qiagen Healthcare Biotechnologies Limited operates as a subsidiary of Qiagen N.V.</t>
@@ -7132,13 +7132,13 @@
     <t xml:space="preserve">54.2</t>
   </si>
   <si>
-    <t xml:space="preserve">590.2</t>
+    <t xml:space="preserve">590.20000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">1359.3</t>
   </si>
   <si>
-    <t xml:space="preserve">541.3</t>
+    <t xml:space="preserve">541.29999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">1510.05</t>
@@ -7165,7 +7165,7 @@
     <t xml:space="preserve">Gako</t>
   </si>
   <si>
-    <t xml:space="preserve">534.7</t>
+    <t xml:space="preserve">534.70000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">106.84</t>
@@ -7204,7 +7204,7 @@
     <t xml:space="preserve">MedPass International SAS</t>
   </si>
   <si>
-    <t xml:space="preserve">2500.28</t>
+    <t xml:space="preserve">2500.2800000000002</t>
   </si>
   <si>
     <t xml:space="preserve">470.73</t>
@@ -7249,10 +7249,10 @@
     <t xml:space="preserve">19.98</t>
   </si>
   <si>
-    <t xml:space="preserve">0.093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.279</t>
+    <t xml:space="preserve">9.2999999999999999E-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27900000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">2.81</t>
@@ -7267,7 +7267,7 @@
     <t xml:space="preserve">5.05</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713</t>
+    <t xml:space="preserve">0.71299999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">2020-03-11_RUA Life Sciences...</t>
@@ -7285,13 +7285,13 @@
     <t xml:space="preserve">RUA Medical Devices Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611</t>
+    <t xml:space="preserve">0.61099999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">-0.749</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.801</t>
+    <t xml:space="preserve">-0.80100000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">2.94</t>
@@ -7321,7 +7321,7 @@
     <t xml:space="preserve">517.35</t>
   </si>
   <si>
-    <t xml:space="preserve">16.01</t>
+    <t xml:space="preserve">16.010000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">9.76</t>
@@ -7372,7 +7372,7 @@
     <t xml:space="preserve">20.98</t>
   </si>
   <si>
-    <t xml:space="preserve">16.65</t>
+    <t xml:space="preserve">16.649999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">131.35</t>
@@ -7411,7 +7411,7 @@
     <t xml:space="preserve">759.49</t>
   </si>
   <si>
-    <t xml:space="preserve">0.094</t>
+    <t xml:space="preserve">9.4E-2</t>
   </si>
   <si>
     <t xml:space="preserve">3738.17</t>
@@ -7435,7 +7435,7 @@
     <t xml:space="preserve">1020.3</t>
   </si>
   <si>
-    <t xml:space="preserve">160.8</t>
+    <t xml:space="preserve">160.80000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">45.8</t>
@@ -7447,7 +7447,7 @@
     <t xml:space="preserve">1361.3</t>
   </si>
   <si>
-    <t xml:space="preserve">550.3</t>
+    <t xml:space="preserve">550.29999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">1150.31</t>
@@ -7558,13 +7558,13 @@
     <t xml:space="preserve">-230.01</t>
   </si>
   <si>
-    <t xml:space="preserve">76.98999999999999</t>
+    <t xml:space="preserve">76.989999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">973.45</t>
   </si>
   <si>
-    <t xml:space="preserve">601.9299999999999</t>
+    <t xml:space="preserve">601.92999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">13976.77</t>
@@ -7600,7 +7600,7 @@
     <t xml:space="preserve">389.25</t>
   </si>
   <si>
-    <t xml:space="preserve">1143.34</t>
+    <t xml:space="preserve">1143.3399999999999</t>
   </si>
   <si>
     <t xml:space="preserve">2810.15</t>
@@ -7609,10 +7609,10 @@
     <t xml:space="preserve">1287.3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9003.469999999999</t>
+    <t xml:space="preserve">0.27100000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9003.4699999999993</t>
   </si>
   <si>
     <t xml:space="preserve">277.62</t>
@@ -7636,7 +7636,7 @@
     <t xml:space="preserve">Rare Thyroid Therapeutics International AB</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02</t>
+    <t xml:space="preserve">5.0199999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">-11.58</t>
@@ -7645,7 +7645,7 @@
     <t xml:space="preserve">-12.05</t>
   </si>
   <si>
-    <t xml:space="preserve">0.008</t>
+    <t xml:space="preserve">8.0000000000000002E-3</t>
   </si>
   <si>
     <t xml:space="preserve">15.59</t>
@@ -7717,7 +7717,7 @@
     <t xml:space="preserve">Sylak AB</t>
   </si>
   <si>
-    <t xml:space="preserve">0.012</t>
+    <t xml:space="preserve">1.2E-2</t>
   </si>
   <si>
     <t xml:space="preserve">-1.84</t>
@@ -7753,10 +7753,10 @@
     <t xml:space="preserve">RO Omsorg Assistans AB</t>
   </si>
   <si>
-    <t xml:space="preserve">734.4400000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.48999999999999</t>
+    <t xml:space="preserve">734.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.489999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">21.87</t>
@@ -7792,10 +7792,10 @@
     <t xml:space="preserve">2802.56</t>
   </si>
   <si>
-    <t xml:space="preserve">615.6900000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289.97</t>
+    <t xml:space="preserve">615.69000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289.97000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">1144.3</t>
@@ -7813,7 +7813,7 @@
     <t xml:space="preserve">4977.45</t>
   </si>
   <si>
-    <t xml:space="preserve">543.4400000000001</t>
+    <t xml:space="preserve">543.44000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">Quadralene is a company with over 75 years of development and innovation expertise in the field of surface decontamination and cleanliness. Their commercial, technical, and production teams are highly qualified to provide customized solutions for clients facing specific challenges. With a UK-based laboratory and in-house production capability, Quadralene ensures quality control and timely delivery of high-quality products. Their commitment is to deliver outstanding products that meet customer specifications on time.</t>
@@ -7843,7 +7843,7 @@
     <t xml:space="preserve">-11.64</t>
   </si>
   <si>
-    <t xml:space="preserve">0.081</t>
+    <t xml:space="preserve">8.1000000000000003E-2</t>
   </si>
   <si>
     <t xml:space="preserve">19.41</t>
@@ -7885,7 +7885,7 @@
     <t xml:space="preserve">12.25</t>
   </si>
   <si>
-    <t xml:space="preserve">262.71</t>
+    <t xml:space="preserve">262.70999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">222.69</t>
@@ -7930,7 +7930,7 @@
     <t xml:space="preserve">471.33</t>
   </si>
   <si>
-    <t xml:space="preserve">67.26000000000001</t>
+    <t xml:space="preserve">67.260000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">Cranach Pharma GmbH engages in the wholesale distribution of pharmaceuticals specializing in oncology, rheumatology, neurology, hemophilia, and endocrinology. It serves pharmacies, manufacturers, centers, and patient. The company was incorporated in 1998 and is based in Hamburg, Germany. Cranach Pharma GmbH operates as a subsidiary of Medios AG.</t>
@@ -8002,7 +8002,7 @@
     <t xml:space="preserve">219.17</t>
   </si>
   <si>
-    <t xml:space="preserve">0.658</t>
+    <t xml:space="preserve">0.65800000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">1526.26</t>
@@ -8039,7 +8039,7 @@
     <t xml:space="preserve">1565.77</t>
   </si>
   <si>
-    <t xml:space="preserve">638.67</t>
+    <t xml:space="preserve">638.66999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">0.27</t>
@@ -8081,7 +8081,7 @@
     <t xml:space="preserve">4.66</t>
   </si>
   <si>
-    <t xml:space="preserve">8.699999999999999</t>
+    <t xml:space="preserve">8.6999999999999993</t>
   </si>
   <si>
     <t xml:space="preserve">1.02</t>
@@ -8111,7 +8111,7 @@
     <t xml:space="preserve">IDL Biotech AB (publ)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.006</t>
+    <t xml:space="preserve">6.0000000000000001E-3</t>
   </si>
   <si>
     <t xml:space="preserve">-2.38</t>
@@ -8123,7 +8123,7 @@
     <t xml:space="preserve">5.27</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9</t>
+    <t xml:space="preserve">4.9000000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">46.22</t>
@@ -8153,7 +8153,7 @@
     <t xml:space="preserve">-4.91</t>
   </si>
   <si>
-    <t xml:space="preserve">157.33</t>
+    <t xml:space="preserve">157.33000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">590.86</t>
@@ -8162,7 +8162,7 @@
     <t xml:space="preserve">395.98</t>
   </si>
   <si>
-    <t xml:space="preserve">0.645</t>
+    <t xml:space="preserve">0.64500000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">2166.62</t>
@@ -8229,7 +8229,7 @@
     <t xml:space="preserve">541.24</t>
   </si>
   <si>
-    <t xml:space="preserve">78.54000000000001</t>
+    <t xml:space="preserve">78.540000000000006</t>
   </si>
   <si>
     <t xml:space="preserve">111.71</t>
@@ -8241,7 +8241,7 @@
     <t xml:space="preserve">1621.12</t>
   </si>
   <si>
-    <t xml:space="preserve">852.5700000000001</t>
+    <t xml:space="preserve">852.57</t>
   </si>
   <si>
     <t xml:space="preserve">6253.2</t>
@@ -8277,7 +8277,7 @@
     <t xml:space="preserve">360.01</t>
   </si>
   <si>
-    <t xml:space="preserve">152.77</t>
+    <t xml:space="preserve">152.77000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">418.01</t>
@@ -8355,13 +8355,13 @@
     <t xml:space="preserve">222.39</t>
   </si>
   <si>
-    <t xml:space="preserve">874.1900000000001</t>
+    <t xml:space="preserve">874.19</t>
   </si>
   <si>
     <t xml:space="preserve">217.64</t>
   </si>
   <si>
-    <t xml:space="preserve">0.055</t>
+    <t xml:space="preserve">5.5E-2</t>
   </si>
   <si>
     <t xml:space="preserve">891.35</t>
@@ -8463,7 +8463,7 @@
     <t xml:space="preserve">Quality Pet Care Ltd</t>
   </si>
   <si>
-    <t xml:space="preserve">594.1799999999999</t>
+    <t xml:space="preserve">594.17999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">101.11</t>
@@ -8520,7 +8520,7 @@
     <t xml:space="preserve">3301.39</t>
   </si>
   <si>
-    <t xml:space="preserve">288413.79</t>
+    <t xml:space="preserve">288413.78999999998</t>
   </si>
   <si>
     <t xml:space="preserve">7313.41</t>
@@ -8584,7 +8584,7 @@
     <t xml:space="preserve">Operating Assets Of The Claremont Private Hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">1253.6</t>
+    <t xml:space="preserve">1253.5999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">226.68</t>
@@ -8602,7 +8602,7 @@
     <t xml:space="preserve">806.88</t>
   </si>
   <si>
-    <t xml:space="preserve">1074.88</t>
+    <t xml:space="preserve">1074.8800000000001</t>
   </si>
   <si>
     <t xml:space="preserve">135.24</t>
@@ -8620,10 +8620,10 @@
     <t xml:space="preserve">Qinstruments GmbH</t>
   </si>
   <si>
-    <t xml:space="preserve">98.26000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.425</t>
+    <t xml:space="preserve">98.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42499999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">-18.55</t>
@@ -8677,7 +8677,7 @@
     <t xml:space="preserve">1603.18</t>
   </si>
   <si>
-    <t xml:space="preserve">35.41</t>
+    <t xml:space="preserve">35.409999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">ATDBio is an independent company founded in 2005 by Prof. Tom Brown, Dr. Dorcas Brown, and Dr. Asha Brown, who have over 80 years of combined experience in nucleic acids chemistry. They specialize in designing and synthesizing complex oligonucleotides using their deep understanding of oligonotide chemistry to provide high-quality oligonucide synthesis services to researchers around the world. The company was established to address the lack of quality in oligos that researchers were receiving from other labs. ATDBio's production process is transparent and backed up by rigorous analysis, ensuring consistent quality, support, and scalability for as long as the researchers need them. They offer a free online book on the chemistry and biology of nucleic acid synthesis, an oligo calculator, and a nucleic Acid Book.</t>
@@ -8704,7 +8704,7 @@
     <t xml:space="preserve">-2.94</t>
   </si>
   <si>
-    <t xml:space="preserve">0.07000000000000001</t>
+    <t xml:space="preserve">7.0000000000000007E-2</t>
   </si>
   <si>
     <t xml:space="preserve">13.2</t>
@@ -8746,7 +8746,7 @@
     <t xml:space="preserve">2129.63</t>
   </si>
   <si>
-    <t xml:space="preserve">1098.09</t>
+    <t xml:space="preserve">1098.0899999999999</t>
   </si>
   <si>
     <t xml:space="preserve">30221.15</t>
@@ -8830,7 +8830,7 @@
     <t xml:space="preserve">311.95</t>
   </si>
   <si>
-    <t xml:space="preserve">35.59</t>
+    <t xml:space="preserve">35.590000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">Aber Electronics is an England-based company that specializes in designing and manufacturing antennas and amplifiers for various industries such as military, space, and medical.</t>
@@ -8851,7 +8851,7 @@
     <t xml:space="preserve">Iris Pharma</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351</t>
+    <t xml:space="preserve">0.35099999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">-5.13</t>
@@ -8965,7 +8965,7 @@
     <t xml:space="preserve">263.42</t>
   </si>
   <si>
-    <t xml:space="preserve">162.48</t>
+    <t xml:space="preserve">162.47999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">601.71</t>
@@ -9094,7 +9094,7 @@
     <t xml:space="preserve">41.19</t>
   </si>
   <si>
-    <t xml:space="preserve">0.286</t>
+    <t xml:space="preserve">0.28599999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">Biim Ultrasound AS develops medical ultrasound technology. The company was incorporated in 2011 and is based in Narvik, Norway.</t>
@@ -9127,10 +9127,10 @@
     <t xml:space="preserve">531.74</t>
   </si>
   <si>
-    <t xml:space="preserve">0.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">633.1799999999999</t>
+    <t xml:space="preserve">3.5999999999999997E-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">633.17999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">234.5</t>
@@ -9157,7 +9157,7 @@
     <t xml:space="preserve">22.81</t>
   </si>
   <si>
-    <t xml:space="preserve">17.42</t>
+    <t xml:space="preserve">17.420000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">19.02</t>
@@ -9172,7 +9172,7 @@
     <t xml:space="preserve">244.86</t>
   </si>
   <si>
-    <t xml:space="preserve">36.55</t>
+    <t xml:space="preserve">36.549999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">As of March 7, 2022, Laboratorios Herbitas Sl. operates as a subsidiary of Prim, S.A.</t>
@@ -9193,10 +9193,10 @@
     <t xml:space="preserve">45.59</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9409999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.93000000000001</t>
+    <t xml:space="preserve">-0.94099999999999995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.93</t>
   </si>
   <si>
     <t xml:space="preserve">376.18</t>
@@ -9223,13 +9223,13 @@
     <t xml:space="preserve">4933.12</t>
   </si>
   <si>
-    <t xml:space="preserve">917.9299999999999</t>
+    <t xml:space="preserve">917.93</t>
   </si>
   <si>
     <t xml:space="preserve">182.8</t>
   </si>
   <si>
-    <t xml:space="preserve">9333.940000000001</t>
+    <t xml:space="preserve">9333.94</t>
   </si>
   <si>
     <t xml:space="preserve">19233.84</t>
@@ -9241,7 +9241,7 @@
     <t xml:space="preserve">2050.39</t>
   </si>
   <si>
-    <t xml:space="preserve">9285.790000000001</t>
+    <t xml:space="preserve">9285.7900000000009</t>
   </si>
   <si>
     <t xml:space="preserve">2685.16</t>
@@ -9274,7 +9274,7 @@
     <t xml:space="preserve">2.89</t>
   </si>
   <si>
-    <t xml:space="preserve">97.79000000000001</t>
+    <t xml:space="preserve">97.79</t>
   </si>
   <si>
     <t xml:space="preserve">42.16</t>
@@ -9304,10 +9304,10 @@
     <t xml:space="preserve">Impolin AB</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6</t>
+    <t xml:space="preserve">0.36799999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5999999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">30.8</t>
@@ -9334,7 +9334,7 @@
     <t xml:space="preserve">Anton Vets Ltd</t>
   </si>
   <si>
-    <t xml:space="preserve">646.33</t>
+    <t xml:space="preserve">646.33000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">109.81</t>
@@ -9346,7 +9346,7 @@
     <t xml:space="preserve">223.41</t>
   </si>
   <si>
-    <t xml:space="preserve">613.2</t>
+    <t xml:space="preserve">613.20000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">257.25</t>
@@ -9379,10 +9379,10 @@
     <t xml:space="preserve">8.85</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.12</t>
+    <t xml:space="preserve">-3.5999999999999997E-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1200000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">39.01</t>
@@ -9394,7 +9394,7 @@
     <t xml:space="preserve">58.56</t>
   </si>
   <si>
-    <t xml:space="preserve">8.550000000000001</t>
+    <t xml:space="preserve">8.5500000000000007</t>
   </si>
   <si>
     <t xml:space="preserve">Champion Health is a digital employee wellbeing platform that aims to make wellbeing in the workplace inclusive, accessible, and engaging. They offer a personalized, proactive platform that empowers employee wellbeing through data, insight, and action. The platform provides access to all areas of wellbeing, performance, and life, including mental health, sleep, financial wellbeing, parenting, cognitive functioning, women's health, men's health and wellbeing, caring for loved ones, emotional intelligence, and energy levels. Champion Health offers wellbeing action plans that are personalized to every member of the team, and users can track and monitor their wellbeing with check-ins and analytics. The company integrates with organizations' solutions and NHS services to provide seamless access to support. The Champion platform does not replace existing wellbeing initiatives, but instead integrates with them to supercharge their wellbeing strategy and increase engagement with current services. The founders of Champion Health are Harry Bliss and Dr. Charlotte Heathcote.</t>
@@ -9412,7 +9412,7 @@
     <t xml:space="preserve">804.88</t>
   </si>
   <si>
-    <t xml:space="preserve">88.09999999999999</t>
+    <t xml:space="preserve">88.1</t>
   </si>
   <si>
     <t xml:space="preserve">23.33</t>
@@ -9451,22 +9451,22 @@
     <t xml:space="preserve">87.06</t>
   </si>
   <si>
-    <t xml:space="preserve">89.56999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">518.5700000000001</t>
+    <t xml:space="preserve">89.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518.57000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">2185.02</t>
   </si>
   <si>
-    <t xml:space="preserve">1309.86</t>
+    <t xml:space="preserve">1309.8599999999999</t>
   </si>
   <si>
     <t xml:space="preserve">4450.47</t>
   </si>
   <si>
-    <t xml:space="preserve">854.8200000000001</t>
+    <t xml:space="preserve">854.82</t>
   </si>
   <si>
     <t xml:space="preserve">RigeneranD S.r.l. develops and produces biomedical devices that support the culture of stem cells for pre-clinical and clinical applications. The company focuses on developing biomedical tools to empower the ex-vivo phase of stem cells expansion combining the need of high cell yield with biocompatible materials. Its product pipeline includes providing the system with various types of reabsorbable biomaterials for tissue engineering; increasing the transportability of the system aiming to a direct delivery of stem cells at patient bed; generating 3D cell culture system as tool for drug discovery; and generating 3D stem cell culture system as tool for drug delivery. RigeneranD S.r.l. was founded in 2009 and is based in Medolla, Italy. As of June 30, 2022, RigeneranD S.r.l. operates as a subsidiary of Evotec SE.</t>
@@ -9496,10 +9496,10 @@
     <t xml:space="preserve">-313.11</t>
   </si>
   <si>
-    <t xml:space="preserve">40.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1026.65</t>
+    <t xml:space="preserve">40.659999999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026.6500000000001</t>
   </si>
   <si>
     <t xml:space="preserve">674.86</t>
@@ -9568,10 +9568,10 @@
     <t xml:space="preserve">Significant Impact Systems S.L.</t>
   </si>
   <si>
-    <t xml:space="preserve">148.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.56</t>
+    <t xml:space="preserve">148.52000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.559999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">-22.92</t>
@@ -9586,7 +9586,7 @@
     <t xml:space="preserve">344.15</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.038</t>
+    <t xml:space="preserve">-3.7999999999999999E-2</t>
   </si>
   <si>
     <t xml:space="preserve">439.46</t>
@@ -9625,7 +9625,7 @@
     <t xml:space="preserve">25.35</t>
   </si>
   <si>
-    <t xml:space="preserve">5100.31</t>
+    <t xml:space="preserve">5100.3100000000004</t>
   </si>
   <si>
     <t xml:space="preserve">2646.59</t>
@@ -9650,7 +9650,7 @@
     <t xml:space="preserve">OCVC Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">644.2</t>
+    <t xml:space="preserve">644.20000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">104.15</t>
@@ -9701,7 +9701,7 @@
     <t xml:space="preserve">171.6</t>
   </si>
   <si>
-    <t xml:space="preserve">660.9299999999999</t>
+    <t xml:space="preserve">660.93</t>
   </si>
   <si>
     <t xml:space="preserve">2458.89</t>
@@ -9731,10 +9731,10 @@
     <t xml:space="preserve">53.62</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33.38</t>
+    <t xml:space="preserve">-0.59399999999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.380000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">23.22</t>
@@ -9749,7 +9749,7 @@
     <t xml:space="preserve">8.06</t>
   </si>
   <si>
-    <t xml:space="preserve">0.548</t>
+    <t xml:space="preserve">0.54800000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">Cana Laboratories is a Greek company that has been producing and distributing pharmaceuticals, medical devices, clinical nutrition, baby care products, food supplements and vitamins, and cosmetics. The company owns production lines that adhere to high-quality standards. Cana Laboratories S.A. operates as a subsidiary of Cosmos Health Inc.</t>
@@ -9776,19 +9776,19 @@
     <t xml:space="preserve">1.83</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18</t>
+    <t xml:space="preserve">2.1800000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">0.6</t>
   </si>
   <si>
-    <t xml:space="preserve">147.95</t>
+    <t xml:space="preserve">147.94999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">125.64</t>
   </si>
   <si>
-    <t xml:space="preserve">642.67</t>
+    <t xml:space="preserve">642.66999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">29.68</t>
@@ -9818,16 +9818,16 @@
     <t xml:space="preserve">732.2</t>
   </si>
   <si>
-    <t xml:space="preserve">4375.1</t>
+    <t xml:space="preserve">4375.1000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">2051.5</t>
   </si>
   <si>
-    <t xml:space="preserve">75.90000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33495.3</t>
+    <t xml:space="preserve">75.900000000000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33495.300000000003</t>
   </si>
   <si>
     <t xml:space="preserve">181</t>
@@ -9858,19 +9858,19 @@
     <t xml:space="preserve">-2.84</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352</t>
+    <t xml:space="preserve">0.35199999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">2.76</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07</t>
+    <t xml:space="preserve">2.0699999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">2.95</t>
   </si>
   <si>
-    <t xml:space="preserve">0.007</t>
+    <t xml:space="preserve">7.0000000000000001E-3</t>
   </si>
   <si>
     <t xml:space="preserve">Pilloxa AB develops a patient-centric platform that allows the users to track adherence, reminders, and medication information. The company was incorporated in 2015 and is based in Stockholm, Sweden. As of November 28, 2022, Pilloxa AB operates as a subsidiary of iZafe Group AB (publ).</t>
@@ -9925,7 +9925,7 @@
     <t xml:space="preserve">Versantis AG</t>
   </si>
   <si>
-    <t xml:space="preserve">94.23999999999999</t>
+    <t xml:space="preserve">94.24</t>
   </si>
   <si>
     <t xml:space="preserve">47.39</t>
@@ -9934,7 +9934,7 @@
     <t xml:space="preserve">47.8</t>
   </si>
   <si>
-    <t xml:space="preserve">74.73999999999999</t>
+    <t xml:space="preserve">74.739999999999995</t>
   </si>
   <si>
     <t xml:space="preserve">237.05</t>
@@ -9973,7 +9973,7 @@
     <t xml:space="preserve">241.3</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7</t>
+    <t xml:space="preserve">37.700000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">901.7</t>
@@ -9991,7 +9991,7 @@
     <t xml:space="preserve">1678.38</t>
   </si>
   <si>
-    <t xml:space="preserve">98.59999999999999</t>
+    <t xml:space="preserve">98.6</t>
   </si>
   <si>
     <t xml:space="preserve">DDent MVZ GmbH provides dental care services. It offers its dental services in the areas of crowns and bridges treatment, implants, plastic technology, dental splints, and veneers. The company was incorporated in 2016 and is based in Norderstedt, Germany. DDent MVZ GmbH operates as a subsidiary of Medicover AB (publ).</t>
@@ -10015,13 +10015,13 @@
     <t xml:space="preserve">13.34</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.35</t>
+    <t xml:space="preserve">0.32800000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44400000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.350000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">0.217</t>
@@ -10030,7 +10030,7 @@
     <t xml:space="preserve">36.57</t>
   </si>
   <si>
-    <t xml:space="preserve">9.949999999999999</t>
+    <t xml:space="preserve">9.9499999999999993</t>
   </si>
   <si>
     <t xml:space="preserve">eClinicalHealth Limited, a technology and consulting firm, specializes in helping life science organizations optimize clinical research. It engages in the development of eClinical cloud platform that targets patient engagement; and tools such as ePRO and electronic data capture (EDC). The company offers solutions, such as advising to leverage direct to patient clinical trials for post marketing studies; implementing EDC solutions; providing consulting and technical services for the integration of eClinical systems; and offering CDISC ODM certifications. eClinicalHealth Limited has a strategic partnership with Investis Digital and Larsen &amp; Toubro Infotech Limited. The company was founded in 2012 and is based in Stirling, United Kingdom. As of October 25, 2022, eClinicalHealth Limited operates as a subsidiary of Cambridge Cognition Holdings Plc.
@@ -10067,7 +10067,7 @@
     <t xml:space="preserve">41.83</t>
   </si>
   <si>
-    <t xml:space="preserve">267.34</t>
+    <t xml:space="preserve">267.33999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">19.78</t>
@@ -10115,7 +10115,7 @@
     <t xml:space="preserve">555.99</t>
   </si>
   <si>
-    <t xml:space="preserve">17.85</t>
+    <t xml:space="preserve">17.850000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">Custom Vet Products Limited produces veterinary products and supplements. The company was incorporated in 2007 and is based in Loughborough, United Kingdom. As of November 1, 2022, Custom Vet Products Limited operates as a subsidiary of Swedencare AB (publ).</t>
@@ -10157,7 +10157,7 @@
     <t xml:space="preserve">Bahnhof Apotheke Langnau AG</t>
   </si>
   <si>
-    <t xml:space="preserve">4138.31</t>
+    <t xml:space="preserve">4138.3100000000004</t>
   </si>
   <si>
     <t xml:space="preserve">303.67</t>
@@ -10181,7 +10181,7 @@
     <t xml:space="preserve">3692.6</t>
   </si>
   <si>
-    <t xml:space="preserve">97.59999999999999</t>
+    <t xml:space="preserve">97.6</t>
   </si>
   <si>
     <t xml:space="preserve">Bahnhof Apotheke Langnau AG provides pharmacy services for cannabis treatment. The company was incorporated in 1995 and is based in Langnau im Emmental, Switzerland. As of November 15, 2022, Bahnhof Apotheke Langnau AG operates as a subsidiary of Galenica AG.</t>
@@ -10199,13 +10199,13 @@
     <t xml:space="preserve">1943.15</t>
   </si>
   <si>
-    <t xml:space="preserve">82.09999999999999</t>
+    <t xml:space="preserve">82.1</t>
   </si>
   <si>
     <t xml:space="preserve">48.08</t>
   </si>
   <si>
-    <t xml:space="preserve">849.8099999999999</t>
+    <t xml:space="preserve">849.81</t>
   </si>
   <si>
     <t xml:space="preserve">BModesto B.V. operates as a pharmaceutical wholesaler, specializing in the parallel import of medicines and serving as a brand holder for various pharmaceuticals. It supports clinical studies through its subsidiary, BMclinical. BModesto B.V. serves outpatient pharmacies and hospitals in the healthcare market.</t>
@@ -10232,7 +10232,7 @@
     <t xml:space="preserve">439.19</t>
   </si>
   <si>
-    <t xml:space="preserve">293.91</t>
+    <t xml:space="preserve">293.91000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">127.9</t>
@@ -10280,7 +10280,7 @@
     <t xml:space="preserve">337.63</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.057</t>
+    <t xml:space="preserve">-5.7000000000000002E-2</t>
   </si>
   <si>
     <t xml:space="preserve">497.77</t>
@@ -10301,7 +10301,7 @@
     <t xml:space="preserve">InstaDeep Ltd</t>
   </si>
   <si>
-    <t xml:space="preserve">17310.6</t>
+    <t xml:space="preserve">17310.599999999999</t>
   </si>
   <si>
     <t xml:space="preserve">12038.6</t>
@@ -10316,7 +10316,7 @@
     <t xml:space="preserve">23279.1</t>
   </si>
   <si>
-    <t xml:space="preserve">20055.6</t>
+    <t xml:space="preserve">20055.599999999999</t>
   </si>
   <si>
     <t xml:space="preserve">33826.99</t>
@@ -10343,7 +10343,7 @@
     <t xml:space="preserve">77.91</t>
   </si>
   <si>
-    <t xml:space="preserve">18.85</t>
+    <t xml:space="preserve">18.850000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">484.9</t>
@@ -10469,7 +10469,7 @@
     <t xml:space="preserve">946.65</t>
   </si>
   <si>
-    <t xml:space="preserve">39.59</t>
+    <t xml:space="preserve">39.590000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">ProMetic BioSciences Ltd. develops and manufactures affinity separation materials. It offers affinity ligands for the manufacture of biopharmaceutical products. ProMetic BioSciences Ltd. was formerly known as Affinity Chromatography Limited and changed its name in May 2000. The company was incorporated in 1987 and is based in Cambridge, the United Kingdom. As of November 25, 2019, ProMetic BioSciences Ltd. operates as a subsidiary of Gamma Biosciences GP LLC. As of June 1, 2023, ProMetic BioSciences Ltd. operates as a subsidiary of Biotage AB (publ).</t>
@@ -10496,7 +10496,7 @@
     <t xml:space="preserve">-24.24</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.228</t>
+    <t xml:space="preserve">-0.22800000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">13.57</t>
@@ -10530,7 +10530,7 @@
     <t xml:space="preserve">Rights / Warrants / Options; Common Equity</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8</t>
+    <t xml:space="preserve">38.799999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">5.98</t>
@@ -10545,7 +10545,7 @@
     <t xml:space="preserve">34.4</t>
   </si>
   <si>
-    <t xml:space="preserve">19.83</t>
+    <t xml:space="preserve">19.829999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">63.26</t>
@@ -10576,13 +10576,13 @@
     <t xml:space="preserve">0.02</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.24</t>
+    <t xml:space="preserve">-2.2400000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">1.84</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2</t>
+    <t xml:space="preserve">36.200000000000003</t>
   </si>
   <si>
     <t xml:space="preserve">2.04</t>
@@ -10603,7 +10603,7 @@
     <t xml:space="preserve">3356.3</t>
   </si>
   <si>
-    <t xml:space="preserve">1179.1</t>
+    <t xml:space="preserve">1179.0999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">717</t>
@@ -10615,7 +10615,7 @@
     <t xml:space="preserve">5096.7</t>
   </si>
   <si>
-    <t xml:space="preserve">2420.2</t>
+    <t xml:space="preserve">2420.1999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">34.1</t>
@@ -10649,7 +10649,7 @@
     <t xml:space="preserve">469.39</t>
   </si>
   <si>
-    <t xml:space="preserve">4293.77</t>
+    <t xml:space="preserve">4293.7700000000004</t>
   </si>
   <si>
     <t xml:space="preserve">15910.52</t>
@@ -10679,7 +10679,7 @@
     <t xml:space="preserve">1250.24</t>
   </si>
   <si>
-    <t xml:space="preserve">314.59</t>
+    <t xml:space="preserve">314.58999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">154.03</t>
@@ -10694,7 +10694,7 @@
     <t xml:space="preserve">812.3</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.035</t>
+    <t xml:space="preserve">-3.5000000000000003E-2</t>
   </si>
   <si>
     <t xml:space="preserve">3039.8</t>
@@ -10715,7 +10715,7 @@
     <t xml:space="preserve">GalvoSurge Dental AG</t>
   </si>
   <si>
-    <t xml:space="preserve">2360.01</t>
+    <t xml:space="preserve">2360.0100000000002</t>
   </si>
   <si>
     <t xml:space="preserve">694.59</t>
@@ -10736,7 +10736,7 @@
     <t xml:space="preserve">21256.17</t>
   </si>
   <si>
-    <t xml:space="preserve">611.3200000000001</t>
+    <t xml:space="preserve">611.32000000000005</t>
   </si>
   <si>
     <t xml:space="preserve">GalvoSurge Dental AG manufactures dental devices and equipment. The company was incorporated in 2015 and is based in Widnau, Switzerland. As of May 10, 2023, GalvoSurge Dental AG operates as a subsidiary of Straumann Holding AG.</t>
@@ -10802,7 +10802,7 @@
     <t xml:space="preserve">2934.81</t>
   </si>
   <si>
-    <t xml:space="preserve">17822.65</t>
+    <t xml:space="preserve">17822.650000000001</t>
   </si>
   <si>
     <t xml:space="preserve">10393.86</t>
@@ -10838,7 +10838,7 @@
     <t xml:space="preserve">10.77</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.16</t>
+    <t xml:space="preserve">-1.1599999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">-1.55</t>
@@ -10847,7 +10847,7 @@
     <t xml:space="preserve">0.996</t>
   </si>
   <si>
-    <t xml:space="preserve">16.31</t>
+    <t xml:space="preserve">16.309999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">61.88</t>
@@ -10880,16 +10880,16 @@
     <t xml:space="preserve">-3.63</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1</t>
+    <t xml:space="preserve">2.2200000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.100000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">50.5</t>
   </si>
   <si>
-    <t xml:space="preserve">16.15</t>
+    <t xml:space="preserve">16.149999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">22.39</t>
@@ -10934,7 +10934,7 @@
     <t xml:space="preserve">1193</t>
   </si>
   <si>
-    <t xml:space="preserve">1130.35</t>
+    <t xml:space="preserve">1130.3499999999999</t>
   </si>
   <si>
     <t xml:space="preserve">57</t>
@@ -10958,13 +10958,13 @@
     <t xml:space="preserve">12588.18</t>
   </si>
   <si>
-    <t xml:space="preserve">9027.870000000001</t>
+    <t xml:space="preserve">9027.8700000000008</t>
   </si>
   <si>
     <t xml:space="preserve">3451.16</t>
   </si>
   <si>
-    <t xml:space="preserve">37695.41</t>
+    <t xml:space="preserve">37695.410000000003</t>
   </si>
   <si>
     <t xml:space="preserve">12147.39</t>
@@ -11000,7 +11000,7 @@
     <t xml:space="preserve">231.76</t>
   </si>
   <si>
-    <t xml:space="preserve">666.1799999999999</t>
+    <t xml:space="preserve">666.18</t>
   </si>
   <si>
     <t xml:space="preserve">298.69</t>
@@ -11078,7 +11078,7 @@
     <t xml:space="preserve">2638.07</t>
   </si>
   <si>
-    <t xml:space="preserve">853.0700000000001</t>
+    <t xml:space="preserve">853.07</t>
   </si>
   <si>
     <t xml:space="preserve">-2.42</t>
@@ -11108,10 +11108,10 @@
     <t xml:space="preserve">4.74</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.970000000000001</t>
+    <t xml:space="preserve">2.3199999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9700000000000006</t>
   </si>
   <si>
     <t xml:space="preserve">32.14</t>
@@ -11142,7 +11142,7 @@
     <t xml:space="preserve">23.69</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194</t>
+    <t xml:space="preserve">0.19400000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">0.995</t>
@@ -11220,7 +11220,7 @@
     <t xml:space="preserve">1555.14</t>
   </si>
   <si>
-    <t xml:space="preserve">277.35</t>
+    <t xml:space="preserve">277.35000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">33.83</t>
@@ -11268,7 +11268,7 @@
     <t xml:space="preserve">0.112</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85</t>
+    <t xml:space="preserve">4.8499999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">Dermatonics Ltd operates as a provider of foot care products, specializing in skin creams for various dry skin conditions. It offers a range of skin creams designed for conditions such as cracked heels, eczema, and psoriasis. Dermatonics Ltd serves healthcare professionals, including GPs, dermatologists, and nurses, who prescribe its products for various skin conditions.</t>
@@ -11292,10 +11292,10 @@
     <t xml:space="preserve">234.27</t>
   </si>
   <si>
-    <t xml:space="preserve">17.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.15</t>
+    <t xml:space="preserve">17.079999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1499999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">71.59</t>
@@ -11446,7 +11446,7 @@
     <t xml:space="preserve">51.26</t>
   </si>
   <si>
-    <t xml:space="preserve">18.81</t>
+    <t xml:space="preserve">18.809999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">17.14</t>
@@ -11458,10 +11458,10 @@
     <t xml:space="preserve">468.81</t>
   </si>
   <si>
-    <t xml:space="preserve">325.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.04000000000001</t>
+    <t xml:space="preserve">325.47000000000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.040000000000006</t>
   </si>
   <si>
     <t xml:space="preserve">Ceban Compounding is a company based in Breda, Netherlands, operating within the pharmacy and corporate office sectors.</t>
@@ -11500,7 +11500,7 @@
     <t xml:space="preserve">1146.99</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173</t>
+    <t xml:space="preserve">0.17299999999999999</t>
   </si>
   <si>
     <t xml:space="preserve">1913.86</t>
@@ -11542,7 +11542,7 @@
     <t xml:space="preserve">30.63</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521</t>
+    <t xml:space="preserve">0.52100000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">Amniotics AB (publ) develops stem cell-based therapeutics to treat severe life-threatening diseases. The company’s lead drug candidate is PulmoStem for the treatment of lung disease. It also develops CogniStem for the treatment of CNS indications; NephroStem for the treatment of kidney-specific indications; CutiStem for the treatment of dermatological indications; and AMNI-NK003. The company offers contract development and contract manufacturing services for advanced therapy medicinal products to the pharmaceutical industries, universities, and hospitals. Amniotics AB (publ) was incorporated in 2015 and is based in Lund, Sweden. As of October 7, 2024, Amniotics AB (publ) operates as a subsidiary of Magle Chemoswed Holding AB (publ).</t>
@@ -11611,10 +11611,10 @@
     <t xml:space="preserve">18.27</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5570000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.73999999999999</t>
+    <t xml:space="preserve">0.55700000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.74</t>
   </si>
   <si>
     <t xml:space="preserve">75.8</t>
@@ -11638,7 +11638,7 @@
     <t xml:space="preserve">Global Rights to Enjaymo</t>
   </si>
   <si>
-    <t xml:space="preserve">2269.24</t>
+    <t xml:space="preserve">2269.2399999999998</t>
   </si>
   <si>
     <t xml:space="preserve">849.74</t>
@@ -11656,7 +11656,7 @@
     <t xml:space="preserve">1876.11</t>
   </si>
   <si>
-    <t xml:space="preserve">9951.030000000001</t>
+    <t xml:space="preserve">9951.0300000000007</t>
   </si>
   <si>
     <t xml:space="preserve">235.02</t>
@@ -11680,13 +11680,13 @@
     <t xml:space="preserve">Predicare AB</t>
   </si>
   <si>
-    <t xml:space="preserve">35.73</t>
+    <t xml:space="preserve">35.729999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">5.62</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.22</t>
+    <t xml:space="preserve">-2.2200000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">41.02</t>
@@ -11701,7 +11701,7 @@
     <t xml:space="preserve">53.66</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4</t>
+    <t xml:space="preserve">4.4000000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">Predicare AB designs, develops, and provides decision support system solutions to the health care sector. The company's product includes RETTS system, that offers support solution for patients, families, medical staff, and healthcare provider. The company was incorporated in 2010 and is based in Gothenburg, Sweden. As of December 10, 2024, Predicare AB operates as a subsidiary of Omda AS.</t>
@@ -15260,7 +15260,7 @@
         <v>38840</v>
       </c>
       <c r="AN13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO13" t="n">
         <v>-0.125</v>
@@ -15296,10 +15296,10 @@
         <v>1</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
         <v>1</v>
@@ -24774,7 +24774,7 @@
         <v>40154</v>
       </c>
       <c r="AN50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO50" t="n">
         <v>0</v>
@@ -24810,10 +24810,10 @@
         <v>1</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB50" t="n">
         <v>1</v>
@@ -29136,7 +29136,7 @@
         <v>40602</v>
       </c>
       <c r="AN67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO67" t="n">
         <v>-0.1163</v>
@@ -29172,10 +29172,10 @@
         <v>0</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB67" t="n">
         <v>1</v>
@@ -35820,7 +35820,7 @@
         <v>41729</v>
       </c>
       <c r="AN93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO93" t="n">
         <v>-0.070337</v>
@@ -35856,10 +35856,10 @@
         <v>1</v>
       </c>
       <c r="AZ93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB93" t="n">
         <v>1</v>
@@ -39420,7 +39420,7 @@
         <v>42109</v>
       </c>
       <c r="AN107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO107" t="n">
         <v>0.00216499999999997</v>
@@ -39456,10 +39456,10 @@
         <v>1</v>
       </c>
       <c r="AZ107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB107" t="n">
         <v>1</v>
@@ -44816,7 +44816,7 @@
         <v>42643</v>
       </c>
       <c r="AN128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO128" t="n">
         <v>-0.140756</v>
@@ -44852,10 +44852,10 @@
         <v>0</v>
       </c>
       <c r="AZ128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB128" t="n">
         <v>0</v>
@@ -45846,7 +45846,7 @@
         <v>42755</v>
       </c>
       <c r="AN132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO132" t="n">
         <v>0.081482</v>
@@ -45882,10 +45882,10 @@
         <v>0</v>
       </c>
       <c r="AZ132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB132" t="n">
         <v>1</v>
@@ -55104,7 +55104,7 @@
         <v>43634</v>
       </c>
       <c r="AN168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO168" t="n">
         <v>0.00802199999999997</v>
@@ -55140,10 +55140,10 @@
         <v>1</v>
       </c>
       <c r="AZ168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB168" t="n">
         <v>1</v>
@@ -55360,7 +55360,7 @@
         <v>43636</v>
       </c>
       <c r="AN169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO169" t="n">
         <v>0.061111</v>
@@ -55396,10 +55396,10 @@
         <v>1</v>
       </c>
       <c r="AZ169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB169" t="n">
         <v>1</v>
@@ -57670,7 +57670,7 @@
         <v>43924</v>
       </c>
       <c r="AN178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO178" t="n">
         <v>-0.251366</v>
@@ -57706,10 +57706,10 @@
         <v>1</v>
       </c>
       <c r="AZ178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB178" t="n">
         <v>1</v>
@@ -58956,7 +58956,7 @@
         <v>44069</v>
       </c>
       <c r="AN183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO183" t="n">
         <v>-0.083744</v>
@@ -58992,10 +58992,10 @@
         <v>0</v>
       </c>
       <c r="AZ183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB183" t="n">
         <v>1</v>
@@ -63318,7 +63318,7 @@
         <v>44356</v>
       </c>
       <c r="AN200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO200" t="n">
         <v>0.264864</v>
@@ -63354,10 +63354,10 @@
         <v>1</v>
       </c>
       <c r="AZ200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB200" t="n">
         <v>1</v>
@@ -82570,7 +82570,7 @@
         <v>45237</v>
       </c>
       <c r="AN275" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AO275" t="n">
         <v>0.216524</v>
@@ -82606,10 +82606,10 @@
         <v>1</v>
       </c>
       <c r="AZ275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB275" t="n">
         <v>1</v>
@@ -84106,7 +84106,7 @@
         <v>45300</v>
       </c>
       <c r="AN281" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AO281" t="n">
         <v>0.131707</v>
@@ -84142,10 +84142,10 @@
         <v>1</v>
       </c>
       <c r="AZ281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB281" t="n">
         <v>0</v>
@@ -84362,7 +84362,7 @@
         <v>45309</v>
       </c>
       <c r="AN282" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO282" t="n">
         <v>0.264624</v>
@@ -84398,10 +84398,10 @@
         <v>0</v>
       </c>
       <c r="AZ282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB282" t="n">
         <v>1</v>
@@ -86160,7 +86160,7 @@
         <v>45547</v>
       </c>
       <c r="AN289" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO289" t="n">
         <v>0.181818</v>
@@ -86196,10 +86196,10 @@
         <v>1</v>
       </c>
       <c r="AZ289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB289" t="n">
         <v>1</v>

--- a/data/final/data_prepped_FINAL_CAR_gpdg_pcp.xlsx
+++ b/data/final/data_prepped_FINAL_CAR_gpdg_pcp.xlsx
@@ -12506,7 +12506,7 @@
         <v>41.9</v>
       </c>
       <c r="BP2" t="n">
-        <v>9442.93</v>
+        <v>9.44293</v>
       </c>
       <c r="BQ2" t="n">
         <v>0.3697</v>
@@ -12764,7 +12764,7 @@
         <v>101.93</v>
       </c>
       <c r="BP3" t="n">
-        <v>90802.45</v>
+        <v>90.80245</v>
       </c>
       <c r="BQ3" t="n">
         <v>10.46448</v>
@@ -13022,7 +13022,7 @@
         <v>4423.75</v>
       </c>
       <c r="BP4" t="n">
-        <v>92874.55</v>
+        <v>92.87455</v>
       </c>
       <c r="BQ4" t="n">
         <v>10.55702</v>
@@ -13278,7 +13278,7 @@
       <c r="BN5"/>
       <c r="BO5"/>
       <c r="BP5" t="n">
-        <v>1618.2</v>
+        <v>1.6182</v>
       </c>
       <c r="BQ5" t="n">
         <v>0.17235</v>
@@ -13536,7 +13536,7 @@
         <v>6.5</v>
       </c>
       <c r="BP6" t="n">
-        <v>2294.43</v>
+        <v>2.29443</v>
       </c>
       <c r="BQ6" t="n">
         <v>0.09115</v>
@@ -13794,7 +13794,7 @@
         <v>2071</v>
       </c>
       <c r="BP7" t="n">
-        <v>9044.98</v>
+        <v>9.04498</v>
       </c>
       <c r="BQ7" t="n">
         <v>0.168</v>
@@ -14052,7 +14052,7 @@
         <v>50.4</v>
       </c>
       <c r="BP8" t="n">
-        <v>13613.45</v>
+        <v>13.61345</v>
       </c>
       <c r="BQ8" t="n">
         <v>0.9457</v>
@@ -14310,7 +14310,7 @@
         <v>77.94</v>
       </c>
       <c r="BP9" t="n">
-        <v>63729.77</v>
+        <v>63.72977</v>
       </c>
       <c r="BQ9" t="n">
         <v>4.67778</v>
@@ -14568,7 +14568,7 @@
         <v>1150</v>
       </c>
       <c r="BP10" t="n">
-        <v>24686.71</v>
+        <v>24.68671</v>
       </c>
       <c r="BQ10" t="n">
         <v>2.936</v>
@@ -14826,7 +14826,7 @@
         <v>77.7</v>
       </c>
       <c r="BP11" t="n">
-        <v>70323.3</v>
+        <v>70.3233</v>
       </c>
       <c r="BQ11" t="n">
         <v>5.01333</v>
@@ -15084,7 +15084,7 @@
         <v>347</v>
       </c>
       <c r="BP12" t="n">
-        <v>29260.32</v>
+        <v>29.26032</v>
       </c>
       <c r="BQ12" t="n">
         <v>3.389</v>
@@ -15340,7 +15340,7 @@
       <c r="BN13"/>
       <c r="BO13"/>
       <c r="BP13" t="n">
-        <v>104.06</v>
+        <v>0.10406</v>
       </c>
       <c r="BQ13" t="n">
         <v>0.000626</v>
@@ -15596,7 +15596,7 @@
       <c r="BN14"/>
       <c r="BO14"/>
       <c r="BP14" t="n">
-        <v>2884.78</v>
+        <v>2.88478</v>
       </c>
       <c r="BQ14" t="n">
         <v>0.10274</v>
@@ -15854,7 +15854,7 @@
         <v>54.6</v>
       </c>
       <c r="BP15" t="n">
-        <v>14983.91</v>
+        <v>14.98391</v>
       </c>
       <c r="BQ15" t="n">
         <v>3.2101</v>
@@ -16112,7 +16112,7 @@
         <v>204</v>
       </c>
       <c r="BP16" t="n">
-        <v>7111.29</v>
+        <v>7.11129</v>
       </c>
       <c r="BQ16" t="n">
         <v>0.974</v>
@@ -16370,7 +16370,7 @@
         <v>140</v>
       </c>
       <c r="BP17" t="n">
-        <v>32122.24</v>
+        <v>32.12224</v>
       </c>
       <c r="BQ17" t="n">
         <v>7.445</v>
@@ -16628,7 +16628,7 @@
         <v>2.14</v>
       </c>
       <c r="BP18" t="n">
-        <v>3023.67</v>
+        <v>3.02367</v>
       </c>
       <c r="BQ18" t="n">
         <v>0.07356</v>
@@ -16886,7 +16886,7 @@
         <v>356.91</v>
       </c>
       <c r="BP19" t="n">
-        <v>117003.43</v>
+        <v>117.00343</v>
       </c>
       <c r="BQ19" t="n">
         <v>4.99522</v>
@@ -17144,7 +17144,7 @@
         <v>3.59</v>
       </c>
       <c r="BP20" t="n">
-        <v>902.56</v>
+        <v>0.90256</v>
       </c>
       <c r="BQ20" t="n">
         <v>0.06535</v>
@@ -17402,7 +17402,7 @@
         <v>84.88</v>
       </c>
       <c r="BP21" t="n">
-        <v>65189.91</v>
+        <v>65.18991</v>
       </c>
       <c r="BQ21" t="n">
         <v>5.88092</v>
@@ -17658,7 +17658,7 @@
       <c r="BN22"/>
       <c r="BO22"/>
       <c r="BP22" t="n">
-        <v>364.44</v>
+        <v>0.36444</v>
       </c>
       <c r="BQ22" t="n">
         <v>0.04238</v>
@@ -17914,7 +17914,7 @@
       <c r="BN23"/>
       <c r="BO23"/>
       <c r="BP23" t="n">
-        <v>8452.82</v>
+        <v>8.45282</v>
       </c>
       <c r="BQ23" t="n">
         <v>0.26222</v>
@@ -18170,7 +18170,7 @@
       <c r="BN24"/>
       <c r="BO24"/>
       <c r="BP24" t="n">
-        <v>1302.61</v>
+        <v>1.30261</v>
       </c>
       <c r="BQ24" t="n">
         <v>0.04349</v>
@@ -18428,7 +18428,7 @@
         <v>-0.006</v>
       </c>
       <c r="BP25" t="n">
-        <v>247.58</v>
+        <v>0.24758</v>
       </c>
       <c r="BQ25" t="n">
         <v>0.07872</v>
@@ -18686,7 +18686,7 @@
         <v>4.32</v>
       </c>
       <c r="BP26" t="n">
-        <v>953.12</v>
+        <v>0.95312</v>
       </c>
       <c r="BQ26" t="n">
         <v>0.0339</v>
@@ -18942,7 +18942,7 @@
       <c r="BN27"/>
       <c r="BO27"/>
       <c r="BP27" t="n">
-        <v>101799.53</v>
+        <v>101.79953</v>
       </c>
       <c r="BQ27" t="n">
         <v>5.19444</v>
@@ -19200,7 +19200,7 @@
         <v>2.61</v>
       </c>
       <c r="BP28" t="n">
-        <v>3561.26</v>
+        <v>3.56126</v>
       </c>
       <c r="BQ28" t="n">
         <v>0.10345</v>
@@ -19456,7 +19456,7 @@
       <c r="BN29"/>
       <c r="BO29"/>
       <c r="BP29" t="n">
-        <v>2102.45</v>
+        <v>2.10245</v>
       </c>
       <c r="BQ29" t="n">
         <v>0.06924</v>
@@ -19712,7 +19712,7 @@
       <c r="BN30"/>
       <c r="BO30"/>
       <c r="BP30" t="n">
-        <v>106.48</v>
+        <v>0.10648</v>
       </c>
       <c r="BQ30" t="n">
         <v>0.06316</v>
@@ -19970,7 +19970,7 @@
         <v>1.82</v>
       </c>
       <c r="BP31" t="n">
-        <v>81.77</v>
+        <v>0.08177</v>
       </c>
       <c r="BQ31" t="n">
         <v>0.02138</v>
@@ -20228,7 +20228,7 @@
         <v>0.698</v>
       </c>
       <c r="BP32" t="n">
-        <v>411.46</v>
+        <v>0.41146</v>
       </c>
       <c r="BQ32" t="n">
         <v>0.0866</v>
@@ -20486,7 +20486,7 @@
         <v>2.03</v>
       </c>
       <c r="BP33" t="n">
-        <v>487.58</v>
+        <v>0.48758</v>
       </c>
       <c r="BQ33" t="n">
         <v>0.02617</v>
@@ -20742,7 +20742,7 @@
       <c r="BN34"/>
       <c r="BO34"/>
       <c r="BP34" t="n">
-        <v>2017.58</v>
+        <v>2.01758</v>
       </c>
       <c r="BQ34" t="n">
         <v>0.04134</v>
@@ -21000,7 +21000,7 @@
         <v>205</v>
       </c>
       <c r="BP35" t="n">
-        <v>50779.24</v>
+        <v>50.77924</v>
       </c>
       <c r="BQ35" t="n">
         <v>4.259</v>
@@ -21256,7 +21256,7 @@
       <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36" t="n">
-        <v>84891.07</v>
+        <v>84.89107</v>
       </c>
       <c r="BQ36" t="n">
         <v>10.29302</v>
@@ -21514,7 +21514,7 @@
         <v>0.267</v>
       </c>
       <c r="BP37" t="n">
-        <v>2755.02</v>
+        <v>2.75502</v>
       </c>
       <c r="BQ37" t="n">
         <v>0.23166</v>
@@ -21770,7 +21770,7 @@
       <c r="BN38"/>
       <c r="BO38"/>
       <c r="BP38" t="n">
-        <v>134.25</v>
+        <v>0.13425</v>
       </c>
       <c r="BQ38" t="n">
         <v>0.00153</v>
@@ -22028,7 +22028,7 @@
         <v>2.66</v>
       </c>
       <c r="BP39" t="n">
-        <v>2162.67</v>
+        <v>2.16267</v>
       </c>
       <c r="BQ39" t="n">
         <v>0.09592</v>
@@ -22284,7 +22284,7 @@
       <c r="BN40"/>
       <c r="BO40"/>
       <c r="BP40" t="n">
-        <v>41.74</v>
+        <v>0.04174</v>
       </c>
       <c r="BQ40" t="n">
         <v>0.01737</v>
@@ -22540,7 +22540,7 @@
       <c r="BN41"/>
       <c r="BO41"/>
       <c r="BP41" t="n">
-        <v>343.82</v>
+        <v>0.34382</v>
       </c>
       <c r="BQ41" t="n">
         <v>0.0159</v>
@@ -22798,7 +22798,7 @@
         <v>58.1</v>
       </c>
       <c r="BP42" t="n">
-        <v>12402.63</v>
+        <v>12.40263</v>
       </c>
       <c r="BQ42" t="n">
         <v>0.8147</v>
@@ -23056,7 +23056,7 @@
         <v>403.52</v>
       </c>
       <c r="BP43" t="n">
-        <v>61605.25</v>
+        <v>61.60525</v>
       </c>
       <c r="BQ43" t="n">
         <v>6.27074</v>
@@ -23314,7 +23314,7 @@
         <v>6284.72</v>
       </c>
       <c r="BP44" t="n">
-        <v>78603.3</v>
+        <v>78.6033</v>
       </c>
       <c r="BQ44" t="n">
         <v>14.00088</v>
@@ -23572,7 +23572,7 @@
         <v>1.03</v>
       </c>
       <c r="BP45" t="n">
-        <v>301.3</v>
+        <v>0.3013</v>
       </c>
       <c r="BQ45" t="n">
         <v>0.01377</v>
@@ -23828,7 +23828,7 @@
       <c r="BN46"/>
       <c r="BO46"/>
       <c r="BP46" t="n">
-        <v>2741.11</v>
+        <v>2.74111</v>
       </c>
       <c r="BQ46" t="n">
         <v>0.27843</v>
@@ -24084,7 +24084,7 @@
       <c r="BN47"/>
       <c r="BO47"/>
       <c r="BP47" t="n">
-        <v>3196.83</v>
+        <v>3.19683</v>
       </c>
       <c r="BQ47" t="n">
         <v>0.27843</v>
@@ -24340,7 +24340,7 @@
         <v>163</v>
       </c>
       <c r="BP48" t="n">
-        <v>65482.01</v>
+        <v>65.48201</v>
       </c>
       <c r="BQ48" t="n">
         <v>6.214</v>
@@ -24598,7 +24598,7 @@
         <v>108.73</v>
       </c>
       <c r="BP49" t="n">
-        <v>45649.06</v>
+        <v>45.64906</v>
       </c>
       <c r="BQ49" t="n">
         <v>5.35728</v>
@@ -24854,7 +24854,7 @@
       <c r="BN50"/>
       <c r="BO50"/>
       <c r="BP50" t="n">
-        <v>25713.21</v>
+        <v>25.71321</v>
       </c>
       <c r="BQ50" t="n">
         <v>1.59353</v>
@@ -25112,7 +25112,7 @@
         <v>52.33</v>
       </c>
       <c r="BP51" t="n">
-        <v>87039.21</v>
+        <v>87.03921</v>
       </c>
       <c r="BQ51" t="n">
         <v>12.12271</v>
@@ -25368,7 +25368,7 @@
       <c r="BN52"/>
       <c r="BO52"/>
       <c r="BP52" t="n">
-        <v>3665.68</v>
+        <v>3.66568</v>
       </c>
       <c r="BQ52" t="n">
         <v>0.60394</v>
@@ -25624,7 +25624,7 @@
       <c r="BN53"/>
       <c r="BO53"/>
       <c r="BP53" t="n">
-        <v>32563.62</v>
+        <v>32.56362</v>
       </c>
       <c r="BQ53" t="n">
         <v>1.04979</v>
@@ -25880,7 +25880,7 @@
       <c r="BN54"/>
       <c r="BO54"/>
       <c r="BP54" t="n">
-        <v>65.44</v>
+        <v>0.06544</v>
       </c>
       <c r="BQ54" t="n">
         <v>0.04018</v>
@@ -26136,7 +26136,7 @@
       <c r="BN55"/>
       <c r="BO55"/>
       <c r="BP55" t="n">
-        <v>12.78</v>
+        <v>0.01278</v>
       </c>
       <c r="BQ55" t="n">
         <v>0.00717</v>
@@ -26392,7 +26392,7 @@
       <c r="BN56"/>
       <c r="BO56"/>
       <c r="BP56" t="n">
-        <v>117.14</v>
+        <v>0.11714</v>
       </c>
       <c r="BQ56" t="n">
         <v>0.000122</v>
@@ -26648,7 +26648,7 @@
       <c r="BN57"/>
       <c r="BO57"/>
       <c r="BP57" t="n">
-        <v>1198.41</v>
+        <v>1.19841</v>
       </c>
       <c r="BQ57" t="n">
         <v>0.14772</v>
@@ -26904,7 +26904,7 @@
       <c r="BN58"/>
       <c r="BO58"/>
       <c r="BP58" t="n">
-        <v>3502.5</v>
+        <v>3.5025</v>
       </c>
       <c r="BQ58" t="n">
         <v>0.65729</v>
@@ -27162,7 +27162,7 @@
         <v>0.807</v>
       </c>
       <c r="BP59" t="n">
-        <v>227.39</v>
+        <v>0.22739</v>
       </c>
       <c r="BQ59" t="n">
         <v>0.06737</v>
@@ -27420,7 +27420,7 @@
         <v>164.33</v>
       </c>
       <c r="BP60" t="n">
-        <v>14113.86</v>
+        <v>14.11386</v>
       </c>
       <c r="BQ60" t="n">
         <v>0.4665</v>
@@ -27676,7 +27676,7 @@
       <c r="BN61"/>
       <c r="BO61"/>
       <c r="BP61" t="n">
-        <v>3870.36</v>
+        <v>3.87036</v>
       </c>
       <c r="BQ61" t="n">
         <v>0.06387</v>
@@ -27932,7 +27932,7 @@
       <c r="BN62"/>
       <c r="BO62"/>
       <c r="BP62" t="n">
-        <v>94.47</v>
+        <v>0.09447</v>
       </c>
       <c r="BQ62" t="n">
         <v>0.00776</v>
@@ -28188,7 +28188,7 @@
       <c r="BN63"/>
       <c r="BO63"/>
       <c r="BP63" t="n">
-        <v>64.49</v>
+        <v>0.06449</v>
       </c>
       <c r="BQ63" t="n">
         <v>0.00105</v>
@@ -28446,7 +28446,7 @@
         <v>317.96</v>
       </c>
       <c r="BP64" t="n">
-        <v>12908.18</v>
+        <v>12.90818</v>
       </c>
       <c r="BQ64" t="n">
         <v>0.38993</v>
@@ -28702,7 +28702,7 @@
       <c r="BN65"/>
       <c r="BO65"/>
       <c r="BP65" t="n">
-        <v>1054.49</v>
+        <v>1.05449</v>
       </c>
       <c r="BQ65" t="n">
         <v>0.19069</v>
@@ -28960,7 +28960,7 @@
         <v>0.476</v>
       </c>
       <c r="BP66" t="n">
-        <v>393.64</v>
+        <v>0.39364</v>
       </c>
       <c r="BQ66" t="n">
         <v>0.06854</v>
@@ -29218,7 +29218,7 @@
         <v>42</v>
       </c>
       <c r="BP67" t="n">
-        <v>14407.91</v>
+        <v>14.40791</v>
       </c>
       <c r="BQ67" t="n">
         <v>0.978</v>
@@ -29474,7 +29474,7 @@
       <c r="BN68"/>
       <c r="BO68"/>
       <c r="BP68" t="n">
-        <v>976.59</v>
+        <v>0.97659</v>
       </c>
       <c r="BQ68" t="n">
         <v>0.14196</v>
@@ -29730,7 +29730,7 @@
       <c r="BN69"/>
       <c r="BO69"/>
       <c r="BP69" t="n">
-        <v>3172.12</v>
+        <v>3.17212</v>
       </c>
       <c r="BQ69" t="n">
         <v>0.65672</v>
@@ -29988,7 +29988,7 @@
         <v>0.334</v>
       </c>
       <c r="BP70" t="n">
-        <v>527.92</v>
+        <v>0.52792</v>
       </c>
       <c r="BQ70" t="n">
         <v>0.09574</v>
@@ -30244,7 +30244,7 @@
       <c r="BN71"/>
       <c r="BO71"/>
       <c r="BP71" t="n">
-        <v>1043.66</v>
+        <v>1.04366</v>
       </c>
       <c r="BQ71" t="n">
         <v>0.14847</v>
@@ -30502,7 +30502,7 @@
         <v>2047.62</v>
       </c>
       <c r="BP72" t="n">
-        <v>99971.06</v>
+        <v>99.97106</v>
       </c>
       <c r="BQ72" t="n">
         <v>7.67442</v>
@@ -30760,7 +30760,7 @@
         <v>0.071</v>
       </c>
       <c r="BP73" t="n">
-        <v>418.76</v>
+        <v>0.41876</v>
       </c>
       <c r="BQ73" t="n">
         <v>0.02416</v>
@@ -31016,7 +31016,7 @@
       <c r="BN74"/>
       <c r="BO74"/>
       <c r="BP74" t="n">
-        <v>968.44</v>
+        <v>0.96844</v>
       </c>
       <c r="BQ74" t="n">
         <v>0.13407</v>
@@ -31272,7 +31272,7 @@
       <c r="BN75"/>
       <c r="BO75"/>
       <c r="BP75" t="n">
-        <v>165.35</v>
+        <v>0.16535</v>
       </c>
       <c r="BQ75" t="n">
         <v>0.05472</v>
@@ -31528,7 +31528,7 @@
       <c r="BN76"/>
       <c r="BO76"/>
       <c r="BP76" t="n">
-        <v>238.72</v>
+        <v>0.23872</v>
       </c>
       <c r="BQ76" t="n">
         <v>0.00444</v>
@@ -31786,7 +31786,7 @@
         <v>959.65</v>
       </c>
       <c r="BP77" t="n">
-        <v>84524.79</v>
+        <v>84.52479</v>
       </c>
       <c r="BQ77" t="n">
         <v>7.00428</v>
@@ -32042,7 +32042,7 @@
         <v>170</v>
       </c>
       <c r="BP78" t="n">
-        <v>72787.3</v>
+        <v>72.7873</v>
       </c>
       <c r="BQ78" t="n">
         <v>4.249</v>
@@ -32300,7 +32300,7 @@
         <v>95.77</v>
       </c>
       <c r="BP79" t="n">
-        <v>119405.93</v>
+        <v>119.40593</v>
       </c>
       <c r="BQ79" t="n">
         <v>4.51695</v>
@@ -32558,7 +32558,7 @@
         <v>1</v>
       </c>
       <c r="BP80" t="n">
-        <v>7700.77</v>
+        <v>7.70077</v>
       </c>
       <c r="BQ80" t="n">
         <v>0.34765</v>
@@ -32816,7 +32816,7 @@
         <v>3.97</v>
       </c>
       <c r="BP81" t="n">
-        <v>8747.18</v>
+        <v>8.74718</v>
       </c>
       <c r="BQ81" t="n">
         <v>0.47333</v>
@@ -33074,7 +33074,7 @@
         <v>-0.268</v>
       </c>
       <c r="BP82" t="n">
-        <v>3711.35</v>
+        <v>3.71135</v>
       </c>
       <c r="BQ82" t="n">
         <v>0.04614</v>
@@ -33330,7 +33330,7 @@
       <c r="BN83"/>
       <c r="BO83"/>
       <c r="BP83" t="n">
-        <v>107.06</v>
+        <v>0.10706</v>
       </c>
       <c r="BQ83" t="n">
         <v>0.0296</v>
@@ -33586,7 +33586,7 @@
       <c r="BN84"/>
       <c r="BO84"/>
       <c r="BP84" t="n">
-        <v>300.02</v>
+        <v>0.30002</v>
       </c>
       <c r="BQ84" t="n">
         <v>0.00909</v>
@@ -33844,7 +33844,7 @@
         <v>105</v>
       </c>
       <c r="BP85" t="n">
-        <v>70759.63</v>
+        <v>70.75963</v>
       </c>
       <c r="BQ85" t="n">
         <v>2.108</v>
@@ -34102,7 +34102,7 @@
         <v>1093.85</v>
       </c>
       <c r="BP86" t="n">
-        <v>102217.24</v>
+        <v>102.21724</v>
       </c>
       <c r="BQ86" t="n">
         <v>4.63968</v>
@@ -34360,7 +34360,7 @@
         <v>0.533</v>
       </c>
       <c r="BP87" t="n">
-        <v>488.38</v>
+        <v>0.48838</v>
       </c>
       <c r="BQ87" t="n">
         <v>0.04753</v>
@@ -34618,7 +34618,7 @@
         <v>2.3</v>
       </c>
       <c r="BP88" t="n">
-        <v>2514.47</v>
+        <v>2.51447</v>
       </c>
       <c r="BQ88" t="n">
         <v>0.1228</v>
@@ -34876,7 +34876,7 @@
         <v>0.061</v>
       </c>
       <c r="BP89" t="n">
-        <v>1755.08</v>
+        <v>1.75508</v>
       </c>
       <c r="BQ89" t="n">
         <v>0.04239</v>
@@ -35132,7 +35132,7 @@
       <c r="BN90"/>
       <c r="BO90"/>
       <c r="BP90" t="n">
-        <v>357.28</v>
+        <v>0.35728</v>
       </c>
       <c r="BQ90" t="n">
         <v>0.01981</v>
@@ -35388,7 +35388,7 @@
       <c r="BN91"/>
       <c r="BO91"/>
       <c r="BP91" t="n">
-        <v>35.23</v>
+        <v>0.03523</v>
       </c>
       <c r="BQ91" t="n">
         <v>0.01017</v>
@@ -35644,7 +35644,7 @@
       <c r="BN92"/>
       <c r="BO92"/>
       <c r="BP92" t="n">
-        <v>501.7</v>
+        <v>0.5017</v>
       </c>
       <c r="BQ92" t="n">
         <v>0.09767</v>
@@ -35902,7 +35902,7 @@
         <v>985.89</v>
       </c>
       <c r="BP93" t="n">
-        <v>91248.39</v>
+        <v>91.24839</v>
       </c>
       <c r="BQ93" t="n">
         <v>4.32946</v>
@@ -36160,7 +36160,7 @@
         <v>91.44</v>
       </c>
       <c r="BP94" t="n">
-        <v>148121.08</v>
+        <v>148.12108</v>
       </c>
       <c r="BQ94" t="n">
         <v>5.60352</v>
@@ -36418,7 +36418,7 @@
         <v>0.703</v>
       </c>
       <c r="BP95" t="n">
-        <v>1007.12</v>
+        <v>1.00712</v>
       </c>
       <c r="BQ95" t="n">
         <v>0.16492</v>
@@ -36674,7 +36674,7 @@
       <c r="BN96"/>
       <c r="BO96"/>
       <c r="BP96" t="n">
-        <v>464.04</v>
+        <v>0.46404</v>
       </c>
       <c r="BQ96" t="n">
         <v>0.09028</v>
@@ -36932,7 +36932,7 @@
         <v>16.8</v>
       </c>
       <c r="BP97" t="n">
-        <v>67400.13</v>
+        <v>67.40013</v>
       </c>
       <c r="BQ97" t="n">
         <v>4.21981</v>
@@ -37188,7 +37188,7 @@
       <c r="BN98"/>
       <c r="BO98"/>
       <c r="BP98" t="n">
-        <v>16717.91</v>
+        <v>16.71791</v>
       </c>
       <c r="BQ98" t="n">
         <v>0.71911</v>
@@ -37444,7 +37444,7 @@
       <c r="BN99"/>
       <c r="BO99"/>
       <c r="BP99" t="n">
-        <v>500.32</v>
+        <v>0.50032</v>
       </c>
       <c r="BQ99" t="n">
         <v>0.04161</v>
@@ -37700,7 +37700,7 @@
       <c r="BN100"/>
       <c r="BO100"/>
       <c r="BP100" t="n">
-        <v>478.92</v>
+        <v>0.47892</v>
       </c>
       <c r="BQ100" t="n">
         <v>0.09144</v>
@@ -37958,7 +37958,7 @@
         <v>866.51</v>
       </c>
       <c r="BP101" t="n">
-        <v>91836.52</v>
+        <v>91.83652</v>
       </c>
       <c r="BQ101" t="n">
         <v>5.76432</v>
@@ -38216,7 +38216,7 @@
         <v>-0.269</v>
       </c>
       <c r="BP102" t="n">
-        <v>3508.21</v>
+        <v>3.50821</v>
       </c>
       <c r="BQ102" t="n">
         <v>0.05948</v>
@@ -38472,7 +38472,7 @@
       <c r="BN103"/>
       <c r="BO103"/>
       <c r="BP103" t="n">
-        <v>361.81</v>
+        <v>0.36181</v>
       </c>
       <c r="BQ103" t="n">
         <v>0.00386</v>
@@ -38730,7 +38730,7 @@
         <v>4.21</v>
       </c>
       <c r="BP104" t="n">
-        <v>12545.51</v>
+        <v>12.54551</v>
       </c>
       <c r="BQ104" t="n">
         <v>0.79778</v>
@@ -38986,7 +38986,7 @@
       <c r="BN105"/>
       <c r="BO105"/>
       <c r="BP105" t="n">
-        <v>96194.75</v>
+        <v>96.19475</v>
       </c>
       <c r="BQ105" t="n">
         <v>27.6249</v>
@@ -39244,7 +39244,7 @@
         <v>7.6</v>
       </c>
       <c r="BP106" t="n">
-        <v>3324.52</v>
+        <v>3.32452</v>
       </c>
       <c r="BQ106" t="n">
         <v>0.0249</v>
@@ -39500,7 +39500,7 @@
       <c r="BN107"/>
       <c r="BO107"/>
       <c r="BP107" t="n">
-        <v>630.34</v>
+        <v>0.63034</v>
       </c>
       <c r="BQ107" t="n">
         <v>0.03804</v>
@@ -39758,7 +39758,7 @@
         <v>2.6</v>
       </c>
       <c r="BP108" t="n">
-        <v>4212.45</v>
+        <v>4.21245</v>
       </c>
       <c r="BQ108" t="n">
         <v>0.0929</v>
@@ -40014,7 +40014,7 @@
       <c r="BN109"/>
       <c r="BO109"/>
       <c r="BP109" t="n">
-        <v>25888.66</v>
+        <v>25.88866</v>
       </c>
       <c r="BQ109" t="n">
         <v>3.16619</v>
@@ -40270,7 +40270,7 @@
       <c r="BN110"/>
       <c r="BO110"/>
       <c r="BP110" t="n">
-        <v>792.73</v>
+        <v>0.79273</v>
       </c>
       <c r="BQ110" t="n">
         <v>0.02786</v>
@@ -40528,7 +40528,7 @@
         <v>7.7</v>
       </c>
       <c r="BP111" t="n">
-        <v>3837.74</v>
+        <v>3.83774</v>
       </c>
       <c r="BQ111" t="n">
         <v>0.0294</v>
@@ -40784,7 +40784,7 @@
       <c r="BN112"/>
       <c r="BO112"/>
       <c r="BP112" t="n">
-        <v>533.14</v>
+        <v>0.53314</v>
       </c>
       <c r="BQ112" t="n">
         <v>0.04047</v>
@@ -41042,7 +41042,7 @@
         <v>17.96</v>
       </c>
       <c r="BP113" t="n">
-        <v>77838.23</v>
+        <v>77.83823</v>
       </c>
       <c r="BQ113" t="n">
         <v>4.03808</v>
@@ -41300,7 +41300,7 @@
         <v>0.059</v>
       </c>
       <c r="BP114" t="n">
-        <v>16.29</v>
+        <v>0.01629</v>
       </c>
       <c r="BQ114" t="n">
         <v>0.00209</v>
@@ -41556,7 +41556,7 @@
       <c r="BN115"/>
       <c r="BO115"/>
       <c r="BP115" t="n">
-        <v>98170.69</v>
+        <v>98.17069</v>
       </c>
       <c r="BQ115" t="n">
         <v>15.62593</v>
@@ -41814,7 +41814,7 @@
         <v>17.02</v>
       </c>
       <c r="BP116" t="n">
-        <v>74430.06</v>
+        <v>74.43006</v>
       </c>
       <c r="BQ116" t="n">
         <v>4.10122</v>
@@ -42070,7 +42070,7 @@
       <c r="BN117"/>
       <c r="BO117"/>
       <c r="BP117" t="n">
-        <v>79.65</v>
+        <v>0.07965</v>
       </c>
       <c r="BQ117" t="n">
         <v>0.01513</v>
@@ -42328,7 +42328,7 @@
         <v>17.49</v>
       </c>
       <c r="BP118" t="n">
-        <v>67584.51</v>
+        <v>67.58451</v>
       </c>
       <c r="BQ118" t="n">
         <v>5.87991</v>
@@ -42586,7 +42586,7 @@
         <v>1.87</v>
       </c>
       <c r="BP119" t="n">
-        <v>4654.44</v>
+        <v>4.65444</v>
       </c>
       <c r="BQ119" t="n">
         <v>0.38748</v>
@@ -42844,7 +42844,7 @@
         <v>0.33</v>
       </c>
       <c r="BP120" t="n">
-        <v>1818.88</v>
+        <v>1.81888</v>
       </c>
       <c r="BQ120" t="n">
         <v>0.02697</v>
@@ -43102,7 +43102,7 @@
         <v>21.93</v>
       </c>
       <c r="BP121" t="n">
-        <v>7802.09</v>
+        <v>7.80209</v>
       </c>
       <c r="BQ121" t="n">
         <v>0.2924</v>
@@ -43358,7 +43358,7 @@
       <c r="BN122"/>
       <c r="BO122"/>
       <c r="BP122" t="n">
-        <v>7934.37</v>
+        <v>7.93437</v>
       </c>
       <c r="BQ122" t="n">
         <v>0.86097</v>
@@ -43614,7 +43614,7 @@
       <c r="BN123"/>
       <c r="BO123"/>
       <c r="BP123" t="n">
-        <v>98856.56</v>
+        <v>98.85656</v>
       </c>
       <c r="BQ123" t="n">
         <v>11.03138</v>
@@ -43870,7 +43870,7 @@
       <c r="BN124"/>
       <c r="BO124"/>
       <c r="BP124" t="n">
-        <v>142.58</v>
+        <v>0.14258</v>
       </c>
       <c r="BQ124" t="n">
         <v>0.02606</v>
@@ -44126,7 +44126,7 @@
       <c r="BN125"/>
       <c r="BO125"/>
       <c r="BP125" t="n">
-        <v>45.41</v>
+        <v>0.04541</v>
       </c>
       <c r="BQ125" t="n">
         <v>0.00206</v>
@@ -44384,7 +44384,7 @@
         <v>0.099</v>
       </c>
       <c r="BP126" t="n">
-        <v>5719.93</v>
+        <v>5.71993</v>
       </c>
       <c r="BQ126" t="n">
         <v>0.14075</v>
@@ -44640,7 +44640,7 @@
       <c r="BN127"/>
       <c r="BO127"/>
       <c r="BP127" t="n">
-        <v>211.9</v>
+        <v>0.2119</v>
       </c>
       <c r="BQ127" t="n">
         <v>0.08603</v>
@@ -44896,7 +44896,7 @@
       <c r="BN128"/>
       <c r="BO128"/>
       <c r="BP128" t="n">
-        <v>91.98</v>
+        <v>0.09198</v>
       </c>
       <c r="BQ128" t="n">
         <v>0.00241</v>
@@ -45154,7 +45154,7 @@
         <v>0.848</v>
       </c>
       <c r="BP129" t="n">
-        <v>644.89</v>
+        <v>0.64489</v>
       </c>
       <c r="BQ129" t="n">
         <v>0.1227</v>
@@ -45412,7 +45412,7 @@
         <v>72.95</v>
       </c>
       <c r="BP130" t="n">
-        <v>151198.79</v>
+        <v>151.19879</v>
       </c>
       <c r="BQ130" t="n">
         <v>6.885</v>
@@ -45670,7 +45670,7 @@
         <v>0.289</v>
       </c>
       <c r="BP131" t="n">
-        <v>1975.41</v>
+        <v>1.97541</v>
       </c>
       <c r="BQ131" t="n">
         <v>0.18383</v>
@@ -45928,7 +45928,7 @@
         <v>3.3</v>
       </c>
       <c r="BP132" t="n">
-        <v>6219.43</v>
+        <v>6.21943</v>
       </c>
       <c r="BQ132" t="n">
         <v>0.4255</v>
@@ -46184,7 +46184,7 @@
       <c r="BN133"/>
       <c r="BO133"/>
       <c r="BP133" t="n">
-        <v>49.42</v>
+        <v>0.04942</v>
       </c>
       <c r="BQ133" t="n">
         <v>0.00318</v>
@@ -46442,7 +46442,7 @@
         <v>6.1</v>
       </c>
       <c r="BP134" t="n">
-        <v>5800.09</v>
+        <v>5.80009</v>
       </c>
       <c r="BQ134" t="n">
         <v>0.0996</v>
@@ -46700,7 +46700,7 @@
         <v>0.091</v>
       </c>
       <c r="BP135" t="n">
-        <v>19.79</v>
+        <v>0.01979</v>
       </c>
       <c r="BQ135" t="n">
         <v>0.00258</v>
@@ -46956,7 +46956,7 @@
       <c r="BN136"/>
       <c r="BO136"/>
       <c r="BP136" t="n">
-        <v>686.2</v>
+        <v>0.6862</v>
       </c>
       <c r="BQ136" t="n">
         <v>0.03667</v>
@@ -47212,7 +47212,7 @@
       <c r="BN137"/>
       <c r="BO137"/>
       <c r="BP137" t="n">
-        <v>46.21</v>
+        <v>0.04621</v>
       </c>
       <c r="BQ137" t="n">
         <v>0.00247</v>
@@ -47470,7 +47470,7 @@
         <v>2253.35</v>
       </c>
       <c r="BP138" t="n">
-        <v>192971.1</v>
+        <v>192.9711</v>
       </c>
       <c r="BQ138" t="n">
         <v>6.34469</v>
@@ -47728,7 +47728,7 @@
         <v>43.61</v>
       </c>
       <c r="BP139" t="n">
-        <v>3640.78</v>
+        <v>3.64078</v>
       </c>
       <c r="BQ139" t="n">
         <v>0.14537</v>
@@ -47986,7 +47986,7 @@
         <v>1.59</v>
       </c>
       <c r="BP140" t="n">
-        <v>2492.65</v>
+        <v>2.49265</v>
       </c>
       <c r="BQ140" t="n">
         <v>0.02907</v>
@@ -48242,7 +48242,7 @@
       <c r="BN141"/>
       <c r="BO141"/>
       <c r="BP141" t="n">
-        <v>3249.12</v>
+        <v>3.24912</v>
       </c>
       <c r="BQ141" t="n">
         <v>0.00255</v>
@@ -48500,7 +48500,7 @@
         <v>11.85</v>
       </c>
       <c r="BP142" t="n">
-        <v>2567.25</v>
+        <v>2.56725</v>
       </c>
       <c r="BQ142" t="n">
         <v>0.21068</v>
@@ -48756,7 +48756,7 @@
       <c r="BN143"/>
       <c r="BO143"/>
       <c r="BP143" t="n">
-        <v>178.34</v>
+        <v>0.17834</v>
       </c>
       <c r="BQ143" t="n">
         <v>0.0244</v>
@@ -49014,7 +49014,7 @@
         <v>1.76</v>
       </c>
       <c r="BP144" t="n">
-        <v>2829.37</v>
+        <v>2.82937</v>
       </c>
       <c r="BQ144" t="n">
         <v>0.02744</v>
@@ -49272,7 +49272,7 @@
         <v>0.029</v>
       </c>
       <c r="BP145" t="n">
-        <v>1366.61</v>
+        <v>1.36661</v>
       </c>
       <c r="BQ145" t="n">
         <v>0.27501</v>
@@ -49528,7 +49528,7 @@
       <c r="BN146"/>
       <c r="BO146"/>
       <c r="BP146" t="n">
-        <v>13772.19</v>
+        <v>13.77219</v>
       </c>
       <c r="BQ146" t="n">
         <v>0.08453</v>
@@ -49786,7 +49786,7 @@
         <v>-0.131</v>
       </c>
       <c r="BP147" t="n">
-        <v>9410.48</v>
+        <v>9.41048</v>
       </c>
       <c r="BQ147" t="n">
         <v>0.24793</v>
@@ -50044,7 +50044,7 @@
         <v>169</v>
       </c>
       <c r="BP148" t="n">
-        <v>93679.05</v>
+        <v>93.67905</v>
       </c>
       <c r="BQ148" t="n">
         <v>10.315</v>
@@ -50300,7 +50300,7 @@
       <c r="BN149"/>
       <c r="BO149"/>
       <c r="BP149" t="n">
-        <v>6374.06</v>
+        <v>6.37406</v>
       </c>
       <c r="BQ149" t="n">
         <v>0.84688</v>
@@ -50556,7 +50556,7 @@
       <c r="BN150"/>
       <c r="BO150"/>
       <c r="BP150" t="n">
-        <v>294.26</v>
+        <v>0.29426</v>
       </c>
       <c r="BQ150" t="n">
         <v>0.01669</v>
@@ -50814,7 +50814,7 @@
         <v>5.56</v>
       </c>
       <c r="BP151" t="n">
-        <v>301.44</v>
+        <v>0.30144</v>
       </c>
       <c r="BQ151" t="n">
         <v>0.03707</v>
@@ -51072,7 +51072,7 @@
         <v>4.89</v>
       </c>
       <c r="BP152" t="n">
-        <v>14233.47</v>
+        <v>14.23347</v>
       </c>
       <c r="BQ152" t="n">
         <v>0.88722</v>
@@ -51328,7 +51328,7 @@
       <c r="BN153"/>
       <c r="BO153"/>
       <c r="BP153" t="n">
-        <v>74.61</v>
+        <v>0.07461</v>
       </c>
       <c r="BQ153" t="n">
         <v>0.00646</v>
@@ -51586,7 +51586,7 @@
         <v>0.273</v>
       </c>
       <c r="BP154" t="n">
-        <v>10189.03</v>
+        <v>10.18903</v>
       </c>
       <c r="BQ154" t="n">
         <v>0.21308</v>
@@ -51844,7 +51844,7 @@
         <v>18.47</v>
       </c>
       <c r="BP155" t="n">
-        <v>2205.66</v>
+        <v>2.20566</v>
       </c>
       <c r="BQ155" t="n">
         <v>0.09352</v>
@@ -52102,7 +52102,7 @@
         <v>0.273</v>
       </c>
       <c r="BP156" t="n">
-        <v>3821.05</v>
+        <v>3.82105</v>
       </c>
       <c r="BQ156" t="n">
         <v>0.2238</v>
@@ -52358,7 +52358,7 @@
       <c r="BN157"/>
       <c r="BO157"/>
       <c r="BP157" t="n">
-        <v>99370.37</v>
+        <v>99.37037</v>
       </c>
       <c r="BQ157" t="n">
         <v>2.46843</v>
@@ -52616,7 +52616,7 @@
         <v>2420.68</v>
       </c>
       <c r="BP158" t="n">
-        <v>178527.76</v>
+        <v>178.52776</v>
       </c>
       <c r="BQ158" t="n">
         <v>7.74947</v>
@@ -52874,7 +52874,7 @@
         <v>1.67</v>
       </c>
       <c r="BP159" t="n">
-        <v>343.53</v>
+        <v>0.34353</v>
       </c>
       <c r="BQ159" t="n">
         <v>0.05052</v>
@@ -53132,7 +53132,7 @@
         <v>2.11</v>
       </c>
       <c r="BP160" t="n">
-        <v>2517.95</v>
+        <v>2.51795</v>
       </c>
       <c r="BQ160" t="n">
         <v>0.0254</v>
@@ -53390,7 +53390,7 @@
         <v>471.05</v>
       </c>
       <c r="BP161" t="n">
-        <v>14110.21</v>
+        <v>14.11021</v>
       </c>
       <c r="BQ161" t="n">
         <v>1.03461</v>
@@ -53646,7 +53646,7 @@
       <c r="BN162"/>
       <c r="BO162"/>
       <c r="BP162" t="n">
-        <v>14601.6</v>
+        <v>14.6016</v>
       </c>
       <c r="BQ162" t="n">
         <v>0.31879</v>
@@ -53902,7 +53902,7 @@
       <c r="BN163"/>
       <c r="BO163"/>
       <c r="BP163" t="n">
-        <v>570.15</v>
+        <v>0.57015</v>
       </c>
       <c r="BQ163" t="n">
         <v>0.01028</v>
@@ -54160,7 +54160,7 @@
         <v>0.1</v>
       </c>
       <c r="BP164" t="n">
-        <v>1166.25</v>
+        <v>1.16625</v>
       </c>
       <c r="BQ164" t="n">
         <v>0.0569</v>
@@ -54416,7 +54416,7 @@
       <c r="BN165"/>
       <c r="BO165"/>
       <c r="BP165" t="n">
-        <v>6701.75</v>
+        <v>6.70175</v>
       </c>
       <c r="BQ165" t="n">
         <v>0.42584</v>
@@ -54672,7 +54672,7 @@
       <c r="BN166"/>
       <c r="BO166"/>
       <c r="BP166" t="n">
-        <v>16712.88</v>
+        <v>16.71288</v>
       </c>
       <c r="BQ166" t="n">
         <v>0.12207</v>
@@ -54928,7 +54928,7 @@
       <c r="BN167"/>
       <c r="BO167"/>
       <c r="BP167" t="n">
-        <v>4730.43</v>
+        <v>4.73043</v>
       </c>
       <c r="BQ167" t="n">
         <v>0.04448</v>
@@ -55184,7 +55184,7 @@
       <c r="BN168"/>
       <c r="BO168"/>
       <c r="BP168" t="n">
-        <v>7102.87</v>
+        <v>7.10287</v>
       </c>
       <c r="BQ168" t="n">
         <v>0.77576</v>
@@ -55442,7 +55442,7 @@
         <v>0.215</v>
       </c>
       <c r="BP169" t="n">
-        <v>7776.71</v>
+        <v>7.77671</v>
       </c>
       <c r="BQ169" t="n">
         <v>0.10349</v>
@@ -55698,7 +55698,7 @@
       <c r="BN170"/>
       <c r="BO170"/>
       <c r="BP170" t="n">
-        <v>666.95</v>
+        <v>0.66695</v>
       </c>
       <c r="BQ170" t="n">
         <v>0.018</v>
@@ -55954,7 +55954,7 @@
       <c r="BN171"/>
       <c r="BO171"/>
       <c r="BP171" t="n">
-        <v>8624.13</v>
+        <v>8.62413</v>
       </c>
       <c r="BQ171" t="n">
         <v>0.73293</v>
@@ -56210,7 +56210,7 @@
       <c r="BN172"/>
       <c r="BO172"/>
       <c r="BP172" t="n">
-        <v>1510.05</v>
+        <v>1.51005</v>
       </c>
       <c r="BQ172" t="n">
         <v>0.0406</v>
@@ -56468,7 +56468,7 @@
         <v>4.41</v>
       </c>
       <c r="BP173" t="n">
-        <v>1610.01</v>
+        <v>1.61001</v>
       </c>
       <c r="BQ173" t="n">
         <v>0.10668</v>
@@ -56726,7 +56726,7 @@
         <v>35.21</v>
       </c>
       <c r="BP174" t="n">
-        <v>8302.35</v>
+        <v>8.30235</v>
       </c>
       <c r="BQ174" t="n">
         <v>0.50787</v>
@@ -56982,7 +56982,7 @@
       <c r="BN175"/>
       <c r="BO175"/>
       <c r="BP175" t="n">
-        <v>5.05</v>
+        <v>0.00505</v>
       </c>
       <c r="BQ175" t="n">
         <v>0.000713</v>
@@ -57238,7 +57238,7 @@
       <c r="BN176"/>
       <c r="BO176"/>
       <c r="BP176" t="n">
-        <v>12.55</v>
+        <v>0.01255</v>
       </c>
       <c r="BQ176" t="n">
         <v>0.00233</v>
@@ -57494,7 +57494,7 @@
       <c r="BN177"/>
       <c r="BO177"/>
       <c r="BP177" t="n">
-        <v>316.88</v>
+        <v>0.31688</v>
       </c>
       <c r="BQ177" t="n">
         <v>0.01587</v>
@@ -57750,7 +57750,7 @@
       <c r="BN178"/>
       <c r="BO178"/>
       <c r="BP178" t="n">
-        <v>131.35</v>
+        <v>0.13135</v>
       </c>
       <c r="BQ178" t="n">
         <v>0.01115</v>
@@ -58008,7 +58008,7 @@
         <v>0.094</v>
       </c>
       <c r="BP179" t="n">
-        <v>3738.17</v>
+        <v>3.73817</v>
       </c>
       <c r="BQ179" t="n">
         <v>0.60559</v>
@@ -58264,7 +58264,7 @@
       <c r="BN180"/>
       <c r="BO180"/>
       <c r="BP180" t="n">
-        <v>1150.31</v>
+        <v>1.15031</v>
       </c>
       <c r="BQ180" t="n">
         <v>0.0515</v>
@@ -58522,7 +58522,7 @@
         <v>44</v>
       </c>
       <c r="BP181" t="n">
-        <v>44947.96</v>
+        <v>44.94796</v>
       </c>
       <c r="BQ181" t="n">
         <v>1.512</v>
@@ -58780,7 +58780,7 @@
         <v>162</v>
       </c>
       <c r="BP182" t="n">
-        <v>58137.15</v>
+        <v>58.13715</v>
       </c>
       <c r="BQ182" t="n">
         <v>5.708</v>
@@ -59036,7 +59036,7 @@
       <c r="BN183"/>
       <c r="BO183"/>
       <c r="BP183" t="n">
-        <v>13976.77</v>
+        <v>13.97677</v>
       </c>
       <c r="BQ183" t="n">
         <v>0.57496</v>
@@ -59294,7 +59294,7 @@
         <v>0.271</v>
       </c>
       <c r="BP184" t="n">
-        <v>9003.47</v>
+        <v>9.00347</v>
       </c>
       <c r="BQ184" t="n">
         <v>0.27762</v>
@@ -59550,7 +59550,7 @@
       <c r="BN185"/>
       <c r="BO185"/>
       <c r="BP185" t="n">
-        <v>26.26</v>
+        <v>0.02626</v>
       </c>
       <c r="BQ185" t="n">
         <v>0.01516</v>
@@ -59806,7 +59806,7 @@
       <c r="BN186"/>
       <c r="BO186"/>
       <c r="BP186" t="n">
-        <v>684.35</v>
+        <v>0.68435</v>
       </c>
       <c r="BQ186" t="n">
         <v>0.01973</v>
@@ -60062,7 +60062,7 @@
       <c r="BN187"/>
       <c r="BO187"/>
       <c r="BP187" t="n">
-        <v>23.73</v>
+        <v>0.02373</v>
       </c>
       <c r="BQ187" t="n">
         <v>0.00286</v>
@@ -60318,7 +60318,7 @@
       <c r="BN188"/>
       <c r="BO188"/>
       <c r="BP188" t="n">
-        <v>268.8</v>
+        <v>0.2688</v>
       </c>
       <c r="BQ188" t="n">
         <v>0.09317</v>
@@ -60576,7 +60576,7 @@
         <v>45.25</v>
       </c>
       <c r="BP189" t="n">
-        <v>4977.45</v>
+        <v>4.97745</v>
       </c>
       <c r="BQ189" t="n">
         <v>0.54344</v>
@@ -60832,7 +60832,7 @@
       <c r="BN190"/>
       <c r="BO190"/>
       <c r="BP190" t="n">
-        <v>74.14</v>
+        <v>0.07414</v>
       </c>
       <c r="BQ190" t="n">
         <v>0.01879</v>
@@ -61088,7 +61088,7 @@
       <c r="BN191"/>
       <c r="BO191"/>
       <c r="BP191" t="n">
-        <v>565.25</v>
+        <v>0.56525</v>
       </c>
       <c r="BQ191" t="n">
         <v>0.05928</v>
@@ -61344,7 +61344,7 @@
       <c r="BN192"/>
       <c r="BO192"/>
       <c r="BP192" t="n">
-        <v>471.33</v>
+        <v>0.47133</v>
       </c>
       <c r="BQ192" t="n">
         <v>0.06726</v>
@@ -61600,7 +61600,7 @@
       <c r="BN193"/>
       <c r="BO193"/>
       <c r="BP193" t="n">
-        <v>7163.96</v>
+        <v>7.16396</v>
       </c>
       <c r="BQ193" t="n">
         <v>1.74354</v>
@@ -61858,7 +61858,7 @@
         <v>0.658</v>
       </c>
       <c r="BP194" t="n">
-        <v>1526.26</v>
+        <v>1.52626</v>
       </c>
       <c r="BQ194" t="n">
         <v>0.07808</v>
@@ -62116,7 +62116,7 @@
         <v>0.27</v>
       </c>
       <c r="BP195" t="n">
-        <v>3578.49</v>
+        <v>3.57849</v>
       </c>
       <c r="BQ195" t="n">
         <v>0.07603</v>
@@ -62372,7 +62372,7 @@
       <c r="BN196"/>
       <c r="BO196"/>
       <c r="BP196" t="n">
-        <v>7.31</v>
+        <v>0.00731</v>
       </c>
       <c r="BQ196" t="n">
         <v>0.00101</v>
@@ -62628,7 +62628,7 @@
       <c r="BN197"/>
       <c r="BO197"/>
       <c r="BP197" t="n">
-        <v>46.22</v>
+        <v>0.04622</v>
       </c>
       <c r="BQ197" t="n">
         <v>0.0035</v>
@@ -62886,7 +62886,7 @@
         <v>0.645</v>
       </c>
       <c r="BP198" t="n">
-        <v>2166.62</v>
+        <v>2.16662</v>
       </c>
       <c r="BQ198" t="n">
         <v>0.26905</v>
@@ -63142,7 +63142,7 @@
       <c r="BN199"/>
       <c r="BO199"/>
       <c r="BP199" t="n">
-        <v>1287.73</v>
+        <v>1.28773</v>
       </c>
       <c r="BQ199" t="n">
         <v>0.22221</v>
@@ -63398,7 +63398,7 @@
       <c r="BN200"/>
       <c r="BO200"/>
       <c r="BP200" t="n">
-        <v>6253.2</v>
+        <v>6.2532</v>
       </c>
       <c r="BQ200" t="n">
         <v>0.44934</v>
@@ -63654,7 +63654,7 @@
       <c r="BN201"/>
       <c r="BO201"/>
       <c r="BP201" t="n">
-        <v>418.01</v>
+        <v>0.41801</v>
       </c>
       <c r="BQ201" t="n">
         <v>0.02259</v>
@@ -63910,7 +63910,7 @@
       <c r="BN202"/>
       <c r="BO202"/>
       <c r="BP202" t="n">
-        <v>53.12</v>
+        <v>0.05312</v>
       </c>
       <c r="BQ202" t="n">
         <v>0.00161</v>
@@ -64168,7 +64168,7 @@
         <v>0.055</v>
       </c>
       <c r="BP203" t="n">
-        <v>891.35</v>
+        <v>0.89135</v>
       </c>
       <c r="BQ203" t="n">
         <v>0.07236</v>
@@ -64424,7 +64424,7 @@
       <c r="BN204"/>
       <c r="BO204"/>
       <c r="BP204" t="n">
-        <v>436.28</v>
+        <v>0.43628</v>
       </c>
       <c r="BQ204" t="n">
         <v>0.18166</v>
@@ -64682,7 +64682,7 @@
         <v>24.6</v>
       </c>
       <c r="BP205" t="n">
-        <v>43455.97</v>
+        <v>43.45597</v>
       </c>
       <c r="BQ205" t="n">
         <v>0.2547</v>
@@ -64938,7 +64938,7 @@
       <c r="BN206"/>
       <c r="BO206"/>
       <c r="BP206" t="n">
-        <v>1954.71</v>
+        <v>1.95471</v>
       </c>
       <c r="BQ206" t="n">
         <v>0.03925</v>
@@ -65196,7 +65196,7 @@
         <v>3301.39</v>
       </c>
       <c r="BP207" t="n">
-        <v>288413.79</v>
+        <v>288.41379</v>
       </c>
       <c r="BQ207" t="n">
         <v>7.31341</v>
@@ -65454,7 +65454,7 @@
         <v>1768.93</v>
       </c>
       <c r="BP208" t="n">
-        <v>11781.9</v>
+        <v>11.7819</v>
       </c>
       <c r="BQ208" t="n">
         <v>0.39955</v>
@@ -65710,7 +65710,7 @@
       <c r="BN209"/>
       <c r="BO209"/>
       <c r="BP209" t="n">
-        <v>1074.88</v>
+        <v>1.07488</v>
       </c>
       <c r="BQ209" t="n">
         <v>0.13524</v>
@@ -65968,7 +65968,7 @@
         <v>2.79</v>
       </c>
       <c r="BP210" t="n">
-        <v>2965.53</v>
+        <v>2.96553</v>
       </c>
       <c r="BQ210" t="n">
         <v>0.10919</v>
@@ -66224,7 +66224,7 @@
       <c r="BN211"/>
       <c r="BO211"/>
       <c r="BP211" t="n">
-        <v>1603.18</v>
+        <v>1.60318</v>
       </c>
       <c r="BQ211" t="n">
         <v>0.03541</v>
@@ -66480,7 +66480,7 @@
       <c r="BN212"/>
       <c r="BO212"/>
       <c r="BP212" t="n">
-        <v>33.11</v>
+        <v>0.03311</v>
       </c>
       <c r="BQ212" t="n">
         <v>0.00682</v>
@@ -66736,7 +66736,7 @@
       <c r="BN213"/>
       <c r="BO213"/>
       <c r="BP213" t="n">
-        <v>30221.15</v>
+        <v>30.22115</v>
       </c>
       <c r="BQ213" t="n">
         <v>0.09061</v>
@@ -66992,7 +66992,7 @@
       <c r="BN214"/>
       <c r="BO214"/>
       <c r="BP214" t="n">
-        <v>50554.05</v>
+        <v>50.55405</v>
       </c>
       <c r="BQ214" t="n">
         <v>2.3945</v>
@@ -67248,7 +67248,7 @@
       <c r="BN215"/>
       <c r="BO215"/>
       <c r="BP215" t="n">
-        <v>311.95</v>
+        <v>0.31195</v>
       </c>
       <c r="BQ215" t="n">
         <v>0.03559</v>
@@ -67504,7 +67504,7 @@
       <c r="BN216"/>
       <c r="BO216"/>
       <c r="BP216" t="n">
-        <v>35.21</v>
+        <v>0.03521</v>
       </c>
       <c r="BQ216" t="n">
         <v>0.00794</v>
@@ -67760,7 +67760,7 @@
       <c r="BN217"/>
       <c r="BO217"/>
       <c r="BP217" t="n">
-        <v>716.52</v>
+        <v>0.71652</v>
       </c>
       <c r="BQ217" t="n">
         <v>0.0817</v>
@@ -68016,7 +68016,7 @@
         <v>127</v>
       </c>
       <c r="BP218" t="n">
-        <v>102859.05</v>
+        <v>102.85905</v>
       </c>
       <c r="BQ218" t="n">
         <v>9.722</v>
@@ -68274,7 +68274,7 @@
         <v>2.75</v>
       </c>
       <c r="BP219" t="n">
-        <v>4120.51</v>
+        <v>4.12051</v>
       </c>
       <c r="BQ219" t="n">
         <v>0.11868</v>
@@ -68532,7 +68532,7 @@
         <v>143.22</v>
       </c>
       <c r="BP220" t="n">
-        <v>166550</v>
+        <v>166.55</v>
       </c>
       <c r="BQ220" t="n">
         <v>6.99731</v>
@@ -68790,7 +68790,7 @@
         <v>0.12</v>
       </c>
       <c r="BP221" t="n">
-        <v>1215.51</v>
+        <v>1.21551</v>
       </c>
       <c r="BQ221" t="n">
         <v>0.07803</v>
@@ -69046,7 +69046,7 @@
       <c r="BN222"/>
       <c r="BO222"/>
       <c r="BP222" t="n">
-        <v>41.19</v>
+        <v>0.04119</v>
       </c>
       <c r="BQ222" t="n">
         <v>0.000286</v>
@@ -69304,7 +69304,7 @@
         <v>0.036</v>
       </c>
       <c r="BP223" t="n">
-        <v>633.18</v>
+        <v>0.63318</v>
       </c>
       <c r="BQ223" t="n">
         <v>0.2345</v>
@@ -69560,7 +69560,7 @@
       <c r="BN224"/>
       <c r="BO224"/>
       <c r="BP224" t="n">
-        <v>244.86</v>
+        <v>0.24486</v>
       </c>
       <c r="BQ224" t="n">
         <v>0.03655</v>
@@ -69816,7 +69816,7 @@
       <c r="BN225"/>
       <c r="BO225"/>
       <c r="BP225" t="n">
-        <v>288.07</v>
+        <v>0.28807</v>
       </c>
       <c r="BQ225" t="n">
         <v>0.03093</v>
@@ -70074,7 +70074,7 @@
         <v>2050.39</v>
       </c>
       <c r="BP226" t="n">
-        <v>9285.79</v>
+        <v>9.28579</v>
       </c>
       <c r="BQ226" t="n">
         <v>2.68516</v>
@@ -70330,7 +70330,7 @@
       <c r="BN227"/>
       <c r="BO227"/>
       <c r="BP227" t="n">
-        <v>64.66</v>
+        <v>0.06466</v>
       </c>
       <c r="BQ227" t="n">
         <v>0.01823</v>
@@ -70586,7 +70586,7 @@
       <c r="BN228"/>
       <c r="BO228"/>
       <c r="BP228" t="n">
-        <v>45.65</v>
+        <v>0.04565</v>
       </c>
       <c r="BQ228" t="n">
         <v>0.00331</v>
@@ -70842,7 +70842,7 @@
       <c r="BN229"/>
       <c r="BO229"/>
       <c r="BP229" t="n">
-        <v>1348.87</v>
+        <v>1.34887</v>
       </c>
       <c r="BQ229" t="n">
         <v>0.05798</v>
@@ -71098,7 +71098,7 @@
       <c r="BN230"/>
       <c r="BO230"/>
       <c r="BP230" t="n">
-        <v>58.56</v>
+        <v>0.05856</v>
       </c>
       <c r="BQ230" t="n">
         <v>0.00855</v>
@@ -71354,7 +71354,7 @@
       <c r="BN231"/>
       <c r="BO231"/>
       <c r="BP231" t="n">
-        <v>205.24</v>
+        <v>0.20524</v>
       </c>
       <c r="BQ231" t="n">
         <v>0.05726</v>
@@ -71610,7 +71610,7 @@
       <c r="BN232"/>
       <c r="BO232"/>
       <c r="BP232" t="n">
-        <v>4450.47</v>
+        <v>4.45047</v>
       </c>
       <c r="BQ232" t="n">
         <v>0.85482</v>
@@ -71866,7 +71866,7 @@
       <c r="BN233"/>
       <c r="BO233"/>
       <c r="BP233" t="n">
-        <v>2781.4</v>
+        <v>2.7814</v>
       </c>
       <c r="BQ233" t="n">
         <v>0.6582</v>
@@ -72122,7 +72122,7 @@
       <c r="BN234"/>
       <c r="BO234"/>
       <c r="BP234" t="n">
-        <v>182.81</v>
+        <v>0.18281</v>
       </c>
       <c r="BQ234" t="n">
         <v>0.00186</v>
@@ -72380,7 +72380,7 @@
         <v>-0.038</v>
       </c>
       <c r="BP235" t="n">
-        <v>439.46</v>
+        <v>0.43946</v>
       </c>
       <c r="BQ235" t="n">
         <v>0.03596</v>
@@ -72636,7 +72636,7 @@
       <c r="BN236"/>
       <c r="BO236"/>
       <c r="BP236" t="n">
-        <v>3342.53</v>
+        <v>3.34253</v>
       </c>
       <c r="BQ236" t="n">
         <v>4.64338</v>
@@ -72892,7 +72892,7 @@
       <c r="BN237"/>
       <c r="BO237"/>
       <c r="BP237" t="n">
-        <v>1355.35</v>
+        <v>1.35535</v>
       </c>
       <c r="BQ237" t="n">
         <v>0.05696</v>
@@ -73150,7 +73150,7 @@
         <v>3.67</v>
       </c>
       <c r="BP238" t="n">
-        <v>3717.8</v>
+        <v>3.7178</v>
       </c>
       <c r="BQ238" t="n">
         <v>0.021</v>
@@ -73408,7 +73408,7 @@
       </c>
       <c r="BO239"/>
       <c r="BP239" t="n">
-        <v>8.06</v>
+        <v>0.00806</v>
       </c>
       <c r="BQ239" t="n">
         <v>0.000548</v>
@@ -73664,7 +73664,7 @@
       <c r="BN240"/>
       <c r="BO240"/>
       <c r="BP240" t="n">
-        <v>642.67</v>
+        <v>0.64267</v>
       </c>
       <c r="BQ240" t="n">
         <v>0.02968</v>
@@ -73922,7 +73922,7 @@
         <v>75.9</v>
       </c>
       <c r="BP241" t="n">
-        <v>33495.3</v>
+        <v>33.4953</v>
       </c>
       <c r="BQ241" t="n">
         <v>0.181</v>
@@ -74178,7 +74178,7 @@
       <c r="BN242"/>
       <c r="BO242"/>
       <c r="BP242" t="n">
-        <v>2.95</v>
+        <v>0.00295</v>
       </c>
       <c r="BQ242" t="n">
         <v>0.000007</v>
@@ -74434,7 +74434,7 @@
       <c r="BN243"/>
       <c r="BO243"/>
       <c r="BP243" t="n">
-        <v>3977.37</v>
+        <v>3.97737</v>
       </c>
       <c r="BQ243" t="n">
         <v>0.88788</v>
@@ -74690,7 +74690,7 @@
       <c r="BN244"/>
       <c r="BO244"/>
       <c r="BP244" t="n">
-        <v>191.99</v>
+        <v>0.19199</v>
       </c>
       <c r="BQ244" t="n">
         <v>0.20912</v>
@@ -74948,7 +74948,7 @@
         <v>43</v>
       </c>
       <c r="BP245" t="n">
-        <v>1678.38</v>
+        <v>1.67838</v>
       </c>
       <c r="BQ245" t="n">
         <v>0.0986</v>
@@ -75204,7 +75204,7 @@
       <c r="BN246"/>
       <c r="BO246"/>
       <c r="BP246" t="n">
-        <v>36.57</v>
+        <v>0.03657</v>
       </c>
       <c r="BQ246" t="n">
         <v>0.00995</v>
@@ -75460,7 +75460,7 @@
       <c r="BN247"/>
       <c r="BO247"/>
       <c r="BP247" t="n">
-        <v>267.34</v>
+        <v>0.26734</v>
       </c>
       <c r="BQ247" t="n">
         <v>0.01978</v>
@@ -75716,7 +75716,7 @@
       <c r="BN248"/>
       <c r="BO248"/>
       <c r="BP248" t="n">
-        <v>555.99</v>
+        <v>0.55599</v>
       </c>
       <c r="BQ248" t="n">
         <v>0.01785</v>
@@ -75972,7 +75972,7 @@
       <c r="BN249"/>
       <c r="BO249"/>
       <c r="BP249" t="n">
-        <v>30.36</v>
+        <v>0.03036</v>
       </c>
       <c r="BQ249" t="n">
         <v>0.00367</v>
@@ -76230,7 +76230,7 @@
         <v>4.03</v>
       </c>
       <c r="BP250" t="n">
-        <v>3692.6</v>
+        <v>3.6926</v>
       </c>
       <c r="BQ250" t="n">
         <v>0.0976</v>
@@ -76488,7 +76488,7 @@
         <v>0.12</v>
       </c>
       <c r="BP251" t="n">
-        <v>849.81</v>
+        <v>0.84981</v>
       </c>
       <c r="BQ251" t="n">
         <v>0.07803</v>
@@ -76746,7 +76746,7 @@
         <v>14.99</v>
       </c>
       <c r="BP252" t="n">
-        <v>12077.91</v>
+        <v>12.07791</v>
       </c>
       <c r="BQ252" t="n">
         <v>0.00773</v>
@@ -77004,7 +77004,7 @@
         <v>-0.057</v>
       </c>
       <c r="BP253" t="n">
-        <v>497.77</v>
+        <v>0.49777</v>
       </c>
       <c r="BQ253" t="n">
         <v>0.03606</v>
@@ -77260,7 +77260,7 @@
       <c r="BN254"/>
       <c r="BO254"/>
       <c r="BP254" t="n">
-        <v>33826.99</v>
+        <v>33.82699</v>
       </c>
       <c r="BQ254" t="n">
         <v>14.0645</v>
@@ -77516,7 +77516,7 @@
       <c r="BN255"/>
       <c r="BO255"/>
       <c r="BP255" t="n">
-        <v>172.03</v>
+        <v>0.17203</v>
       </c>
       <c r="BQ255" t="n">
         <v>0.06194</v>
@@ -77774,7 +77774,7 @@
         <v>153</v>
       </c>
       <c r="BP256" t="n">
-        <v>56692.65</v>
+        <v>56.69265</v>
       </c>
       <c r="BQ256" t="n">
         <v>10.153</v>
@@ -78030,7 +78030,7 @@
       <c r="BN257"/>
       <c r="BO257"/>
       <c r="BP257" t="n">
-        <v>24.48</v>
+        <v>0.02448</v>
       </c>
       <c r="BQ257" t="n">
         <v>0.01369</v>
@@ -78286,7 +78286,7 @@
       <c r="BN258"/>
       <c r="BO258"/>
       <c r="BP258" t="n">
-        <v>946.65</v>
+        <v>0.94665</v>
       </c>
       <c r="BQ258" t="n">
         <v>0.03959</v>
@@ -78542,7 +78542,7 @@
       <c r="BN259"/>
       <c r="BO259"/>
       <c r="BP259" t="n">
-        <v>27.11</v>
+        <v>0.02711</v>
       </c>
       <c r="BQ259" t="n">
         <v>0.03879</v>
@@ -78798,7 +78798,7 @@
       <c r="BN260"/>
       <c r="BO260"/>
       <c r="BP260" t="n">
-        <v>63.26</v>
+        <v>0.06326</v>
       </c>
       <c r="BQ260" t="n">
         <v>0.00499</v>
@@ -79054,7 +79054,7 @@
       <c r="BN261"/>
       <c r="BO261"/>
       <c r="BP261" t="n">
-        <v>36.2</v>
+        <v>0.0362</v>
       </c>
       <c r="BQ261" t="n">
         <v>0.00204</v>
@@ -79312,7 +79312,7 @@
         <v>34.1</v>
       </c>
       <c r="BP262" t="n">
-        <v>28441.53</v>
+        <v>28.44153</v>
       </c>
       <c r="BQ262" t="n">
         <v>0.113</v>
@@ -79568,7 +79568,7 @@
       <c r="BN263"/>
       <c r="BO263"/>
       <c r="BP263" t="n">
-        <v>14380.85</v>
+        <v>14.38085</v>
       </c>
       <c r="BQ263" t="n">
         <v>0.25912</v>
@@ -79826,7 +79826,7 @@
         <v>-0.035</v>
       </c>
       <c r="BP264" t="n">
-        <v>3039.8</v>
+        <v>3.0398</v>
       </c>
       <c r="BQ264" t="n">
         <v>0.03092</v>
@@ -80084,7 +80084,7 @@
         <v>2.18</v>
       </c>
       <c r="BP265" t="n">
-        <v>21256.17</v>
+        <v>21.25617</v>
       </c>
       <c r="BQ265" t="n">
         <v>0.61132</v>
@@ -80340,7 +80340,7 @@
       <c r="BN266"/>
       <c r="BO266"/>
       <c r="BP266" t="n">
-        <v>326.32</v>
+        <v>0.32632</v>
       </c>
       <c r="BQ266" t="n">
         <v>0.02957</v>
@@ -80598,7 +80598,7 @@
         <v>64.55</v>
       </c>
       <c r="BP267" t="n">
-        <v>42838.42</v>
+        <v>42.83842</v>
       </c>
       <c r="BQ267" t="n">
         <v>2.16631</v>
@@ -80854,7 +80854,7 @@
       <c r="BN268"/>
       <c r="BO268"/>
       <c r="BP268" t="n">
-        <v>61.88</v>
+        <v>0.06188</v>
       </c>
       <c r="BQ268" t="n">
         <v>0.00669</v>
@@ -81112,7 +81112,7 @@
         <v>1.53</v>
       </c>
       <c r="BP269" t="n">
-        <v>22.39</v>
+        <v>0.02239</v>
       </c>
       <c r="BQ269" t="n">
         <v>0.00383</v>
@@ -81368,7 +81368,7 @@
       <c r="BN270"/>
       <c r="BO270"/>
       <c r="BP270" t="n">
-        <v>1130.35</v>
+        <v>1.13035</v>
       </c>
       <c r="BQ270" t="n">
         <v>0.057</v>
@@ -81624,7 +81624,7 @@
       <c r="BN271"/>
       <c r="BO271"/>
       <c r="BP271" t="n">
-        <v>389429.33</v>
+        <v>389.42933</v>
       </c>
       <c r="BQ271" t="n">
         <v>4.88833</v>
@@ -81880,7 +81880,7 @@
       <c r="BN272"/>
       <c r="BO272"/>
       <c r="BP272" t="n">
-        <v>1208.27</v>
+        <v>1.20827</v>
       </c>
       <c r="BQ272" t="n">
         <v>0.02747</v>
@@ -82136,7 +82136,7 @@
       <c r="BN273"/>
       <c r="BO273"/>
       <c r="BP273" t="n">
-        <v>47.43</v>
+        <v>0.04743</v>
       </c>
       <c r="BQ273" t="n">
         <v>0.00194</v>
@@ -82394,7 +82394,7 @@
         <v>-2.42</v>
       </c>
       <c r="BP274" t="n">
-        <v>1001.49</v>
+        <v>1.00149</v>
       </c>
       <c r="BQ274" t="n">
         <v>0.0618</v>
@@ -82650,7 +82650,7 @@
       <c r="BN275"/>
       <c r="BO275"/>
       <c r="BP275" t="n">
-        <v>47.94</v>
+        <v>0.04794</v>
       </c>
       <c r="BQ275" t="n">
         <v>0.00357</v>
@@ -82906,7 +82906,7 @@
       <c r="BN276"/>
       <c r="BO276"/>
       <c r="BP276" t="n">
-        <v>90.84</v>
+        <v>0.09084</v>
       </c>
       <c r="BQ276" t="n">
         <v>0.00648</v>
@@ -83162,7 +83162,7 @@
       <c r="BN277"/>
       <c r="BO277"/>
       <c r="BP277" t="n">
-        <v>200.02</v>
+        <v>0.20002</v>
       </c>
       <c r="BQ277" t="n">
         <v>0.04937</v>
@@ -83418,7 +83418,7 @@
       <c r="BN278"/>
       <c r="BO278"/>
       <c r="BP278" t="n">
-        <v>532.41</v>
+        <v>0.53241</v>
       </c>
       <c r="BQ278" t="n">
         <v>0.08294</v>
@@ -83674,7 +83674,7 @@
       <c r="BN279"/>
       <c r="BO279"/>
       <c r="BP279" t="n">
-        <v>32.26</v>
+        <v>0.03226</v>
       </c>
       <c r="BQ279" t="n">
         <v>0.00327</v>
@@ -83930,7 +83930,7 @@
       <c r="BN280"/>
       <c r="BO280"/>
       <c r="BP280" t="n">
-        <v>100.9</v>
+        <v>0.1009</v>
       </c>
       <c r="BQ280" t="n">
         <v>0.02313</v>
@@ -84186,7 +84186,7 @@
       <c r="BN281"/>
       <c r="BO281"/>
       <c r="BP281" t="n">
-        <v>15.03</v>
+        <v>0.01503</v>
       </c>
       <c r="BQ281" t="n">
         <v>0.00334</v>
@@ -84442,7 +84442,7 @@
       <c r="BN282"/>
       <c r="BO282"/>
       <c r="BP282" t="n">
-        <v>262.31</v>
+        <v>0.26231</v>
       </c>
       <c r="BQ282" t="n">
         <v>0.03092</v>
@@ -84700,7 +84700,7 @@
         <v>20.81</v>
       </c>
       <c r="BP283" t="n">
-        <v>187072.45</v>
+        <v>187.07245</v>
       </c>
       <c r="BQ283" t="n">
         <v>5.30154</v>
@@ -84956,7 +84956,7 @@
       <c r="BN284"/>
       <c r="BO284"/>
       <c r="BP284" t="n">
-        <v>325.47</v>
+        <v>0.32547</v>
       </c>
       <c r="BQ284" t="n">
         <v>0.07104</v>
@@ -85214,7 +85214,7 @@
         <v>0.173</v>
       </c>
       <c r="BP285" t="n">
-        <v>1913.86</v>
+        <v>1.91386</v>
       </c>
       <c r="BQ285" t="n">
         <v>0.08209</v>
@@ -85470,7 +85470,7 @@
       <c r="BN286"/>
       <c r="BO286"/>
       <c r="BP286" t="n">
-        <v>30.63</v>
+        <v>0.03063</v>
       </c>
       <c r="BQ286" t="n">
         <v>0.000521</v>
@@ -85728,7 +85728,7 @@
         <v>67</v>
       </c>
       <c r="BP287" t="n">
-        <v>68404.25</v>
+        <v>68.40425</v>
       </c>
       <c r="BQ287" t="n">
         <v>2.815</v>
@@ -85984,7 +85984,7 @@
       <c r="BN288"/>
       <c r="BO288"/>
       <c r="BP288" t="n">
-        <v>1037.01</v>
+        <v>1.03701</v>
       </c>
       <c r="BQ288" t="n">
         <v>0.03971</v>
@@ -86240,7 +86240,7 @@
       <c r="BN289"/>
       <c r="BO289"/>
       <c r="BP289" t="n">
-        <v>9951.03</v>
+        <v>9.95103</v>
       </c>
       <c r="BQ289" t="n">
         <v>0.23502</v>
@@ -86496,7 +86496,7 @@
       <c r="BN290"/>
       <c r="BO290"/>
       <c r="BP290" t="n">
-        <v>53.66</v>
+        <v>0.05366</v>
       </c>
       <c r="BQ290" t="n">
         <v>0.0044</v>
